--- a/기사데이터/토스/엑셀파일/news(토스, 2021.11.01~2021.11.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.11.01~2021.11.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>KTB네트워크, 증권신고서 제출…다음 달 상장 추진</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005078872?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[이데일리 조해영 기자] KTB네트워크가 5일 금융위원회에 증권신고서를 제출하고 코스닥 상장을 위한 공모 절차에 본격 돌입했다고 밝혔다.KTB네트워크는 이번 상장에서 총 2000만주를 공모한다. 희망 공모가 밴드는 5800~7200원으로 총 공모금액은 1160~1440억원 규모다. 오는 29~30일 기관투자자 대상 수요예측을 거쳐 공모가를 확정하고, 12월 6~7일에 청약을 시행해 12월 내 상장을 마무리한다는 계획이다. 주관사는 한국투자증권이다.KTB금융그룹 주력 계열사인 KTB네트워크는 1981년 설립된 국내 1세대 벤처캐피털로 40여년의 투자 경력과 회수경험을 자랑한다. 10년 이상의 경력을 가진 심사역이 다수 포진해 있으며, 국내외 증시에 총 300여 건의 IPO(기업공개) 실적을 보유하고 있다. 미국 현지법인(KTB Ventures)와 중국 상해사무소 등 선제적으로 해외시장에 진출해 글로벌 시장 경쟁력도 꾸준히 키워왔다.KTB네트워크는 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 국내 유일의 VC로 투자 선구안을 인정받고 있다. 여기에 주요 투자기업인 RBW(종합 엔터테인먼트)가 11월 상장을 앞두고 있고, 코넥스 시총 1위 기업 툴젠(바이오)도 상장예비심사에 통과해 12월 코스닥 이전상장이 예정된 상태다.해외 투자기업으로는 SoFi(미국, 핀테크 플랫폼), Moloco(미국, 광고 솔루션), Horizon Robotics(중국, 자율주행 반도체), Grofers(인도, 온라인 식료품) 등이 유니콘 기업으로 떠오르고 있다.운용자산 규모는 1조1195억원으로 업계 최상위권이다. 실적 또한 꾸준한 성장세로 지난해에는 당기순이익 358억을 기록하며 VC 업계 순이익 1위 자리에 올랐고, 올해는 상반기에만 441억원을 벌며 사상 최대실적을 이어가고 있다. 김창규 KTB네트워크 대표는 “IPO를 통해 모집한 재원은 브랜드 가치 제고와 미래 투자를 위한 펀드 출자금 조성에 사용할 계획”이라며 “회사의 성장을 통한 주주가치를 제고는 물론, 신사업 육성과 일자리 창출 등 벤처산업 육성에 기여하는 국내 대표 VC로 거듭날 것”이라며 포부를 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.11.14.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>연체자 빚갚았다고 신용점수 600점 상승?…신용회복 지원의 역설</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004878855?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>정부, 작년부터 올해 8월까지2000만원 이하 연체 갚으면금융권 연체이력 공유 제한5대 은행 10만명 안팎 수혜당국 예상보다 점수 대폭 상승대출자 도덕적해이 우려 지난해 코로나19로 대출 연체가 발생했던 김 모씨는 최근 자신의 신용점수가 종전 350점에서 985점으로 600점 넘게 오른 것을 확인했다. 그는 정부가 개인과 개인사업자의 재기를 위해 금융권 연체 이력 공유를 제한하는 '신용사면' 정책을 편 후 자신의 연체 금액을 상환해 어느 정도 등급 상승은 예상했지만 600점 이상 오른 것을 보고 놀랐다.정부의 신용사면 이후 김씨처럼 신용등급이 급상승한 사례가 속출하면서 논란이 일고 있다. 정부 정책의 취지가 일시적 연체로 신용등급이 내려간 사람을 구제하자는 취지인 만큼 어느 정도의 신용도 상승은 예상됐지만 상승폭이 과도하게 높기 때문이다. 이는 평소에 신용 관리를 잘해온 사람들과의 역차별 문제와 함께 정부 구제에 지나치게 의존하는 도덕적 해이(모럴해저드)를 야기할 우려가 제기된다.14일 윤창현 국민의힘 의원실이 금융위원회에서 제출받은 자료에 따르면 올해 10월부터 실시된 '신용회복 지원'을 통해 신용평가사 NICE신용정보 기준으로 신용점수가 급상승하는 개인이 속출하고 있다. 일부는 신용점수가 600점 이상 올랐다.지난 8월 전 금융권은 코로나19로 어려움을 겪는 개인과 개인사업자의 재기를 위해 '코로나19 관련 신용회복 지원 협약'을 체결했다. 작년부터 올해 8월까지 2000만원 이하 소액 연체를 한 개인이나 개인사업자가 올해 말까지 연체 채무를 전액 상환한다면 금융사 간 연체 이력을 서로 공유하지 않도록 해 신용회복을 지원하기로 했다. 금융위에서는 개인대출자 기준으로 약 230만명의 장·단기 연체 이력 정보 공유·활용이 제한돼 신용점수가 평균 34점 상승할 것으로 예상했다.하지만 이 같은 예측치에 비해 신용회복 지원 대상자들의 실제 신용점수 상승폭이 훨씬 커 '신용점수 인플레이션' 현상이 나타날 수 있다는 지적이 제기된다. 매일경제가 단독 입수한 A시중은행의 '신용회복 지원 시뮬레이션(예측)'에 따르면 지난 8월 말 기준 이 은행 고객 중 10만명가량이 신용회복 지원 대상인 것으로 나타났다. 이 은행은 이들 중 약 40%의 신용점수가 신용회복 지원을 통해 상승할 것으로 예측했다. A은행은 신용평가사와 달리 신용점수 구간을 총 15개로 세분화하고 있다. 신용회복 지원을 통해 신용점수가 4등급 이상 올라가는 대출자는 전체 대상자의 약 3%이며 3등급 상승은 5%, 2등급 상승은 10%, 1등급 상승은 21%가량이 될 것으로 예상했다. 금융위의 평균 예상치(34점·상승폭 1등급 이하)를 상회하는 신용 상승자가 A은행에서 약 2만명 발생하고, 이를 5대 은행으로 기계적으로 환산하면 10만명으로 예상돼 상당수 대출자의 신용점수 상승폭이 정부 예상을 훨씬 웃돌 것이라는 전망이 나온다.연체 이력으로 인해 금융권 접근이 제한됐던 저신용자 사이에서는 연체를 상환하면 더 낮은 금리로 신규 대출을 받을 수 있다는 기대감이 부풀어 오르고 있다. 인터넷 커뮤니티에서는 신용평가사 신용점수 상승에 따른 대출 한도 확대와 카드 발급 가능 여부에 대한 문의가 잇따르고 있다. 일부 대상자는 신용점수가 상승했지만 기존 금융사에서는 자체 신용평가 모형으로 인해 대출이 제한되자 연체 이력이 공유되지 않는 점을 노려 다른 금융사에 신규 가입해 대출을 받거나 카드를 발급받고 있다. 이들은 특히 금융당국에 중금리 대출 비율 확대 목표치를 제출한 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행의 문을 적극 두드리고 있다. 한 금융권 관계자는 "연체 이력 공유가 제한된 상태에서 인터넷은행들이 중금리 대출을 확대하기 위해 가입자를 지나치게 늘린다면 부실 위험이 높아질 수 있다"고 말했다.다만 신용회복 지원 대상으로 확정돼 신용평가사 신용점수가 오르더라도 대출 금리를 낮추거나 한도를 늘리기까지는 다소 시일이 걸릴 수 있다. 금융회사들은 자체적으로 구축한 신용평가 모형을 사용하고 있어 매달 말 개별 고객에 대한 신용정보를 업데이트(최신화)하기 때문이다. 특히 기존에 은행에서 대출을 갖고 있는 사람이 신용회복으로 혜택을 보기 위해서는 금리인하요구권을 행사해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.11.07.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>KTB네트워크, 내달 6~7일 일반청약</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004735427?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>증권신고서 제출…2000만주 공모  KTB네트워크가 본격적으로 코스닥 상장을 위한 공모 절차에 돌입했다.   7일 금융투자업계에 따르면 KTB네트워크는 지난 5일 금융위원회에 증권신고서를 제출했다.   KTB금융그룹 주력 계열사인 KTB네트워크는 지난 1981년 설립된 국내 1세대 벤처캐피털(VC)이다. 국내외 증시에서 300여 건의 기업공개(IPO) 실적을 보유하고 있으며 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 국내 유일의 VC이기도 하다.   주요 투자기업인 종합 엔터테인먼트사 알비더블유(RBW)는 오는 11월 코스닥 상장을 앞두고 있다. 코넥스 시가총액 1위 기업 툴젠 역시 12월 코스닥 이전상장을 앞둔 상태다.   해외 투자기업은 미국 핀테크 플랫폼사 소파이와 광고 솔루션기업 몰로코, 중국 자율주행 반도체사 호라이즌 로보틱스, 인도 온라인 식료품사 그로퍼스 등이다.   KTB네트워크는 이번 상장에서 총 2000만주를 공모한다. 희망 공모가 밴드(범위)는 5800~7200원이다. 총 공모 규모는 밴드 최상단 기준 1440억원이다. 최종 공모가는 오는 29~30일 기관투자자 대상 수요예측을 통해 확정된다.   일반투자자 대상 공모주 청약은 12월 6~7일 진행되며 회사는 12월 내 상장을 마무리한단 계획이다. 주관사는 한국투자증권이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.11.06.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>인뱅, 중금리 목표 맞추기 비상…"총량규제서 제외해야"</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004995268?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>총량규제·대출 중단 등 난항올해 말 목표 달성 쉽지 않아인터넷전문은행들이 중금리대출 비중 맞추기에 비상이 걸렸다. 카카오뱅크와 케이뱅크는 금융당국과 약속한 올해 말 목표치까지 한참 남았고, 토스뱅크는 대출 영업을 이미 중단한 상태다. 업계에서는 목표 달성이 사실상 쉽지 않은 만큼 대출 총량규제에서 중·저신용자 대출을 제외하는 등의 인센티브가 있어야 한다는 지적이 나온다. 6일 금융권에 따르면 카카오뱅크는 최근 컨퍼런스콜을 통해 3분기 중금리대출 비중을 13.4% 기록했다고 밝혔다. 올 1분기 10.0%와 2분기 10.6%에 비하면 크게 증가한 수치다. 하지만 연말 목표치인 20.8%에는 턱없이 부족한 수준이다. 연말까지 21.5%가 목표인 케이뱅크도 사정이 어렵기는 마찬가지다. 케이뱅크는 1분기 18.2%에서 2분기 15.5%로 오히려 비중이 떨어졌다.제3인터넷은행인 토스뱅크는 아예 대출 문을 닫았다. 출범 열흘 만에 금융당국에서 할당받은 대출 총량 한도 5000억원을 모두 소진했기 때문이다. 토스뱅크의 중금리대출 비중은 28.2%로 타 은행들보다 비중은 높았다. 다만, 대출 영업이 중단돼 올해 잡은 목표치(34.9%) 달성은 불가능하게 됐다. 토스뱅크는 영업일 동안 중·저신용자 비중이 최고 33.3%에 달하기도 했었다.이에 따라 이들 은행들은 올해 두 달도 안 남은 기간동안 중금리대출을 확대하기 위해 비상체제에 들어갔다. 카카오뱅크는 전월세 대출을 제외하고 고신용자 대출을 사실상 중단했다. 케이뱅크는 이달 6일부터 고신용자를 대상으로 한 마이너스 통장의 신규 증액 신청을 연말까지 중단할 예정이다. 이와 함께 중·저신용자 유치를 위한 프로모션도 적극적으로 진행하고 있다. 인터넷은행들은 당국의 요구에 따라 중저신용자 대출에 집중하고 있지만 사업성이 높은 고신용자 차주들을 확보하지 못해 고심하고 있는 모양새다. 중금리를 가계대출 총량규제에 포함한 것이 맞느냐는 지적도 나온다. 인터넷은행 허가 조건 중 하나가 중금리대출 확대인 데다 정부가 적극 확대를 요구하고 있는 상황에서 총량규제에 포함시키면 대출시장에서 성장 자체가 어려워지기 때문이다.인터넷은행 관계자는 "인터넷은행들도 수익이 있어야 중·저신용자 대출을 확대할 수 있다"며 "대출 총량규제에서 중저신용자대출과 대환대출(대출 갈아타기) 등을 제외하는 방법을 고민해 봐야 한다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>증권사 20곳 이달부터 해외주식 소수점거래 가능</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005084718?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>금융위 혁신금융서비스 지정…소수점 거래 허용증권사별 전산개발 상황 따라 순차적 서비스개시국내 주식 소수점거래, 내년 하반기부터 가능할 전망[이데일리 김소연 기자] 이달부터 증권사 20곳에서 해외 주식 소수점 거래가 가능해진다. 한국예탁결제원의 시스템 오픈  이후 순차적으로 각 증권사가 해외 주식 소수점 거래 서비스를 출시할 예정이다.  100만원 넘는 해외주식 소수단위로 매매가능12일 금융위원회는 정례회의를 통해 해외 주식 소수점 거래를 혁신금융서비스로 신규 지정했다.지금까지는 한국투자증권과 신한금융투자 두 곳만 해외 주식 소수점 거래가 가능했으나 두 곳을 포함한 증권사 20곳에서 해외 주식 소수점거래가 가능해진다. 금융위는 이번 회의에서 혁신금융서비스를 지정하며 신청 증권사에 소수단위 거래서비스를 제공하도록 허용했다. 이번 혁신금융서비스 지정으로 해외 주식 소수점거래가 가능해진 증권사는 총 20곳이다. △DB금융투자 △KB증권 △KTB투자증권 △NH투자증권 △교보증권 △대신증권 △메리츠증권△미래에셋증권 △삼성증권 △신영증권 △신한금융투자 △유안타증권 △유진투자증권 △카카오페이증권 △키움증권 △토스증권 △하나금융투자 △하이투자증권 △한국투자증권 △한화투자증권이다. 서비스 개시 시점은 증권사별로 전산개발 상황에 따라 다르다. 일정에 따라 이르면 11월 말, 12월 초부터는 증권사들이 속속 해외주식 소수점 거래 서비스를 시행하게 될 예정이다. 예탁원이 시스템을 오픈한 이후 증권사별로 해외 주식 소수점 거래 서비스를 출시하게 된다.해외 주식 소수점거래는 투자자가 소수단위로 주문을 넣으면 증권사가 온주(온전한 1주)를 만들어 해외에 주문을 넣는 식으로 이루어진다. 투자자의 소수단위 지분을 증권사가 증권사 계좌부에 직접 기재하는 방식으로 소수단위 거래를 수행하게 된다. 예탁원은 증권사 계좌부에 기재된 소수단위 주식 총량을 ‘소수단위 전용계좌’에 별도로 기재해 관리하게 된다.  (자료=금융위원회) 국내 주식 소수점거래는 내년 하반기 예상소수점 거래는 소규모 투자자금으로도 원하는 주식을 소수점 단위로 투자할 수 있어 20~30대 투자자들의 관심이 높다. MZ세대를 중심으로 주당 가격이 높아 투자를 망설였던 개인 투자자들의 소수점 투자가 늘어날 것으로 예상된다. 예컨대 1060달러대 테슬라 1주를 사려면 한화로 약 125만원이 필요했다. 주당 100만원이 넘는 황제주 등 가격부담에 선뜻 매수에 나서기 어려웠던 개인투자자들이 고가 주식도 소수점 거래 허용으로 원하는 금액만큼 살 수 있게 됐다. 개인들이 해외주식 투자에 더 적극적으로 나설 수 있는 환경이 조성되는 셈이다.국내 주식 소수점거래는 준비 작업에 시간이 걸려 내년 하반기에 가능할 전망이다. 국내주식은 신탁제도(수익증권발행신탁)를 활용해 온주(온전한 1주)를 여러 개의 수익증권으로 분할 발행하는 방식으로 소수단위 거래가 가능해진다. 아울러 한국투자증권과 미래에셋증권은 안면인식기술을 활용한 비대면 실명확인 서비스도 가능해졌다. 비대면 금융거래나 접근매체 발급 시에 안면인식 기술을 활용해 실지명의를 확인할 수 있게 됐다. 안면인식기술을 활용해 실명 확인증표의 사진과 고객이 촬영한 얼굴 사진을 대조하는 방식으로 비대면 실명 확인을 하게 된다. 한국투자증권은 내년 5월, 미래에셋증권은 내년 6월부터 서비스를 출시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.11.14.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>분유업계, 프리미엄 제품·해외 수출로 돌파구 모색</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004739341?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>출산율 저하로 성장성 정체를 겪고 있는 분유업체들이 지속성장을 위한 돌파구 마련에 분주하다. 영양 성분을 차별화한 고급화 전략은 물론 해외시장으로 판로를 넓히고 있다. 충성고객 확보를 위한 공헌활동과 소통 강화에도 주력하는 모습이다.   14일 업계에 따르면 매일유업은 기존 제품에 없던 영양성분을 담은 프리미엄 분유를 선보였다. 국내 최초로 모유 올리고당 2-O-푸코실락토오스(2FL) 성분을 적용한 ‘앱솔루트 엄마의 마음 프리미엄 명작’이 그 주인공이다.   2FL은 아기의 자기방어 체계를 형성하는 성분이다. 모유에서 찾은 자기방어 성분 2FL은 출생 직후부터 만 2세까지 형성되는 평생 동안의 면역체계에 기여한다. 그동안 국내 생산 분유에 적용되지 못했지만 매일유업이 바이오벤처기업 에이피테크놀로지와의 공동 연구를 통해 2FL을 적용한 분유를 개발했다.   매일유업은 생후 24개월까지가 아기의 자기방어 체계 형성에 매우 중요한 시기라는 점에 주목했다. 이에 이번 리뉴얼 제품에 2FL 성분을 담아 차별화된 자기방어 업그레이드 설계를 적용했다. 자기방어 설계를 위해 핵심 성분 2FL을 비롯해 모유 올리고당 성분인 갈락토실락토스(GL), 사이알릭락토스(SL)를 멀티 배합했다. 두뇌 구성성분인 DHA와 MFGM(유지방구막)을 추가하고, 체내에서 합성되지 않아 외부로부터 섭취해야 하는 황반 구성물질 루테인과 지아잔틴도 포함했다.   롯데푸드 파스퇴르의 수출 분유 브랜드 ‘뉴본(Nubone)’은 할랄 인증을 획득해 본격적으로 이슬람 시장을 공략하고 있다. 뉴본은 2019년 론칭한 롯데푸드 파스퇴르의 수출 분유 브랜드다. 롯데푸드는 연간 판매 20억원을 목표로 우선 파키스탄의 젊은 세대를 공략할 방침이다. 파키스탄은 세계에서 5번째로 많은 인구(2억2500만명)에 평균 연령도 낮다. 그만큼 품질 좋은 식품에 대한 수요가 높아질 것으로 에상돼 분유시장을 적극 공략할 계획이다.   남양유업은 희귀질환을 겪고 있는 환아들을 위한 특수분유를 생산해 출고가보다 낮은 가격으로 납품하거나 무상 공급하고 있다. 당분을 포도당으로 전환시키는 능력이 손상된 갈락토스혈증 환아를 위해 ‘XO알레기’를 생산하고 있다. 소아 뇌전증 환아와 미숙아를 위한 특수분유도 공급하고 있다.   이 밖에 일동후디스는 올해 ‘후디스 트루맘’ 등 전용 SNS를 운영하면서 육아 관련 영상 제작, 퀴즈와 댓글 이벤트 등을 실시하며 공감 능력을 앞세워 소비자를 공략하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>중금리대출 늘리랴, 총량 지키랴… 머리 싸맨 인터넷은행들</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003392375?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>대출영업으로 순익 급증했지만, 대출목표 충족한 곳 아직 없어중금리대출 늘리면 건전성 걱정총량 규제 탓 영업 전면 중단도… 고신용자 대출 조여 여력 마련비대면 금융 확대에 힘입어 역대급 실적을 낸 인터넷전문은행들이 마냥 웃지 못하고 있다. 금융당국의 총량 규제로 대출 영업이 막힌 상황에서 인터넷은행에 주어진 지침에 맞춰 중·저신용자 대상의 중금리 대출은 늘려야 하는 딜레마에 빠졌기 때문이다.  8일 금융권에 따르면 카카오뱅크는 올해 1∼9월 1679억 원의 순이익을 올렸다. 지난해 같은 기간(859억 원)의 2배 가까이로 늘어난 규모다. 케이뱅크도 1∼9월 84억 원의 순이익을 내며 누적 기준 첫 흑자를 달성했다. 인터넷은행들이 내놓은 새로운 금융 서비스에 고객이 몰리면서 여·수신이 모두 증가한 덕분이다. 특히 정부 규제에서 비교적 자유로웠던 인터넷은행으로 비대면 대출 수요가 대거 유입됐다. 9월 말 현재 카카오뱅크 대출 잔액은 25조385억 원으로 지난해 말에 비해 23.3% 늘었다. 케이뱅크 대출(6조1800억 원)도 9개월 만에 2배로 급증했다. 지난달 출범한 토스뱅크는 일주일 만에 5000억 원의 대출을 내줬다. 하지만 비대면 대출 수요가 폭증하자 인터넷은행도 당국의 대출 총량 규제에 발목이 잡혔다. 당국의 압박에 카카오뱅크와 케이뱅크는 연말까지 마이너스통장의 신규 대출을 일제히 중단했다. 토스뱅크도 올해 대출 총량(5000억 원)을 모두 소진해 지난달 중순부터 대출 영업을 전면 중단했다. 하지만 이런 상황에서도 인터넷은행들은 올해 말까지 중금리 대출 비중을 일정 수준 이상으로 확대해야 한다. 금융당국 지침에 따라 카카오뱅크는 전체 대출 가운데 중·저신용자 대출 비중을 20.8%로, 케이뱅크와 토스뱅크는 각각 21.5%, 34.9% 이상으로 맞춰야 한다. 연말까지 두 달도 남지 않았지만 케이뱅크의 중·저신용자 대출 비중은 15.5%(6월 말 기준), 카카오뱅크는 13.4%(9월 말 기준)에 불과하다. 금융당국은 5월 인터넷은행의 중·저신용자 대출 확대 계획을 발표하면서 “가계대출 증가율 목표 관리에서 중·저신용자 대출은 일부 예외 적용을 검토하겠다”고 밝혔지만 아직 구체적인 방안은 나오지 않았다. 한 인터넷은행 관계자는 “대출 총량 관리와 중·저신용자 대출 확대를 같이 해야 하는 난감한 상황”이라고 말했다. 인터넷은행들은 고신용자 대상의 대출을 막는 대신에 중·저신용자 대출을 늘리는 고육책을 쓰고 있다. 중·저신용자에겐 이자 지원 등의 혜택도 준다. 은행권 문턱을 넘기 어려운 4∼6등급(옛 신용등급 기준) 중·저신용자에게 연 10% 안팎의 금리로 빌려주는 중금리 대출은 부실 위험도 큰 편이다. 현재 카카오뱅크와 케이뱅크의 연체율은 각각 0.21%, 0.37%로 시중은행의 평균 연체율(약 0.20%)과 비슷하지만 무리하게 중금리 대출을 확대하면 건전성이 악화될 수 있다는 우려도 나온다. 한국은행은 당국의 지침대로 중·저신용자 대출을 높이면 인터넷은행의 대출 연체율이 올해 말 1.3%, 2022∼2023년엔 1.7∼2.2% 수준까지 상승할 것으로 추산했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>"담배 끊고, 지름신 참으면 돈 더 준다고?" 게임하듯 적금붓는 2030</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004876554?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>만보 걷기로 100원씩 적립도전과제형 상품 잇단 출시캐릭터 주는 카뱅 '26주적금'3분기 신규가입만 109만건 # 20대 대학생 A씨는 요즘 금융 애플리케이션(앱) 토스의 '토스 만보기'에 푹 빠졌다. 걸음 수에 따라 포인트를 주는 서비스로, 포인트를 현금화할 수 있다. 하루에 받을 수 있는 돈은 많아야 140원 남짓. 하지만 액수는 중요하지 않다. A씨는 "일상생활에서 나만의 루틴(일상 습관)이 생긴 것 같아서 좋다. 일부러 더 걷고 공돈도 벌 수 있어 요즘 매일 하고 있다"고 했다.MZ(밀레니얼+Z)세대 사이에서 게임 요소를 접목한 금융상품이 인기다. 어릴 때부터 컴퓨터 게임을 해온 MZ세대는 이런 방식에 익숙하다. 통상 게임에서는 하나의 '퀘스트'를 해결할 때마다 보상을 주고 다음 퀘스트를 통해 레벨업을 해준다. 이런 방식으로 성취감을 느껴온 MZ세대가 재미 요소를 넣어 추가 수익까지 주는 상품에 몰리고 있다. 금융회사들도 주요 고객층으로 부상한 MZ세대를 겨냥해 관련 상품·서비스 강화에 나서고 있다.사용자 걸음 수를 측정하는 토스 만보기는 올 9월 서비스 개편 이후 인기가 크게 높아졌다. 지난 9월 이후 2개월간 이 서비스 이용자만 100만명에 달하고, 전체 사용자 중 50%가 20·30대다. 사용자가 급증한 것은 '방문 미션'을 추가한 덕분이다. 이전에는 단순히 걸음 수만으로 포인트를 줬지만, 특정 장소에 가면 포인트를 더 받는다. 귀여운 캐릭터를 주는 카카오뱅크 '26주적금'도 증가세가 가파르다. 최초 가입 금액만큼 매주 적금을 납입하면 카카오톡 캐릭터가 '목표 달성 캘린더'의 빈칸을 채워주고, 26주를 완납하면 0.5%포인트 우대금리를 준다. 카카오뱅크에 따르면 올해 분기별 신규 가입 계좌 수는 1분기 56만건, 2분기 86만건, 3분기 109만건으로 급증하고 있다. 올해 9월까지 적금 가입자 중 20대와 그 이하 가입자가 34.8%, 30대 가입자는 33.5%에  달한다. 시중은행도 금융상품의 게임화 행렬에 동참했다. 하나은행은 지난달 13일 게임처럼 재미있고 위젯으로 빠르게 입금할 수 있는 '하나타이밍적금'을 출시했다. 추가 금액을 넣는 데 게임 사용자 인터페이스(UI)를 접목해 '타이밍 버튼'을 누르면 그 횟수에 비례해 입금이 된다. 하나은행에는 특별금리 1.5%포인트를 주는 '금연성공적금'도 있다. 예금 가입 후 정부의 '국가금연지원서비스'를 신청하고 금연 성공으로 판정되면 특별금리를 제공한다.NH농협은행이 지난 9월 출시한 'NH샀다치고적금'은 절약을 도전 과제로 설정한 금융상품이다. 소비와 관련된 아홉 가지 아이콘을 원하는 이름과 금액으로 설정하고, 소비를 참았을 때 아이콘을 눌러 입금하면 해당 금액만큼 입금된다. 아이콘을 눌러 입금한 횟수가 150회 이상일 때 1.2%포인트 우대금리를 제공한다. KB국민은행 'KB Smart★폰 적금'도 같은 방식으로 고객에게 우대금리를 제공한다. 신한은행 ‘쏠편한 작심3일 적금’은 목표를 높게 잡을수록 우대금리를 더 준다. 주 단위 적금으로 일주일 중 요일 하나를 자동이체일로 지정할 때마다 0.1%p 씩 얹어주며 최대 3개 요일까지 지정이 가능하다. 정한 목표만큼 납입이 되면 주차마다 완료 스탬프도 찍어준다.이재준 KDB미래전략연구소 연구원은 최근 연구보고서에서 "금융서비스의 게임화는 단순한 오락을 넘어 소비자들의 금융 앱 사용을 늘리고 고객 충성도를 강화함으로써 고객 확보·유지에 긍정적 영향을 미친다"며 "금융권의 모바일 플랫폼 경쟁 속에서 이런 상품은 계속 늘어날 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>마이데이터 개시 한 달 앞… 사업자 3분의 1은 준비 안 됐다</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000772951?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>마이데이터 서비스, 12월부터 오픈 가능  본인가 45개사 중 30곳만 연내 준비 완료  준비 안 된 업체, 내년 서비스 중단될 수도  은행 “12월 1일 오픈”·핀테크 “안정성 확보 집중”        금융권이 12월부터 본격적으로 선보일 마이데이터(본인신용정보관리업) 연동 서비스를 위해 막바지 준비에 한창인 가운데, 금융당국의 본인가를 받은 45개사 중 3분의 2 정도만이 연내 금융당국의 테스트를 통과할 전망이다. 나머지 사업자 중에선 내년 초 관련 서비스 제공을 잠정적으로 멈추게 되는 곳이 생겨날 수 있다는 우려가 제기된다.마이데이터란 금융사와 빅테크 등에 흩어진 모든 개인 데이터들을 한데 모아 관리하는 개념이다. 개인 동의 하에 마이데이터 사업자들은 금융·비금융 데이터들을 혼합해 개인 맞춤형 서비스나 상품을 손쉽게 제공할 수 있다. 이렇게 되면 맞춤형 자산관리 등 서비스가 보다 정교하고 편리하게 제공될 수 있다.기존에도 이런 서비스가 가능하긴 했지만, 이전까지는 금융사별로 데이터를 일일이 긁어와야 하는 ‘스크래핑’ 기술이 적용됐었다. 내년부터는 이 기술이 전면 금지되고 응용프로그램 인터페이스(API) 적용이 의무화된다.10일 금융권에 따르면, 마이데이터 서비스 적용의 막바지 심사 단계로 볼 수 있는 금융보안원의 기능적합성 심사에 현재 KB국민·신한·하나·우리·NH농협 등 5대 시중은행과 뱅크샐러드·핀크 등 핀테크업체 총 19곳이 통과했다.내년부터 마이데이터 서비스를 실제로 적용해 실행하려면 마이데이터 본인가를 받은 업체들이 금융당국의 테스트를 통과해야 한다. 금융보안원의 ①기능적합성 심사 ②보안 취약점 점검 등 두 단계를 통과한 뒤 ③신용정보원의 비공개 베타테스트(CBT)를 거치면 완료되는 식이다.KB금융이 최근 새로 개편해 선보인 모바일 애플리케이션(앱) 'KB스타뱅킹' /KB금융그룹 제공  올해 준비 안 된 사업자, 서비스 중단 불가피        금융보안원의 기능적합성 심사와 함께 보안 취약점 점검까지 모두 통과한 업체는 국민은행·신한은행·뱅크샐러드·우리은행·키움증권·NH농협은행·농협중앙회 등 8곳이다. 이 중 뱅크샐러드·우리은행이 가장 먼저 CBT에 들어갔다. 이는 고객에게 서비스를 선보이기 전에 신용정보원을 통해 API가 제대로 연동됐는지 등을 점검하는 작업으로, 일종의 실전 연습으로 볼 수 있다.일찍이 모든 조건을 통과한 업체들은 이르면 다음 달부터 마이데이터 서비스를 오픈할 수 있다. 네이버파이낸셜·카카오페이·토스·보맵 등 현재 금융보안원의 기능적합성 심사를 진행 중인 업체들을 합치면, 연내 마이데이터 서비스를 오픈할 수 있는 곳은 30곳 이내로 점쳐진다.문제는 나머지 15곳이다. 내년 1월 1일부터는 기존 스크래핑 기술로 정보를 긁어오던 방식이 전면 금지되기 때문에, 관련 서비스 제공이 중단될 수 있다. 한 핀테크 업계 관계자는 “현재 스크래핑 방식으로 제공하고 있는 개인 맞춤형 금융상품 조회 화면이 있다고 가정하고, 이 서비스 사업자가 연내 금융보안원의 심사를 통과하지 못한다면, 내년 통과 때까지 해당 화면은 제공할 수 없게 된다”고 설명했다.이 때문에 일각에선 스크래핑 금지 시점을 유보해 달라는 목소리도 나오고 있다. 한 스타트업 관계자는 “요즘 엔지니어를 구하기도 어렵고, 주 52시간제 적용으로 몰아치기 작업도 힘들어 연내 심사 완료에 대응하기가 난감한 상황”이라며 “API 도입과 스크래핑 방식을 혼용해 쓸 수 있는 기간의 여유가 더 있으면 좋겠다”고 토로했다.하지만 금융보안원은 표준 API 의무 적용 유예가 더는 불가능하다는 입장이다. 당초 마이데이터 사업자와 정보제공자의 API 의무화는 지난 8월 시행할 예정이었는데, 일정이 촉박하다는 업계의 불만에 이미 내년 1월 1일로 한 차례 유예한 바 있기 때문이다.마이데이터 서비스가 도입되면 금융소비자는 자신의 신용정보를 한 곳에서 편하게 확인하고 관리할 수 있게 된다. /금융위원회 제공  12월 은행권 선두 주자 차지… 핀테크 안정성 확보 주력        당장 마이데이터 서비스 제공이 가능해지는 다음 달 1일부터는 은행권이 마이데이터 선두 주자로 치고 나올 것으로 보인다. 국민·우리·농협·IBK기업은행 등은 각각 KB스타뱅킹·우리WON뱅킹·NH스마트뱅킹·아이원뱅크 등 자사 애플리케이션(앱)을 업데이트해, 12월 맞춤형 생활금융 서비스를 출시하겠다는 출사표를 던졌다.12월 초 오픈을 준비 중인 뱅크샐러드 정도를 제외한 대부분 핀테크사는 일단 마이데이터 서비스 개시를 서두르지 않는 분위기다. 한 핀테크업계 관계자는 “시간이 좀 더 걸리더라도 안정성 구축에 신경을 써야 한다는 생각”이라며 “다음 달 모든 심사를 완료해 12월 중순~내년 초쯤 서비스 출시가 목표”라고 말했다.금융보안원 관계자는 “기관별로 준비 상황이 모두 다르긴 하나, 자본이나 인력 구조 차이와 상관없이 규모가 작은 스타트업 중에서도 이미 기능적합성 심사가 진행 중인 곳이 많다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>‘앱으로 손자 용돈도 척척’…금융권 시니어 공략에 나선 배경은</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005078348?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>우리銀. 시니어 위한 모바일 앱 화면 개편앱 내 '시니어 전용 상담' 둔 카카오뱅크지점 감소에 앱으로 금융수요 흡수자산 가진 고령층 선점 효과도 노려[이데일리 황병서 기자] 미용실을 운영하는 자영업자 최순학(66·여)씨는 스마트폰을 이용한 지 5년 만에 처음으로 모바일 뱅킹 애플리케이션으로 원주에 사는 손자에게 용돈을 보냈다. 그는 최근까지 은행 지점을 찾아 직접 계좌이체를 했지만 자녀 도움을 받아 이번에 앱을 사용했다. 최씨는 “금융 앱을 사용하는 과정에서 큰 글씨로 바꿀 수 있을 뿐 아니라 은행들이 앱 사용 영상 등도 제공하면서 편리하게 이용하기 시작했다”며 “앞으로 예·적금 상품 가입 등도 혼자 해보려고 한다”라고 말했다. 금융산업의 디지털화가 빠르게 전개돼 시니어(고령층) 소외 현상이 심각해지고 있는 가운데 금융권이 이들 챙기기에 나서고 있다. 고령층이 금융 앱을 친숙하게 사용할 수 있도록 해 이들을 위한 시장을 선점하겠다는 의도가 엿보인다.“앱 화면서부터 글자까지”…시니어 공략 나선 은행들4일 금융권에 따르면 시중은행을 중심으로 인터넷은행, 저축은행 등이 시니어 세대를 위한 금융 앱 서비스 고도화에 적극 나서고 있다. 우리은행은 최근 모바일 뱅킹 이용에 어려움을 겪는 시니어 세대를 위한 앱 화면 서비스를 선보였다. 즉시이체와 ATM 출금, 중요한 금융일정 알림 기능 등을 앱 화면 전면에 배치해 접근성을 높였다. 금융일정은 터치 한 번으로 필요한 금융 업무로 바로 연결돼 쉽게 사용할 수 있다. IBK기업은행은 지난 9월 모바일뱅킹 앱인 아이원뱅크 메인화면을 새 단장 했다. 특히 주요 거래 화면에 ‘큰 글씨 모드’ 버튼을 추가해 고령층 고객에 대한 편의성을 높였다. 입출금 알림과 상품제안 등 고객 맞춤형 메시지 기능도 강화했다. 신한은행은 시니어를 위한 모바일 사용설명서를 동영상으로 제작해 배포했다. 총 3편으로 구성된 모바일 설명서는 앱 회원 가입과 로그인을 비롯해 금액 이체하기, 큰 글씨체 변경 등 내용을 담고 있다. 인터넷은행의 경우 카카오뱅크가 앱 안에 ‘고령자 전용 전화 상담서비스’를 별도로 두고 운영하고 있다. 케이뱅크는 전문 금융상담 직원이 시니어 고객의 동의가 있을 경우 원격으로 모바일뱅킹 서비스를 도와주고 있다. 토스는 자회사 토스CX를 통해 시니어 사용자를 돕는 인원 10명이 배치돼 있다.저축은행업계에선 79개 저축은행을 대표하는 저축은행중앙회가 공용 모바일뱅킹인 SB톡톡플러스에 큰 글씨 서비스를 도입하는 등 시니어 거래 고객을 돕고 있다. 고령인구(65세 이상)비중. (표=통계청)디지털 전환 따른 지점 감소에…고령층 인구 증가 맞물려은행들이 기존 금융 앱의 주 타깃 층인 MZ(20·30대)세대 외에 시니어 고객층 공략에 나선 건 자산을 가진 65세 이상의 고령층 증가와 함께 디지털 전환에 따른 점포 급감 등 요소가 맞물린다. 금융통계정보시스템에 따르면 4대 시중은행(국민·신한·하나·우리)의 점포 수는 올해 6월 기준 2828곳으로, 지난해 말 기준 2916곳과 비교하면 88곳이 줄였다. 점포 수는 2018년 3086곳과 2019년 3031곳에서 갈수록 줄고 있다.은행권 관계자는 “은행 지점 수가 줄어드는 과정에서 남아 있는 지점들은 고객으로 붐빌 수밖에 없는데 이 과정에서 고령층의 앱 이용을 유도하는 것은 필수”라고 밝혔다.여기에 고령화가 급속도로 진행됨에 따라 이들을 위한 시장을 선점하려는 성격도 있다. 통계청이 지난 9월 발표한 ‘2021 고령자 통계’에 따르면 올해 기준 65세 이상 고령 인구는 전체의 16.5%로 조사됐다. 이 비율은 2025년 20.3%에 이르러 우리나라가 초고령사회로 진입할 것으로 전망된다. 올해 기준 가구주 연령이 65세 이상인 고령자 가구는 전체 가구의 23.7%이다. 2047년에는 전체 가구의 약 절반(49.6%)이 고령자 가구가 될 것으로 전망된다.더군다나 시니어 세대는 MZ세대보다 많은 자산을 가지고 있는 만큼, 앱 활성화가 곧 각종 금융 상품의 가입 등으로 이어져 수익 창출로도 연결될 수 있다. 실제 통계청이 올해 3월 낸 ‘2020 한국의 사회지표’를 보면, 50대가 순자산 4억987만원으로 연령대별 1위를 차지했다. 이어 60대 이상이 3억7422만원, 40대가 3억7359만원, 30대가 2억385만원, 30세 미만이 7241만원을 기록했다.다른 은행권 관계자는 “고령층이 앱을 친숙하게 이용할 수 있게 만드는 것이 중요하다”며 “이후에 금융상품에 직접 가입하거나 투자하는 등 서비스로 확대해 나갈 것으로 예상한다”고 밝혔다.지난 3월 25일 통계청이 발표한 ‘2020 한국의 사회지표’.(이미지=통계청)(이미지=우리은행)(이미지=우리은행)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>금리순 검색 없앤 금융협회 앱, 누가 찾겠나</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003651681?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>소비자 편익 무시한 저축은행 중앙회 앱, 민간 앱에 한참 뒤져							저축은행중앙회와 여신금융협회 등 금융협회들이 운영하는 앱이나 홈페이지가 소비자들에게 필요한 금리 비교·검색 기능을 없애거나 처음부터 갖추지 않은 것으로 나타났다. 소비자들이 금리가 낮은 예·적금, 대출 상품을 찾으려면 앱(홈페이지)에 올라와 있는 수십~수백개 상품을 모두 조회해야 하는 불편이 따른다. 소비자들은 “이렇게 불편하니 민간 대출 비교 플랫폼을 쓸 수밖에 없다”는 불만을 토로한다. 금융계가 민간 핀테크 플랫폼의 시장 독과점 문제를 비판만 할 것이 아니라 자체적인 경쟁력을 갖춰야 디지털 시대에 생존할 수 있을 것이란 지적이 나온다.저축은행중앙회가 운영하는 상품 비교 가입 앱 'SB톡톡플러스'의 화면(왼쪽). 지난 9월 금리가 낮은 순으로 대출 상품을 정렬하는 기능이 사라지고 '시도별', '거리순' 정렬 기능만 남아 비교하는 데 시간이 오래 걸린다. 반면 핀테크 플랫폼인 토스 앱(오른쪽)에서는 대출 조건 입력 시 가장 금리가 낮은 상품을 바로 보여준다. 비대면 앱인데 ‘거리순’ ‘지역별’로 상품 나눠							국내 79개 저축은행이 소속된 저축은행중앙회가 2019년 30억원을 투입해 만든 ‘SB톡톡플러스’ 앱은 66개 저축은행 상품을 한눈에 둘러보고 비대면으로 가입할 수 있는 디지털 플랫폼이다. 현행법상 대포통장 방지를 위해 비대면 계좌를 추가로 만들려면 ‘20일(영업일 기준)’이 지나야 하는데 이 앱을 통하면 정기예금에 한해 이런 제한을 피할 수 있어 인기가 많았다. 특히 최근 금융 당국의 가계부채 억제 방침으로 시중은행에서 돈 빌리기가 어려워지면서 저축은행으로 눈을 돌리는 사람이 늘었다. 이달 초 앱 누적 다운로드 수(89만2000여건)가 작년 말(48만여 명)보다 2배 가까이 증가했다.그런데 지난 9월 돌연, 금리별 상품 정렬 버튼이 사라졌다. 예·적금 금리가 높은 순 또는 대출 금리가 낮은 순으로 상품을 정렬해 보는 기능이 없어지고, ‘거리순’ ‘시도별’ ‘인기순’ 정렬 기능만 남았다. 소비자의 현재 위치에서 가까운 저축은행을 순서대로 보여준다거나, 본사 소재지를 기준으로 저축은행을 시도별로 묶어놓은 것이다. 인기순 정렬 역시 전국이 아니라 서울, 경기·인천 등 시도별로 인기가 높은 상품을 구분해놨다. 구글 앱스토어에는 “최고 이율 선택을 어렵게 하려고 고의적으로 고쳤나” “비대면 예금이라 온라인으로 가입할 수 있는데 왜 지역별로 구분해놓았나” “한눈에 비교하는 저축은행 금리라고 (앱을) 광고해놓고는 왜 금리별 정렬이 안 되느냐” 등의 이용자 불만글이 넘쳐난다.이에 대해 저축은행중앙회는 “(지난 9월) 금융소비자보호법 시행으로 금리순 정렬 기능을 제공하기 어렵다”고 해명해왔지만, 본지 취재 결과 사실과 다른 것으로 밝혀졌다. 중앙회 관계자는 “금소법과는 무관하다”며 “금리순 정렬 기능을 넣으면 회원사 간 경쟁이 과열되는 부작용이 일어날 수 있어 관련 서비스를 제공하지 않기로 했다”고 했다. 소비자 편익은 뒷전인 채 회원사 간 카르텔 유지에 급급한 것 아니냐는 비판이 나온다.카드사 협회도 가나다순으로 업체 비교							카드사와 캐피털사, 리스사 등 63사가 속한 여신금융협회의 상품공시 포털도 마찬가지다. 이 사이트는 업체의 개별상품 정보를 상세하게 공시하지 않고, 카드론과 현금서비스 등 종류별로 업체의 평균 금리만 보여준다. 금리순으로 정렬해 보는 것은 불가능하다. 업체명이 가나다순으로 표시돼있어 소비자는 가장 유리한 금리를 제공하는 회사를 일일이 찾아야 한다. 이에 대해 한 카드사 관계자는 “협회 사이트가 좀더 친절하고 자세하면 좋겠지만 일부 업체는 금리 경쟁이 과열되는 것을 원하지 않기 때문에 금리순 비교 기능이 도입되기 어려울 것”이라고 했다. 카드사 대출은 중도상환수수료가 없다보니 금리 비교가 쉬워지면 그만큼 회원을 뺏기기도 쉬워져 대형 업체들이 이를 원치 않는다는 것이다.민간 플랫폼의 발꿈치도 못 따라가							반면 민간 대출 비교 플랫폼은 금리별 정렬이 기본이다. 핀다는 제휴를 맺은 금융권 대출 상품을 ‘금리순’과 ‘한도순’으로 정렬해 볼 수 있다. 토스는 제휴사 상품 중 가장 낮은 금리의 상품을 딱 하나 골라 대표로 보여준다. 그만큼 고객의 니즈(욕구)에 충실한 것이다. 금융권 관계자는 “민간 플랫폼을 통해 유입되는 고객이 공공 플랫폼에 비해 월등히 많다 보니, 업체 입장에서는 1.7% 안팎의 높은 수수료를 내더라도 민간 플랫폼에 입점할 수밖에 없다”고 했다. 윤민섭 한국금융소비자보호재단 연구위원은 “협회가 불친절한 정보 공시로 스스로의 신뢰를 떨어뜨리고 있다”며 “회원사 입김에 휘둘리지 말고 민간 플랫폼처럼 소비자 권익을 더 우선적으로 고려할 필요가 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>“금융법이 핀테크 발목 잡아…‘네거티브 규제’로 바꿔야”</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003147521?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>서울 강남구에 위치한 인터넷전문은행 토스뱅크 본사. [뉴스1]       # 오는 3일 유가증권 시장 상장을 앞둔 카카오페이는 앞서 두 차례나 상장 일정을 연기해야 했다. 지난 8월에는 기업가치 산정을 위해 미국 페이팔을 비교대상으로 제시한 데 따른 정정 요구로, 9월에는 주요 서비스의 금융소비자보호법(금소법) 위반 우려로 상장이 불발됐다. 특히 금융당국은 카카오페이와 같은 핀테크 업체가 중개업 등록 없이 펀드·보험 등의 금융상품 비교 견적 서비스를 제공해서는 안 된다고 판단했다. 결국 카카오페이는 상장을 위해 해당 서비스를 축소 개편했다.       ━   한경연, 원칙 중심 금융규제 도입 촉구        최근 금융 산업에 디지털 기술이 접목되며 온라인 금융 플랫폼 등 새로운 핀테크 기업이 빠르게 성장하고 있지만 낡은 법체계가 금융 혁신의 발목을 잡고 있다는 지적이 나왔다. 이에따라 진화하는 금융서비스를 수용하기 위해 불합리한 규제를 개선하고 원칙에 위반되지 않으면 허용하는 방식의 ‘네거티브 금융규제 시스템’을 도입을 서둘러야한다는 목소리가 높다.         한국경제연구원(한경연)은 2일 ‘디지털 금융혁신 동향과 정책적 시사점’ 보고서를 발간하고 차기 정부에 금융규제 시스템의 개편을 촉구했다. 핀테크 기업이 제공하는 신규 서비스를 현재 법제도로 수용하기 어렵다는 이유에서다. 전 세계에 불어닥친 4차 산업혁명의 여파로 지난 2016년 국내에서도 케이뱅크, 카카오뱅크 등 인터넷 전문은행이 출범했고 지난달에는 토스뱅크가 문을 열었다. 금융혁신지원특별법(2018년), 금융규제 샌드박스(2019년), 데이터 3법 개정(2020년) 등 금융제도 개선도 잇따랐다.      ━   “현행 규제, 핀테크 기업 성장 저해”      주요국 핀테크 산업 발전 순위. 그래픽=박경민 기자 minn@joongang.co.kr       하지만 이 같은 변화에도 현재의 규제체계에서는 핀테크 기업의 성장을 온전히 수용하기 어렵다는 것이 한경연의 지적이다. 한경연은 “기존 금융회사의 견제로 핀테크 기업에 대한 규제격차 문제가 발생하고 있고 카카오페이에 대한 금소법 위반 논란 등 현재의 규제체계와 온라인 금융플랫폼 간의 충돌이 발생하고 있다”고 밝혔다.       또 “현재 국회에 계류 중인 온라인 플랫폼 규제 관련 입법안이 7건이나 되고 카카오, 네이버 등 국내 빅테크 기업에 대한 정치권의 규제 강화 의견도 커지고 있다”며 “아직 국내에서 글로벌 핀테크 기업이 등장하지도 않은 현실에서 이 같은 규제 강화는 디지털 금융 혁신을 저해할 뿐 아니라 4차 산업혁명으로의 전환을 더디게 할 수 있다”고 덧붙였다.      한경연에 따르면 한국은 정보통신(IT) 산업의 발달로 핀테크 수용도가 다른 국가에 비해 높은 편이지만 핀테크 기업의 개수와 발전 상황, 그리고 경영환경에서는 낮은 평가를 받았다. 글로벌 리서치업체 핀덱서블이 발표한 보고서를 보면 한국의 핀테크 생태계 순위는 지난해 18위에서 올해 26위로 8계단 하락했다. 이태규 한경연 선임연구위원은 “신종 코로나바이러스 감염증(코로나19) 사태로 인해 전 세계적으로 금융의 디지털화가 빠르게 이뤄지고 있다”며 “다른 국가의 핀테크 기업 성장세가 워낙 빨라 상대적으로 한국이 뒤처지는 모양새가 됐다”고 말했다.     ━   “차관급 규제개혁독립부처 고려해야”      한경연은 세계적인 금융혁신 흐름에 대응하기 위해 금융규제의 틀을 대폭 정비해야 한다고 지적했다. 이를 위해 규정 중심으로 이뤄진 현행 규제를 원칙 중심으로 바꿔, 원칙에 위반되지 않는 행위는 모두 가능하도록 하는 ‘네거티브 금융규제 시스템’을 도입하자는 것이다. 또 은행, 보험, 증권 등 업권별 규제를 기능에 따른 규제로 변경할 필요가 있다고 제안했다.      이 선임연구위원은 “금융규제시스템의 전환이라는 장기적 과제 추진과는 별개로 영세업자 카드수수료 상한제와 같이 시장가격에 개입하는 규제는 지속적으로 개선해나가야 한다”며 “규제개혁 노하우가 정부에 축적될 수 있도록 차관급 규제개혁독립부처를 신설하고 정권과 무관하게 개혁방안을 추진할 필요가 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스·핀다, 부동산 DSR 규제 덕에... '1등 사내 복지' 화제</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002980487?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>정부의 강화된 대출 규제 정책으로 '사내 대출 제도'가 기업들의 주요 사내 복지로 떠오른 가운데, 조달 자금 출처가 어디냐에 따라 향후 실제 운용 가능성이 크게 달라지게 됐다. 내년 1월부터 시작될 개인별 총부재원리금상환비율(DSR) 규제에 영향을 받는 '금융기관 제휴형' 대출 상품이 대부분이라 유명무실해질 가능성이 커졌기 때문이다.8일 업계에 따르면 핀테크 기업 토스와 핀다는 내부 유동자산을 활용해 주택총량규제(DSR)에 잡히지 않는 방식으로 임직원에게 주택자금 사내대출을 제공 중인 것으로 확인됐다.이를 활용하면 금융위원회가 최근 발표한 '10·26 가계부채 관리 강화방안'에 포함된 DSR 규제 조기 확대에도 시중은행에서 제공하는 대출 한도와 관계없이 주택구입 혹은 전월세 신규 계약 자금을 최대 1억원까지 추가로 확보할 수 있다.토스의 경우 인터넷전문은행인 토스뱅크를 제외하면 모든 계열사가 이와 같은 방식으로 사내 대출을 임직원에게 지원한다. 다만 사내 대출액의 연 4%대 이자에 상응하는 금액을 개인 소득 증가 분으로 보기 때문에 이 금액에 한해서는 소득세를 납부해야 한다. 핀다 역시 대동소이하다.통상 기업이 복지 차원에서 제공하는 주택자금 지원 방식은 크게 두 가지다. 기업이 시중 금융기관과 제휴를 맺고 보증을 서 일반적인 주택자금 대출 한도 이외에 추가 대출을 제공하는 방식, 또는 대출액 내 일정 금액에 대해 회사가 이자를 대신 내주는 방식이 있다. 토스뱅크 임직원이 후자와 같은 방식으로 대출 이자 지원을 받는다.국내 대기업 A사의 경우 전자와 같은 방식으로 기본 1억원, 주택자금목적 자금으로 5000만원을 합쳐 최대 1억5000만원까지 추가로 은행에서 대출할 수 있었다. 그러나 결국은 기업대출이 아니라 개인명의 대출이기 때문에, 내년 1월부터는 총대출액 2억원(7월부터는 1억원) 초과 시 DSR 40% 제한 규제 대상에 포함된다.금융감독원 관계자는 “기업 사내 복지의 형태라도 대출 주체가 시중 금융기관이라면 대출관리에 다 들어간다고 봐야 한다”며 “가계 대출로 볼 수 없는 특수한 고려 사항이 없다면 예외로 인정되지 않는다”고 설명했다.기업이 유동자본을 활용하거나 기금·재단을 세워 임직원에게 직접 대출을 해주는 경우는 대출총량 규제 대상에 해당하지 않는다. 사실상 금융당국이 모든 개별 기업의 대출 내역을 들여다 볼 방법이 없기 때문이다.이와 같은 방식으로 사내 대출을 운영하는 기업들은 임직원의 퇴직금을 담보로 잡고 초과금액에 대해서는 보증보험에 들게 하는 방식으로 주로 건전성을 확보한다. 전세자금이 아닌 주택매입자금일 경우에는 해당 부동산에 근저당권을 설정하는 경우도 있다.핀테크 업계 관계자는 “전통산업인 제조업이나 유통, 무역회사의 경우 대금 납부 등을 위해 사내 유동자본을 상시 풍부하게 유지하려는 경향이 있다”며 “반면에 고정자산 비중이 적고 인력 확보가 중요한 핀테크 기업들은 직접 사내 대출 제도를 통해 자금을 적절히 활용하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>우티 “택시미터기 대신 사전확정 요금제 도입”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003391029?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>우버-티맵 통합 앱 출시… “합승-빠른 배차 서비스로 승부”글로벌 차량 공유 기업 우버와 SK텔레콤의 티맵모빌리티가 손잡고 만든 ‘우티(UT)’가 통합 모빌리티 플랫폼을 내놓고 본격적인 사업 확장에 나섰다.  우티는 1일 온라인 기자간담회를 열고 ‘우티(UT)’ 애플리케이션(앱)을 출시한다고 밝혔다. 티맵모빌리티 앱과 우버 앱을 통합한 것이다. 국내 우티 이용객은 해외에서 우버를 통해 동일한 서비스를 이용할 수 있고, 외국에서 우버 앱을 사용하던 이용객도 별도 앱 설치 없이 국내에서 우티를 사용할 수 있게 됐다. 이날 우티는 관계 기관의 허가를 받는 대로 사전 확정 요금제를 도입하겠다고 밝혔다. 승객이 택시미터기에 따라 요금을 내는 것이 아니라 사전에 목적지를 입력하고 이용 요금을 확정하는 시스템이다. 우티는 택시 합승 서비스인 ‘UT 풀(Pool)’과 빠른 배차 서비스를 제공하는 ‘UT 플래시(Flash)’ 등 신규 서비스도 준비 중이다. 수요와 공급에 따라 이용요금을 조정하는 탄력요금제 도입도 추진할 계획이다. 가맹택시 운영 계획도 공개했다. 연내 가맹택시를 1만 대까지 확장하고, 내년에는 1만 대 이상을 추가할 계획이다. 톰 화이트 우티 대표는 “우티와 함께하길 원하는 전국 택시 기사를 아우르는 ‘오픈 플랫폼’이 될 예정”이라고 덧붙였다. 이에 따라 국내 ‘택시호출 3파전’도 전망된다. 가입자 2800만 명의 업계 1위 카카오모빌리티가 최근 독과점 논란에 휩싸이면서 우티와 타다가 틈새를 노리고 있다. 타다는 금융 플랫폼 ‘토스’에 인수되면서 시너지 방안을 모색하고 있다. 화이트 대표는 “우버의 글로벌 사업 노하우와 티맵의 한국 매핑(지도) 기술을 통해 기사와 승객에게 더 향상된 서비스를 제공하겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"어제 팔았으면 5만원 더 벌었는데"…카카오페이 10%대 급락</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004874468?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[사진 = 한국거래소] 핀테크 대표 기업 카카오페이가 상장 이틀째 10%대 급락세를 보였다. 182만명의 공모주 투자자들이 하룻새 5만5000원씩을 잃은 셈이다. 하지만 주가가 공모가 대비 큰 폭으로 뛰면서 고평가 논란도 지속되고 있다.4일 증권가에 따르면 카카오페이는 전일 대비 2만4000원(12.44%) 하락한 16만9000원에 거래를 마쳤다.카카오페이는 상장 첫날인 전날 시가총액 25조1609억원으로 코스피 14위에 올랐다. 하지만 이날 시가총액은 22조320억원으로, 시총 17위로 밀려났다.카카오페이는 100% 균등 배정 방식으로 진행한 일반투자자 대상 공모 청약에서 청약자 1명당 평균 2.33주를 배정했다. 전날 이 회사 주식을 팔지 않은 공모주 투자자라면 하루 만에 4만8000원에서 7만2000원 가량 손해를 본 셈이다. 하지만 여전히 이익이 더 크다. 공모가보다는 크게 오른 상태이기 때문이다. 카카오페이의 공모가는 9만원이었다. 현 주가는 공모가 대비 87.7%나 높다. 다만 전날 개장 직후에 23만원까지 주가가 오른 것을 감안하면 다소 아쉬울 수 있는 상황이다.이날 주가가 크게 하락하긴 했지만 주가가 여전히 공모가를 크게 웃돌고 있어 고평가 논란은 지속되고 있다. 모바일 금융플랫폼 '토스'를 운영하는 비바리퍼블리카는 지난 6월 산업은행 등으로부터 투자를 유치하면서 기업가치를 8조2000억원으로 평가 받았다. 현재 카카오뱅크와 카카오페이의 합산 시가총액은 토스의 6배가 넘는 50조원대다. 지난해 토스와 카카오뱅크·카카오페이의 합산 매출액 차이인 2.5배를 크게 웃도는 수준이다.  카카오페이의 상반기 영업이익은 26억원이다. 연환산 주가수익비율(PER)은 4300배다. 통상 상장사들의 PER은 8~10배 정도가 보통이고, 그보다 높으면 고평가, 낮으면 저평가로 간주한다. 고평가 논란이 있는 카카오뱅크도 PER이 105배다. 기업의 수익성보다 성장성에 주목하는 주가매출액비율(PSR)도 카카오페이는 203배로, 카카오뱅크 118배보다 높다. 페이스북, 트위터 등의 빅테크 기업이 2010년대 초반 PSR 20~50배 수준으로 상장했다. 현 주가는 이미 증권가의 목표주가도 훌쩍 뛰어넘었다. 메리츠증권은 카카오페이의 목표주가로 11만원을 제시했다. 이베스트투자증권도 12만2700원 정도를 적정한 주가 수준이라고 언급한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>KTB네트워크 증권신고서 제출…다음달 5~6일 청약</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000263448?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>KTB금융그룹의 주력 계열사인 벤처캐피털 KTB네트워크가 증권신고서를 제출하고 상장을 공식 추진합니다. KTB네트워크는 오늘(5일) 희망 공모가 5800~7200원 구간으로 2000만주를 공모한다고 밝혔습니다. 예상 공모 금액은 1160억~1440억원으로, 공모가 상단 기준 예상 시가총액은 7200억원에 달합니다. KTB네트워크는 토스의 운영사 비바리퍼블리카의 초기 투자자라는 점이 알려지며 특히 주목을 받았습니다. 운용자산 규모는 1조1195억원, 지난해 당기순이익은 358억원으로 벤처캐피털 업계 1위였습니다. 김창규 KTB네트워크 대표는 "공모를 통해 모집한 재원은 브랜드가치 제고와 미래투자를 위한 펀드 출자금 조성에 사용할 계획"이라고 설명했습니다. 오는 29일과 30일 기관투자자 대상 수요예측을 거치고, 다음 달 6일과 7일 일반투자자 대상 청약이 진행됩니다. 주관사는 한국투자증권으로, 연내 코스닥 상장이 이뤄질 것으로 전망됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>카카오뱅크 주가 급락…왜?</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010811543?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>기사내용 요약3분기 실적 컨센서스 하회…규제·경쟁사 부담펀더멘털 굳건하다는 평가도[서울=뉴시스]이주혜 기자 = 카카오뱅크가 약세로 돌아섰다. 3분기 실적이 기대치에 미치지 못하고 대손 비용 증가 가능성이 제기되면서 계열사 카카오페이의 증시 상장에도 급락했다. 4일 한국거래소에 따르면 전날 유가증권시장에서 카카오뱅크는 전 거래일보다 7.33% 하락했다. 카카오뱅크는 5만9400원에 거래를 마치면서 6거래일 만에 6만원선 아래로 후퇴했다.같은 날 카카오페이가 코스피 상장 첫날 시초가 대비 7.22% 오르며 거래를 마쳤음에도 급락을 피하지 못했다. 카카오뱅크의 3분기 실적이 시장의 기대를 하회한 데다 당국의 가계대출 규제, 경쟁사 등장 등이 성장에 걸림돌이 될 것이라는 관측이 제기된 탓으로 풀이된다. 2일 카카오뱅크는 3분기 당기순이익이 전년 동기 대비 28% 증가한 520억원을 기록했다고 밝혔다. 전분기에 비해서는 25% 감소했으며 컨센서스(증권가 예상치)를 31.8% 밑돌았다.박혜진 대신증권 연구원은 "핵심이익인 이자이익 및 플랫폼 수익을 비롯한 비이자이익은 증가세가 유지됐으나 대손 비용이 크게 증가한 영향"이라고 분석했다. 증권가에서는 향후 가계대출 규제, 타사와의 경쟁이 카카오뱅크의 성장에 장애물이 될 수 있다고 본다.이병건 DB투자증권 연구원은 "카카오뱅크는 감독당국의 가계대출 증가 억제 조치에 부응해 중저신용자 대출과 일부 전월세담보대출 외 대부분의 대출을 중단한 상황으로 4분기에는 대출성장이 미미할 것"으로 예상했다. 정준섭 NH투자증권 연구원은 "금융 플랫폼으로서의 트래픽 창출 역량도 입증이 필요하다"며 "카카오뱅크 앱의 월간활성사용자(MAU)는 2분기 1037만명에서 3분기 1085만명으로 48만명 증가에 그친 반면 같은 기간 토스의 MAU는 1061만명에서 1209만명으로 148만명 증가해 두 앱의 격차가 벌어졌다"고 말했다.이어 "최근에는 토스뱅크까지 등장한 만큼 카카오뱅크에 4분기는 금융 플랫폼 역량을 입증해야 하는 시험대가 될 전망"이라고 짚었다.교보증권은 3일 카카오뱅크에 대한 투자의견을 하향했다. 카카오뱅크의 현재 주가가 적정 주가순자산비율(PBR) 5.0배 대비 다소 높다고 판단하고 투자의견을 '보유'로 낮췄다. 다만 연간 실적 상향조정으로 목표주가는 4만5000원에서 5만9000원으로 높였다.카카오뱅크의 3분기 실적 저하에도 펀더멘털은 굳건하다는 평가도 나온다. 김현기 하이투자증권 연구원은 "컨센서스 하회 이유는 비용 증가로 볼 수 있다"면서도 "비용 증가의 성격이 펀더멘탈 악화 측면이 아닌 판매관리비 증가와 포트폴리오 조정에 따른 건전성 대응 측면이기 때문에 경영 관리 측면에서는 문제가 없다고 판단한다"고 말했다. 이어 "내년 대출 성장률은 다소 낮아지겠지만 자본 규제로 인해 성장할 수 있는 은행이 많지 않다"며 "성장의 둔화가 아닌 '성장의 이연'으로 생각한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>올해 중금리대출 20% 목표 카카오뱅크, 목전 앞</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002238023?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>9월 한 달 간 공급액 40%...3분기 여신 잔액 중 13.4% 차지은행 설립 취지와 다르게 중저신용자를 대상으로 대출 비중이 적다는 비판을 받은 카카오뱅크가 중금리 대출 증가에 속도를 붙이고 있다.카카오뱅크는 2일 열린 2021년 3분기 실적 컨퍼런스콜에서 올해 중저신용자 대출 비중 목표인 20%에 근접해지고 있다고 밝혔다.윤호영 대표는 "3분기 중저신용 대출 비중은 대출 잔액 기준으로 13.4%"라며 "9월 한 달 간 신용대출 공급액 대비 중금리 대출 공급액은 40%를 상회하는 등 올해 연간 목표는 20%를 최대한 달성하도록 노력 중"이라고 설명했다.카카오뱅크는 중저신용자를 대상으로 한 대출을 올해는 20%, 추후엔 25%까지 높이겠다는 계획을 밝힌 바 있다.카카오뱅크 윤호영 대표.이어 윤 대표는 중저신용자 대상 대출에 관한 이자를 연말까지 면제하는 이벤트를 진행 중이나, 이벤트가 없다하더라도 대출이 자연 증가할 것이라고 관측했다. 그는 "중저신용 대출 구성 비중을 20%로 올리는데 프로모션을 진행할 수 있지만, 20% 정도가 가까워진다면 프로모션이 없어도 25~30%까지 가는 것은 자연 증가해 목표 달성이 가능할 것"이라고 말했다.중저신용 대출이 늘어난 만큼 대손충당금 적립율은 늘어났다. 올해 2분기 대손충당금 적립액은 996억원에서 3분기 1천1176억원으로 늘었다. 작년 3분기 730억원과 비교하면 61.09% 증가했다. 대손충당금 적립율은 228%다.카카오뱅크 김석 최고리스크관리책임자는 "2분기 대비해서 중신용 대출 취급금액이 3분기 크게 증가했으며, 더군다나 중신용 대출은 고신용 대출과 동일한 대출이 나가더라도 충당금 비율이 높다"고 발언했다. 그는 또 "2분기 대비 3분기는 충당금을 결정짓는 중저신용 대출이 1천500억원에서 5천억원으로 늘어나 적립금 비율도 올라갔다'고 말했다.한편, 카카오뱅크는 지난 10월 토스뱅크의 출범이 고객 이탈로 이어지는 유의미한 숫자는 없다고 답변했다.윤호영 대표는 "카카오뱅크의 수신은 요구불성 예금의 구성비가 높다"며 "10월 한 달 동안 수신과 관련해 10월 이전과 성장세가 특별히 차이나지 않았다"고 말했다.카카오뱅크는 이밖에 오는 12월부터 제한된 고객을 대상으로 주택담보대출을 선보이며 내년 초부터는 실수요자를 대상으로 대출 상품을 판다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>해외주식 서비스 앞둔 토스증권, ‘갈팡질팡’ 간보기?</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000263945?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[앵커]토스증권이 다음 달 해외주식 거래 서비스 출시를 앞두고 고객 유치를 위한 사전신청 이벤트를 벌이고 있습니다.그런데 이벤트를 시작한 뒤, 일부 혜택 내용을 바꾸면서 이용자들의 혼란을 겪고 있다고 하는데요.김성훈 기자 연결합니다.구체적으로 어떤 부분에서 변동이 있는 건가요?[기자]토스증권은 지난 2일부터 해외주식 서비스를 이용하겠다는 사전 신청을 하면, 최대 6개월간 매매수수료를 면제해주는 이벤트에 나섰는데요.이와 함께 해외주식 거래 시 발생하는 환전 수수료를 깎아주는 환전우대율도 혜택으로 제시했습니다.환전우대율은 투자자들이 해외주식 거래 시 이용할 증권사를 선택할 때, 중요 고려요인 중 하나이기도 한데요.그런데 토스증권은 이벤트 공지 당시에는 환전우대율을 75%로 안내했다가 최근에는 갑작스럽게 95%로 바꿨습니다.현재 40만 명 가량이 사전신청을 했는데, 토스 앱 화면상에 이용자별로 환전우대율이 다르게 보이면서 혼란이 발생했습니다.[앵커]이용자들로선 당황스러울 것 같은데, 토스증권의 입장은 뭔가요?[기자]토스증권 측은 "환전우대율을 95%로 바꾼 것이 맞고, 개별 고객별로 순차적으로 변경이 이뤄지다 보니 앱에서 노출되는 화면에 시간차가 발생했다"고 설명했습니다.또 환전우대율을 높인 것과 관련해선 "타 증권사에 비해 환전우대율이 낮다고 판단해 경쟁력 강화 차원에서 조정하게 됐다"며 "사전신청 고객은 모두 동일하게 혜택을 누릴 수 있다"고 덧붙였습니다.다만, 정식 서비스에 앞서 갈팡질팡하는 모습을 두고, '간을 보는 것 아니냐'는 등 부정적인 반응도 나오고 있습니다.SBS Biz 김성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>스타트업 만난 이재명 “혁신 응원···독점 아닌 동반성장 기대”</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003982664?sid=105</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[서울경제] 코리아스타트업포럼(코스포)은 이재명 더불어민주당 대선후보를 초청해 ‘스타트업 정책 토크’를 개최했다고 8일 밝혔다.이번 행사는 제 20대 대통령선거를 앞두고 코스포가 스타트업 업계를 대표해 대선후보에게 스타트업 정책의 방향을 제안하고 업계의 목소리를 전달하기 위해 마련됐다. 코리아스타트업포럼 의장인 김슬아 컬리 대표, 안성우 직방 대표, 이승건 비바리퍼블리카(토스) 대표를 비롯하여 두나무, 맘이랜서, 솔트룩스, 에이아이닷엠, 엘리스, 왓챠, 우아한형제들, 째깍악어, 8퍼센트 등 스타트업 창업가들과 이재명 더불어민주당 대선보 및 강훈식, 김병욱, 한준호, 홍정민 의원 등 50여 명이 참석했다.이날 스타트업 창업가들은 각자 발언을 통해 이재명 대선후보에게 스타트업 생태계 지원과 규제 개선의 필요성을 전달했다. 안성우 직방 대표이자 코리아스타트업포럼 공동 의장은 “글로벌 회사들은 자국의 내수 성장과 지원을 바탕으로 전세계에 진출할 수 있었다”며 “그러나 우리나라 대다수 스타트업들은 국내 규제를 못풀고 있고, 더 나아가지 못하는 것이 현실이다. 글로벌 회사들과 경쟁력을 동등하게 갖출 수 있도록 응원과 지원 부탁드린다”고 말했다. 최성진 코스포 대표는 “과감한 규제혁신, 디지털 혁신인재 육성, 창업가를 존중하는 문화 조성, 데이터·플랫폼·네트워크에 과감한 투자, 스타트업 선순환 구조 강화, 지역 스타트업 생태계 활성화 등 다양한 영역에서 혁신을 지원하는 정책이 뒷받침되어야 한다”고 강조했다.이재명 더불어민주당 대선후보는 “대전환의 시기에는 민간의 도전과 혁신에 대한 국가의 대대적 지원이 필요하다”며 “스타트업 정신으로 이전 정부들을 뛰어넘는 대규모 국가투자에 나설 것”이라고 화답했다. 동시에 “혁신은 응원은 하되 혁신의 결과로 독점을 이용한 과도한 이익 추구는 합리적으로 조화되면 좋겠다”며 “사회경제적 약자들을 배려하는 동반성장의 모습을 기대”한다며 상생의 중요성도 당부했다. 한편 국내 최대 스타트업 단체인 코스포는 지난 19대 대선에서도 대선후보 초청 포럼을 업계 유관 단체와 공동 주최하고, 각 정당에 디지털경제 정책에 관한 질의서를 보낸 바 있다. 코스포는 오늘 이재명 대선후보와의 만남 이후에도 대선후보 초청 행사와 정책제안 활동을 이어갈 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>넥슨 신작 ‘블루 아카이브’, 매력적인 캐릭터·세계관 담아</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004875842?sid=105</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>역할·속성·지형 고려한 전략 전투 ‘눈길’각종 교감 요소에 다채로운 콘텐츠까지넥슨(대표 이정헌)의 신작 서브컬처 게임 ‘블루 아카이브’가 오는 9일 출시된다. 넥슨(대표 이정헌)의 신작 서브컬처 게임 ‘블루 아카이브’가 오는 9일 국내 및 글로벌 시장에 정식 출시된다. 넥슨의 자회사 넷게임즈가 개발한 모바일게임으로 올해 2월 일본 시장에 먼저 선보여 현지 애플 앱스토어 게임매출 8위까지 이름을 올린바 있다.‘블루 아카이브’는 학원도시를 배경으로 여러 학생들의 흥미진진한 이야기가 담긴 서브컬처 게임이다. 성공한 ‘덕후’이자 서브컬처 게임 전문가로 알려진 김용하 PD와 ‘덕력’으로 뭉쳐진 MX스튜디오가 제작했다. 사전등록에 100만명 이상이 몰리며 기대감을 키우고 있다.◆ 매력적인 캐릭터와 전략 전투 ‘눈길’ ‘블루 아카이브’에는 학원도시를 배경으로 ‘아비도스 고등학교’ 등 다양한 학원과 이에 소속된 캐릭터들이 등장한다. 게임은 학원도시 ‘키보토스’에 부임한 선생님인 주인공(이용자)이 학생(캐릭터)들 인솔해 미션을 수행하며 벌어지는 이야기를 담았다. 밝고 유쾌한 스토리, 스테이지 특성을 고려한 전략 전투, 카페 꾸미기, ‘모토톡’과 ‘스케줄’ 등의 교감 요소 등이 특징이다.게임 내 학원도시에는 ‘아비도스 고등학교’, ‘게헨나 학원’, ‘트리니티 종합학원’ 등의 학원이 존재한다. 각각의 학원에는 매력 넘치는 캐릭터들이 포진했다. 캐릭터는 스킬에 따라 ‘탱커’, ‘딜러’, ‘서포터’, ‘힐러’, ‘택티컬 서포트’로 역할이 구분되며 이에 따라 전장에서 위치하는 장소도 다르다.또 각 캐릭터마다 ‘폭발’, ‘관통’, ‘신비’, ‘공성’ 등 공격타입과 ‘경장갑’, ‘중장갑’, ‘특수장갑’, ‘구조물’ 등 방어타입이 다르고 타입에 따라 유리하거나 불리한 속성이 있어 한층 전략적인 조합이 요구된다.캐릭터는 기본 스킬, 강화 스킬, EX 스킬(엑스트라 스킬)을 사용하며 캐릭터 레벨을 올려 서브 스킬을 배울 수 있다. ‘학생 소개’ 탭을 통해 캐릭터의 성격, 학원 내 역할 등은 물론 나이, 생일, 키, 취미 등 정보도 제공한다. 캐릭터의 스킬은 ‘전술 교육 BD’를 사용하여 성장시킬 수 있다. ‘활동보고서’를 사용해 캐릭터의 레벨을 올릴 수 있으며 ‘엘레프’를 사용해 ‘신비’를 해방하고 캐릭터 등급을 한층 더 높일 수 있다. 캐릭터 레벨에 따라 모자, 헤어 밴드, 시계를 장착할 수 있고 장비를 성장시켜 캐릭터의 능력치를 강화할 수 있다. ‘블루 아카이브’의 전투는 4명의 스트라이커, 두 명의 스페셜 캐릭터로 부대를 구성해 진행된다. 전투는 전장에서 전투하는 ‘스트라이커 캐릭터’ 4명, 후방에서 아군을 지원하는 ‘스페셜 캐릭터’ 2명으로 부대를 구성해 진행할 수 있다. 기본적으로 캐릭터들이 자동으로 움직이며 공격하지만 ‘EX 스킬’을 적절히 사용하며 전투에 개입하는 것도 중요하다.여기에 각 스테이지에 등장하는 적 정보, 지형에 적합한 캐릭터 선정이 필요하다. 전투 지형은 ‘시가전’, ‘야전’, ‘실내전’으로 구성되며 캐릭터들의 선호 지형에 따라 공격력도 달라진다. 캐릭터 특성에 따라 구조물에 엄폐 행동을 하며 엄폐 여부에 따라 피해량도 다르다.◆ ‘이게 서브컬처 게임이지’…각종 교감 요소도 ‘즐비’ ‘블루 아카이브’에는 샬레부속 카페 등의 캐릭터 교감 콘텐츠가 마련됐다. 서브컬처 게임 답게 등장 캐릭터와 교감할 수 있는 요소들도 여러개가 존재한다. 카페에 캐릭터를 초대하거나 스케쥴을 활용해 수업을 듣고 모모톡으로 대화를 나눌 수도 있다.샬레부속 카페의 경우 ‘크레딧’과 ‘AP(행동력)’를 수급할 수 있는 장소다. 학생들의 쉬는 공간이기도 하다. ‘카페’ 레벨, 쾌적도에 따라 자원 획득량이 달라지며 ‘카페 설비 코어’ 아이템을 사용해 ‘카페’의 레벨을 올릴 수 있다. ‘카페’는 각종 가구, 장식 등을 이용해 꾸미기도 가능하며 캐릭터들을 ‘카페’로 초대할 수도 있다. 시간이 지나거나 선물을 주면 캐릭터와의 ‘인연’이 증가하고 랭크업 시 캐릭터의 능력치가 상승한다. ‘스케쥴’은 특정 장소에서 학생들과 함께 수업을 듣는 콘텐츠다. 캐릭터의 호감도를 높이고 캐릭터 성장 아이템을 획득할 수 있다. 수업을 들으면 장소의 레벨이 높아지고 다른 장소도 이용할 수 있다. ‘모모톡’을 통해 학생들과 대화를 나눌 수도 있다. 학생들과 이야기를 나누며 교감하고 호감도를 높여 능력치를 올리는 것이 가능하다. 호감도를 높이면 로비화면을 장식할 수 있는 라이브 2D 일러스트 ‘메모리얼 일러스트’도 획득할 수 있다. 이용자는 각종 임무를 수행하며 스토리, 지명수배, 총력전 등의 부가 콘텐츠를 개방할 수 있다. 각종 전투 콘텐츠도 즐비하다. 임무, 스토리, 현상수배, 특별의뢰, 총력전, 전술대회 등이다.이중 임무는 ‘블루 아카이브’의 주요 전투 콘텐츠다. ‘노말’, ‘하드’로 구분되며 임무 성공도에 따라 등급이 매겨지고 최고 등급인 ‘S’를 받기 위한 사전 전략과 스킬 활용이 주요하다. ‘임무’ 콘텐츠 수행 정도에 따라 ‘스토리’, ‘지명수배’, ‘총력전’ 등 부가 콘텐츠가 추가로 개방된다.‘스토리’는 학원도시를 둘러싼 사건을 감상할 수 있는 ‘메인 스토리’, 각 동아리별 일상을 담은 ‘서브 스토리’, 원하는 이야기를 다시 볼 수 있는 ‘다시보기’ 콘텐츠를 제공한다. 또 ‘현상수배’는 보스 몬스터를 제압하고 각종 아이템을 획득하는 격파형 콘텐츠로 각 스테이지마다 난이도가 9단계까지 존재하며 얻을 수 있는 아이템도 다른 것이 특징이다.이오에도 캐릭터 경험치 아이템을 획득할 수 있는 ‘거점 방어’, 인게임 재화 ‘크레딧’을 많이 획득 가능한 ‘물건 회수’로 구성된 ‘특별 의뢰’, 정해진 기간 내 보스를 공략하는 보스 레이드 콘텐츠 ‘총력전’, 공격부대 3명, 방어부대 3명 등 6명의 캐릭터를 조합해 다른 이용자와 전투하는 PvP 콘텐츠 ‘전술대회’ 등이 마련됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>대기업도 인력유출에 떤다... "개발자가 갑, 특급대우 보장"</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000640456?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>토스 "보너스 1억원"에 대기업도 연봉 줄인상내부 벤처 프로그램... "안에서 창업" 유도도"취업금지 제도 있지만 실제 소송은 어려워"실리콘밸리 출신 영입, 내부 인력 재교육도사진=게티이미지뱅크취업준비생에게 '꿈의 직장'으로 꼽히는 대기업도 개발자 인력 유출에 속앓이를 하고 있다. 이들은 파격적인 연봉 인상, 사내 창업 보장 등을 내세워 개발자 붙잡기에 나서고 있지만,  더 좋은 조건을 제시하는 인터넷 기업이나 스타트업이 속속 등장하면서 비상이 걸렸다. 10일 업계에 따르면, SK텔레콤은 최근 전 직원에게 자사주를 100주씩 지급했다. 1인당 3,000만 원가량의 파격 혜택이다. 이는 최근  개발자 연봉 인상 바람과 무관치 않다. 올해 초 네이버, 카카오, 엔씨소프트 등 인터넷·게임 기업은 개발자 유치를 위해 경쟁적으로 기본급을 1,000만 원 이상씩 인상했다. 토스의 경우 이직 시 일시 지급 보너스로 1억 원을 약속하며 개발 인력을 쓸어갔다. SK텔레콤, 삼성전자, LG전자, SK하이닉스 등 대기업도 이런 흐름을 무시할 수 없었던 것이다. "프로젝트 단위 업무... 팀 통째 이직하면 대형 사고"사실 대기업에서 소수의 개발자 유출이 전체 사업에 큰 영향을 주는 건 아니다. 하지만 현장에서는 개발 업무가 프로젝트 단위로 진행되고, 개발자마다 역량 차이가 큰 만큼 핵심 개발자의 가치는 더 오르고 있다. 전자업계 관계자는 "올 초 삼성전자 무선사업부의 인공지능(AI)  본부장급 인력이 쿠팡으로 이직하면서 내부에서 상당히 혼란스러웠다고 들었다"며 "보통 임원급 인사가 이동하면서 팀 동료까지 데려가는 경우가 많아 회사로서는 부담이 클 수밖에 없다"고 말했다.최근 개발자들이 상장을 앞둔 스타트업으로 이직하거나 창업하는 사례가 늘어나면서 대기업도 이에 발맞춰 사내 벤처 프로그램을 운영하고 있다. 삼성전자는  임직원에게 1년간 현업에서 벗어나 자기 사업에 전념할 수 있는 환경을 제공하고, 실패할 경우 다시 회사로 복귀할 수 있도록 보장하고 있다. 밖에 나가지 말고, 안에서 마음껏 창업하란 얘기다. 개발자의 1순위 기업으로 꼽히는 네이버나 카카오(네카오)도 인력난을 호소한다. 당근마켓, 두나무, 호갱노노 등 네카오 출신이 창업한 스타트업이 잇따라 성공하면서 낮에는 회사에서 일하고, 밤에는 창업을 준비하는 직원이 늘고 있기 때문이다. 게다가 신규 사업에 뛰어드는 대기업에서도 이들 인력을 호시탐탐 노리고 있다. 지난 4월 현대차에선 송창현 전 네이버 최고기술책임자(CTO)를 본부장으로 영입하면서 주목 받았다.대부분 기업에서는 1~2년 내 동종업계 취업 제한 규정을 두고 있지만 실제 이를 근거로 소송까지 가는 경우는 드물다. 인터넷 업계 관계자는 "거물급이 아니면 실제 경쟁사에 다니고 있는지 알기 어려운 게 사실"이라며 "소송을 걸 경우 고급인력 이직 사실이 알려져 오히려 회사 이미지에도 악영향이 가는 것도 고려하고 있다"고 전했다.KT는 사내 인력을 대상으로 인공지능(AI), 클라우드 교육을 진행, 개발 인력으로 전환하고 있다. 사진은 1월 온라인으로 열린 사내교육 프로그램 '미래인재육성 프로젝트’ 입교식. KT 제공."실리콘밸리 출신은 부르는 게 값... 비개발 인력 코딩 교육 시키기도"대기업은 인력 유출 최소화에 힘을 쏟는 한편 충원에도 열중이다. 주로 구글, 아마존 등 실리콘밸리 출신 개발자나 아이비리그급 대학에 다니고 있는 개발 인력이 주요 공략 대상이다. 재택근무가 활성화되면서 채용 가능한 인재풀도 더 확대됐다. 기존 직원을 개발 인력으로 전환하거나 일단 비전공자를 뽑아 개발자로 키우겠다는 기업도 있다. KT의 경우 현장직 등 비개발 직원에게 6개월간 AI·클라우드 교육을 진행해 개발자로 육성한다는 계획을 추진하고 있다. 한 정보기술(IT) 업체 인사담당자는 "실리콘밸리에서 근무하는 40대 한인 개발자의 경우 관리자급으로 올라가야 하는 상황에서 한계를 느끼고 있어, 주로 이들을 공략한다"며 "핵심 인력은 부르는 게 값이라 자체 육성도 병행하고 있다"라고 귀띔했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>매일유업, 국내 최초 모유올리고당 성분 적용 분유 리뉴얼 출시</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004732119?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 매일유업이 국내 최초로 모유 올리고당 2'-O-푸코실락토오스(2FL, 투에프엘) 성분을 적용해 리뉴얼한 '앱솔루트 엄마의 마음 프리미엄 명작'을 출시했다고 1일 밝혔다.   매일유업은 생후 24개월까지는 아기의 자기방어 체계 형성에 매우 중요한 시기라는 점에 주목하고, 이번 리뉴얼 제품에 매일유업만의 차별화된 자기방어 업그레이드 설계를 적용했다. 업그레이드의 핵심은 바로 2FL 성분이다. 이는 모유에서 3번째로 많은 영양 성분인 모유 올리고당(HMO) 중에서도 가장 함량이 높은 성분이다.   2FL은 아기의 자기방어 체계를 형성하는 성분이다. 그동안 국내 생산 분유에는 적용되지 못했지만 매일유업이 바이오 벤처 기업 에이피테크놀로지와의 공동 연구 끝에 국내 최초로 2FL이 적용된 '앱솔루트 엄마의 마음 프리미엄 명작'을 개발하는 데 성공했다고 회사 측은 전했다.   리뉴얼된 앱솔루트 엄마의 마음 프리미엄 명작은 자기방어 설계, 두뇌와 눈 영양설계, 원료 설계 등 엄마의 마음을 담아 새로운 기준으로 업그레이드한 것이 특징이다. 먼저 자기방어 설계를 위해 핵심 성분 2FL을 비롯해 모유 올리고당 성분인 갈락토실락토스(GL), 사이알릭락토스(SL)를 멀티 배합했다. 여기에 두뇌 구성 성분인 DHA와 MFGM(유지방구막)을 추가하고, 체내에서 합성되지 않아 외부로부터 섭취해야 하는 황반 구성 물질 루테인과 지아잔틴도 포함했다. 뉴질랜드 자연방목으로 풀을 먹고 자란 젖소의 우유로 만든 Grass-Fed 인증 원료를 사용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>한미약품, 백혈병 치료제 후보물질 최대 5000억원 규모 기술수출</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003650951?sid=105</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>한미약품										한미약품이 백혈병 치료제로 개발 중인 후보물질을 최대 5000억원 규모의 기술수출을 했다.한미약품은 급성골수성 백혈병(AML) 치료 혁신신약으로 개발 중인 ‘FLT3억제제(HM43239)’를 캐나다 생명공학 회사 앱토즈 바이오사이언스에 기술수출했다고 4일 밝혔다. 캐나다에 본사를 둔 앱토즈는 혈액질환 분야 연구개발 전문 생명공학회사로 미국 나스닥에 상장돼 있다.한미약품은 앱토즈로부터 확정된 계약금 1250만 달러(약 150억원)를 500만 달러의 현금과 750만 달러 규모의 앱토스사 주식으로 나눠 받는다. 이후 다양한 적응증에 대한 단계별 임상, 개발과 허가, 그리고 상업화 마일스톤(기술료)으로 최대 4억750만 달러(약 5000억원)를 수령하며, 판매에 따른 단계별 로열티도 받게 된다.HM43239는 급성골수성백혈병(AML)을 유발하는 ‘FLT3 돌연변이’와 ‘SYK’를 이중 억제하는 혁신신약이다. 골수성 악성종양의 증식, 분화, 내성 등의 치료 과정에 관여한다. 현재 HM43239는 미국에서 급성골수성백혈병 환자 대상으로 임상 1·2상이 진행되고 있다. HM43239는 2018년 미국 FDA로부터 희귀의약품(ODD)으로, 2019년 한국 식약처로부터 개발 단계 희귀의약품으로 지정됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>토스증권, 다음달부터 해외주식 서비스…사전신청 접수</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012764332?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 서비스 사전신청[토스증권 제공](서울=연합뉴스) 이미령 기자 = 토스증권은 다음 달 해외주식 서비스 개시를 앞두고 사전신청 접수를 시작한다고 2일 밝혔다.    토스증권은 오는 22일까지 신청한 고객을 대상으로 해외주식 서비스를 순차 오픈할 계획이다.    거래 종목은 미국 증시에 상장된 주식과 상장지수펀드(ETF) 등 500개에서 시작해 점차 늘려나갈 계획이라고 토스증권은 설명했다.    해외주식 소수점 거래는 내년 1분기에 제공한다.     별도 애플리케이션(앱) 설치 없이 토스 앱 내 모바일트레이딩시스템(MTS)을 통해 이용할 수 있다.    토스증권 관계자는 "인공지능(AI) 기반의 실시간 해외뉴스 번역 서비스, 무료 실시간 시세, 자동 환전을 통한 원화 거래를 통해 국내 주식투자와 다름없는 간편한 투자 경험을 제공하겠다"고 밝혔다.    토스증권은 사전신청 고객에게 3개월 해외주식 매매 수수료 무료 혜택을 주고 친구 초대 시 혜택을 3개월 연장해주기로 했다.    already@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>예탁원, 미국 주식 소수단위 거래 지원 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004739597?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]앞으로 20개 증권사의 전산시스템 구축 일정 등에 따라 이르면 연내에 증권사를 통해 해외주식 소수단위 거래가 가능해진다. 2019년도에 이미 혁신금융서비스 지정을 받았던 신한금융투자와 한국투자증권을 이용하는 투자자의 경우 기존과 동일하게 해외주식 소수단위 거래 가능하다.   한국예탁결제원은 20일 금융위원회가 정례회의를 통해 혁신금융서비스 신규 지정을 최종 결정함에 따라 각 증권사의 해외주식 소수단위 거래를 지원하는 서비스 구축을 완료했다고 밝혔다.   예탁원은 "투자자는 다양한 증권사를 통한 해외주식 소수단위 거래를 할 수 있게 돼 분산 투자 기회가 확대되고, 증권사 서비스 경쟁에 따른 다양한 금융서비스 등 부가적인 혜택이 기대된다"고 밝혔다.   증권사는 투자자의 소수단위 주문을 취합 후 온주화 해 매매 후 결제 지시하고, 자기 및 투자자 보유 소수단위 내역을 투자자계좌부에 기재한다.   예컨대 미국 주식(미국 ETF 포함) 중에서 각 증권사가 자체적으로 종목을 선별한다. 투자자가 주문한 애플 2.7주에 증권사 자기재산 0.3주를 합한 총 3주를 예탁결제원에 결제를 요청한다. 예탁원은 3주를 결제·보관 관리하는 방식이다.   예탁원은 예탁자계좌부(투자자분)에 '소수단위 전용 예탁계좌'를 신설해 해당 주식을 온주 단위로 결제·보관·권리행사를 관리한다.   예탁원 관계자는 “소수단위 전용 예탁계좌를 관리하고 감독당국 요청시 계좌 내의 투자자분 및 증권사 자기분 보유 현황을 보고한다"면서 "당금 등 주요 경제적 권리를 온주와 동일하게 각 증권사에게 보유비율(온주단위)에 따라 비례적으로 지급한다"고 말했다.   한편 투자자 수요가 많은 고가의 미국 우량주에 대한 진입장벽을 낮추어 건전한 포트폴리오 분산 투자 문화 조성 기대된다. 핀테크 기반 증권사(카카오, 토스 등)의 신규 진출 등 증권사 간 차별화된 서비스 제공과 건전한 경쟁 기반 마련이 예상된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.11.13.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>대출 늘고 금리 올라 역대급 실적…4대 금융지주 ‘날갯짓’</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000040925?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>━   레거시 은행 화려한 귀환       개인 투자자 이모(53)씨는 약 3개월 전 자신의 선택에 크게 만족하고 있다. 8월 말에 이씨가 거금을 들여 새로 투자한 종목은 우리금융지주였다. 석 달 만인 11월 현재 수익률이 25%가 넘는다. 이씨는 “당시 인터넷전문은행인 카카오뱅크의 상장에 주변에서 ‘기존 은행주(株) 투자는 조심하라’고 했지만, 나는 일시적 열풍에 그칠 걸로 봤다”며 “결국 내 분석이 맞았다”고 전했다. 8월 6일 코스피에 상장한 카카오뱅크의 주가는 그 달에 9만원대까지 치솟았다. 하지만 지금은 6만원대에 머물러 있다. 이와 달리 우리금융 외에도 KB·신한·하나 등 4대 금융지주는 모두 연초 대비 주가가 크게 올랐다.      이들 금융지주의 핵심 계열사는 은행이다. 결국 저금리 기조와 성장의 한계로 과거라면 증시에서 별 주목을 못 받았을 기성 은행권, 이른바 ‘레거시 은행’이 화려하게 귀환한 것이다. 주가 상승의 배경은 ‘현재진행형’인 역대 최고의 실적이다. KB금융의 올해 3분기 순이익은 1조2980억원으로 분기 기준 사상 최대치를 기록했다. 1~3분기 누적 순이익도 3조7700억원으로 전년 동기보다 31% 증가한 사상 최대다. 신한금융(3조5594억원)과 하나금융(2조6815억원), 비상장사인 NH농협금융(1조8247억원)도 올해 1~3분기 전년 동기보다 20~30%대 증가한 사상 최대 순이익을 달성했다. 우리금융(2조1983억원)은 무려 92.8% 급증했다.      레거시 은행이 이처럼 역대급 호실적을 거둔 것은 코로나19 팬데믹 여파와 관련이 깊다. 유례를 찾기 힘든 유동성 파티에 부동산 등 실물자산 가격이 급등하면서 가계대출이 크게 늘어났고, 이는 고스란히 각 은행의 이자이익 급증으로 이어졌다. 실제 KB·신한·하나·우리·NH농협 5개 금융지주의 올해 1~3분기 누적 이자이익은 31조3140억원으로, 전년 동기보다 12.2% 증가했다. 이에 힘입어 다른 영업도 탄력을 받으면서 비(非)이자이익 역시 급증했다.      그래픽=박춘환 기자 park.choonhwan@joongang.co.kr            금융권의 한 관계자는 “금리 인상 효과로 4분기에도 무난한 호실적이 예상된다”며 “사상 최초로 연 4조원대 순이익 달성에 성공하는 금융 그룹이 등장할 것이 확실시된다”고 말했다.      사실 레거시 은행은 인터넷전문은행의 등장 이후 이들과의 경쟁에서 뒤처질 수 있다는 위기론에 휩싸인 바 있다. 오프라인 영업점을 통한 대면 거래 대신, 모바일과 PC 등을 통한 100% 비대면 거래로 승부하는 인터넷전문은행의 방식이 신규 유입이 많은 20·30대에게 훨씬 잘 통하는 데다 코로나19 사태까지 터져서다. 그러나 레거시 은행도 공을 들인 비대면 채널 강화에서 소기의 성과를 내고 있어 막상 뚜껑을 열어보니 ‘구관이 명관’인 모양새다.      물론 레거시 은행처럼 역대급 유동성 파티의 영향을 받은 인터넷전문은행도 실적 개선에는 성공하고 있다. 카카오뱅크의 올 1~3분기 순이익은 1679억원으로 전년 동기(895억원)보다 95.6% 증가했다. 케이뱅크도 84억원으로 흑자 전환에 성공했다. 지난해 1~3분기엔 -703억원이었다. 지난달 출범한 토스뱅크 역시 이들의 뒤를 이어 시장에 연착륙한다는 목표다.        하지만 문제는 가뜩이나 레거시 은행과의 경쟁에서 규모로 밀리는 상황에서, 유일한 희망이던 폭발적 성장세를 순조롭게 유지할 수 있느냐다. 최근만 놓고 보면 오히려 성장성에 제동이 걸린 상황이다. 특히 금융당국의 가계대출 총량 규제가 큰 걸림돌이다. 앞서 금융위원회는 가계대출 잔액의 연간 증가율을 6% 선으로 묶기로 하면서 각 인터넷전문은행에 중저신용자(신용등급이 4~6등급으로 하위 50%인 차주) 대출 비중을 2023년 말까지 30% 이상으로 확대할 것을 지시했다.      중저신용자 혜택을 늘리라는 얘기인데, 기업대출 없이 가계대출만 취급할 수 있는 인터넷전문은행으로선 일반 가계대출을 최대한 줄이라는 얘기여서 사실상 규제로 읽힌다. 특히 중저신용자 대출은 예대마진(대출 이자에서 예금 이자를 뺀 나머지)이 높지만 비례해서 연체 위험도 큰 편이다. 대손충당금 전입액이 늘면서 수익성이 나빠지는 결과로 이어지기 쉽다. 카카오뱅크만 해도 중저신용자 대출 비중을 확대하면서 올해 1~3분기 대손충당금이 598억원 쌓였다. 전년 동기보다 70%가량 급증한 수치다. 대손충당금 적립률은 3분기 말 기준 228%에 달했다.        한국은행은 9월에 낸 보고서에서 인터넷전문은행이 2023년까지 중저신용자 대출 비중을 계획대로 확대할 경우, 내년부터 연체율이 1.7~2.2% 상승할 것으로 추산했다. 올해보다도 내년과 내후년이 더 문제라는 얘기다.      그런데 지난해 말 인터넷전문은행의 중저신용자 대출 비중은 12.1%로 국내 은행 평균치(24.2%)의 절반에 그쳤다. 올해 3분기까지도 카카오뱅크와 케이뱅크의 중저신용자 대출 비중은 각각 13.4%, 15.5%였다. 두 은행은 이를 연말까지 20.8%, 21.5%로 확대해야만 2023년 말 30%대 달성에 다가설 수 있다. 그러려면 올해 4분기엔 중저신용자 대출에 사실상 ‘올인’해야 한다는 결론이 나온다.      이런 가운데 레거시 은행은 가계대출 증가세를 억제한다는 명분 아래, 가산금리를 높여 수익성을 한층 키우려는 식으로 대응하고 있다. 최근 청와대 온라인 홈페이지에 은행권의 가산금리 폭리를 막아달라는 국민청원 글까지 올라왔을 정도다. 10일 국회 예산결산특별위원회에 출석한 홍남기 경제부총리 겸 기획재정부 장관은 이에 대해 “정부가 강제적으로 개입할 수 있는 부분은 많지 않다”며 선을 그었다. 서지용 상명대 경영학부 교수는 “차주들이 일정 조건을 충족해서 금리인하요구권 청구나 대환대출(고정금리로 갈아타는 것)로 대응할 수 있다”며 “이를 모르는 경우도 많으므로 정부가 적극 홍보할 필요가 있다”고 지적했다.      다만 레거시 은행이 내년에도 올해 같은 역대급 호실적 달성을 재현하긴 어려울 것이라는 전망이 나온다. 가계대출 총량 규제가 이들한테도 더 영향을 미칠 것인 데다, 코로나19 금융지원이 종료되면 재무 건전성 악화라는 성적표가 남게 돼서다. 한국금융연구원은 은행권의 대출 증가율(전년 대비)이 올해 8.3%에서 내년 5.2%로 하락하는 한편, 전체 순이익도 올해 17조9000억원에서 내년 16조8000억원으로 1조원 이상 감소할 것으로 전망했다. 은행주 투자자라면 이를 참고해서 향후에 대응해야 한다는 분석이다.      코로나 피해 기업, 내년 부실 가능성…은행 재무 건전성 강화 시급    서울 여의도 KB국민은행 본점. [중앙포토]       역대급 호실적 덕에 미소로 연말을 보낼 레거시 은행이지만, 내년부터는 ‘위드 코로나’ 후폭풍에 고민이 다시 커질 전망이다. 일단 내년 3월 소상공인 등에 대한 코로나19 금융지원, 즉 대출의 만기 연장과 상환 유예 조치가 완전히 종료된다. 그러면서 은행권의 재무 건전성도 나빠질 가능성이 크다. 이미 코로나19 직격탄을 맞은 차주들의 채무 상환 능력이 떨어질 대로 떨어진 상황이어서다. 김영도 금융연구원 은행·보험연구1실장은 지난 8일 대외 세미나에서 “은행권 대손충당금이 내년엔 올해보다 2조원가량 늘어난 8조원에 달할 것”으로 내다봤다.    금융당국도 이를 우려하면서 은행권의 각별한 주의를 요구하고 있다. 노영후 금융감독원 건전경영팀장은 “현재 은행업 지표엔 정책 자금 지원과 만기 연장, 상환 유예 등에 따른 부실 리스크가 일부 감춰졌을 수 있음을 고려해야 한다”며 “코로나19로 피해가 컸던 한계 기업이나 취약 기업의 부실이 현실화할 가능성이 있다”고 말했다.     지난 8월 코스피에 상장한 카카오뱅크. [뉴시스]       최근 국내 금리 인상과 글로벌 원자재 가격 상승 등 여파로 산업계 전반에서 영업비용도 급증한 상황이다. 취약·한계 기업들엔 엎친 데 덮친 격이라 부실 위험성이 한층 커졌다. 금융권이 경영의 고삐를 바짝 죄고 위드 코로나에 따른 리스크 최소화에 미리 나서야 한다는 목소리가 나오는 이유다.    재무 건전성 강화를 위해서는 포스트 코로나 시대에 중요성이 더욱 커질 디지털 전환에도 계속 사활을 걸어야 한다는 분석이다. 당장은 은행업에선 인터넷전문은행과의 대결에서 압승했지만, 정보통신기술(ICT) 산업의 금융업 전반에 대한 공습은 날로 기세를 더하고 있다. 예컨대 간편결제 플랫폼을 앞세운 네이버파이낸셜은 올 2분기 거래액이 9조1000억원으로 전년 동기보다 52% 급성장했다. 경쟁사 카카오페이도 3분기에 전년 동기 대비 41% 증가한 22조원가량의 거래액으로 순항 중이다.    결국 기성 금융권도 시대적 흐름에 맞게 디지털 전환 가속화로 정면 승부하는 수밖에 없다. 김수현 신한금융투자 기업분석파트장은 “기성 금융권은 아직도 실패를 용인하지 않는, 변화를 두려워하는 문화를 가졌다”며 “기술로 빅테크를 이기려 하기보다 고객이 뭘 원하는지 맥락을 파악해 스토리텔링이 있는 금융 서비스 중심의 디지털 전환으로 승부해야 할 것”이라고 분석했다. 김연준 금융위원회 은행과장은 “레거시 은행이 영업방식과 사업 모델 등에서 변화할 수 있게 재교육을 진행하고, 빅테크와의 협업 구조 조성을 추진할 계획”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>가계대출 막히자...기업대출 천장 뚫렸다(종합)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003983874?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>금융권 가계대출 고강도 규제에지난달 증가세 둔화...6.1조 늘어은행 기업대출은 한달새 10.3조↑2004년 이후 상승폭 역대 최대서울 시중은행 대출 상품 관련 안내문./연합뉴스[서울경제] 지난달 전 금융권의 가계대출 증가 폭이 약 6조 원으로 증가세가 다소 둔화됐다. 금융 당국의 전방위적인 대출 조이기가 영향을 미친 것으로 풀이된다. 은행들은 가계대출 규제가 강화된 틈을 타 기업대출 늘리기에 집중하는 모양새다.금융위원회는 이 같은 내용의 ‘2021년 10월 중 가계대출 동향’을 10일 발표했다. 지난달 전 금융권 가계대출은 6조 1,000억 원 늘어나 전월(7조 8,000억 원)보다 증가 폭이 줄었다. 올해 초 ‘빚투(빚내서 투자)’ ‘영끌(영혼까지 끌어모은 투자)’ 열풍으로 전 금융권의 가계대출 증가액은 1~3월까지 약 10조 원대를 기록하다가 4월 25조 4,000억 원으로 껑충 뛰었다. 이후 금융 당국의 대출 규제 강화로 감소와 증가를 반복하다 7월(15조 3,000억 원) 이후 지속적으로 감소하는 추세를 이어가고 있는 셈이다.대출 항목별로 보면 주택담보대출이 5조 3,000억 원 증가해 전월(6조 7,000억 원)보다 1조 4,000억 원 감소했다. 대출 규제 강화로 주택 매매 거래량이 감소한 점이 영향을 미친 것으로 보인다. 실제로 전국 주택 매매 거래량은 9월 8만 2,000가구로 6~8월 내내 8만 9,000가구를 유지한 데서 감소세로 전환했다. 기타 대출은 신용대출 외 여타 대출이 감소함에 따라 지난달 8,000억 원 늘어나는 데 그쳤다. 전월에는 증가 폭이 1조 2,000억 원이었다.업권별로는 지난달 은행권 가계대출이 5조 2,000억 원 늘어 전달(6조 4,000억 원)에 비해 증가 폭이 1조 2,000억 원 축소됐다. 주담대는 전월(5조 6,000억 원)보다 준 4조 7,000억 원 늘어난 것으로 집계됐다. 전세대출의 증가 폭은 전월 2조 5,000억 원 대비 3,000억 원 준 2조 2,000억 원을 차지했다. 다만 정책모기지는 전달과 같은 증가 폭(8,000억 원)을 기록했다.은행권의 신용대출은 지난달 6,000억 원 증가했다. 10월 중 영업을 시작한 토스뱅크(5,000억 원 증가)가 증가 폭의 대부분을 차지했다. 반면 KB국민·신한·하나·우리·NH농협은행의 신용대출은 2,000억 원 감소했다.제2금융권 가계대출은 9,000억 원 증가해 전월(1조 5,000억 원)에 비해 증가 폭이 크게 줄었다. 특히 상호금융의 증가 폭이 같은 기간 1조 8,000억 원에서 3,000억 원으로 크게 감소했다.가계대출이 주춤한 사이 기업대출은 사상 최대 폭으로 증가했다. 은행들이 가계대출 대신 기업대출로 눈을 돌린 결과다. 한국은행의 ‘2021년 10월 중 금융시장 동향’에 따르면 지난달 은행권의 기업대출은 전월 말 대비 10조 3,000억 원 증가한 1,059조 3,000억 원으로 집계됐다. 10월 기준으로 통계 작성을 시작한 2004년 이후 가장 큰 폭으로 증가한 수준이다.코로나19로 타격을 크게 입은 중소기업이 기업대출의 증가세를 견인했다. 중소기업대출은 8조 원 늘어난 881조 원으로 기록됐다. 이는 10월 기준으로 관련 통계 속보치 작성 이후 두 번째로 큰 증가 폭이다. 대기업대출은 9월 말에 비해 2조 3,000억 원 늘었다.금융 당국은 급증하는 가계대출을 잡는 데 중점을 둔 만큼 가계대출에서 규제 강화 기조를 계속 유지할 방침이다. 금융위 관계자는 “가계대출은 올 7월을 정점으로 증가세가 점차 둔화되는 등 안정세를 점차 찾아가고 있는 추세”라며 “금융 당국은 지난달 26일 발표한 가계부채 관리 강화 방안의 차질 없는 시행 등 가계부채 연착륙을 위한 노력을 지속하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>값 비싼 해외주식 소수점 거래한다... 금융위, 혁신금융서비스 31건 지정</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000773579?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>일러스트=정다운        앞으로 증권사 앱에서 해외주식의 소수점 거래 서비스를 할 수 있다.금융위원회는 12일 정례회의를 통해 31건의 혁신금융서비스를 신규 지정했다.이번 혁신금융서비스 지정을 통해 총 20개 증권사 앱에서 해외주식 소수점 거래 서비스를 시작한다. 이 서비스는 투자자가 증권사의 거래시스템(HTS, MTS 등)을 통해 해외주식을 소수단위로 매매할 수 있는 것이다.이달 한국예탁결제원의 시스템 오픈 이후, 순차적으로 각 증권사의 해외주식 소수점 거래 서비스가 출시될 예정이다. 향후 증권사별 전산개발 상황 등에 따라 최대 소수점 아래 여섯째 자리까지 서비스를 제공할 것으로 보인다.금융위 관계자는 “고가 해외주식에 대한 개인투자자의 접근성이 확대되고, 소액으로 분산투자가 가능해 포트폴리오 관리의 효율성도 높일 수 있을 것으로 기대된다”고 말했다.또 내년부터 복잡한 인증 절차 없이 안면인식만으로 증권앱에 가입할 수 있게된다.안면인식 기술을 표현한 컴퓨터 그래픽 이미지        한국투자증권과 미래에셋증권은 안면인식 기술을 활용한 비대면 실명확인 서비스를 실시한다. 실명확인증표 사진과 얼굴 촬영 화면의 특징점 등을 대조해 일치여부를 판별하는 원리다.금융위는 안면인식기술을 활용해 실명확인증표의 사진과 고객이 촬영한 얼굴사진을 대조하는 방식을 비대면 실명확인 방법 중 한 가지 방법(영상통화를 대체)으로 이용할 수 있도록 특례를 부여했다.한국투자증권은 내년 5월, 미래에셋증권은 내년 6월 서비스를 출시할 예정이다.금융위 관계자는 “영상통화에 익숙하지 않은 고객 편의를 높이고 영상통화를 이용할 수 없는 금융회사 비업무시간에도 계좌개설이 가능할 것으로 기대된다”라고 했다.BNK자산운용, 교보증권, 키움증권, 현대차증권은 내년 중으로 온라인쇼핑 플랫폼을 통한 금융투자상품권 거래 서비스를 시작한다. 이 서비스를 통해 소비자는 금융회사의 금융투자상품권을 온라인 쇼핑 플랫폼에서 구매·선물하고, 동 상품권을 금융회사 앱에 등록후 금융투자상품에 투자할 수 있다.토스를 운영 중인 비바리퍼블리카는 ‘소액 후불결제 서비스’를 내년 3월 출시한다. 이 서비스는 선불전자지급수단으로 재화 또는 용역을 구매하려는 소비자가 포인트 잔액 부족시, 비금융·비정형 데이터를 활용한 대안신용평가 후 월 30만원 한도 내에서 후불결제를 제공하는 것이다.금융위 관계자는 “소비자에게 편리한 결제서비스가 제공되고, 신용카드 이용이 곤란한 청년, 주부 등 금융소외계층에도 소액신용 기회가 제공되는 등 금융접근성이 높아질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>스타트업 만난 이재명 “과도한 규제, 창업환경 훼손해…국가 투자 필요”</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036886?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>8일 열린 '스타트업 정책 토크'에 참석한 (왼쪽부터) 이승건 비바리퍼블리카(토스) 대표, 이재명 더불어민주당 대선후보, 김슬아 컬리 대표, 최성진 코리아스타트업포럼 대표. (사진=블로터)“정부의 과도한 규제가 창업 환경을 훼손하고 있는 것이 분명하다. 자유로운 창업 환경을 만들고, 실패를 자산화할 수 있는 사회를 만들어야 한다. 이를 위해 대대적 국가 투자가 필요하다. 특히 우리도 대공황 시대 미국 루스벨트 대통령처럼 국가 역할을 강화하고 국가 책임을 늘려야 할 시점이 왔다고 생각한다.”이재명 더불어민주당 대선후보는 8일 오전 서울 성동구에 위치한 패스트파이브에서 코리아스타트업포럼(코스포)이 개최한 ‘스타트업 정책 토크’에 참석해 이같이 말했다. 코스포는 스타트업 생태계 발전을 지원하고 공동의 이익을 대변하기 위해 스타트업으로 구성된 단체다. 이날 행사는 스타트업들이 이 후보에게 업계의 목소리를 전달하기 위해 마련됐다.이 후보는 스타트업에 대한 투자의 중요성을 강조하면서 한국 경제의 미래가 스타트업에게 달려 있다는 점을 강조했다. 이 후보는 “우리 사회 젊은이들 중심으로 극심한 경쟁 속에 분열과 갈등이 심화되고 있는 뿌리에는 저성장 사회가 있다”면서 “오징어게임처럼 누군가를 밀어내야 생존할 수 있는 저성장 사회를 해결하기 위한 출발점은 디지털 전환, 미래 산업이고 이는 스타트업에게 달렸다”고 설명했다.그러면서 이 후보는 정부의 핵심 역할이 시장에서 자유로운 경쟁이 제대로 작동할 수 있도록 기회의 장을 열어주는 것이라고 정의했다. 이를 위해 재정적 지원, 기술개발 지원 등도 중요하지만 ‘규제혁신’이 중요하다고도 덧붙였다. 이 후보는 “현재는 사회발전 속도가 과거보다 매우 빨라서 현장을 충분히 예측하기 어렵다”면서 “정부의 기본적 규제 방향을 예측 가능한 문제들을 제거한 후 이후 문제를 보완하는 방식으로 갔으면 한다”고 말했다.이에 이날 참석한 스타트업 대표들은 정부의 과도한 규제로 인한 현장에서의 어려움을 쏟아냈다. 김슬아 컬리 대표는 “포지티브 형태(법률이나 정책상 허용되는 것 외 모두 금지하는 규제 방식)다 보니 특정 사안에 대해서도 각 기관마다 의견이 다른 경우가 있어 여러 군데 문의하다보면 1년 정도 시간이 가기도 한다”면서 “스타트업은 스피드가 생명이기 때문에 규제에 대한 전반적 방향성이 바뀌어야 한다”고 언급했다. 이승건 비바리퍼블리카(토스) 대표도 “토스는 금융 관련 분야다 보니 대부분 처음에 불법이었다”면서 “규제를 푸는 데만 몇 년을 썼다”고 덧붙였다. 코스포는 과감한 규제 혁신이 필요하다며 구체적으로 △자율규제와 사후규제로 전면 개편 △규제샌드박스 제도 혁신 △민간주도 규제혁신 플랫폼 구축 등을 요청했다. 특히 글로벌 디지털 경제의 새로운 질서를 선도하기 위해 빠른 규제혁신이 필요하다는 점을 강조했다. 안성우 직방 대표도 “스타트업이 사회문제를 해결하고 혁신하려 노력하지만 글로벌에선 역부족”이라며 “국내 문제 푸는 데 집중하느라 글로벌로 나아가지 못하고 있는 것”이라고 지적했다.현장의 목소리를 들은 후 이 후보는 그가 경기도지사로 재직할 당시 도입한 ‘원스톱 지원제도’를 해결책으로 제시했다. 이는 민원을 접수한 창구 공직자가 관련 문제를 끝까지 책임지도록 해 부서 간 떠넘기기 등의 문제가 일어나지 않도록 하는 것이다. 다만 이 후보는 혁신의 결과를 누리는 건 당연하지만 그 결과로 독점을 이용해 과도한 이익을 추구하는 건 자제해야 한다는 점도 덧붙였다. 그러면서 이 후보는 “공공배달앱을 배달의민족이 이겨내시길 바란다”고 웃으며 말하기도 했다. 이 후보가 경기도지사 재직 시절 소상공인과 소비자 상생을 위해 개발한 공공배달앱 '배달특급'은 이달 7일 기준 총 누적 거래액 800억원을 기록, 시장에 성공적으로 안착했다는 평가를 받고 있다. 마지막으로 이 후보는 “좋은 일자리를 만들려면 창업을 많이 해야 하고, 그래서 우리 경제 미래가 스타트업에게 달려 있다고 생각한다”면서 “정책에 반영해 우리가 혁신경제로 나아가는 좋은 계기로 만들겠다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[데스크라인]생존 기로에선 금융시장</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002979787?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>카메라 필름 대명사인 코닥은 과거 명성과 노력, 투자비가 아까워서 디지털카메라로의 변화를 거부하다가 2012년 미국 연방법원에 파산을 신청했다. 뒤이어 닌텐도, 노키아, 소니도 급변하는 환경에 적응하지 못하고 줄줄이 몰락했다.요즘 한국 금융사도 비슷하다. 채널과 조직을 혁신하지 않고서는 새로운 경제 주체로 떠오른 MZ세대의 눈높이를 따라잡을 수 없다.MZ세대 등장으로 한국의 미래 금융시장도 급변하고 있다. 일각에서는 디지털 금융 삼국지 시대가 도래했다고 평한다. 빅테크, 핀테크, 빅뱅크 등 진영으로 나뉘어 미래 금융시장 패권을 놓고 플랫폼 전쟁을 벌이고 있다.빅테크에는 카카오, 네이버 등 초대형 플랫폼 기반 기업이 포진해 있다. 핀테크는 토스, 뱅크샐러드 등 신기술 기반의 혁신 스타트업 진영이다. 빅뱅크는 KB금융, 신한, 우리, NH농협, 하나금융 등 전통 금융사다.이들 세 진영은 끊임없이 경쟁하면서도 다른 한편으로 상호 협력 진영을 구축한다. 전통 금융사는 핀테크 진영과 협력해 디지털전환에 소요되는 비용과 시간을 절감하고, 핀테크 스타트업은 전통 금융의 풍부한 자본력, 리스크 관리 노하우를 접목한다.플랫폼 전쟁에서 승리의 키는 바로 '데이터'다.이미 이종기업 간 데이터 동맹은 시작됐다. 아마존과 골드만 삭스 협업 모델이 대표적이다. 양 사는 서로 부족한 데이터를 보강하기 위해 데이터 동맹을 체결했다.아마존 구매데이터와 골드만삭스의 금융데이터를 결합, 일종의 대형 금융 플랫폼을 구축했다. 데이터 동맹으로 약 1억5000만명의 신규 고객 확보 효과를 봤다.다양한 금융 서비스도 등장했다. 데이터 결합으로 최근 대안신용평가 서비스가 나오고 있다.소비자가 대출 등을 받으려면 금융정보(신용)를 바탕으로 신용등급이 매겨진다. 종전에는 오로지 금융데이터(이력)로만 평가했다. 반면에 대안 신용평가는 금융데이터와 비금융데이터를 융합해서 평가한다. 빅데이터 기반으로 다양한 정보를 활용하기 때문에 종전 신용평가 방식에서 나타나는 오류를 개선할 수 있다. 금융소외 계층이나 사회초년생, 주부 등을 제도권 안으로 편입하는 효과도 있다.데이터 컨설팅과 판매사업도 새로운 미래 금융 서비스로 떠올랐다. 데이터 선점 진영이 MZ세대의 파트너가 될 것이다.MZ세대의 재테크 정보 획득은 온라인 채널이 압도적이다. 지난 2018년에는 친구나 가족, 금융기관 상담 등 전통 방식이 상위권에 속했지만 최근 재테크 정보 획득 경로 1위는 온라인 커뮤니티다. 정보화 시대 핵심은 데이터로 요약된다. 즉 데이터 동맹에 성공하는 진영이 미래 금융시장을 독식할 것으로 보인다.데이터 동맹에 이어 메타버스 기술 도입도 한창이다. 메타버스는 가상을 뜻하는 메타(META)와 현실 세계를 일컫는 유니버스(UNIVERSE)의 합성어다.최근 금융권이 메타버스 활용에 사활을 걸었다. 조회와 이체 등 기능 중심 금융 채널은 이제 자산관리 등 정보 중심 플랫폼으로 역할이 바뀌고 있다. 미래금융 시장에서 업권 간 경계 없이 다양한 혁신과 파괴가 벌어지고 있다.전문가들은 데이터 융합을 통한 종합금융 플랫폼을 만든 곳만이 최종 승자가 될 것으로 예상하고 있다. 고객, 특히 MZ세대에게 토털 서비스를 제공할 수 있는 플랫폼만이 금융시장에서 독자생존할 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>티웨이항공, 복지포인트로 항공권 결제 서비스 최초 시행</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002544907?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>복지포인트 활용 항공권 결제 다양화로 고객 편의 확대티웨이 항공기 이미지.ⓒ티웨이항공[데일리안 = 이홍석 기자] 티웨이항공이 복지포인트를 통한 항공권 결제 서비스를 국내 항공사 최초로 선보인다.티웨이항공은 3일부터 선택적 복지제도 위탁 운영 기업인 현대이지웰와 손잡고 항공권 구매 시 복지포인트를 통해 결제가 가능한 서비스를 선보였다고 4일 밝혔다.선택적 복지제도는 기업과 기관들이 임직원들에게 제공한 기존의 일률적(하향식) 복지 서비스에서 임직원들의 상황과 기호, 라이프스타일에 맞게 사용할 수 있는 수요자 중심의 맞춤형 복지제도다.이를 통해 임직원들은 복지포인트로 필요한 서비스 및 상품을 가맹점과 온라인에서 이용하고 있으며 여행과 관련한 항공권 결제를 이번에 티웨이항공에서 사용할 수 있도록 새롭게 추가해 시행하게 됐다.해당 서비스를 이용하기 위해서는 티웨이항공 모바일 웹과 애플리케이션(앱)에서 항공권 선택 후 결제 수단 선택 시 이지웰Pay(복지포인트)를 통해 결제를 진행하면 된다.티웨이항공은 고객들의 결제 편의 확대를 위해 기존 현금 및 카드 결제 외에 티웨이페이·네이버페이·카카오페이·토스·페이코·페이팔·유니온페이 등 다양한 간편결제 서비스를 제공하고 있다.티웨이항공 관계자는 “이번 복지포인트 결제 서비스 확대를 통해 포인트를 보유한 많은 고객들의 항공권 이용 편의가 확대될 것으로 기대하고 있다”며 “앞으로도 고객들의 편의와 차별화된 서비스를 지속적으로 개발해 제공해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>10억 줄 테니 '이재명 연루' 종용?...박철민 옥중 편지 전문 공개</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001663695?sid=102</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>이준석 전 코마트레이드 대표 "친분도 없는 박철민이 10억 얘기하며 허위 제보 부탁"박철민 부친 "편지 보낸 건 사실이나 아들 모른다는 건 말도 안돼"성남지역 폭력조직이 이재명 더불어민주당 대선 후보에게 뇌물을 줬다는 주장과 관련해 '이재명 조폭 연루설' 의혹의 당사자로 지목된 이준석 전 코마트레이드 대표에게 보낸 편지들을 입수했다.공동 공갈 등의 혐의로 징역 4년 6개월을 선고받고 수원 구치소에 수감 중인 박철민이 지난 8월부터 이 전 대표와 그의 변호사에게 보낸 7~8통의 서신 중 일부이다.이와 관련해 이 전 대표는 지난 8일, TBS '김어준의 뉴스공장'과의 인터뷰에서 "(박철민 씨와) 개인적인 친분이 없고, 따로 만난 적이 없다"며 "본인이 국제마피아파 조직원이었다고 얘기를 해서 물어봤더니 저희 물류창고 직원하고 박철민 씨하고 셋이 친구"라며 박 씨와의 관계에 대한 의혹을 전면 부인했다.또한 "(박철민이) 일단 사업자금을 도와드리겠다, 10억 정도", "있지도 않은 이재명 지사님 비위 사실을 공익 제보를 해줘라. (그러면) 10억을 주고 보석해 주고 감형해 주고..."라고 주장했다.편지에는 박철민이 '형님', '회장님' 등의 호칭을 사용하며 "국민의힘 검증팀에서 당신(이준석)의 비리를 다 검증해놨기 때문에 협조하지 않으면 다친다", "이재명 지사의 부적절한 부분에 대한 자료를 준다면, 국민의힘과 이낙연 캠프에서 당신에게 힘을 실어줄 것"이라고 적혀있다.또한 "국민의힘과 이낙연 캠프에서 형님께 힘껏 힘을 실어드리고, 이재명 지사와의 부적절한 부분에 대해 형님께서 명확한 자료만 주시면...(중략)...이재명 지사 부분만을 언론에 다루기로 하여 형님께서 마음만 허락하신다면 모두 도움을 주실 것을 약조" 했다는 내용도 담겨있다.박철민은 다른 편지에서 "국민의힘 유력 후보까지 만났다", "화천대유는 이미 2년 전부터 준비했고, 화천대유 뿐만 아니라 증거를 수집하고 있는 것이 한두 가지가 아니다. 이재명 후보는 100% 징역"이라고 주장하기도 했다.그러나 이 전 대표가 언급한 '10억'은 위 편지에는 등장하지 않아 또 다른 편지의 존재 여부를 확인해야 한다.앞서 이 전 대표는 박 씨 부자와 국민의힘 김용판 의원, 장영하 변호사 등 4명을 명예훼손으로 고소해 경찰이 수사에 나섰다. 김 의원은 국정감사에서 돈다발 사진을 공개하며 '이재명 조폭 연루설'을 제기한 바 있다.한편, YTN '뉴스가 있는 저녁' 제작진은 "박철민이 이 전 대표에게 편지를 보낸 것은박 씨의 부친 박용승 씨도 인정했다"고 밝혔다. 다만 부친 박 씨는 제작진에게 "이 전 대표가 아들을 모른다는 것은 말도 안 된다"며 "모든 자료를 공개할 예정"이라고 반박했다.※ 아래는 이준석 전 대표가 박철민으로부터 받았다고 주장하는 편지들의 일부입니다. 편지에 본 사안 관련성이 확인되지 않은 인명과 정당명이 등장하지만 이미 다수 언론에 이준석 전 대표의 주장 등으로 보도되고 있어 굳이 가리지 않았습니다.※ 아래 편지에는 '10억'이라는 금액이 언급돼 있지 않습니다. '10'억'은 이준석 전 대표가 방송 인터뷰에서 주장한 내용이며 또 다른 편지의 내용인지 여부를 확인 중입니다.[9월 11일자][관련 동영상 보기]그간 옥체 무탈 하시고 편히 쉬셨습니까, 형님.아우 철민이 인사 올립니다, 형님.아우는 병보석 기간이 만료되어 동부 구치소로 다시 재 입소하였습니다, 형님남은 형기는 8개월 정도 남았습니다, 형님전처였던 와이프 ◯◯◯에게 자료와 전언은 건네 받으셨는지 모르겠습니다, 형님.아우 3개월 정도 사회 분위기 흐름을 보니 최소한 성남에서만큼은 국민의힘 대세론이 큰 상황이고, 은수미 성남시장의 입지는 이미 바닥으로 떨어져 간당간당 임기만 유지하고 있는 상황입니다, 형님.준석 형님, 아우가 잠시 외길을 택했고, 잘못된 선택을 한 것은 인정하고 깊숙이 뼈저리게 반성하고 자숙하고 있습니다, 형님.하지만 아우는 건달 생활에 미련이 없습니다, 형님.단, 이준석 형님께는 충신이 되고 싶습니다.형님분의 처세술과 사업력 장악력과 아우의 추진력을 + 하면 무엇을 해도 금방 인프라와 금전적인 상황들 모두 정리가 될 듯 싶습니다, 형님.형님! 아우 진심으로 형님 믿고 따르고 싶습니다. 하지만 국제 건달 개념은 미련이 없습니다.국제파 선배들에게 용서를 구하고 형님의 다시 일어설 수 있는 인프라 구축을 함께 도모하고 상의하고 싶은 그런 편한 아우가 되고 싶습니다. 아우 11년은 의리로 살았습니다. 기본적인 틀은 있습니다.제 사람은 지킵니다. 형님을 감히 모시고 지켜드리고 싶습니다.팩트①형님께서 구치소에 계시면서 쌓아오신 인맥들이 있으실겁니다. 형님. 그냥 풀기 힘드시면 제가 연매출 500억 ~ 800억 사이를 왔다갔다 하는 회사에 사외이사로 되어 있습니다.모든 자료 오픈 가능하고, PT팀들 따로 구성되어 체계적 회사입니다, 형님.명실상부 성남에서 분당에서만큼은 자본력 단단한 회사입니다. 토스 해주시면 변호사 통하여 일 봐드리도록 하겠습니다.팩트②아우 부친 박용승님. 현재 현역 의원은 아니셔도, 28세부터 정치 입문하여 29세에 시의원 중 최고의 자리에 계시면서 다져오신 숨은 친력 인맥과 인프라가 있습니다. 형님.형님께서 진정적으로 아우에게 손 내밀어주시면 감히 아우 형님분 손 무릎 꿇고 받들어 모시겠습니다, 형님.형님분 돈 아우가 벌어드릴 구조 구색 갖춰드릴 자신 있습니다.형님께서 가를 말씀 해주시면 나 다 라 마 바 사 카 타 파 하 까지 캐취 인지 가능합니다 형님.그리고 아우 부친 박용승 성남시 총괄이사(국민의힘) 번호는 010 XXXX XXXX 항소심 전 아버지께 연락을 하셔서 접견을 하셔서 자세한 내용과 조건을 들어보시고, 결정하심이 좋을 듯 싶으며, 형량 관련하여 목표 시라면 즉시 착수하고, 방향 잡으셔야 될겁니다. 형님. 출소 하는게 가장 급선무입니다.그리고 팩트(가장 큰 팩트)는 현재 일보시는 검사실이 있으시면 아우를 조사 이감으로 서울 구치소로 이감을 해주시면, 연예인 비리, 시의원 비리, 형사비리 형님과 관련 없는 여러 가지 방법론들이 있습니다 형님.첫 번째 형님께서 아우를 서울구치소로 이감 시켜주실 여건이 되신다면 사업도, 재판도 커뮤니케이션이 수월하여 일의 진행속도가 배는 빠를 것입니다, 형님.그리고 또 다른 팩트는 제가 대화할 수 있는 자리는 아니 였지만제가 멀찌감치 서서 국민의힘 유력 대통령 후보까지 직접 뵈었습니다.아우 이 준 석 형님께 없는 소리 할 만큼 형님에 대한 존경심이 약하지도 않고제 자존심도 허락지 않습니다 형님준석형님, 물론 형님께 많은 동생들이 있겠지만아우 나이 34살, 적은 나이 아니고 이젠 세상 돌아가는 이치 충분히 알 나이고 남들보다 경험 한 것도 많습니다. 형님께 큰 동생이 될 것입니다가능하시면 ◯◯◯ 변호사 동부구치소로 접견 한번 들여 보내주시면 감사드리겠고,형님과 이번주 중 어느정도 얘기가 되면 형님과 아우와 공동 접견 변호사 한명 선입 하시지 말입니다 형님비용은 제가 하겠습니다 형님모든 일은 보안으로 진행됩니다 형님준석 형님 건강 잘 챙기시고 추석 연휴 많이 답답하실텐데 편히 쉬십시오 형님2021. 9 11아우 철민 올림PS. 준석형님아우가 잘난 것은 없지만형님과 아우와 머리 쓰지 않고 담백하게 의형제로 간다면저희 반드시 다시 일어섭니다 형님제가 형님 충신이 되겠습니다.형님 식사 입맛은 맞으십니까 형님같은 입장 처지 가치(같이) 고통 나누시죠 형님[10월 2일자]존경하는 이 준 석 형님께 올립니다.편히 쉬셨습니까 형님 동생 철민입니다 형님금요일 재판은 원하시는대로 좋은 결과 얻으셨습니까 형님아우는 구형 13년, 4년 나왔습니다.구형비해는(구형에 비해) 무난하게 나왔고, 2년 3개월 밑통이 있으니 1년 9개월 정도 남은 듯 싶습니다.파기 환송 하셔야죠 형님. 제가 플랜 해드리겠습니다.그래도 변호사 와이프 2년 만나면서 다져온 법으로 교정 인맥과 아버지 30년 정치 생활 성남 정치판 불보듯 뻔한 플랜입니다 형님형님께서 저를 어디까지 신뢰하시지는 모르겠지만 한점 부끄러움 없는 것은 형님에 대한 존경심입니다. 아우 일당백입니다. ◯◯ 형님도 그누구도 안두렵습니다.전 오로지 준석형님만 허락하신다면 준석 형님만 모시고 싶습니다.그리고 병보석 구속집행정지. 형님 편찮으신곳 잘 치료 받을 수 있는 병원장 소개시켜 드릴 수 있습니다. 시기 정해주시면 이야기 해놓겠습니다. 아무래도 나가셔서 핸드폰도 쓰시고 병원에서 무제한 접견도 자유롭게 하시는게 낮지(낫지) 않습니까.화천대유 이미 2년전부터 준비한 상황입니다.이재명 못벗어납니다. 100% 징역입니다화천대유 뿐만 아니라 지금 증거 수집 하고 있는 것이 한두가지가 아닙니다. 권력 남묭을 너무 많이 하였습니다.없이 살다보니 돈 욕심에 눈이 먼것입니다.◯◯형님 ◯◯◯ 회장하고 연락하고 일보는 ◯◯◯이란 동생도 제가 제 밑에 두었던 동생입니다. 혹시 변접 하실 때 물어보시면 아실 겁니다.형님분도 아우에게 10은 아니더라도 5는 오픈해주십시오.저도 아직 10에서 3은 오픈을 못 드렸지만 형님 기억하실 겁니다. 중앙지검에서부터 광수대, 수원지검에서 국제파 대대적 작업 할 때 형님께 귀띔 들이고 형님분 별거 아니라 생각히사고 저와 소통 멈추셨습니다.이번 역시도 형님이 더 이상 일이 확대대기(되기)전에 단도리 하실수 있는 방향을 아우 제시하여 드리는 것입니다. 이 기회를 형님과 아우 이미지를 편승하여 사업가로서 이미지를 굳히고 이미지 메이킹 메이드를 하는 것입니다. 언론사, 공수처, 형님께 힘을 실어드릴 큰일 하시는 분들 합리적으로 도움 드릴수 있게 협조 드리겠고 형님 제가 형님 못 믿으면 이런 제안 못드립니다 형님무죄 파기 환송, 병보석 준비 하시죠 형님형님께서 현재 하시는 사업도 어떤 사업을 하고 계시고 진행하고 계신지 아우 자세히는 몰라도 대략적으로는 전부터 알고 있었습니다 형님◯◯◯ 제 친구랑 비트코인 코인쪽 움직이더라고 말입니다.준석형님 아우도 10년을 20대 이끌며 의리로 살아왔으나◯◯ 형님, ◯◯ 형님과의 갈등으로 이렇게 건달로서의 입지는 끊났지만(끝났지만) 아우 또래에선 타이틀 없어도 동네 대장들 리드합니다 형님이제는 그런 것이 중요한 것이 아니라 명예와 권력과 재력인데형님 분 보필하고 싶습니다그리고 이지사 부분은 형님 말씀대로 한달 정도 쪼이기(조이기) 하시죠, 형님.국민의힘 ◯◯◯ 변호사 형님께 보내드릴겁니다.아우한테 어느정도 서류 줬고, 좀더 1~2주일 철민 아우와 생각해보고 연락 주겠다고 하십시오 형님결국 저희 일을 가장 잘 봐줄 곳은 윤석열, 홍준표 이낙연 이쪽이고 형님께도 가장 도움이 될 것이고윤석열 총장과 ◯◯◯부사장 ◯◯◯ 의장은 성남 용인 전 라인을 책임 지기로 하고 도원결의를 맺은 상황이기에 윤총장님이 대통령이 되든 안되든 도움을 주실 겁니다 형님형님 아우가 정말 이간질하는 것이 아니라 국제 인물 없습니다. 제가 선형 형님하고도 병보석 기간 통화 많이 했는데 형님 한태(한테) 이 양반 저영반 그럽니다 형님진짜 아우를 찾으셨으면 좋겠습니다.◯◯◯ 변호사 사건 자문 3회 선임하였습니다 형님병보석 집행정지 이도지사 등 커뮤니케이션 원활하게 신속히 진행하셔서 나가시죠 형님제가 집행정지만 오주(5주) 했는데도 불구하고 3번을 나갔습니다 형님행보에 대하여 말씀 해주시면 반영하여 셋팅 하겠습니다.이만 부족한 글 각필하겠습니다 형님곧 아는 검사실에서 미팅 한번 갖고 얼굴 뵙는 자리 마련해도 되는지 피드백 ◯◯◯ 변호사님께 주시길 바랍니다 형님다음 서신부터 회장님이라고 부르겠습니다.2021.10.2.일아우 박철민 올림[날짜 미상]준석형님 편히 쉬셧습니까 형님동생 철민입니다.형님 이런 더운 날씨에 노고가 많으십니다 형님아우는 현재 병보석으로 나와잇어서 아우 는 조금이라도 편한 상황에 잇는 상황에 연락드리는점 송구하고 또다시 송구합니다 형님.국제파 또래들과 선배분들하고 잇엇던일은 아우 나와서 연락드리고 깊은 사과의 뜻전해올렷습니다 형님.아우는 아직도 국제파랑 틀어지고 형님께서 홀로 결혼식 참석해주신점에 대하여 진심으로 감사의말씀을 올립니다형님.다름이아니고 아우 송구하오나 형님께 도움이 되엇으면 하여 조심스럽게말씀올립니다형님.아우 현재 형님분 수감생활에 도움이될듯하여 말씀올립니다형님.아우가 이런말씀 올리기 송구하오자 국민의힘과 이낙연 캠프에서 형님께 금전적인부분과 현재 사업적인 부분에 대하여 힘껏 힘을실어드리고 이재명 지사 와의 부적절한 부분에 대하여 형님께서 명확한 자료만 주시면 박범계 장관쪽에서도 공직자 잘못된 윤리적인 부분으로 형님분께선 처벌을 받지아니하시고 이재명지사 부분만을 언론에 다루기로 하여 형님께서 마음만 허락하신다면 금전적부분, 재판부분 모두 도움을 주실 것을 약조하였습니다.형님.당연히 박범계장관이나 윗분들이 얘기를 확실히 거론하것은 아니나 측근들의 확답을 받은 상황입니다 형님.형님께서 원하시는걸 말씀하시면 모두 들어들이겟다는 뉘앙스입니다 형님.형님께서 정세를 파악하시는데 아우보다 훨씬 월등하시고 사업력도 추진력도 성남에선 이준석형님을 능가할자는 감히 없다고 아우는 12년 줄곧 건달생활하면서 생각해왓습니다 형님현재 은수미 시장도 또 조사로 인하여 시장 재임은 어려운 상황이고 시장 또한 국민의힘에서 자리를 할 가능성이 높아보이고 대권도 서울시장 부산시장 오세훈이 맡고잇는이상, 현재상황에 잇어서 문정부는 계속 정권을 잡기가힘든상황이라고 아우 개인적인 견해를 밣힙니다 형님.송구하오나 아우 부친이 현재 국민의힘 최측근에서 일을보고계시고 형님께 뜬금없는 말씀을 드리는 것이 아님을 아우 진정적으로 말씀올립니다형님.형님 답답하실듯하여 소통 가능한 변호사님 한달 비용 지출하려하고 계속 필요하시면 아우개인적으로도 도움드릴수잇는부분 도움드리고싶습니다형님. 혹여 나 이 부분이 아니라도 형님께 연락올리고 도움드리고싶은 마음이 컷습니다 형님.아우가 한참 동생이고 해도 어려워 마시고 힘드신부분 잇으시면 말씀해주시면 기어코 도움 반드시드리겟습니다 형님국민의힘 전언에 거절하셔도 아우는 형님께도움드리고 동생으로서의 도리 하고싶습니다 형님.형님께서 앙 24살에 종합시장 13년선배를 손을대고 형님께서 잘햇다며 내동생 배고플 때 언제든지 밥먹어라하며 국밥집에 5백을 주고 가시며 아우가 2년밑 동생 ○○ 벌금 천만원말씀올려서 ○○형님께 혼은 낫지만 해결해주시고 아우벌금 2천만원 해결해주시고 아우결혼식 혼자 참석해주시여 마음을 표해주시고 아우는 정말 형님께받은 것이 많습니다 형님.이아우 비즈니스적이 아니라 정말 동생으로서 형님께 다시 다가서고싶어 말씀올립니다 형님이제 그만 고생하시고 나오실 생각 하시지 말입니다 형님. 아우가 최선을 다하겟습니다 형님아무쪼록 식사 잘챙겨드시고 형님분 의 답변 감히 기다리고잇겟습니다형님.항상 존경합니다 형님. 편히 쉬십시요 형님※ 영상 속 음성은 기계음으로 제작됐습니다.※ 편지 전문은 맞춤법을 지키지 않고 있는 그대로 옮겼습니다.jebo24@ytnplus.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>카카오페이 '수수료' 말바꾸기…플랫폼 갑질 논란 재연</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002544322?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>ATM 수수료 무료 조건 '교통비' 제외케뱅·토스와 대비…고객이탈 우려↑"혜택변경 여파…불편 최소화할 것"카카오페이가 '카카오페이머니카드'의 ATM 출금 수수료 면제 조건에서 교통비를 제외하기로 결정하면서 소비자 불만이 확대될 것으로 관측된다. ⓒ카카오페이 홈페이지 캡처[데일리안 = 김민석 기자] 카카오페이가 카드 현금자동입출금기(ATM) 수수료 무료 혜택을 돌연 축소해 고객들의 반발을 사고 있다.카카오페이는 수수료 혜택 축소가 고객에게 새로운 혜택을 제공하기 위해 서비스를 바꾼 것이라는 입장이지만, 수수료 면제로 고객을 모은 뒤 갑작스럽게 서비스를 축소하는 것은 플랫폼 지위를 이용한 갑질이 아니냐는 비판이 일고 있다.3일 금융권에 따르면 카카오페이는 다음 달 7일부터 카카오페이머니카드의 ATM 출금 수수료 면제 실적 조건에서 교통카드 이용금액을 제외한다. 이전까지 카카오페이머니카드 이용 소비자는 교통카드 이용금액을 포함한 카드 실적이 20만원이 넘을 경우 ATM 출금 수수료를 면제 받을 수 있었다. 하지만 12월부턴 모든 사용자가 캐시비 교통카드 이용금액을 제외하고 20만원을 사용해야 ATM 출금 수수료 무료 혜택을 누릴 수 있게 되는 것이다.카카오페이 관계자는 "이번 수수료 정책 변경은 고객 선택형 카드혜택 변경과 신규 카드 출시 예정에 따른 것"이라고 말했다.이어 소비자 신뢰 문제와 관련해선 "소비자가 불편을 겪지 않도록 최선의 노력을 다하겠다"고 해명했다.문제는 카카오페이의 수수료 면제 정책이 ATM에 그치지 않는다는 점이다. 카카오페이는 페이머니카드 재발급 수수료 면제 정책도 다음달부터 종료할 예정이다. 카카오페이증권 계좌 개설자 가운데 기존 페이머니카드1을 이용하는 고객이 '페이머니카드2'로 갈아탈 경우 적용되던 수수료 면제 정책을 종료한다는 입장이다.카카오페이가 이 같은 선택을 한 이유는 과도하게 지출되고 있는 수수료 비용이 원인인 것으로 업계는 보고 있다. 실제 올해 상반기 카카오페이가 지급한 수수료 비용은 2억5109만원으로 전년 동기 8641만원보다 190.6% 폭증했다.일각에선 카카오페이의 수수료 혜택 하향화가 플랫폼 업체 카카오의 고질적인 행태라는 비판을 제기하고 있다.앞서 카카오택시를 운영하는 카카오모빌리티는 사업 초기 수수료를 받지 않는 혜택을 제공하다가, 사업 규모가 확대되자 차별화된 수수료를 적용해 논란에 휩싸인 바 있다. 카카오모빌리티는 가맹택시에 대해서는 수수료율을 20% 받는데, 가맹하지 않은 택시에 대해서는 프로멤버십이라는 시스템을 운영해 무료로 서비스를 제공하다가 독과점 논란을 초래했다.이로 인해 골목상권 침해, 문어발식 사업 확장 등 여론의 뭇매를 맞은 김범수 카카오 의장은 지난달 국정감사에 증인으로 출석해 곤혹을 치른 바 있다.올해 국정감사에서 김범수 카카오 의장은 "플랫폼 기업은 이용자에게 편익을 제공하고, 파트너와 이익을 공유해야 하는데 카카오택시는 이 과정이 아직 완성되지 않은 상태였다"며 "여러 상생 실험을 거치고 파트너들과 협의해서 논란이 생기지 않도록 하겠다"고 고개를 숙였지만, 수수료를 앞세운 플랫폼 갑질에 대한 논란은 지속되고 있다.이는 다른 핀테크 기업과는 다른 움직임이다. 국내 첫번째 인터넷은행인 케이뱅크는 자사가 운영하는 체크카드의 ATM 수수료 무료 정책을 올해 연말까지 진행한다. 모바일 송금을 주 업무로 영위하는 토스 역시 '토스머니카드'의 ATM 출금 수수료 무료 정책을 연말까지 제공하고 있다. 지난달 국내 3번째 인터넷은행인 토스뱅크가 체크카드 사업을 시작하면서 토스머니카드는 올 연말 사라질 예정이다. 그럼에도 불구하고 토스는 소비자 이익을 중시해 면제 혜택을 지속하겠다는 입장이다.한편, 카카오페이는 최근 급격한 성장세를 기록했다. 신종 코로나바이러스 감염증(코로나19) 이후 비대면 거래가 확대된 영향으로 지난 1분기 22조8000억원에 달하는 거래액을 달성했다. 지난해 같은 기간 14조3000억원 대비 59.4%(8조5000억원) 늘어난 규모다. 누적 가입자 수는 올 6월 기준 3650만명을 돌파했다.ⓒ데일리안</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>‘10일 만에 개점휴업’ 토스뱅크…정상화는 언제쯤?</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000263430?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[앵커]국내 인터넷전문은행 3호, 토스뱅크가 문을 연 지 오늘(5일)로 딱 한 달이 됐습니다.조건 없는 2% 입출금 통장을 내세워 공격적 영업을 시작했지만 가계대출 총량 규제에 발목을 잡혀 열흘 만에 개점휴업 상태에 들어갔는데요.토스뱅크의 정상화는 언제쯤 이뤄질지 궁금합니다.최나리기자, 토스뱅크는 여전히 대출은 못 하고 있죠?[기자]토스뱅크는 지난달 14일 대출 일시 중단을 공지한 바 있습니다.금융당국이 가계대출 총량규제를 하면서 토스뱅크에 배정한 5,000억 원의 한도가 출범 약 열흘 만에 모두 소진됐기 때문입니다.토스뱅크는 약 3개월 후인 내년 초쯤에나 다시 서비스를 할 계획인데요.하지만 이것도 예정일 뿐 정부의 가계대출 제한 방침에 따라 상황은 가변적인 것으로 알려졌습니다.[앵커]빠른 성장세가 점쳐졌던 토스뱅크로서는 타이밍이 안 좋았는데요?[기자]기존 토스의 2천만 명이라는 잠재적 고객을 디지털 금융이라는 새로운 장으로 끌어들이려는 전략에 차질이 불가피해졌습니다.새로 시장에 진출한 인터넷은행이지만 가계대출 총량 관리에 동참해야 한다는 금융당국의 의지가 분명했기 때문입니다.올해 안에 중금리대출을 34.9%까지 끌어올리겠다는 목표도 달성하지 못하고 대출이 중단됐습니다.[앵커]그럼 정부가 인터넷은행에 강조했던 중금리 대출 확대 더 어려워지는 것 아닌가요?[기자]고신용 대출의 압박에 대출여력이 줄면 중금리 대출 확대도 어려워지고 그만큼 금리가 오를 가능성도 있습니다.다만 토스뱅크는 지난달 25일 3,000억 원 규모 유상증자를 추진했습니다.유상증자로 수신액 규모를 대폭 늘릴 수 있고 대출 가능 범위도 넓어질 것으로 보입니다.SBS Biz 최나리입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>규제는 세지고 경쟁자는 늘고…은행 내년 영업전략은</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004799?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[2022 은행 경쟁 판도는]①당국 주문에 가계영업망 축소 전망실수요자 대출 경쟁 더 치열해질듯연말이 다가오면서 은행권이 내년 경영전략 수립에 한창이다.내년은 그 어느 때보다 쉽지 않은 한 해가 예상된다. 당장 핵심 영업 영역인 가계대출의 축소가 불가피할 전망이다. 정부가 가계부채 관리를 내세워 강력한 대출 규제를 예고하고 있어서다. 인터넷은행들이 가세하면서 경쟁자도 늘었다. 여기에다 코로나19의 여파도 여전하다. 은행들 입장에서는 기존 고객을 지키면서 새로운 고객을 확보해야 하는데 이마저도 쉽지 않다. 대출의 문턱을 높이는 과정에서 기존 혜택을 대거 축소할 수밖에 없어서다. 핵심 수익원 가계대출 더 힘들다내년엔 은행 전체 이자수익의 절반가량을 차지하는 가계대출 영업에서 타격이 불가피할 전망이다. 금융당국이 가계부채 총량관리 수준을 연 5% 이내로 제시한 만큼 대출을 해줄 수 있는 총량 자체가 줄어들기 때문이다.이와 동시에 강력한 규제도 예고된 상태다. 당장 내년부터 2억원 이상 대출을 집행할 경우 차주별 DSR(총부채원리금상환비율) 40%를 적용한다. 7월 부터는 1억원 이상 모든 대출로 확대된다. 종합하면 은행이 내줄 수 있는 총 대출 규모는 물론 건당 대출 규모도 줄어든다는 얘기가 된다.  결국 은행들은 DSR 규제 도입과 함께 건당 대출액이 높은 고소득자 위주로 영업을 집중할 것으로 예상된다. 소득이 많을수록 부실여신으로 잡힐 가능성이 낮은 만큼 규제 환경에서 우량 대출차주를 늘릴 수 있는 가장 효과적인 방법이기 때문이다.문제는 이들을 잡으려면 다양한 당근책이 필요한 데 이 부분이 쉽지 않다는 데 있다. 금융당국이 가계대출 총량관리를 내세워 제동을 걸고 있어서다.당장 주요 시중은행들은 그간 제공하던 우대금리 항목을 없애는 방식으로 가계대출 문턱을 높이고 있다. 내년에도 비슷한 상황이 이어질 것으로 보여 다양한 혜택으로 우량 대출차주를 끌어들이긴 쉽지 않을 전망이다. 주요 시중은행 관계자는 "내년 영업전략 수립을 시작하는 단계여서 직 확정된 사항은 없지만 내년은 가계대출 부문에서 특히 어려운 한 해가 될 것으로 보인다"면서 "우량 대출차주 확보를 통해 여신 건전성을 확보해야 하는데 예년처럼 쉽지는 않을 것으로 보인다"라고 말했다.가계영업 돌파구는 '실수요자' 대출우량 대출차주에 대한 영업이 힘들어지면서 상대적으로 영업이 쉬운 '실수요자' 대출 경쟁은 한층 더 치열해질 전망이다.현재 금융당국은 전세대출과 중·저신용자 대출 등을 실수요자 대출로 보고 있다. 국내 주요 주거형태인 전세대출을 옥죌 경우 부작용이 커질 수 있다는 판단에서다. 중·저신용자 대출의 경우 적극적인 확대를 주문하고 있다.  문제는 모든 은행들이 이 시장을 노리고 있다는 점이다. 실제로 그간 신용대출에 집중하던 카카오뱅크와 케이뱅크는 전세대출을 주요 여신 포트폴리오로 키우는 전략을 펼치고 있다. 토스뱅크 역시 내년 전세대출 시장 진출을 예고한 상황이다. 홍민택 토스뱅크 대표는 지난달 5일 기자간담회에서 "내년에는 전세자금대출을 상품 라인업에 추가하겠다"라고 밝힌 바 있다. 전세대출은 주택담보대출로 취급되지만 건당 대출액이 적지 않고 담보가 확실해 알짜 영업 영역으로 꼽힌다. 매달 이자만 상환하는 만기일시상환 방식이어서 부실 가능성도 낮다. 이 와중에 인터넷전문은행이 추가로 합류한 만큼 은행권의 전세대출 경쟁은 더 심해질 수밖에 없다.또 하나의 실수요자 대출로 꼽히는 중·저신용자 대출도 레드오션이다. 당장 금융당국이 인터넷은행을 대상으로 전체 대출의 30% 이상을 중·저신용자 대출로 채울 것을 주문하고 있다. 이에 따라 인터넷은행들이 두 달간 이자 지원 등과 같은 출혈경쟁에 나서고 있음에도 별다른 제재를 가하지 않고 있다.  게다가 기존 은행들도 예전보다 중·저신용자 대출 취급이 쉬워졌다. 금융당국이 일정 신용등급 이하(KCB 820점) 중금리 대출을 모두 중·저신용자 대출로 보겠다고 밝힌 탓이다. 과거에는 중금리 대출로 고시된 상품만 중·저신용자 대출로 취급했는데 이 요건이 대폭 완화되면서 그만큼 경쟁이 치열해질 수밖에 없다는 얘기다.은행 관계자는 "전세대출은 계약 갱신 시 증액이 쉽지 않아져 신규 계약 체결이 가장 유리할 것으로 보고 있다"면서 "결국 다른 은행 전세대출 고객을 끌어오기 위한 경쟁이 더 치열해질 것으로 보인다"라고 말했다.이어 "중·저신용자 대출은 규제망이 느슨해 은행들 역시 다양한 금융 소외계층 흡수를 명분으로 고객 확대 방안을 고민하고 있다"면서 "다만 인터넷은행, 2금융권 등과 경쟁해야 해 쉽진 않을 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>흑자전환 케이뱅크 자사주 쏜다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002704421?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>케이뱅크 사옥 전경 (케이뱅크 제공)    연간 누적 흑자전환에 성공하며 기업공개(IPO) 일정에 청신호가 켜진 케이뱅크가 신규 고객에 자사주를 제공해 '락인효과(고객 묶어두기)'를 노린다. 고객의 갈아타기가 용이한 인터넷전문은행의 약점을 보완하려는 조치로 풀이된다. 3일 금융권에 따르면 케이뱅크는 연말까지 자사 앱을 통해 NH투자증권 신규 해외주식 계좌를 개설하면 최대 30주 비상장 주식을 제공하는 이벤트를 진행한다. 배포수량은 무작위로 결정되며 주식은 내년 1월 19일에 지급되지만 배정 수량은 즉시 알 수 있다. 개설 계좌를 지급일까지 유지해야 주식을 받을 수 있다. 지난 7월 개인당 최대 100주를 제공하며 시작된 행사는 이후 30주로 축소돼 지난달말까지 지속됐고, 계좌 개설 고객이 유의미하게 증가함에 따라 연말까지 계속된다. 양 사 관계자는 "고객들의 호응이 좋아 연말까지 협업을 이어간다"고 말했다. 케이뱅크는 앞서 300만주가 넘는 무의결권 전환 주식 신주를 발행해 NH투자증권에 배정한 바 있다.자사주 배포를 통해 '락인효과'를 꾀하려는 구상으로 분석된다. 모바일 앱을 통해 고객과 접촉하는 인터넷전문은행은 태생적 한계로 시중은행보다 '주거래고객' 확보에 취약할 수밖에 없다. 가상화폐 거래량 1위 업비트와 제휴한 케이뱅크 역시 비트코인 등의 가격 흐름에 따라 수신 규모가 오르락내리락하는 양상을 보이기도 했다.지난해말 219만명이었던 케이뱅크 고객은 3분기말 660만명으로 441만명 늘었다. 지난 5월 증자에 성공한 뒤 업비트뿐만 아니라 앱 리뉴얼, 주식계좌 개설 서비스, 중저신용자 이자 지원 등의 효과를 봤다. 다만 제3인터넷전문은행 토스뱅크가 영업을 본격적으로 개시했고 시중은행들도 대대적인 모바일 서비스 개편 작업 등을 진행하고 있어 영업 환경은 녹록지 않은 상황이다. 케이뱅크는 오는 2023년 상장 계획을 품고 있다. 지난 10월 구현모 KT 대표는 한 기자간담회에서 "오는 2023년까지 케이뱅크의 기업공개(IPO) 추진을 목표로 하고 있다"고 말했다. 연내 흑자달성이 유력한 만큼 상장 계획에 차질이 없다는 게 중론이다. 앞서 인터넷전문은행 첫 상장 선례를 남긴 카카오뱅크가 한때 주요 금융지주를 넘어서는 시가총액을 형성한 점도 고려된다.비상장 주식시장인 서울거래소에 따르면 이날 기준 케이뱅크의 장외가는 주당 1만6700원, 시가총액은 6조2714억원이다. 최근 일주일간 5909만원의 거래가 발생했다. 지난 9월 한때 카카오뱅크 후광효과에 힘입어 주당 3만2000원의 매물이 등장하기도 했으나 현재는 급등세가 진정된 양상이다. 다만 다른 인터넷전문은행 토스뱅크의 최대주주 비바리퍼블리카의 거래가가 오름세를 보인다는 점은 호재다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>KTB네트워크, 증권신고서 제출···내달 상장 추진</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003981969?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>주관사 한투···29~30일 수요예측희망 공모가 밴드 5,800~7,200원[서울경제] KTB네트워크가 5일 금융위원회에 증권신고서를 제출하고 코스닥 상장을 위한 공모 절차에 본격 돌입했다고 밝혔다. KTB네트워크는 이번 상장에서 총 2,000만 주를 공모한다. 희망 공모가 밴드는 5,800~7,200원으로 총 공모 금액은 1,160억~1,440억 원 규모다. 오는 29~30일 기관투자가 대상 수요예측을 거쳐 공모가를 확정하고 12월 6~7일에 청약을 시행해 12월 내 상장을 마무리한다는 계획이다. 주관사는 한국투자증권이다.KTB금융그룹 주력 계열사인 KTB네트워크는 지난 1981년 설립된 국내 1세대 벤처캐피털이다. 국내외 증시에 총 300여 건의 기업공개(IPO) 실적을 보유하고 있다. 미국 현지법인(KTB Ventures)과 중국 상하이사무소 등 선제적으로 해외시장에 진출했다. KTB네트워크는 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유하고 있는 회사로 잘 알려져 있다. 주요 투자 기업인 RBW(종합 엔터테인먼트)가 11월 상장을 앞두고 있고 코넥스 시총 1위 기업 툴젠(바이오)도 상장 예비 심사에 통과해 12월 코스닥 이전 상장이 예정된 상태다. 해외 투자 기업으로는 소파이(미국, 핀테크 플랫폼), 몰로코(미국, 광고 솔루션), 호라이즌로보틱스(중국, 자율주행 반도체), 그로퍼스(인도, 온라인 식료품) 등이 유니콘 기업으로 떠오르고 있다.운용자산 규모는 1조 1,195억 원이다. 지난해에는 당기순이익 358억 원을 기록하며 VC 업계 순이익 1위 자리에 올랐다. 김창규 KTB네트워크 대표는 “IPO를 통해 모집한 재원은 브랜드 가치 제고와 미래 투자를 위한 펀드 출자금 조성에 사용할 계획”이라며 “회사의 성장을 통한 주주가치 제고는 물론, 신사업 육성과 일자리 창출 등 벤처 산업 육성에 기여하는 국내 대표 VC로 거듭날 것”이라며 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.11.06.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>계란 노릇노릇 어머니표 토스트… 사랑도 따끈따끈 [김셰프의 씨네퀴진]</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003635537?sid=103</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>웹툰 원작의 영화 ‘시동’각자의 아픔 가진 캐릭터들시련과 현실 벗어나기 위해‘삶의 시동’을 거는 이야기자장면과 토스트 같은서민음식 등장 ‘군침’ 슬픈 사연들 유쾌하게 풀어어쩌면 우리들의 모습큰 응원과 박수를 보낸다     일상에서 일어날 수 있는 일들, 주변에 있을 것 같은 사람들의 이야기.   영화 ‘시동’은 평범하지만 평범하지 않은, 우리 주변 사람들의 이야기를 그렸다.   자장면과 토스트 같은, 어디서든 먹을 수 있는 평범한 음식들의   등장이 잔잔한 매력으로 다가온다    #영화 ‘시동’  그냥 세상만사 다 싫은 주인공 택일은 고등학교를 중퇴하고 동네 친구 상필이와 앞뒤 생각 안 하는 삶을 살고 있다. 멋진 무인도로 떠나겠다는 다소 허황되지만 그래도 꿈을 가진 주인공은 어머니와 싸운 다음날 돈 만원으로 갈 수 있는 곳으로 버스를 타고 하염없이 떠난다. 동명의 웹툰을 영화로 만든 시동은 박정민, 마동석, 정해인 주연으로 조금 우울할 수 있는 소재를 잔잔하고 코믹하게 풀어냈다.  웹툰 원작답게 캐릭터마다 특징이 확실하다. 영화 자체도 마치 만화를 보는 듯한 요소들을 집어 넣어 보는 내내 유쾌하게 즐길 수 있다. 웹툰을 정독한 독자 입장에서, 캐릭터의 싱크로율은 역대 한국 영화 중 최고가 아닐까 싶다. 거석이형 역할을 맡은 마동석은 등장부터 만화 주인공이 현신한 것 같은 느낌이다. 사실 주연배우 선정만으로도 이 영화의 기대감은 상승한다. 연기력 또한 훌륭하고 발랄하다. 하지만 내용은 조금 어둡다. 캐릭터마다 각자의 삶과 시련, 현실을 벗어나기 위해 마치 자동차 시동을 거는 것처럼 각자의 고난을 헤쳐나가는 장면들을 연출한다. 학교의 필요성을 못 느끼고 꿈도 없이 매일 어머니와 싸우는 택일, 치매에 걸린 할머니를 모시고 살며 사채업을 하는 친구 상필, 조폭 생활에서 회의감을 느끼고 중국집 주방장으로 일하는 거석이형, 만년 후보였던 배구선수 출신 어머니, 딸을 잃고 목숨을 끊으려 한 중국집 사장님. 이렇게 슬픈 캐릭터들을 모아 이런 유쾌한 영화를 만들 수 있다니, 정말 박수를 쳐주고 싶다.  우리들 일상에서 일어날 수 있는 일들과 어쩌면 지나치고 있던 주변인들에 대한 이야기일 수 있다. 몰입감을 끌어올리는 요소다.  영화는 결말이 나오지 않는다. 긴 삶 속에서 하루하루가 이벤트이듯 그들의 삶은 계속될 것이고 또 준비해야 한다. 영화를 마무리하며 자동차의 시동을 거는 것처럼, 어쩌면 우리들일지도 모르는 영화 속 그들을 응원하게 된다.     영화 ‘시동’에서 가출한 택일이가 군산에서 자장면을 먹는 장면    #택일이의 자장면  택일이가 가출하며 단돈 만원으로 가게 된 곳은 영화의 주요 배경이 되는 군산이다. ‘홀에서 먹으면 3000원’이라는 자장면 홍보글을 보고 들어간 곳에서 운명처럼 거석이형을 만난다. 만화 캐릭터인 거석이형은 배우 마동석과의 싱크로율이 높아 재미있다. 우람한 팔뚝으로 웍을 돌리며 자장면을 만드는 거석이형에게 택일이는 기싸움에서 지지 않으려다 뺨을 맞고 기절한다. 배구선수 출신인 어머니에게도 뺨을 맞아 기절하는데, 도망쳐 나온 이곳에서도 뺨을 맞고 기절하다니. 택일이는 이 영화 내내 참 많이도 맞는다. 원작에서는 조금 더 불량하지만 그래도 제법 싸움을 할 줄 아는 캐릭터인데, 영화 내내 맞기만 한다. 조금 측은한 마음이 드는 이유다. 처음 중국집에 들어가 택일이가 텅빈 홀에 홀로 앉아 자장면을 먹는 장면은 새벽녘 영화를 감상하던 내게 참을 수 없는 유혹으로 다가왔다.  윤기 좔좔 흐르는 자장면을 먹는 택일이의 모습을 보고 그 누가 군침을 안 흘릴 수 있을까. 영화는 그래서 서민적이다. 언제 어디서나 먹을 수 있는, 우리에게 가장 친근한 음식인 자장면으로 또 한번 시선을 끈다. 이 중국집이 주인공과 인연이 되겠구나 하는 느낌이 강하게 온다.   #어머니의 토스트 가게  운동선수 출신인 택일이 어머니는 삶에 필사적이다. 분명 선수였을 때에도 누구보다 열심히 살았을 것이라 생각한다. 하지만 현실은 녹록하지 않다. 아들은 말을 안 듣는다. 설상가상으로 사채까지 끌어다 준비한 토스트 가게는 가건물이라 곧 철거 위기에 놓인다. 처음 가게를 인수하고 밝은 표정으로 토스트를 부치는 그 미소가 잊혀지지 않건만 영화 후반부에 토스트 가게는 결국 사라진다. 하지만 그걸 계기로 택일이는 어머니와 화해하고 또 그 삶을 이해하게 된다. 중국집 배달로 받은 첫 월급을 어머니에게 줄 정도로 속은 아직 선함이 가득한 택일이는 아직 어른인 척하는 아이다.  전 주인에게 속아 권리금까지 주고 가건물에 들어온 어머니가 조금 어리숙해 보일 수 있지만 이해가 되기도 한다. 비슷한 상황을 겪어본 적 있기 때문이다. 경험이 없는 상황에 전 주인이 얘기하지 않고 중개업자까지 입을 다물면 누구든 당할 수 있는 일이다. 택일이 어머니가 부치는 토스트를 보면서 아련한 옛 기억을 떠올렸다. 원작과 달리, 택일이네 토스트집은 끝까지 살아남았으면 좋겠다고 생각했다.  토스트는 구운 빵에 간단하게 잼이나 버터 등을 바르거나, 계란 물에 흠뻑 적셔 촉촉하게 먹는 방식이 있다. 그런 것들을 모두 토스트라고 한다. 통상 토스트 사이에 계란이나 야채, 햄을 넣어 먹는데, 이럴 경우 토스트보다 ‘핫 샌드위치’로 부르는 것도 괜찮을 것 같다.  ■프렌치 토스트    &lt;재료&gt;    식빵 3장, 우유 150㎖, 설탕 50g, 바질, 바닐라시럽 30㎖, 계란, 버터, 갈색설탕 15g    &lt;만들기&gt;    ① 우유에 바질과 설탕을 넣고 끓여 설탕을 녹여주고 식으면 바닐라 시럽을 넣는다. ② 계란을 우유에 섞어 준 후 냉장고에 3시간가량 냉장 보관한다. 식빵을 앞뒤로 5분간 충분히 적셔준 후 버터에 넣고 노릇하게 굽는다.③ 색이 나면 뒤집어 준 후 윗면에 갈색 설탕을 뿌리고 뚜껑을 살짝 덮어 설탕을 녹인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>금감원장, 인터넷은행만 '쏙' 뺀 사연은</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010828047?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>기사내용 요약금융지주 CEO 이어 줄줄이 회동인터넷은행만 제외되자 설왕설래중저신용대출 확대 과제 고군분투연말까지 목표 달성할지는 미지수인뱅 3사 입장 차…개별 사정 달라[서울=뉴시스] 정은보 금융감독원장이 지난 11일 서울 여의도 켄싱턴호텔에서 열린 지방은행장과의 간담회에 참석해 발언하고 있다. (사진=금융감독원 제공) 2021.11.11. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 박은비 최홍 기자 = 업계와 소통하겠다고 공언한 정은보 금융감독원장이 최근 주요 금융지주 회장 간담회를 시작으로 은행, 보험회사, 저축은행, 증권회사 등 최고경영자(CEO)와 연이어 만날 계획을 잡고 있다. 하지만 유독 인터넷전문은행만 제외된 걸 두고 업계에서는 일부러 그런 게 아니냐며 여러 추측이 나온다.12일 금융당국에 따르면 정 원장은 전날 서울 영등포구 켄싱턴호텔에서 지방은행장과 간담회를 개최했다. 간담회에는 경남·광주·대구·부산·전북·제주은행장과 김광수 은행연합회장이 참석했다.앞서 지난 9일에는 같은 장소에서 KB국민·신한·우리·하나·NH농협·SC제일·씨티은행 등 시중은행장과의 간담회가 마련됐다. 이를 지켜본 업계에서는 다소 의아하다는 반응이 나왔다. 은행연합회 사원은행 중 인터넷전문은행만 소외돼서다. 특히 정 원장은 지방은행만 따로 챙길 정도로 각별한 관심을 쏟았다.정 원장은 지방은행장들에게 "지역경제의 상대적 부진과 인터넷은행 등과의 경쟁 심화로 지방은행 경영여건이 어려운 상황이지만 지역경제의 중추적인 역할을 맡은 지역금융기관으로서 자금중개기능을 충실히 수행해달라"며 "동시에 시장 불안요인에 철저히 대비하고 금융소비자 보호를 위한 노력도 소홀히 하지 않길 바란다"고 당부했다.이를 위해 금감원이 제시한 건 경영실태평가 등급기준에 지방은행 특성을 잘 반영할 수 있도록 개선하고, 지역재투자 평가 시 지역금융 공급 기여도가 큰 은행이 좋은 평가를 받을 수 있도록 제도의 실효성을 높이겠다는 내용이다.[서울=뉴시스] 정병혁 기자 = 정은보 금융감독원장을 비롯한 시중은행장들이 지난 9일 오전 서울 영등포구 켄싱턴호텔에서 열린 간담회에서 기념촬영하고 있다. 2021.11.09. jhope@newsis.com시중은행에도 시스템리스크 우려가 큰 상황에서 대내외 위험 요인을 미리 파악해 철저히 관리하는 사전적 감독을 강조하면서 스트레스 테스트·시나리오 분석 등 미래 예측적 감독수단을 고도화할 계획을 밝혔다.연말까지 맞춰야 하는 가계대출 증가율 '6% 룰'과 관련해서는 "가계부채가 우리 경제의 위험요인이 되지 않도록 가계대출에 대한 관리를 강화하되, 서민·취약계층에 대한 실수요 대출은 차질 없이 취급될 수 있도록 세심하게 관리해달라"는 원론적인 입장에 그쳤다.이 때문에 인터넷은행은 괘씸죄가 적용된 게 아니냐는 목소리가 나온다. 중·저신용자 대상 대출 비중을 늘리겠다고 약속한 인터넷은행들은 연말까지 카카오뱅크 20.8%, 케이뱅크 21.5%, 토스뱅크 34.9%까지 늘린다는 계획이었다. 하지만 상반기 기준 카카오뱅크는 10.6%, 케이뱅크는 15.5%에 그쳤다. 지난달 출범한 토스뱅크는 출범 9일 만에 한도 소진으로 대출을 중단했다. 3분기까지 목표달성율이 공개되지는 않았지만 2분기보다 못한 곳도 있다는 후문이다.케이뱅크는 중저신용대출을 늘리기 위해 전날 금리를 최대 3.27%포인트 인하했다. 고신용자에게 나가는 신용대출 금리는 소폭 인상하고, 마이너스통장은 지난 6일부터 고신용자에 한정해 대출을 중단한 상태다. 카카오뱅크는 이보다 앞서 지난달 8일부터 연말까지 고신용 신용대출, 직장인 사잇돌대출 신규를 취급하지 않기로 결정한 바 있다.금융권 관계자는 "시중은행과 지방은행 현안이 다르다는 이유로 간담회를 따로 마련할 정도인데 인터넷은행만 부르지 않은 건 그것만으로도 의미가 있는 게 아니냐"며 "인터넷은행 최대 과제가 있는데 이를 제대로 하기 전에는 공식적으로 고충을 듣거나 해결해줄 의사가 없다는 무언의 압박이 아닌가 싶다. 시중은행의 경우 지난달 가계대출 총량 관리가 당국이 보기에 만족스러운 수준이었던 걸로 안다"고 말했다.아울러 기존 금융사들이 "빅테크와의 기울어진 운동장을 해결해달라"고 주장해온 만큼 인터넷은행과 한 자리에서 당국 수장을 만나기에는 아무래도 껄끄러웠을 것이라는 시선도 있다. 인터넷은행 3개 회사가 처한 사정이 달라 한 목소리를 내기는 어려울 것이라는 평가도 있다.다른 금융권 관계자는 "인터넷은행도 가계대출을 비롯해 여러 현안에 대해 당국과 수시로 소통하고 있는 걸로 알고 있다"며 "연말까지 대출 신규 취급이 불가능한 토스뱅크와 기존 인터넷은행 입장 차이도 있을 것이고 이들을 따로 만날 만큼은 아니라는 생각도 있을 것"이라고 언급했다.금융당국 관계자는 "인터넷은행과의 자리는 아직 예정돼 있는 게 없다"며 "쭉 연결해서 업계 관계자들을 만날텐데 이후 일정들이 계속 있을 것"이라고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>티웨이항공 "복지포인트로 항공권 결제하세요"</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004994387?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>티웨이항공은 선택적 복지제도 위탁 운영 기업인 ㈜현대이지웰와 손잡고 복지포인트로 항공권을 결제하는 서비스를 시행한다고 4일 밝혔다.선택적 복지제도란 기업 임직원들의 상황과 기호, 라이프스타일에 맞춤형 복지 솔루션을 제공하는 복지제도다.해당 서비스를 이용하기 위해서는 티웨이항공 모바일 웹 등에서 항공권 선택 후 결제 수단 선택 시 이지웰페이(복지포인트)를 통해 결제를 진행하면 된다.티웨이항공은 고객들의 결제 편의 확대를 위해 티웨이페이, 네이버페이, 카카오페이, 토스, 페이코, 페이팔, 유니온페이 등 다양한 간편결제 서비스를 제공하고 있다.티웨이항공 관계자는 "이번 복지포인트 결제 서비스 시행으로 항공권 이용 편의가 확대될 것으로 기대한다"며 "앞으로도 고객들의 편의와 차별화된 서비스를 지속적으로 개발하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2%대 이자 파킹통장에 돈 몰린다…MZ세대 재테크족 '억소리'나는 예금</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004875733?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>하루 넣어둬도 후한 이자 붙어 인기자동이체·주식·환율스위치 등 다양하게 이용돈을 오래 묶어두기 싫어하는 MZ세대 사이에서 '파킹통장'이 뜨고 있다. 짠테크족들에게는 한 푼이라도 이자를 더 받는 수단이 되고, 투자족들에게는 말 그대로 자금을 잠시 '파킹'해두는 용도로 쓰인다. 30대 직장인 김 모씨는 월급여를 받으면 대부분을 토스뱅크 파킹통장으로 옮겨 놓는다. 그는 "파킹통장 계좌에 통신비, 관리비, 보험료 등 각종 자동이체 건을 연결해뒀는데 이체되는 날까지 소소한 이자라도 챙기려는 것"이라며 "1원이라도 더 쳐주는 곳을 찾다가 토스뱅크를 알게 됐다"고 말했다.파킹통장은 주차장에 잠시 주차하듯 목돈을 일시적으로 보관하는 용도로 사용하는 통장을 말한다. 수시로 돈을 넣었다 뺄 수 있음에도 일반적인 수시 입출금 통장에 비해 높은 금리를 제공하는 게 특징이다. 특히 지난달 출범한 토스뱅크는 무조건 2% 이자를 지급하는 수시입출금 통장으로 큰 인기를 끌었다. 이 통장은 한 달새 170만명이 신청하며 인기를 모았다. 예금자 보호법 한도(5000만원)를 훌쩍 넘는 1억 이상 거금을 넣고 굴리는 이들도 많다. 2%의 이자를 지급하는 토스뱅크 수시입출금 통장에 1억원을 넣어두면 한 달에 약 14만원의 이자를 받을 수 있다. 1억원을 저축은행 파킹통장에 넣어뒀다는 30대 직장인 이 모 씨는 "대형 저축은행이나 인터넷은행은 웬만한 1금융권 은행 못지않게 믿음이 간다. 지금으로서는 은행이 망할 만한 리스크를 찾기도 어렵지 않나"라고 말했다.파킹통장은 수시로 입출금하며 주식·코인 등에 목돈을 투자하거나 이른바 '환율 스위칭' 전략을 쓰는 사람들에게도 인기다. 환율스위칭은 달러 가치가 오를 때 환전해 당시 가장 값싸게 거래되는 주식 등을 매입해 환차익과 투자 이익을 얻는 투자 전략을 말한다. 올해부터 환율 스위칭에 도전 중이라는 30대 직장인 박 모 씨는 환전 대기 중 파킹통장에 원화를 보관하면서 이자도 챙기고 있다. 그는 "목돈으로 주식이나 코인 투자를 하는 분들은 파킹통장을 동시에 여러 개 이용하는 경우도 많다"고 말했다.저축은행들의 파킹통장도 금리 경쟁력을 갖췄다. SBI저축은행은 모바일 앱 사이다뱅크에서 입출금통장 서비스를 제공한다. 2억원까지 무조건 연 1.2% 이자를 적용하고 매달 1일부터 말일까지 계산된 이자를 지급받는다. OK저축은행의 OK파킹대박통장은 1.5%의 이자를 주는데, 다른 금융기관의 오픈뱅킹을 연결하면 0.2%포인트를 추가로 제공한다. 웰컴저축은행의 수시입출금 통장인 웰컴비대면보통예금은 3000만원까지 무조건 1.3% 금리를 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>티웨이항공, 복지포인트로 항공권 결제 서비스</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004734362?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>티웨이항공 항공기. 사진=티웨이항공 제공 [파이낸셜뉴스] 티웨이항공은 선택적 복지제도 위탁 운영 기업인 현대이지웰와 손잡고 항공권 구매 시 복지포인트를 통해 결제가 가능한 서비스를 제공한다고 4일 밝혔다.   선택적 복지제도란 기존 일률적 복지 서비스 대신 임직원들의 상황과 기호, 라이프스타일에 맞게 사용할 수 있는 수요자 중심의 맞춤형 복지제도다.   이를 통해 임직원들은 복지포인트로 필요한 서비스 및 상품을 가맹점과 온라인에서 이용하고 있다. 여행과 관련한 항공권 결제를 이번에 티웨이항공에서 사용할 수 있도록 새롭게 추가해 시행하게 되었다.   해당 서비스를 이용하기 위해서는 티웨이항공 모바일 웹(앱)에서 항공권 선택 후 결제 수단 선택 시 복지포인트인 이지웰Pay를 통해 결제를 진행하면 된다.   티웨이항공은 고객들의 결제 편의 확대를 위해 기존 현금 및 카드 결제 외에 티웨이페이, 네이버페이, 카카오페이, 토스, 페이코, 페이팔, 유니온페이 등 다양한 간편결제 서비스를 제공하고 있다.   티웨이항공 관계자는 "이번 복지포인트 결제 서비스 확대를 통해 포인트를 보유한 많은 고객들의 항공권 이용 편의가 확대될 것으로 기대하고 있다"라며 "앞으로도 고객들의 편의와 차별화된 서비스를 지속적으로 개발해 제공해 나가겠다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>주한미국대사관, 미국 유학·장학금·취업 꿀팁 '대방출'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004874847?sid=102</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2021년 국제교육주간 맞아 노하우 대방출메타버스 공간서 美대학 오픈하우스 행사합격·장학금·유학생활·알바 궁금증 해결美영사, 인스타 라이브로 비자취득 안내도유학 선배들, 美 이력서·인터뷰 비결 공개 주한미국대사관이 '2021 국제교육주간'을 맞아 쟁여놨던 미국 유학과 장학금 수혜, 취업 노하우를 풀어놓는다.미 대사관은 9일부터 19일까지 에듀케이션USA와 함께 인스타그램 라이브와 온라인 세미나를 통해 미국 대학·대학원 입학 준비와 비자 취득, 유학 생활부터 취업까지 아우르는 '꿀팁'을 나눌 예정이다. 에듀케이션USA는 175개 이상의 국가·지역에 있는 유학생 상담센터 430여곳으로 구성된 미 국무부 네트워크로 미국 유학에 대한 정확하고 포괄적인 최신 정보를 제공한다.이번 국제교육주간에서는 메타버스 플랫폼을 활용해 가상공간에서 '미국 대학교 오픈 하우스' 행사도 열린다. 이 행사에서는 한국에 체류 중인 미국 길먼(Gilman) 장학생들이 참여해 미국 대학 캠퍼스 내 아르바이트와 인턴십 기회, 취업 서비스 등에 대한 질문에도 답변할 예정이다.우선 15일 오전 10시에는 한국인 교수가 온라인 세미나를 갖고 예술 전공 유학 희망자들을 위한 미국 대학 입학·장학금 취득을 위한 경쟁력을 키우는 비결을 공개한다. 16일에는 아이비리그(미 북동부 8개 명문대) 중 하나인 뉴욕 컬럼비아대의 한국인 언론대학원생이 인스타그램 라이브를 통해 뉴욕에서의 생활과 학위취득 등 미국 대학원 생활에 대한 생생한 경험을 전한다. 다음 날인 17일에는 오전 10시에는 돋보이는 미국 대학원 지원용 이력서(CV &amp; Resume) 작성을 돕는 에듀케이션USA의 세미나가 준비되어 있다. 같은 날 오후 3시에는 미국 국무부 소속 영사가 인스타그램 라이브 창을 열어 학생비자와 취업에 대한 궁금증을 풀어준다. 특히 학생 비자 심사 과정과 유학 희망자들이 궁금해하는 OPT(Optional Practical Training)·CPT(Curricular Practical Training) 취업 프로그램에 대한 설명도 제공된다. 18일 오후8시에는 미시건대에 재학 중인 국무부 풀브라이트(Fulbright) 장학생이 인스타그램 라이브로 장학금 및 재정 지원의 기회와 캠퍼스 생활 경험을 공유한다.19일 오전 10시에는 미국 유학생들이 주로 4년제 대학 편입을 위해 진학하는 커뮤니티 컬리지(공립 단기대학) 편입 보장 프로그램 자격과 주의점을 알아보는 온라인 세미나가 열린다. 마지막으로 이날 오후 3~5시에는 미국대사관 프로그램 출신 유학생들의 학습 노하우와 경험, 유학 후 현지 기업에 취직한 한국인 졸업생들의 생생한 정보를 전하는 미니 심포지엄이 개최된다.심포지엄에서는 노스웨스턴대를 졸업하고 글로벌 임원·전문가 채용 및 인사 컨설팅 기업인 모건필립스에서 일하고 있는 크리스티아 안 한국지사장이 나서 미국식 영문 이력서 준비 노하우를 알려준다. 역시 노스웨스턴대를 나와 보잉 코리아에서 일하고 있는 유건우씨는 미국식 영어 인터뷰 준비를 위한 팁을 공개한다. 스탠포드대를 졸업하고 금융플랫폼 애플리케이션 '토스'를 운영하는 비바리퍼블리카에서 일하는 윤지형씨는 미국계 글로벌 기업 종사 경험을 공유하고 한·미 기업문화 차이에 대해 들려준다.보다 자세한 설명은 주한미국대사관 교육정보 블로그를 참고하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.11.14.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>우티·타다의 추격… "카카오T 독점 막는다"</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002706026?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>우티, 통합 앱 출시 이후 급증대형택시 집중 '타다' 영역 확장택시 플랫폼 3자 경쟁구도 재편타다 로고    우티 로고    카카오모빌리티 로고    카카오모빌리티가 독주 체제를 이어가던 국내 모빌리티 시장에 지각변동이 일고 있다. 카카오가 골목상권 침해 논란에 휩싸이며 사업에 확장에 어려움을 겪는 사이 시장 '새판 짜기'가 본격화하는 모습이다.14일 업계에 따르면 최근 모빌리티 산업 지형이 카카오T, 우티(UT), 타다의 3자 경쟁구도로 재편되고 있다.우티는 우버와 SK텔레콤 자회사 티맵모빌리티의 합작사로, 지난 1일 통합 앱을 출시한 후 매섭게 질주하고 있다. 빅데이터 플랫폼 기업 아이지에이웍스가 집계한 모바일인덱스 분석 결과를 보면 우티의 WAU(주간활성이용자)는 지난달 첫째주 3만5000명에서 11월 첫째주 16만명으로 크게 늘었다. 우티는 신규 앱 출시를 기념해 11월 한 달간 20% 상시 할인 이벤트 등의 공격적인 프로모션을 진행 중이다. 위드 코로나 시행으로 심야 시간대 택시 수요가 증가하며 이용자수가 크게 늘어난 것으로 풀이된다.우티는 향후 고객 편의를 높이는 차별화된 서비스를 통해 점유율을 높이겠다는 구상이다. 지난 1일 개최한 기자간담회에서 '사전확정 요금제', '탄력요금제', '택시합승 서비스' 등을 선보이겠다는 청사진을 제시했다. 가맹택시 역시 연내 1만대, 내년 말 2만대까지 확대한다는 포부다.택시업계와의 상생에도 힘을 쏟는다. 가맹·일반택시 기사를 대상으로 교육을 진행하고 수익도 극대화할 방침이다. 그 일환으로 최근 서울·인천 개인택시운송사업조합과 MOU(업무협약)를 맺기도 했다. 개인택시조합과 손잡고 개인택시 사업자의 권익 보호·향상에 힘쓰는 한편 우티 택시플랫폼 사업 발전을 꾀한다는 구상이다. 금융 플랫폼 기업 토스에 인수된 타다는 오는 12월 대형택시 '타다 넥스트'를 선보이고 재도약에 나선다. 타다 넥스트는 과거 '타다금지법(개정 여객자동차운송사업법)으로 철수했던 '타다 베이직'과 유사하다. 대신 렌터카가 아니라 택시면허를 가진 기사가 직접 운행하는 방식을 취해 위법성 시비를 없앴다.타다는 타다 넥스트를 위해 별도 주문으로 현대자동차의 '스타리아' 트림 중 모빌리티 서비스용 모델을 확보했다. 또 최대 4100만원 지급 조건 등으로 1기 드라이버 모집을 종료했으며 조만간 2기 모집에도 나설 예정이다. 핀테크와 모빌리티를 결합한 생태계 확장으로 영향력을 확대하겠다는 전략이다.김대종 세종대학교 경영학부 교수는 "카카오가 80%가량을 차지하고 있는 모빌리티 시장이 경쟁 구도로 바뀌면 소비자 편익도 증대될 것"이라며 "다만 모빌리티 시장 성공에 가장 중요한 점은 고객들에게 신뢰와 믿음을 주는 것으로, 이를 유념해 서비스해야 점유율을 끌어올릴 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.11.13.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>덕심 저격 통했나? 블루 아카이브 구글 매출 6위 달성</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/356/0000050758?sid=004</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>▲ 11월 13일 구글플레이 매출 TOP10 (자료출처: 구글플레이)‘덕업일치 개발자’로 잘 알려진 김용하 PD가 총괄한 신작 ‘블루 아카이브’가 국내 구글 매출 6위에 오르며 두각을 드러냈다.블루 아카이브는 가상의 학원도시 ‘키보토스’에 부임한 선생님이 되어 여러 학생을 가르치며 겪는 일화를 담은 모바일 수집형 RPG다. 각기 다른 매력과 특징을 지난 여성 캐리터 다수를 모으고, 육성하는 재미와 캐릭터와의 교감, 엑스컴을 연상시키는 전략 플레이 등을 특징으로 앞세웠다.지난 2월에 일본에 먼저 출시된 블루 아카이브는 5일 만에 현지 애플 앱스토어 매출 9위를 기록한 바 있으며, 지난 9일에는 국내를 포함한 237개국에 출시됐다. 이후 지난 12일 기준 구내 구글플레이 매출 6위에 올랐고, 5일차인 13일에도 제자리를 유지 중이다.국내 모바일게임 시장에서는 MMORPG가 주력을 이루고 있으며, 실제로 블루 아카이브보다 매출 순위가 높은 게임은 리니지W, 오딘: 발할라 라이징 등 대규모 전투를 앞세운 MMORPG가 자리하고 있다. 이러한 흐름에서도 블루 아카이브는 수집형 RPG임에도, 출시 직후에 매출 순위에서 두각을 드러내어 이목을 집중시키고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>주택담보대출 비교 플랫폼 담비,온라인 대출판매대리∙중개 등록 완료</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002113178?sid=105</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[디지털데일리 박현영기자] 온라인 주택담보대출 비교 플랫폼 ‘담비’ 출시를 앞둔 베스트핀(대표 주은영)이 ‘온라인 대출성 금융상품 판매대리‧중개업’ 등록을 완료했다고 8일 밝혔다.   올해 3월부터 시행된 금융소비자보호법(금소법)은 6개월 계도기간을 거쳐 지난 9월 25일부터 본격 적용됐다. 이에 따라 대출모집인은 필요한 요건을 갖춰 금융감독원 및 각 금융권 협회에 금융상품판매대리‧중개업 등록신청을 완료해야 한다.   혁신금융서비스로 지정됐던 카카오페이, 토스, 뱅크샐러드 등 12개 플랫폼 업체 이외에 금소법 시행 이후 신규 등록된 대출비교 서비스는 담비가 최초다.   이번 등록을 위해 베스트핀은 지난 6월 ‘이해상충 방지 알고리즘’을 담비 애플리케이션에 탑재해 코스콤의 인증심사를 통과했다. 소비자들은 담비에서 유리한 조건의 우선순위를 기준으로 다양한 대출 상품을 만나볼 수 있다.   그동안 대출비교 플랫폼 대부분이 신용대출 및 2금융권 중심의 비교 서비스를 제공했다면, 담비는 담보대출과 전세자금대출 분야에 특화된 서비스를 제공한다. 또 대출 신청은 온라인 또는 금융기관이 지정한 오프라인 대출상담사를 통해 할 수 있도록 안내한다.    주은영 베스트핀 대표는 “이번 온라인 대출모집인 정식등록을 시작으로 담보대출 부분 혁신을 이끌어 나가게 될 담비의 첫 선을 보이게 됐다”며 “서비스 고도화를 통해 주택담보대출 시장의 정보불균형을 해소하고, 소비자들의 알권리를 지킬 수 있도록 노력해 나갈 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>인스웨이브시스템즈, 토스뱅크 고객서비스 시스템에 ‘아이웍스’ 적용</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002703975?sid=105</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>비대면 금융에 최적화된 UI·UX 통합단말 솔루션 공급국내 모든 인터넷 전문은행에 솔루션·서비스 제공인스웨이브시스템즈(대표 어세룡)가 토스뱅크 IT시스템 구축사업에 참여해 UI·UX(사용자인터페이스·경험) 통합 단말 솔루션 '아이웍스(iWorks)'를 공급했다고 2일 발표했다.아이웍스는 혁신적 UX와 노하우를 집적한 솔루션으로, 토스뱅크의 초기 IT시스템을 구성해 효율적인 대내 채널 통합과 시스템 운영을 도왔다. 인스웨이브시스템즈는 국내 인터넷전문은행 3사 전체에 솔루션과 서비스를 제공했다. 인터넷전문은행은 온라인 거래 의무화, 오프라인 영업점 미설치 등 모든 금융 업무가 비대면으로 진행된다. 인터넷뱅킹, 스마트뱅킹, 폰뱅킹, ATM, 콜센터 등 다양한 채널에서 발생하는 정보를 안정적으로 연계하는 것이 중요한 이유다. 인스웨이브시스템즈는 단순히 거래 처리엔진만 제공하는 게 아니라 연계업무 구현이 가능한 통합 개발환경과 운영관리 툴도 함께 공급한다. 이렇게 연계된 각종 정보는 통합 단말 솔루션인 아이웍스로 처리된다.아이웍스는 시스템을 은행 내부 직원이 이용하기 쉽게 화면을 구성해 입금, 출금, 대출, 적금 등의 시스템을 연계하는 역할도 한다. 이를 통해 업무 생산성과 운영관리 편의성, 유지보수 효율성을 확보할 수 있다. 어세룡 인스웨이브시스템즈 대표는 "토스뱅크 시스템 오픈은 인젠트 UI·UX 사업부문 인수 시너지를 보여주는 사례"라며 "새로운 금융 트렌드를 만들어 나갈 국내 인터넷전문은행 3사 전체의 IT시스템 구축에 참여해 기쁘다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>아이 용돈관리부터 주식투자까지…전통은행들 10대전용 금융앱 경쟁</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004623165?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>MZ세대 고객 모셔라 국민銀 '리브 넥스트' 내달 출시하나銀 '아이부자앱' 인기 신한銀  공유오피스 '쏠라운지' 내놔전통 은행들은 당장 편의성을 따라 인터넷전문은행을 찾았던 20~30대가 자산이 축적된 40~50대가 되면 안정성 있는 대형 은행을 방문하지 않겠냐고 여겼다. 주된 타깃으로 20대를 겨냥하고, 미래 고객인 10대를 끌어들이겠다는 토스, 카카오뱅크와의 시각차가 드러난 대목이다.그랬던 전통 은행들의 MZ세대 유치 경쟁에 나서고 있다. 1년 만에 시각이 180도 바뀌었다. MZ세대가 금융지식이 전혀 없어도 쓸 수 있는 전용 앱을 잇따라 내놓는 게 대표적 사례다. MZ세대 전용 오프라인 라운지를 내놓고, 금융상품 라인업도 구축하고 있다. “MZ세대가 시작하면 40·50대가 따라온다”는 카카오뱅크의 역발상이 먹혀들면서 전략을 바꿨다는 분석이다.국민은행은 Z세대 전용 앱인 ‘리브 넥스트’를 다음달 선보일 예정이다. 현재 Z세대 고객을 대상으로 베타테스트를 진행하고 있다. 주민등록증 없는 10대들이 비대면 계좌 개설 등의 서비스를 쉽게 이용할 수 있도록 한 게 특징이다. 복잡한 용어 없이 예·적금이나 각종 카드 혜택 등을 최대한 쉽게 풀어쓰면서 메뉴를 간소화할 계획이다.하나은행도 앞서 부모가 준 용돈을 잘 굴릴 수 있도록 메뉴를 구성한 ‘아이부자’ 앱을 지난 6월 출시했다. 아이부자 앱은 만 14세 미만 어린이도 부모의 휴대폰 동의 절차를 거쳐 가입할 수 있다. 자녀가 부모를, 부모가 자녀를 각각 초대해 ‘활동 가족’이 되는 방식으로 앱을 이용할 수 있다. ‘자녀 회원’은 이 앱을 통해 모으기(용돈·알바·저축)와 쓰기(결제·송금·ATM 출금), 불리기(주식투자 체험) 등을 이용할 수 있다. 부모 회원은 자녀 회원에게 모바일로 용돈을 보내주거나 정기적으로 용돈을 주는 것도 가능하다. 집안일 돕기, 학습지 끝내기, 강아지 목욕시키기 등 자녀가 원하는 아르바이트를 부모에게 허락받은 뒤 아르바이트를 완료하거나 부모가 제안한 아르바이트를 완료하고 인증 사진을 찍어 보내면 약속된 용돈을 보상받을 수 있다.신한은행은 MZ세대를 위한 공유 오피스 ‘쏠 라운지’를 지난 6월 내놨다. 신한은행 앱인 ‘신한 쏠’ 사용자는 이 오피스를 2시간당 3900원에 이용할 수 있다. 신한은행 고객이 아니라도 누구나 일정 금액(2시간당 4900원)을 지불하면 라운지를 이용할 수 있다. 업무공간(공유오피스), 개방형 좌율 좌석, 몰입형 좌석, 미팅룸, 휴식공간, 포토존 등 다양한 편의시설이 배치됐다.게임 연계 상품도 출시되고 있다. 하나은행은 지난 6월 국내 e스포츠 구단인 ‘SKT CS T1’ 팬에게 추가 혜택을 주는 ‘T1 체크카드’를 내놨다. 스타벅스(20% 적립), 편의점(10% 적립), 대중교통(1000 하나머니 적립), 어학시험(5% 적립) 등 MZ세대가 주로 이용하는 업종에 혜택이 맞춰져 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>해외주식 1주 미만 소수점 거래하는 서비스 출시된다.</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002259485?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>금융위, 혁신금융서비스 31건 신규 지정증권사 '해외주식 소수점 거래서비스' 이달 출시 예정 금융위원회는 12일 정례회의를 열어 금융사들이 개발했거나 개발 중인 31건의 금융서비스를 혁신금융서비스로 신규 지정하고 기존 혁신금융서비스 중 2건의 지정기간을 연장했다.   신규지정된 서비스 중 ‘해외주식 소수점 거래 서비스’는 투자자가 증권사의 거래시스템(HTS,MTS 등)을 통해 해외주식을 소수단위(소수점 이하 최대 여섯째 자리)로 매매할 수 있는 서비스이다. 이에 따라 고가의 해외주식에 대한 개인투자자의 접근성이 확대되고 소액 분산투자가 가능해 진다. 이 서비스는 이달 중 한국예탁결제원의 시스템 오픈 이후 각 증권사들이 순차적으로 출시할 예정이다. 해당 증권사는 DB금융투자, KB증권, KTB투자증권, NH투자증권, 교보증권, 대신증권, 메리츠증권, 미래에셋증권, 삼성증권, 신영증권, 신한금융투자, 유안타증권, 유진투자증권, 카카오페이증권, 키움증권, 토스증권, 하나금융투자, 하이투자증권, 한국투자증권, 한화투자증권 등이다.   또 ‘안면인식기술을 활용한 비대면 실명확인 서비스’는 비대면 금융거래를 하거나 접근매체를 발급할 때 안면인식 기술을 활용해 실지명의를 확인하는 서비스로 한국투자증권과 미래에셋증권이 각각 내년 5월과 6월 출시할 예정이다.   ‘온라인쇼핑 플랫폼을 통한 금융투자상품권 거래 서비스’는 소비자가 금융투자상품권을 온라인 쇼핑 플랫폼에서 구매 및 선물하고 이 상품권을 금융회사 앱에 등록 후 금융투자상품에 투자할 수 있는 서비스이다. 이 서비스는 키움증권, 교보증권, 현대차증권, BNK자산운용 등이 내년 2~7월 사이에 순차적으로 출시한다.   이밖에 신한카드의 ‘안면인식기술을 활용한 비대면 카드발급 서비스’, 비바리퍼블리카의 ‘소액 후불결제 서비스’, 벨소프트의 ‘무인환전기기를 이용한 외국인 관광객 선불카드 서비스’, 한국신용데이터의 ‘배달매출 신속 정산 서비스’ 등이 혁신금융서비스로 신규 지정됐다.   기존 서비스 중에는 신한금융투자의 ‘온라인 플랫폼을 통한 해외주식상품권 구매 및 선물 서비스’와 트루테크놀로지스의 ‘증권대차거래 업무자동화 서비스’의 지정기간이 2023년 12월17일까지로 연장됐다.   한편 금융위는 그동안 혁신금융서비스 지정기간의 시작일을 서비스 지정 당일로 정해왔으나 앞으로는 해당 서비스의 실제 서비스 개시일로 변경키로 했다. 이는 금융사업자들이 실제 서비스를 준비하는데 시간이 소요되는 점을 감안한 조치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>토스·뱅크샐러드, 전자서명인증사업자 선정</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002981507?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>토스(비바리퍼블리카)와 뱅크샐러드가 한국인터넷진흥원(KISA)으로부터 '전자서명인증사업자'로 인정 받았다고 12일 밝혔다.기존 공인인증서의 독점적 지위가 사리지고 다양한 인증사업자가 출현함에 따라, 과기정통부와 한국인터넷진흥원은 일정한 운영 요건을 갖춘 사업자를 엄격히 평가해 '전자서명인증사업자'로 지정하고 있다.전자서명인증사업자 인정을 획득한 인증서는 금융보안원의 검토 후 마이데이터 통합 인증 수단으로 허용된다.마이데이터 통합 인증은 마이데이터 사업자 및 정보 제공자 간의 신용정보 전송 요구권 행사와 마이데이터 서비스 이용에 필수적인 절차다. 마이데이터 사업자는 금융보안원이 지정한 통합 인증 기관의 사설 인증서를 최소 1개 이상 의무 적용해야 한다.국내 금융 플랫폼 중 가장 많은 2100만 유저를 보유한 토스는 새로운 '토스인증서'의 활용 범위가 대폭 확대될 것으로 기대하고 있다.안재균 토스 인증팀 PO는 “금융, 공공서비스 등 엄격한 본인확인 및 전자서명 절차가 필요한 곳에 토스인증이 활용될 수 있는 기반을 마련했다”고 설명했다.뱅크샐러드도 자사 서비스 내 통합 인증 수단으로 뱅크샐러드 인증서를 우선 탑재할 예정이다.뱅크샐러드는 “마이데이터 시장은 물론, 디지털 정부 편의성 확대를 위한 정부 및 공공 기관에 순차적 확대를 계획 중”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>금융권, '미래먹거리' 마이데이터 시행 전 막바지 준비…선점 경쟁 치열</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000114851?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>금융보안원의 기능적합성 심사에 현재 국민‧신한‧하나‧우리‧농협 등 5대 시중은행과 핀크, 뱅크샐러드 등 핀테크업체 총 17곳이 통과했다. /더팩트 DBKB국민·우리·NH농협은행 등 마이데이터 서비스 기능 적합성 심사 통과 '미래먹거리' 사업으로 불리는 마이데이터(본인신용정보관리업) 사업이 오는 12월 1일부터 본격적으로 시작되는 가운데 관련 시장 선점을 위해 금융권이 분주한 모양새다.8일 금융권에 따르면 금융보안원의 기능적합성 심사에 현재 국민‧신한‧하나‧우리‧농협 등 5대 시중은행과 핀크, 뱅크샐러드 등 핀테크업체 총 17곳이 통과했다. 여기에 심사를 받고 있는 카카오페이, 토스 등이 가세할 경우 약 30여 곳의 업체가 마이데이터 서비스를 고객들에게 제공할 것으로 예상된다.마이데이터란 정보주체에게 데이터 주권을 돌려주는 것이다. 이를 위탁받은 업체가 응용 프로그램 인터페이스(API)를 통해 모은 금융정보, 비금융정보를 분석해 개인 맞춤형 금융상품을 추천해주는 서비스가 핵심으로 꼽히고 있다.내년 1월 1일부터 기존 스크래핑 방식으로 정보를 긁어오는 것은 금지되고 API 사용이 의무화된다. 이에 앞서 올해 12월부터도 금융보안원 주관의 표준 API 최종 규격 기준에 따른 기능적합성 심사를 통과하고, 보안 취약점 점검을 완료하는 등 준비가 되는 업체들은 서비스를 선보일 수 있다.은행권은 마이데이터 시장 선점을 위해 분주하게 준비하고 있다. /더팩트 DB마이데이터 서비스 본격 시행에 맞춰 금융사들도 다양한 고객 맞춤형 서비스를 준비 중이다.KB국민은행은 지난 4일 '마이데이터 서비스 기능적합성 심사 통과 및 보안 취약성 점검'을 완료했다. 이에 국민은행은 내달 1일부터 KB스타뱅킹을 통해 △나를 알고 내게 맞는 솔루션을 제공하는 '자산관리 서비스' △내게 꼭 맞는 혜택을 알려 주는 '지출관리 서비스' △매일 더 나아지는 금융 습관 메이커 'Better Me 목표챌린지 서비스' △다양한 실물자산부터 신용관리까지 더 쉽게 관리하는 '금융플러스 서비스' 등 고객 중심의 맞춤서비스를 제공할 예정이다.우리은행도 마이데이터 서비스가 출시되면 은행, 카드, 보험, 통신, 신용정보, 부동산, 자동차 정보 등 종합적인 정보를 통합한 초개인화 자산관리 서비스를 선보일 예정이다.은행권 최초로 마이데이터 서비스 기능 적합성 심사를 통과한 NH농협은행도 모든 금융사의 거래정보를 모아 고객의 자산 및 소비현황을 관리하는 'NH자산+', 고객의 소득 수준과 금융거래 성향 등을 기반으로 연말정산 상시 시뮬레이션을 통해 절세 팁을 제공하는 '연말정산컨설팅', 고객의 지급결제 스케줄에 따라 결제부족액을 예측하여 결제계좌의 잔액 충전을 도와주는 '금융플래너', 중고차 판매 및 미납통행료·범칙금·과태료 납부 등이 가능한 '내차관리', 정부 및 지자체의 지원금을 추천해주는 '맞춤정부혜택'등의 서비스를 선보일 계획이다.한 은행권 관계자는 "마이데이터 사업이 본격 시행되면 기존 은행뿐만 아니라 핀테크 업체들과의 경쟁도 치열해질 것"이라며 "아무래도 시장 선점은 중요하다 보니 속도를 내고 있다. 은행권에서 다양한 서비스가 나올 것으로 본다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.11.06.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>‘증권플러스 비상장’, 10월 인기 주식 키워드 발표</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003635427?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>케이뱅크, 카카오페이 등 핀테크 열풍 지속두나무가 국내 최초 비상장 주식 통합 거래 플랫폼 ‘증권플러스 비상장‘에서 10월 한 달간 인기를 끈 비상장 주식 키워드를 5일 발표했다.   9월에 이어 10월에도 카카오페이, 비바리퍼블리카, 케이뱅크, 두나무 등 핀테크 유망주 4사의 약진이 두드러졌다. 메타버스에 대한 사회적 관심에 힘입어 메타버스·게임 주가 상승세를 보였고, 비상장 주식 시장의 스테디셀러라는 명성답게 바이오 주는 10월에도 견조한 인기를 지속하고 있다.   지난 3일 코스피에 입성한 카카오페이는 10월 증권플러스 비상장에서 관심 종목 추가 5위, 인기 조회 2위를 기록하며 하반기 IPO 기대주임을 다시 한번 입증했다. 카카오페이는 국내 IPO 사상 처음으로 100% 균등 배정 청약을 진행해 투자자들의 뜨거운 관심을 받았으며, 상장 첫날 시가 총액 23조 6,000억원을 기록, 전통적인 금융 대장주였던 KB금융을 앞지르고 시총 10위권에 진입해 주목 받고 있다.   금융 앱 토스 운영사 비바리퍼블리카는 9월에 이어 10월도 관심 종목 추가 3위를 유지했으며, 인기 조회 순위가 9월 보다 두 계단 뛰어올라 TOP5에 합류했다. 지난 5일 공식 출범한 토스뱅크가 영업 개시 약 열흘 만에 5000억원의 가계대출 한도를 모두 소진하며 큰 화제를 모았고, 스타트업 ‘타다’ 인수, 토스증권의 해외 주식 서비스 연내 오픈 소식 등에 투자자들이 반응한 것으로 보인다.   9월 처음 순위권에 등장한 케이뱅크는 10월 관심 종목 추가 및 인기 조회 4위를 차지하며 순항 중이다. 지난 2분기 39억원의 순이익으로 첫 분기 흑자를 달성한데 이어 3분기 약 168억원의 잠정 당기순이익을 기록, 연간 누적 순이익 흑자 전환에 성공하는 등 연이은 호실적으로 투심을 견인하고 있다. 블록체인 및 핀테크 전문 기업 두나무도 두 달 연속 관심 종목 추가 및 인기 조회 1위를 수성하며 핀테크 주 열풍에 힘을 더했다.    메타버스가 글로벌 유망 산업으로 떠오르면서, 메타버스 및 게임 관련 주들의 인기도 탄력을 받고 있다. 스페인 프로축구팀 레알마드리드CF의 메타버스인 ‘레알마드리드 가상세계(RMVW)‘에 이어 FC바르셀로나 메타버스 구축에도 나선 가상현실(VR) 기업 쓰리디팩토리가 10월 관심 종목 추가 12위, 인기 조회 16위를 기록하며 눈길을 끌었다. MMORPG 게임 ‘KOD’에 메타버스 플랫폼을 도입하는 엔에스스튜디오는 관심 종목 추가 11위와 인기 조회 12위, XR 콘텐츠와 콘솔 게임 개발 전문 기업 이브이알스튜디오는 관심 종목 추가 13위와 인기 조회 19위에 이름을 올렸다.   바이오 테마에 대한 관심은 10월에도 굳건했다. 국내 최초 반려견 치료제 신약 승인을 받은 지엔티파마가 관심 종목 추가 10위, 인기 조회 6위에 이름을 올렸고, 러시아 코로나19 백신 ‘스푸트니크 V’를 위탁 생산하는 한국코러스는 관심 종목 추가 14위, 인기 조회 9위를 기록했다. 그 밖에도 최근 경구용 코로나19 치료제의 국내 제 2·3상 임상시험계획(IND)을 승인 받은 제넨셀, 국내 백신 전문기업 큐라티스 등 다수의 바이오 관련 종목들이 관심 종목 추가 및 인기 조회 TOP 20에 안착했다.   새롭게 순위권에 진입한 비상장 기업으로는 세계 2위 전기차 배터리 제조사인 엘지에너지솔루션과 국내 재규어 랜드로버 공식 딜러 기업인 주식회사 천일오토모빌이 있다. 21일 상장한 2차전지 장비주 지아이텍은 인기 조회 18위에 올랐으며, 22일 상장한 차백신연구소는 인기 조회 13위를 기록했다.   한편, 증권플러스 비상장은 2021년 9월 기준 누적 다운로드 수 100만 이상, 회원 수 70만 명 이상을 보유한 국내 대표 비상장 주식 통합 거래 플랫폼이다. 현재 거래 가능 종목은 5900개 이상, 누적 거래 건 수는 18만 건 이상이며, 2020년 4월 금융위원회로부터 혁신금융서비스로 지정된 바 있다. 업계 최초로 증권사와 연동된 안전거래 시스템을 도입해 거래 불투명성, 허위 매물, 높은 유통마진 등 기존 비상장 주식 거래가 갖고 있던 병폐를 해소하고, 24시간 예약주문, 집약된 종목 정보 제공과 같은 다양한 편의 기능으로 비상장 주식 시장의 혁신을 선도하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>은행 '슈퍼앱' 논의 본격화…제도 개혁 없으면 '공염불'</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002546108?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>당국 지원 약속에 관심 커졌지만은행도 지주사도 현행법에 '발목'서울 시내의 한 교차로 횡단보도 앞에서 한 시민이 보행자 신호를 기다리며 스마트폰을 바라보고 있다.ⓒ연합뉴스[데일리안 = 부광우 기자] 금융당국이 일반 시중은행도 인터넷전문은행이나 핀테크업체처럼 하나의 모바일 어플리케이션에서 여러 금융권의 서비스를 한 번에 제공할 수 있는 슈퍼앱을 개발할 수 있도록 지원을 약속하면서 관련 논의가 본격화하고 있다. 특히 이미 여러 금융권에 계열사를 보유한 대형 금융그룹들이 슈퍼앱 시장에 참전할 경우 상당한 메리트를 누릴 수 있을 것이란 관측이다.하지만 현행법상에서는 은행도 금융지주사도 슈퍼앱을 운영하기 어렵다는 지적이 일면서 금융당국이 제도 개혁에 속도를 내야 한다는 목소리가 나온다.9일 금융권에 따르면 고승범 금융위원장은 지난 달 말 열린 은행권과의 간담회에서 "금융그룹이 하나의 수퍼앱을 통해 은행·보험·증권 등 다양한 서비스를 제공하는 디지털 유니버설 뱅크가 가능하도록 제도적 여건을 조성할 것"이라고 밝혔다.아울러 고 위원장은 "현재 혁신금융서비스로 운영 중인 플랫폼 사업 등에 대해 사업 성과와 환경변화 등을 살펴보고, 은행의 부수 업무를 합리적인 수준으로 확대하겠다"고 설명했다.금융당국의 수장이 디지털 유니버설 뱅크를 통해 은행도 슈퍼앱을 가능하도록 여건을 조성하겠다고 하면서 기존 금융권도 관련 시장에 잇따라 뛰어들어들 것으로 전망된다. 슈퍼앱은 거의 모든 금융서비스를 한 곳에서 쓸 수 있는 모바일 앱으로, 카카오뱅크와 토스 등 빅테크 플랫폼들이 선점한 시장이다.현재 대부분 금융그룹은 은행과 증권, 보험 등 주요 계열사마다 따로 앱을 운용하고 있다. 단일 앱에서 다양한 금융 서비스를 이용할 수 있는 핀테크 업체와 비교해 소비자 편의성이 뒤처질 수밖에 없다. 디지털화 측면에서 전통 금융권의 경쟁력이 떨어진다는 비판이 계속되는 이유다.◆법적 장애물 산적…규정 개선 절실문제는 은행 혹은 금융그룹이 슈퍼앱을 만들기 위해서는 제도적 걸림돌이 많다는 점이다. 누가 운영 주체가 되더라도 법적 장애물을 넘어야 하는 실정이다.우선 은행은 현행법에 따라 포지티브 규제 방식으로 나열된 업무만 할 수 있게 돼 있다는 점이 애로사항이다. 만약 은행 앱에서 증권 거래나 보험 가입 등의 서비스를 제공하는 것이 은행업 이외의 업무를 다루는 것으로 간주되면 은행법에 저촉될 수 있다. 결국 하나의 앱에 은행이 아닌 다른 금융권 서비스를 도입하려면 일일이 금융당국으로부터 겸영업무 허가를 받아야 한다는 뜻이다.사실 슈퍼앱의 특성을 고려하면 은행보다는 금융지주가 운영을 맡는 게 자연스러울 수 있다. 하지만 금융지주는 직접 수익을 위한 사업에 나설 수 없다는 법에 발목이 잡혀 있다. 금융지주회사법에 따르면 금융지주사는 자회사의 경영관리업무와 자회사 등에 대한 자금지원, 출자 등 대통령령이 정한 부수업무를 제외하고는 영리 목적의 업무를 영위할 수 없도록 돼 있다.이 때문에 금융권에서는 당국의 전향적인 태도 변화가 필요하다는 비판이 나온다. 막연한 지원 약속보다는 구체적인 규제 해소 방안을 발표해야 금융사들이 슈퍼앱 개발에 본격적으로 뛰어들 수 있을 것이란 얘기다.금융권 관계자는 "관련법 개정이 진행되지 않는 상태에서 법률적 리스크를 감당한 채 슈퍼앱 개발에 돌입하기엔 금융사의 부담이 상당하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>[경제포커스] 허락받는 혁신이 제대로 되겠는가</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004627538?sid=110</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>빅테크 금융업 진출 확대 등으로은행의 미래 갈수록 불투명뭘 팔지 일일이 허락받는 상황에금융당국 결정 권한만 더 커져혁신금융 서비스 규제완화 없이금융산업 발전 가능하겠나민세진 &lt; 동국대 경제학과 교수 &gt;얼마 전 금융위원장이 하나의 슈퍼 앱을 통해 금융그룹이 다양한 서비스를 제공할 수 있는 제도적 기반을 조성하겠다고 밝혔다. 네이버와 카카오 같은 빅테크 플랫폼의 금융산업 진출이 확대되면서 기존 금융회사들의 불안과 불만이 커지는 가운데, 은행의 미래와 경쟁력에 대한 금융당국의 걱정이 읽힌다. 금융위는 슈퍼 앱 외에 은행이 할 수 있는 일의 범위와 살 수 있는 회사, 소비자에 대한 정보 공유 관련 규제 완화도 검토하겠다고 한다.은행에 미래가 있는가? 불과 10년 전만 해도 뜬금없었을 이 질문이 이제는 현실감 있게 다가오는 세상이다. 앞으로도 사람들은 저축하고 대출을 받겠지만, 이 전통적 영역에서 은행 간 경쟁력 차이는 두드러지지 않는다. 더구나 기존 은행들은 카카오뱅크나 토스뱅크처럼 비교적 최근 등장한 인터넷전문은행의 행보에 전전긍긍하고 있다. 저축이나 대출 외에 각종 금융 서비스 제공자로서 기존 은행의 경쟁력이 빅테크 플랫폼에 밀리는 것은 이미 관찰된다.게다가 전 세계적으로 논의되고 있는 중앙은행 디지털화폐(CBDC)가 도입된다면 은행의 10년 후는 정말 짐작할 수 없게 된다. 개인이 한국은행에 직접 계좌를 개설하고, 한국은행이 은행을 경유하지 않고 직접 통화정책을 펼 수 있게 될 수도 있기 때문이다. 규제당국이 먼저 규제 완화를 말할 만큼 기존 은행의 미래는 불투명한 것이다.사실 경쟁력 없는 회사가 도태되는 것은 냉정하지만 효율적인 시장의 작동 원리다. 그럼에도 금융당국이 특히 은행을 챙기는 것은, 은행이 전 국민을 대상으로 하는 금융 인프라 역할을 하기도 했지만, 각종 금융정책 시행 과정에서 다루기 쉬운 파트너로서 금융당국에 협조해 왔기 때문이다. 최근에도 은행에서 가계 대출이 일사불란하게 막히는 것을 볼 수 있었다.물론 은행은 협조에 대한 반대급부로 외환위기 같은 외부 충격이 아니라면 망하지 않을 먹거리를 보장받아 왔다. 온라인 플랫폼이 이렇게 부상하기 전까지 승승장구한 대표적인 오프라인 플랫폼이 금융 서비스에서는 은행이었던 것을 떠올려 보자. 은행은 전국 지점을 통해 저금, 대출뿐 아니라 보험에 가입하고 펀드도 살 수 있는 금융백화점이다. 다만 팔 수 있는 상품을 정부가 일일이 정해준다는 점에서 일반 백화점·대형마트와 다르다.이제 은행과 금융당국의 공생 관계가 시험대에 올랐다. 어떤 금융상품을 누가 팔 수 있는지 일일이 허락받아야 하는 상황에서 은행이라는 금융백화점은 외부 침략의 걱정이 없는 강력한 기득권이었다. 하지만 은행의 전국적 오프라인 지점망이 더 이상 경쟁력을 보장하지 못하고, 시대적 요구에 의해 금융 디지털화가 금융당국의 중요한 과제가 되자, 익숙하지 않은 경쟁에 내몰린 은행은 금융당국의 결정에 일희일비하는 상황이 됐다.더구나 금융당국은 이전보다 더 큰 결정 권한을 갖게 됐다. 금융혁신지원 특별법(금융혁신법)과 금융소비자 보호에 관한 법률(금융소비자보호법) 등을 통해서다. 각각 2019년 4월과 2021년 3월 시행되기 시작한 이 법들은 달라진 금융 환경에서 금융 혁신을 격려하고(금융혁신법), 금융소비자를 보호하기 위해(금융소비자보호법) 제정됐다.금융혁신법은 기존의 금융 관련 법령에서 허용하지 않던 금융 서비스를 할 수 있게 해주는 법이다. 단 금융위로부터 혁신금융 서비스라고 지정받아야 한다. 금융소비자보호법은 기존 금융회사만이 아니라 다양한 금융 서비스 판매업자 등이 등록하고 규제받도록 했다. 혁신이 중요하고 소비자 보호가 필요하지만 금융당국조차 기존 금융 법령에 얽매여서 하기 어려웠던 일들이 가능하도록 고육지책으로 나온 결과가 이 법들이다. 달리 말하면 금융위가 혁신이든 금융소비자 보호든 기존 금융 법령을 뛰어넘는 결정을 할 수 있게 됐다는 뜻이다.하지만 혁신은 허락받아야 하고 규제의 지뢰는 더 촘촘해지는 이런 변화가 진정 국민을 위한 금융 서비스업의 발전 방향인지 의문이 든다. 은행을 심폐소생하면서 금융 혁신은 충분히 촉진하는 절묘한 균형이 달성될 수 있도록 모두가 관심을 갖고 지켜볼 일이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>KTB네트워크, 증권신고서 제출...내달 상장 추진</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002545448?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>오는 29~30일 수요예측 진행KTB네트워크 로고 ⓒKTB네트워크[데일리안 = 백서원 기자] KTB네트워크가 5일 금융위원회에 증권신고서를 제출하고 코스닥 상장을 위한 공모 절차에 본격 돌입했다.KTB네트워크는 이번 상장에서 총 2000만주를 공모한다. 희망 공모가 밴드는 5800~7200원으로 총 공모금액은 1160~1440억원 규모다. 오는 29~30일 기관투자자 대상 수요예측을 거쳐 공모가를 확정하고 다음달 6~7일에 청약을 진행해 12월 내 상장을 마무리한다는 계획이다. 주관사는 한국투자증권이다.KTB금융그룹 주력 계열사인 KTB네트워크는 1981년 설립된 국내 1세대 벤처캐피털로 40여년의 투자 경력과 회수경험을 갖고 있다. 10년 이상의 경력을 가진 심사역이 다수 포진해 있으며 국내외 증시에 총 300여 건의 기업공개(IPO) 실적을 보유하고 있다. 또한 미국 현지법인(KTB Ventures)와 중국 상해사무소 등 선제적으로 해외시장에 진출해 글로벌 시장에서의 경쟁력도 꾸준히 키워왔다.KTB네트워크는 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 국내 유일의 VC로 투자 선구안을 인정받고 있다. 여기에 주요 투자기업인 RBW(종합 엔터테인먼트)가 이달 상장을 앞두고 있고 코넥스 시총 1위 기업 툴젠(바이오)도 상장예비심사에 통과해 다음달 코스닥 이전상장이 예정된 상태다. 해외 투자기업으로는 SoFi(미국, 핀테크 플랫폼), Moloco(미국, 광고 솔루션), Horizon Robotics(중국, 자율주행 반도체), Grofers(인도, 온라인 식료품) 등이 유니콘 기업으로 떠오르고 있다.운용자산 규모는 1조1195억원으로 업계 최상위권이다. 실적도 꾸준한 성장세로 지난해에는 당기순이익 358억을 기록하며 VC 업계 순이익 1위 자리에 올랐다. 올해는 상반기에만 441억원을 벌며 사상 최대실적을 이어가고 있다.김창규 KTB네트워크 대표는 “IPO를 통해 모집한 재원은 브랜드 가치 제고와 미래 투자를 위한 펀드 출자금 조성에 사용할 계획”이라며 “회사의 성장을 통한 주주가치를 제고는 물론, 신사업 육성과 일자리 창출 등 벤처산업 육성에 기여하는 국내 대표 VC로 거듭날 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>[단독] 토스증권 임원 6인 체제… 오창훈 CTO, 업무집행책임자로</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000753023?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>토스증권이 오창훈 최고기술책임자(CTO)를 비등기 임원인 업무집행 책임자로 선임했다. /사진=토스 토스증권이 오창훈 CTO(최고기술책임자)를 업무집행책임자로 선임하면서 임원 6인 체제를 구축했다. 10일 금융투자협회에 따르면 이달 초 토스증권의 C레벨 임원인 오창훈 CTO를 업무집행책임자로 선임했다. 임기 만료일은 오는 2024년 10월31일이다.업무집행책임자는 금융회사의 전략기획, 재무관리, 위험관리 등 주요 업무를 집행하는 집행임원이다. 상법상 금융사의 집행임원은 주요업무집행책임자로 분류해 선임시 이사회의 의결을 받아야 하고 임기도 3년으로 제한된다.C레벨 임원은 'Chief Officer(최고 책임자)'라는 뜻으로 특정 영역의 전문 경영진(임원)을 일컫는다. CEO(최고경영자), CFO(최고재무책임자), COO(최고운영책임자) 등 여러 직책이 있다.1977년생인 오 CTO는 GS홈쇼핑, 네이버 등을 거친 플랫폼 업계 전문가다. 2017년 토스에 합류해 기술 총괄을 맡아왔다. 그 동안 비대면 계좌 개설 서비스, 대출 맞춤 추천, 카드 맞춤 추천 등의 서비스 출시를 진두지휘했다. 그는 지난 2월 토스증권 출범 당시에도 최고기술책임자(Head of Technology)로 박재민 대표이사, 김동민 PO(프로덕트 오너)와 함께 온라인 기자간담회에 모습을 드러내기도 했다. 이후 임원 직급인 CTO(최고기술경영자)의 업무를 담당해왔다.토스증권 관계자는 "이번 인사는 정식 발령은 아니지만 회사 설립 초기 조직 안정을 위한 승진 인사"라며 "금융회사로서 임원 선임 공시가 필요해 절차에 따라 진행했다"고 설명했다.  앞서 토스증권은 지난 2월 지정호 CISO(최고정보보호책임자)·CPO(개인정보보호최고책임자)를 업무집행 책임자로 선임한 바 있다. 이에 토스증권의 등기임원은 기존의 박재민 대표이사와 김영기 감사, 김동민 사내이사, 윤선화 사내이사 등 4명에서 오창훈, 지정호 비등기임원 2명이 추가돼 총 6명이 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>'토양어선'을 아세요? ... 뺏고 빼앗기는 스타트업 개발자 전쟁</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000640448?sid=105</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>토스로의 이직 러시 빗댄 용어 IT 업계 개발자들 몸값 치솟으며스타트업 인력 확보 희비 엇갈려최근 정보기술(IT) 개발자들 사이에 '토양어선'이라는 말이 돌고 있다. 토양어선이란 개발자들이 금융기술(핀테크) 서비스 '토스'를 운영하는 신생기업(스타트업) 비바리퍼블리카로 이직하는 것을 원양어선에 빗대어 부르는 말이다. 일이 많아 원양어선을 타는 것처럼 힘들지만 고생한 만큼 제대로 보상을 받을 수 있다는 뜻으로, 스타트업들이 파격 조건을 걸고 벌이는 개발자 유치 경쟁의 단면을 보여주는 용어다. 모 스타트업 개발자는 “개발자들에게 토양어선이 부정적 의미는 아니다”라며 “개발자들은 힘들다는 것을 알면서도 파격 대우 때문에 토스 이직을 꿈꾼다”고 말했다.10일 관련업계에 따르면 스타트업들의 치열한 인력 확보 경쟁으로 개발자들의 몸값이 억대로 치솟으며 스타트업들 사이에 희비가 엇갈리고 있다. 경제적 여유가 있는 곳들은 개발자들이 몰리지만  그렇지 못한 곳들은  후한 조건을 제시하지 못해 필요한 개발자 확보에 어려움을 겪고 있다.경력 개발자들이 스타트업에서 억대 연봉을 받는 것은 드문 얘기가 아니다. 토스는 이직하면 전 직장에서 받던 연봉의 1.5배, 5,000만원 상당의 주식매수선택권(스톡옵션)을 준다. 따라서 이전에 연봉 4,000만 원을 받았다면 연봉 6,000만 원에 5,000만 원 스톡옵션을 더해 1억 원 이상을 기대할 수 있다. 전자상거래 스타트업 에이블리코퍼레이션도 지난달 말까지 경력 개발자를 뽑으면서 업계 최고 수준의 연봉과 별개로 계약금 형식의 입사지원비 1억 원을 제시했다. 데이터 농업 전문 스타트업 그린랩스도 경력 개발자를 뽑으며 연봉을 전 직장 대비 최대 30% 인상해주는 조건을 내걸었고 상반기 입사한 경력 개발자들에게 계약금 5,000만 원을 추가 지급했다.심지어 일부 스타트업은 신입 개발자들에게도 연봉 1억 원은 아니지만 여러 조건을 더해 1억 원 상당의 혜택을 제공한다. 인공지능(AI) 기반 경력관리 서비스를 제공하는 원티드랩은 최근 신임 초봉을 3,000만 원에서 4,000만 원으로 인상하고 3,000만 원의 주식매수선택권(스톡옵션), 무이자 주택자금 대출 최대 3,000만 원까지 포함해 1억 원 상당의 복지 혜택을 제공한다.일부 스타트업은 대표보다 개발자 연봉이 높은 경우도 있다. 디지털 솔루션을 개발하는 스타트업 A사 대표 이모씨는 "국내 최고 대기업 S사에서 경력 개발자를 다음달에 데려오는데 전 직장에서 받던 수억 원대 연봉에 더해 많은 스톡옵션까지 제공했다"며 "대표 연봉보다 몇 배 많지만 회사의 미래를 위해 과감하게 투자했다"고 말했다.반면 경제 여력이 없는 스타트업들은 개발자 확보 경쟁에 비명을 지르고 있다.  음향기술 개발 스타트업 C사 대표는 "업무에 즉시 투입 가능한 3~5년 차 개발자들을 구하기 너무 힘들다"며 "대형 스타트업들이 좋은 조건으로 개발자들을 쓸어가다시피 하는데 이들이 언제까지 높은 몸값 싸움을 할 수 있을지 의문"이라고 말했다.스타트업들의 개발자 확보 경쟁이 치열해지면서 프로그래밍을 배우는 비전공자들이 늘고 있다. 국비로 프로그래밍을 가르치는 전문 교육기관인 이노베이션아카데미의 '42서울' 교육생들이 토의를 하고 있다. 이노베이션아카데미 제공특히 기존 개발자들이 한꺼번에 대형 스타트업으로 옮겼으나 경력직 채용이 안 돼 팀 구성을 하지 못하는 스타트업도 있다. 전자상거래 플랫폼을 개발하는 스타트업 B사 관계자는 "지난달에 한꺼번에 팀장 포함 5, 6명의 개발자가 떠나 비상이 걸렸다"며 "경력 개발자 채용 공고를 냈으나 처우에서 밀리다보니 마땅한 지원자들이 없는 실정"이라고 어려움을 토로했다.그렇다고 신입 개발자들에게 기회가 돌아가는 것도 아니다. 당장 갈 길이 바쁜 스타트업들이 신입을 뽑아 가르칠 여유가 없기 때문이다. 소프트웨어 개발 스타트업 스케치소프트의 김용관 대표는 "학맥 등을 통하지 않으면 경력 개발자를 뽑을 수 없는 상황"이라며 "그런데도 신입 개발자들을 뽑지 않는 이유는 육성할 여력이 안돼 서로에게 도움이 되지 않기 때문"이라고 설명했다.상황이 이렇다 보니 일부 스타트업은 동남아 등에서 해외 개발자를 채용하는 방안을 검토 중이다. 오현오 가우디오랩 대표는 "메타버스 등 원격근무 환경이 갖춰지면 글로벌 IT 기업에서 일한 경험이 있는 동남아 개발자들을 채용할 수 있을 것"이라며 "의사 소통 문제만 해결되면 해외 개발자 채용에 문제가 없다"고 강조했다.업계에서는 개발자 우대 현상이 장기화할 것으로 본다. 정용은 스토어링크 대표는 "우수한 개발자 확보가 곧 기업의 경쟁력이어서 개발자 우대 현상이 길어질 것"이라며 "덩달아 스타트업 간 희비가 엇갈릴 수 있지만 직원들 입장에서는 전반적으로 근로 조건이 개선되는 긍정적 효과가 일어날 수 있다"고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>토스증권, 오는 22일까지 해외주식 서비스 사전신청 시작</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005075910?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>사전 신청 시 최대 6개월 해외주식 위탁 매매 수수료 무료 혜택 제공500여 미국 주식 및 ETF 거래 제공, 소수점 투자는 내년 초 지원[이데일리 유준하 기자] 토스증권이 내달 해외주식 서비스 출시를 앞두고, 사전신청 접수를 시작한다고 2일 밝혔다. 사전신청 고객에게는 최대 6개월의 해외주식 매매 수수료 무료 혜택을 제공한다.사전신청은 이달 22일까지 진행되며, 같은 날부터 사전신청 고객들을 대상으로 해외주식 서비스를 순차 오픈한다. 미국 주식시장에 상장된 352개의 주요 종목과 156개의 ETF(상장지수펀드) 등 500여종의 거래를 먼저 선보이며, 거래 종목은 점차 확대해나갈 예정이다. 해외 주식 소수점 거래는 내년 1분기 중 제공할 계획이다.사전신청을 완료한 고객 전원에게 3개월 해외주식 매매 수수료 무료 혜택을 제공한다. 친구를 초대하면 수수료 혜택이 3개월 연장돼 최대 6개월간 수수료 없이 해외주식 투자를 이용할 수 있다. 이는 국내 증권사 해외주식 서비스 수수료 혜택 중 최대 수준이다. 친구 초대 혜택은 친구가 나에게 공유받은 초대 링크를 통해 사전신청을 완료하면 자동 적용된다. 국내 거주 중인 만 19세 이상의 성인이라면 누구나 토스 앱 하단 주식탭의 토스증권 MTS(모바일 트레이딩 시스템)를 통해 참여할 수 있다. 토스증권이 새롭게 선보이는 미국주식 서비스는 별도의 앱을 설치해야 하는 번거로움 없이 토스앱 내 토스증권 MTS를 통해 이용할 수 있는 것이 특징이다. 또한, AI 기반의 실시간 해외뉴스 번역 서비스를 통해 신속한 투자 정보를 제공하며 투자자들의 정보 접근성을 높였다. 그밖에 △무료 실시간 시세△자동 환전을 통한 원화 거래를 지원하며 고객들에게 국내 주식투자와 다름없는 쉽고 간편한 투자 경험을 선사한다는 계획이다.윤민정 토스증권 해외주식 프로덕트 오너(Product Owner)는 “투자자들의 해외 투자에 대한 관심이 높아지고 있지만, 여전히 종목 검색부터 환전, 실제 투자 과정까지 불편한 지점이 많다”며, “토스증권 해외주식 서비스는 고객에게 시장이 열리는 시간대만 달라졌을뿐 국내 주식거래 방식과 차이를 거의 느끼지 못할 혁신적인 투자경험을 제공할 것”이라고 말했다. 토스증권은 올해 초 MZ세대와 초보 투자자들을 겨냥한 혁신적인 MTS를 선보이며, 출범 8개월만에 380만명 이상의 고객을 유치하는 등 빠른 성장세를 기록하고 있다. 이번 해외주식 서비스 출시로 연내 국내외 직접투자 라인업을 갖추고, 내년에는 자산관리 영역으로 서비스를 확대해나갈 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>뱅크냐 페이냐...‘집안싸움’ 된 카카오금융 시총 경쟁</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001908426?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>상반기 영업 이익은 뱅크 우세고객수·MAU는 페이가 앞서카카오페이가 3일 성공적으로 유가증권시장에 안착하면서 카카오뱅크와의 시가총액 경쟁도 관심사가 됐다. 각각 은행업과 결제업으로 주된 사업 분야는 다르지만, 방향성이 ‘금융 플랫폼’으로 동일해 ‘집안싸움’이 될 것이라는 관측도 나온다.3일 유가증권시장에 상장한 카카오페이는 첫날 한때 시총 기준 금융주 1위인 카카오뱅크를 넘어서기도 했다. 카카오페이 주가는 급등했는데 카카오뱅크 주가는 급락하면서다.카카오뱅크 주가가 급락한 이유로는 3분기 실적이 예상치를 밑돌았기 때문이라는 의견도 있지만 카카오페이 상장이 영향을 미쳤다는 분석이 나온다. 이날 기관 수급을 보면 카카오뱅크는 기관이 198억원을 매도했지만 카카오페이는 300억원 넘게 기관 매수가 들어왔다.또 두 회사는 금융 플랫폼을 지향하고 있다는 점에서 상당 부분 사업 영역이 겹친다. 카카오뱅크는 금융상품을 제조하는 역할도 하지만 동시에 제휴 카드, 연계 대출 등을 중개하는 역할도 한다. 최근에는 광고 매출도 발생하고 있는 상황이다. 카카오페이는 결제와 송금 인프라를 토대로 대출·보험·카드 등을 중개하고 있다.이 두 회사는 카카오그룹과 시너지를 내겠다는 구상을 세웠다. MAU(월 활성 이용자 수) 측면에서 강점을 지닌 플랫폼이란 점을 이용해 수익을 창출하겠다는 비전도 동일하다.금융권 한 전문가는 “공통 사업분야가 점차 늘어나면서 협력보다는 경쟁 구도 형성될 확률이 높다”면서 “서로 영역을 침해하지 않도록 구분을 확실히 해야할 필요가 있다”고 말했다.실제 뱅크와 페이 모두 상장 시 동일 업종 대비 높은 가치를 인정 받았던 것도 플랫폼이라는 점을 내세워서다. 카카오뱅크와 카카오페이는 각 사가 발표한 MAU 기준 1인당 가치가 각각 191만원, 68만9000원으로 나타났다. 글로벌 금융 플랫폼 기업 (스퀘어 344만원, 로빈후드 215만원, 페이팔 80만원, 동방재부 434만원) 평균보다 낮은 편이다.현재는 고객 수와 MAU 측면에서 페이가 우세하다.페이는 상반기 영업이익을 흑자로 전환하며 성장세를 키우고 있다. 반면 뱅크는 토스뱅크 등장으로 성장성이 주춤하다. 앱 전문업체 와이즈앱에 따르면 카카오뱅크 앱의 MAU는 2분기 1037만명에서 3분기 1085만명으로 48만명 증가에 그쳤지만, 같은 기간 토스의 MAU는 1061만명에서 1209만명으로 148만명 증가했다.정준섭 NH투자증권 연구원은 “카카오뱅크는 이번 4분기 차별화된 CSS의 성과와 금융 플랫폼으로서의 성장 여력을 보여줄 필요가 있다”고 분석했다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.11.14.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>토스, 전자서명인증사업자 선정…"토스인증서 활용 기반 마련"</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003801927?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카는 11일 한국인터넷진흥원(KISA)으로부터 '전자서명인증사업자'로 인정 받았다고 14일 밝혔다. 전자서명인증사업자는 지난해 6월 전자서명법 개정으로 신설된 자격이다. 기존 공인인증서의 독점적 지위가 사라지고 다양한 인증사업자가 출현함에 따라, 과기정통부와 한국인터넷진흥원은 일정한 운영 요건을 갖춘 사업자를 엄격히 평가해 '전자서명인증사업자'로 지정하고 있다. 특히 내년 1월 출발하는 '마이데이터 서비스'는 이용자가 각 금융기관에서 신용정보를 조회 할 때 통합인증 절차를 두고 있으며, 통합인증기관이 되기 위한 필수 조건으로 '전자서명인증사업자' 지위를 요구하고 있다. 안재균 토스 인증팀 PO는 "금융, 공공서비스 등 엄격한 본인확인 및 전자서명 절차가 필요한 곳에 토스인증이 활용될 수 있는 기반을 마련했다"고 설명했다. 토스는 올해 들어 인증 사업에 속도를 내고 있다. 지난 8월에는 방송통신위원회가 지정하는 '본인확인기관'에 플랫폼 중 유일하게 선정됐다. 앞서 6월에는 과학기술정보통신부로부터 '공인전자문서중계자' 지위를 획득했다. 이미선 기자 already@sportschosun.com▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>부산 수정초, ‘제54회 추계배 전국초등학교 배구대회’ 우승</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004737907?sid=102</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>부산 동구 수정초등학교 배구부 선수들이 '제54회 추계배 전국초등학교 배구대회'에서 우승 후 기념사진을 찍고 있다./제공=부산시교육청 [파이낸셜뉴스] 부산 동구 수정초등학교(교장 박혜숙) 배구부가 지난 4~8일 충청북도 옥천군에서 열린 ‘제54회 추계배 전국초등학교 배구대회’에서 우승을 차지했다고 11일 밝혔다.   지난 1999년에 창단한 이 학교 배구부는 2014년 신수민 코치 부임 후 7년 만인 올해 3월 단양 소백산기 대회에서 3위를 차지한 데 이어 이번 전국대회에서 처음으로 우승의 영광을 안았다.   이 학교 배구부는 전국의 초등학교 배구팀 중 48개 팀(남자 29팀, 여자 19팀)이 참가한 가운데 열린 이번 대회에서 예선 경기부터 집중력을 발휘해 예선 2경기와 8강전, 4강전, 결승전까지 전 경기 2:0 무실세트로 승리하며 우승을 차지했다.   선수들은 강한 서브와 세터의 안정적인 토스에 이은 파워풀한 공격으로 상대 팀을 흔들었고, 집중력 강한 수비까지 더해져 시종일관 우세한 경기를 펼쳤다. 또 경기가 잘 풀리지 않을 때마다 서로 격려하고 소통하며 분위기를 끌어올리는 팀워크가 우승의 원동력이 됐다는 분석이다.   우승과 함께 이 학교 배구부 선수들은 최우수 선수상에 윤호정 선수, 세터상 김신비 선수, 페어플레이상 김민서 선수 등 개인타이틀도 휩쓸었다.   박 교장은 "학부모들의 관심과 응원, 선수들의 단합력과 배구를 향한 열정과 자부심, 지도자의 우수한 지도력, 학교의 지원등이 한데 어우러져 전국대회 우승이라는 좋은 결실을 맺을 수 있었다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>인뱅, 중금리대출 금리도 오른다…서민들 발 '동동'</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002543951?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>카뱅 '중신용' 최저금리 3.5%까지↑케뱅·토뱅, '사잇돌대출' 금리 인상"당국 기조에 서민피해 더 커질 수도"인터넷은행이 취급하는 중금리대출 상품 금리가 오르면서 서민들의 피해가 확산될 것이란 우려가 나오고 있다. ⓒ픽사베이[데일리안 = 김민석 기자] 인터넷은행이 중금리대출 금리를 올리면서 서민의 부담이 악화될 우려가 확산되고 있다. 금융당국의 유동성 완화 정책으로 상승궤도에 오른 채권금리에 연동한 중금리대출 상품 이자율의 추가 인상 가능성이 있어 서민의 금리 부담이 가중될 것이란 전망에서다. 일각에선 추가 금기 상승이 현실화될 경우 가계부채를 강력히 옥죄는 와중에도 서민금융상품의 공급에 차질이 없게 하겠다던 금융당국을 향한 서민의 분노를 잠재우기는 어렵다는 비판의 목소리를 내고 있다.2일 금융권에 따르면 카카오뱅크는 지난달 31일 자사 중금리대출 상품인 '중신용대출'의 최저금리를 3.512%로 공시했다. 지난달 11일의 3.367% 대비 0.145%p 인상된 수치다. 지난 6월28일 최저금리인 3.103%와 비교하면 4개월 새 0.409%p 급등한 셈이다.카뱅이 운용 중인 '중신용플러스대출'의 최저금리도 지난달 11일 4.378%에서 31일 4.523%로 인상됐다. 케이뱅크도 자사 중금리대출인 '사잇돌대출'의 최저금리를 지난 달 31일 5.02%까지 올렸다. 지난 9월 30일 4.68% 대비 0.34%p 인상된 것이다. 토스뱅크도 출범 당시 4.54%이던 사잇돌대출 최저금리를 이번 달부터 4.68%로 올렸다.중금리대출은 신용등급이 낮은 고객을 대상으로 취급되는 신용대출 상품이다. 포용금융 활성화를 위해 금융당국은 올해 초 인터넷은행에 연말까지 중금리대출 비중을 크게 늘리라고 주문했다. 이에 카카오뱅크는 연말까지 20.8%의 중금리대출을 취급하기로 약속했다. 케이뱅크와 토스뱅크는 각각 21.5%, 34.9%만큼 중금리대출을 취급해야 한다.각 인터넷은행은 당국 취지에 맞춰 중금리대출을 대폭 확대하기 시작했다. 카카오뱅크가 지난 8월말까지 중저신용 고객을 대상으로 공급한 대출액은 1조7827억원을 기록했다. 토스뱅크도 지난달 5일 출범 이후 10영업일 만에 1400억원 규모의 중금리대출 실적을 기록했다. 전체 대출액의 28.2%에 달하는 규모다.ⓒ데일리안하지만 금융당국의 규제 강화 기조로 중금리대출을 사용하는 서민의 금리 부담은 오히려 가중되는 모양새다. 서민 금리 부담의 가장 큰 이유는 당국의 금리인상 기조다. 실제로한국은행 금융통화위원회는 지난 8월 기준금리를 기존 0.50%에서 0.75%로 인상했다. 상승세를 탄 기준금리와 함께 대출금리 지표인 금융채 금리가 인상되자, 이에 연동한 중금리대출 금리도 함께 오르기 시작한 것이다.아울러 최근 금융당국의 전방위 대출 규제에 금융사가 잇따라 우대금리를 줄이고, 가산금리를 올린 부분도 중금리대출 금리에 상승압박을 가했다는 분석이다. 문제는 한은이 이번 달 금리를 추가 인상할 가능성이 높게 점쳐지면서 중금리대출 금리도 함께 인상될 우려가 커지고 있단 점이다. 중금리대출 최저금리 상단이 더 높아지면 서민자금에 애로가 없게 하겠다던 금융당국의 약속이 공수표가 될 수 있다는 비판까지 제기된다.금융권 관계자는 "당국의 활성화 정책에 맞춰 초반 금리 면제 혜택까지 제공하면서 중금리대출을 늘리고 있는 인터넷은행 입장에선 금리조정은 어쩔 수 없는 선택이었을 것"이라며 "시장금리가 조정되면 금융상품 금리가 따라가는 것은 당연하지만 정책금융상품에 대해서는 당국이 소비자 금리 부담을 완화할 수 있는 대안을 마련해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>이재명 만난 김슬아 대표 “규제 방향성 바꿔달라” 요청</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005081256?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>스타트업 업계, 이재명 후보 만나 정책토크김슬아 컬리 대표 “네거티브 규제로 바꿔달라”이재명 “네거티브 규제에 공감, 혁신할 것”스타트업이 일자리 창출에 도움 공감[이데일리 윤정훈 기자] “스타트업은 스피드가 생명인데, 질의만 하다가 1년 정도 시간이 가기도 해요.”장보기앱 마켓컬리를 운영하는 김슬아 컬리 대표가 이재명 더불어민주당 대선 후보를 만나 규제 혁신을 강조했다.김 대표는 8일 서울 성동구 패스트파이브에서 열린 ‘스타트업 정책토크’에 최성진 코스포 대표, 안성우 직방 대표, 이승건 비바리퍼플리카(토스) 대표 등과 함께 참여했다.더불어민주당 이재명 대선후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에 참석해 인사말을 하고 있다.  이 후보 우측은 김슬아 컬리 대표, 좌측은 이승건 비바리퍼플리카 대표[국회사진기자단]김 대표는 “컬리는 식품도 하고 운송사업도 하는데 식품과 관련해 식약처에 질의할때와 구청에 질의할때 다르다”며 “포지티브 형태 규제 체계로 운영하다보니 특정사항에 대해 기관마다 의견이 일치하지 않는다”고 했다.이어 “법이 오래전에 만들어지기도 했고, 비즈니스 모델은 새로운게 나오다보니 새로운게 나오면 현장에서 어떻게 해야하는지 모르는 상황”이라며 “규제의 방향성이 한 번 바뀌면, 현장에서 법을 집행하는 공무원이나 관계당국에서도 유연하게 집행할 수 있을 것이라 생각한다”고 말했다.현재 국내 법률과 정책은 허용되는 것을 제외한 이외의 것은 허용하지 않은 포지티브 방식의 규제를 쓰고 있다. 이에 법적으로 금지된 것이 아니면 모두 할 수 있는 네거티브 방식의 규제로 방향을 바꿔줄 것을 김 대표가 요청한 것이다.김 대표의 요청에 이 후보도 공감을 표했다. 이 후보는 “행정의 경직성 때문에 변화하는 시대에 새로운 사업을 시작하는 부분은 어렵다”며 “시장안의 참가자가 만든 혁신적인 시스템을 공무원이 잘 모르기 때문에 공부를 해서 인허가를 하고 있어서 그렇다”고 답했다.이어 이 후보는 ‘원스톱 지원제’를 제안했다. 이 후보는 “규제를 전체적으로 합리화해서 해결할 수도 있지만 첫 접수 기관이 관련 문제를 직접 찾아서 해결하는 ‘원스톱 지원제도’를 도입하는 게 좋을 것”이라며 “결론도 중요한데 속도가 더 중요하다고 생각한다. 각별히 검토하고 감안하겠다”고 했다.김 대표는 스타트업의 스케일업에 대한 금융지원도 요청했다. 김 대표는 “스타트업의 초기 정책지원은 커진반면에 어느 시점에 스타트업이 규모를 키워나가려고 할때 스케일업 금융에 대한 전반적인 지원이 부족하다”며 “국내에서도 미국처럼 스타트업이 성장하고 고용창출을 위해서는 정부 지원이 필요하다”고 애로사항을 토로했다.이에 이 후보는 “데스밸리를 지원하는걸 넘어 급성장하는 계기를 맞았는데 그부분에 지원해주면 유니콘 성장에 도움이 될 것이라는 말 잘 알아들었다”며 “저희가 바라보기로도 경제 성장의 길이고, 좋은 일자리를 만드는 길인만큼 각별한 관심을 갖겠다”고 강조했다.이 후보는 규제 완화와 더불어 스타트업의 사회적 책임에 대해서도 언급했다.이 후보는 “혁신은 우리가 응원한다”며 “경제적 가치도 추구하되 사회적 가치(책임)도 함께 조화됐으면 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[포켓이슈] 동성 키스신 '이터널스' 중동 상영금지…당신 생각은?</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012783111?sid=103</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 동성 간 키스신이 포함된 영화 '이터널스'가 중동 국가들에서 개봉 금지되자 이 영화에 출연한 안젤리나 졸리가 "무지하다"는 반응을 보였습니다.    마블시네마틱유니버스(MCU)가 제작한 이 영화는 태초의 히어로 10명이 인류의 가장 오래된 적 데미안츠에 맞서기 위해 다시 모이는 이야기로, 마동석이 강력한 힘을 가진 길가메시 역으로 테나 역의 앤젤리나 졸리와 호흡을 맞춰 관심을 모았는데요.    극 중 슈퍼 히어로 파스토스(브라이언 타이리 헨리)가 남편인 벤(하즈 슬레이먼)과 키스하는 장면이 문제가 됐죠. 중동에선 동성애가 불법으로 적발되면 극형에 처해질 수 있는데요. 쿠웨이트와 카타르에선 영화 속에서 신(神)을 묘사하는 장면도 신성모독이라고 문제 삼았습니다.    이 때문에 중동의 상당수 국가는 이터널스 개봉 금지를 결정했고, 아랍에미리트(UAE)·요르단·레바논·이집트 등은 모든 성적인 장면을 지운 버전을 상영합니다.    졸리는 호주 언론과의 인터뷰에서 중동국가들의 개봉금지 조치에 아쉬움을 감추지 못했는데요.    졸리는 "파스토스의 가족과 그 관계의 아름다움, 사랑을 보지 못하는 사람들이 여전히 우리가 사는 세계에 살고 있다는 것을 이해할 수 없다"면서 "그들의 사랑과 가족에 분노하고 위협하고 인정하지 않는 건 무지한 생각"이라고 강조했습니다.    이터널스는 미국과 캐나다에서 개봉된 이후 북미 박스오피스 1위를 차지했는데요. 9일 영화진흥위원회에 따르면 우리나라에서도 지난 3일 개봉한 '이터널스'는 8일까지 누적 관객 수 171만8천598명을 모으며 국내 박스오피스 1위에 올랐습니다.    동성 키스신을 이유로 개봉 금지한 중동국가들에 "무지하다"고 맞선 졸리. 당신은 어떻게 생각하세요?인교준 기자 이소은 인턴기자    kjihn@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>동성애 키스신 '이터널스' 결국 중동국가 개봉금지…졸리 "무지한 것"</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000280281?sid=103</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>영화 '이터널스' 스틸 〈사진=월트디즈니컴퍼니코리아〉    다양성의 한 단면이 결국 몇몇 국가에서는 발목 잡혔다.       마블시네마틱유니버스(MCU) 최초로 동성애 히어로와 애정신을 등장시킨 영화 '이터널스(클로이 자오 감독)'가 중동국가에서는 사실상 개봉이 금지됐다.       데드라인 등 외신은 지난 6일(현지시간) "아랍에미리트·요르단·레바논·이집트 등 중동 4개국에서는 '이터널스'와 관련, 극중 이성애자든 동성애자든 친밀한 스킨십이 삭제된 버전이 공개될 수 있다"고 보도했다.       쿠웨이트와 카타르에서는 "동성 키스신 뿐만 아니라, 역사적으로 그들이 신성모독이라 여기는 신과 예언자들을 묘사했다"는 이유로 '이터널스' 상영을 중단 시켰고, 사우디 아라비아·쿠웨이트·바레인·오만 등은 애초 '이터널스' 개봉을 추진하지 않기로 결정했다.      이에 마블 스튜디오 측은 더 나아가 문제를 제기한 중동국가들의 '이터널스' 개봉을 아예 금지시켰다. "어떠한 장면에 대해서도 수정 혹은 삭제가 이뤄지지 않을 것이다"는 뜻을 확고히 한 것. 중동국가 흥행 수입 역시 포기한 조치로 볼 수 있다.     영화 '이터널스'에 등장하는 MCU(마블시네마틱유니버스) 최초 동성애 히어로 파스토스(브라이언 타이리 헨리) 캐릭터 포스터 〈사진=월트디즈니컴퍼니코리아〉    '이터널스'에 동성애 히어로가 등장한다는 내용은 기획·제작 단계부터 주목을 모았다. 마블 스튜디오 수장 케빈 파이기는 일찍부터 "'이터널스'를 통해 MCU 최초로 LGBTQ+(성소수자) 관계를 자세하게 묘사할 예정이다"고 예고했다.      따라서 동성애에 민감한 나라에서 영화를 어떻게 받아들일지도 관심사였다. 클로이 자오 감독 역시 이를 예견한 듯 개봉에 앞서 "완성된 영화는 더 이상 편집하지 않을 것이다. 파스토스 시퀀스는 이야기와 캐릭터를 연결하는데 매우 중요하다"고 단언했다.      실제 중동국가 뿐만 아니라 러시아에서는 MCU 시리즈 최초 18세이상관람가(R등급)가 책정되기도 했다. 어린이 및 청소년에게는 금지되는 작품으로, 동성애 신이 있으면 대부분 R등급 심의를 거쳤던 러시아 영화계 특성상 '이터널스'도 같은 이유일 가능성이 높다.       '이터널스'에서 동성애 히어로로 등장한 인물은 브라이언 타이리 헨리가 연기한 파스토스다. 태초의 발명가로 설정된 파스토스는 인간을 사랑하며 그들의 삶 속에서 함게 살아가는 인물로, 사랑하는 사람과 아들까지 키우며 히어로 중 유일하게 가정을 꾸렸다.     〈사진=연합뉴스 / 워너브러더스코리아 제공〉     전쟁의 여신 테나로 분한 안젤리나 졸리는 호주매체 뉴스닷컴과 인터뷰에서 중동 국가들의 조치에 아쉬움을 표하며 "그들의 그러한 결정에 슬픔을 느끼지만 동시에 마블이 해당 장면들을 삭제하지 않은 것에 대해서는 자부심을 느낀다"고 말했다.       이어 "나는 파스토스가 가진 가족과 그 관계의 아름다움, 사랑을 보지 못하는 사람들이 여전히 우리가 사는 세계에 살고 있다는 것을 이해할 수 없다. 그들의 사랑과 가족에 분노하고 위협하고 인정하지 않는다는 건 무지한 생각이다"고 강조했다.       한편, '이터널스'는 수천 년에 걸쳐 그 모습을 드러내지 않고 살아온 불멸의 히어로들이 '어벤져스: 엔드게임' 이후 인류의 가장 오래된 적 데비안츠에 맞서기 위해 다시 힘을 합치면서 벌어지는 이야기를 담은 영화다. 국내에서는 개봉 5일만인 7일 올해 최단기간 160만 돌파에 성공했다. 조연경 엔터뉴스팀 기자 cho.yeongyeong@jtbc.co.kr (콘텐트비즈니스본부)</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인터넷은행 대출금리, 중·저신용자 내리고 고신용자 올리고</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002567457?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>케이뱅크, 신용대출 등 상품에서중·저신용자 금리 최대 3.27%p 인하인터넷전문은행 케이뱅크가 중·저신용자에 대한 신용대출 금리를 최대 3.27%포인트까지 내리는 한편, 고신용자에 대한 신용대출 금리는 소폭 올리기로 했다. 케이뱅크는 11일 보도자료를 내어 “중·저신용자 대상 대출 상품 금리를 11일 일제히 인하한다”며 이렇게 밝혔다. 이번에 금리가 내려가는 대출 상품은 △신용대출 플러스 △신용대출 △마이너스 통장 등 세 가지다. 직장인과 개인 사업자, 중·저신용자 등 다양한 고객이 이용할 수 있는 ‘신용대출 플러스’는 은행 자체 기준에 따라 최대 1억원까지 대출이 가능하다. 은행은 이 상품 이용자 중 중·저신용자에 대해서는 이전보다 금리를 최대 3.27%포인트까지 낮춰주기로 결정했다. 이에 따라 11일 기준 신용대출 플러스의 최저 금리는 3.58%로 낮아졌다.이에 더해 케이뱅크는 ‘신용대출’과 ‘마이너스 통장’의 금리도 내리기로 했다. 금리를 내리기 전과 비교하면 두 상품을 이용하는 중·저신용자의 대출 금리는 1.5%~2.3%포인트 정도 낮아진다. 다만 케이뱅크는 정부의 가계부채 관리 강화 기조에 발맞춰 고신용자에 대한 신용대출 금리는 소폭 인상할 계획이다. 은행이 이번에 중·저신용자를 위해 금리를 내리기로 한 것은 연말까지 중·저신용자 대출 비중 목표치(21.5%)를 맞춰야 하기 때문인 것으로 풀이된다. 케이뱅크에 따르면 지난 2분기 말 기준 중·저신용자 대출 비중은 15.5%다. 케이뱅크는 지난 9월에도 신용점수 820점 이하 중·저신용자를 대상으로 대출 이자 두 달 치를 돌려주는 캐시백 이벤트를 하는 등 중·저신용 고객 모으기에 나선 바 있다. 한편, 고신용자 대상 마이너스 통장 판매는 지난 6일부터 중단했다. 고신용자가 이용하는 대출 상품의 금리를 올리거나 판매를 중단해 유입을 줄이는 한편, 중·저신용자에 대한 금리 혜택은 늘리는 방식으로 고객을 끌어들여 대출 비중 목표치를 맞추려는 취지다.다른 인터넷전문은행의 사정도 크게 다르지 않다. 카카오뱅크의 경우 이미 지난 5월12일부터 은행 자체 신용에 기반을 둔 중·저신용자의 대출 금리를 최대 1.2%포인트 내렸다. 중·저신용자 대출 상품 공급을 확대하기 위해서다.토스뱅크의 경우 현재 올해 대출 총량 5000억원을 다 소진해 연말까지 대출을 중단한 상태다. 토스뱅크는 중·저신용자 대출 비중을 내년 42%, 내후년 44%까지 끌어올리겠다는 계획을 금융 당국에 제출한 바 있다. 토스뱅크 역시 내년 중금리 대출 비중 목표치를 맞추기 위해 중·저신용자를 대상으로 각종 금리 혜택을 제공할 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>“이젠 지친다”…머지포인트 희망고문 언제까지</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002543966?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>10월·11월 연간권 포인트 캐시백 지급 돌연 12월로 연기애매모호한 사용처 확대 공지도 시끌…일각선 “폐업 우려도”머지포인트 운영사 머지플러스가 지난달 20일부터 서울 가든호텔에서 머지포인트를 사용할 수 있다고 공지했다.ⓒ머지포인트 앱 캡처[데일리안 = 이나영 기자] 대규모 환불 논란을 빚은 머지포인트 운영사 머지플러스의 애매한 태도와 시간 끌기에 소비자들의 불신이 점점 커져가고 있다.최근 입점한 사용처에 대한 애매모호한 공지 내용으로 혼선을 준데 이어 연간권 구매 혜택으로 지급되는 포인트 캐시백 지급 일정도 갑작스럽게 미뤘다.일각에서는 머지플러스 측이 희망고문을 반복하며 소비자들을 우롱하고 있는 형국이라며 폐업 수순을 밟고 있는 것 아니냐는 우려가 나온다.2일 업계에 따르면 머지플러스는 지난달 30일 연간권 구매 혜택으로 지급되는 포인트 캐시백 관련 공지를 올렸다.머지플러스 측은 “현재 플랫폼 내부에서 개별 플랫폼의 분산된 캐시백 일정으로 혼선이 커져 가고 있다”며 “커뮤니케이션 사정으로 인해 분산된 지급일을 통합해 매달 25일에 합산해 지급되도록 일정이 변경됐다”고 안내했다.이어 “정책 변경 후 통합 첫 지급일은 12월25일”이라고 덧붙였다.머지플러스는 지난 8월 서비스 중단 이후 현재까지 토스, 페이코, 하나멤버스 등 모든 캐시백을 중단 없이 제공해왔다.그러나 이번 공지로 10월 31일, 11월 31일, 12월 25일에 지급받을 예정이었던 캐시백을 12월 25일에 받을 수 있게 된 것이다.앞서 서울 가든호텔로 사용처를 확대할 때도 논란을 빚었다.머지플러스는 지난달 20일부터 서울 마포구에 위치한 서울 가든호텔에서도 월 1만원 결제 한도 내에 머지포인트를 사용할 수 있다고 밝혔다.하지만 호텔 예약 등을 할 때는 머지포인트 사용이 어렵고 뷔페(h-가든)에서만 결제가 가능하다는 점이 뒤늦게 알려지면서 논란이 됐다.호텔 측에서도 머지포인트 측 공지가 오해의 소지가 있는 것으로 보고 삭제요청을 한 상태다.이렇다 보니 머지포인트 피해자 모임 등 온라인 커뮤니티에는 소비자들의 불만 가득한 글이 쏟아지고 있다.“호텔 측에 전화해 확인해보니 (머지포인트) 사용할 수 없다고 하더라”, “호텔이 아니라 뷔페라고 사용처를 정확하게 적어놔야 하는 것 아니냐”, “본인들의 업무 혼란을 핑계로 캐시백 지급 하루 전에 두 달 뒤로 연기한다는 게 상식적인 회사 업무 처리 방식이냐”, “실낱같은 희망이었는데 이마저도 중단되다니 어이없다” 등 비판 글이 대부분이다.일부 소비자들 사이에서는 캐시백 지급 일정 연기 움직임을 두고 폐업 수순을 밟고 있는 것 아니냐는 우려의 목소리도 나온다.10월, 11월에 지급해야 할 캐시백을 12월에 준다고 미룬 것은 결국 몇 달 안 주고 버텨보겠다는 꼼수 아니냐며 시간을 최대한 벌고 그 후 도망가려는 것 아니냐는 지적이다.여기에 온라인 환불도 여전히 규모 등 진행 상황에 대해 알 수 없는 형국이다.머지플러스 측은 지난달 19차례에 걸쳐 온라인 환불을 진행한 데 이어 지난 1일 오전 11시에도 환불을 진행했다는 입장이다.지난달 5일 진행된 국회 정무위원회 국정감사에서 권남희 머지플러스 대표가 “순차적으로 환불을 진행하고 있다”고 밝혔지만 구체적인 진행 상황이나 시점 등은 언급하지 않았다.피해자들을 상대로 희망고문만 계속하고 있다는 비판이 나오는 이유다.아직 머지포인트 환불을 받지 못한 정 모 씨는 “지난 8월 서비스 중단 이후 현재까지 몇 차례 온라인 환불을 진행했다고 하는데 아직까지 감감무소식”이라며 “계속되는 희망고문으로 피해자들을 괴롭히고 있는 꼴”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>스타트업 만난 이재명 "금지사항 빼고 다 해라" [IT돋보기]</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000634224?sid=105</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>혁신의 결과로 독점 이용한 과도한 이익 추구는 지양해야이재명 더불어민주당 대선후보가 직방·컬리·배달의민족(배민)·왓챠·토스·두나무 등 국내 대표 스타트업 관계자들과 만났다.스타트업 관계자들은 이 대선후보에게 스타트업이 현재 국내 일자리 창출·사회 혁신 등에 기여하고 있음을 강조하고 낡은 규제 타파 등의 정책적 지원을 요청했다.이재명 더불어민주당 대선 후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에 참석해 인사말을 하고 있다. [사진=아이뉴스24 정소희 기자]8일 코리아스타트업포럼(코스포)는 서울시 성동구 소재 '패스트파이브 서울숲점' 및 유튜브 생중계를 통해 이재명 더민주 대선후보 초청 '스타트업 정책 토크'를 개최했다.이날 행사는 대한민국 경제를 이끌어갈 스타트업 정책 방향을 고민하고 업계의 생생한 목소리를 이 대선후보에 전달하기 위해 마련됐다.이재명 대선후보와 함께 최성진 코스포 대표, 김슬아 컬리 대표, 안성우 직방 대표, 이승건 토스 대표, 이효진 8퍼센트 대표, 김형년 두나무 부사장, 김현숙 맘이랜서 대표, 이경일 솔트룩스 대표, 최예림 에이아이닷컴 대표, 김재원 엘리스 대표, 박태훈 왓챠 대표, 김범준 우아한형제들 대표, 김희정 째깍악어 대표, 전상열 나우버스킹 대표, 한상우 위즈돔 대표, 김세영 피에스엑스 대표 등이 참여했다.참여자들은 공통적으로 사업에 있어 애로사항과 함께 규제 혁신의 필요성을 호소했다. 이승권 토스 대표는 "금융위원회와 금융감독원의 지원도 많았지만, 지금은 조금 규제로 기류가 바뀐 것 같다"라며 "아직 풀어야할 편익과 효율이 많은데 많은 규제가 해결되지 않고 있다"라고 호소했다.이효진 8퍼센트 대표도 민간 공동 정책 사업 강화를 요구하며 플랫폼 노동자에게 합리적인 금융 서비스 제공에 있어 규제로 어려움이 있다고 토로했다. 김형년 두나무 부사장 역시 국내 가상 자산 사업자들의 글로벌 활동을 위해 업권법 제정이 필요하다고 지적했다.김슬아 컬리 대표 역시 규제 형태가 법률·정책상으로 허용하는 것을 구체적으로 나열한 뒤 모두 금지하는 포지티브 규제인 점이 스타트업의 성장을 가로막고 있다고 강조했다.이재명 더불어민주당 대선 후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에 참석해 발언하고 있다.  [사진=아이뉴스24 정소희 기자]◆"정부 정책 방향 포지티브→네거티브로 바꿔야"스타트업 관계자들의 제언에 대해 이 후보자는 "정부의 기본 규제 방식이 법률이나 정책에서 금지한 행위가 아니면 모두 허용하는 네거티브 방식으로 바뀔 필요가 있다"라고 화답했다.금지되는 것을 정하고 그 외는 자유롭게 행동할 수 있도록 공간을 넓게 열어주는 것이 혁신이라는 것이다.이 후보자는 "앞으로 세계 경계선도 사라지고 장벽도 없어지는 통합과 융합의 시대가 열리기 때문에, 창의와 혁신의 스타트업 역할이 매우 커질 것"이라며 "시장이 제대로 작동되고, 혁신과 창의가 발의될 수 있도록 자유로운 경쟁 환경을 조성해 줘야 한다"라고 부연했다.다만 그는 "혁신을 우리가 응원하되, 혁신의 결과로 독점을 이용한 과도한 이익 추구는 지양해야 한다"라며 스타트업의 사회적 책임도 강조했다.▲원스톱 지원 정책 ▲부정 지원 적발 시 원 스트라이크 아웃 등 구체적인 정책 방향도 제시했다.스타트업의 빠른 비즈니스 생태계에 맞춰, 여러 단계를 거치지 않고 담당자가 최초 민원 접수부터 결과까지 통보하게 해 인허가 및 지원 등에 시간을 단축해야 한다는 취지다.또한 정부의 기술 연구가발(R&amp;D) 지원 재원의 효율적 집행을 위해 사후 책임 방식으로 부정 수급기업을 골라내 선량한 기업이 활동할 수 있도록 도와야 한다는 것.이 후보자는 "우리 사회는 위반을 해도 제재가 약해서 다음에 또 기회를 준다"라며 "경기도에 있을 땐 부정이 발생하면 영구 배제했다"라고 강조했다. 강력한 사후 규제로 나쁜 관행을 타파하고 다양한 기업에 기회를 줘야 한다는 설명이다.아울러 그는 여러 정책 집행을 위해 스타트업 관계자들의 정부와의 소통을 강화할 필요가 있다고 밝혔다. 이 후보자는 "당내 선대위 내에도 창업 혁신 국가를 지향하는 기구들이 있다"라며 "필요하면 들어와서 만들어라"라고 언급했다.그러면서 "야당 선대위에 양다리 걸쳐도 상관없다"라며 "정치에 많이 참여하고 목소리를 내서 합리적으로 성장하는 사회로 가는데 큰 역할을 해달라"라고 주문했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>"카카오페이 누가 할래?"…"저요 저요" 애널들 미묘한 신경전</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004624014?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>핀테크 기업 '카카오페이' 담당은 금융? 인터넷?  IT?증권사 13곳 중 절반은 금융DB금투는 최근 핀테크 섹터 신설하기도"피할 수 없는 변화…투자자 입장선 다양한 시각 공유"증권사 리서치 업계에서 카카오페이를 둘러싼 기 싸움이 벌어지고 있다. 3일 서울 여의도 한국거래소에서 열린 카카오페이의 코스피 신규상장 기념식에 참석한 관계자들이 매매 개시를 축하하고 있는 모습. 사진=뉴스1하반기 기업공개(IPO) 시장 최대어인 카카오페이가 3일 증권 시장에 데뷔했다. 이에 증권가 금융투자분석사(애널리스트) 사이에서는 핫한 종목을 선점하려는 기싸움이 한창이다. 플랫폼 기반 기업인 카카오페이를 '금융회사'라고 딱 잘라 정의하기 어려운 만큼 인터넷·IT 분야 애널리스트들도 제 몫을 주장하고 있다.이 때문인지 증권사들마다 카카오페이를 맡은 애널리스트의 소속 섹터가 갈린다. 금융·지주 분야(섹터) 애널리스트가 담당하도록 한 증권사들이 있는가 하면 일부 증권사에선 인터넷·게임 섹터 애널리스트가 카카오페이를 전담하기로 했다.  별도 핀테크 섹터도 신설… 카카오페이가 증권가에 쏘아올린 공국내 증시에 핀테크 기업이 상장된 건 카카오페이가 처음은 아니다. NHN한국사이버결제·KG이니시스 등 전자지급결제대행(PG) 회사나 기업을 대상으로 금융 서비스를 제공하는 웹케시 등이 이미 기업공개 시장에서 핀테크 기업으로 상장된 곳이다. 하지만 그동안은 시가총액이 2조 미만으로 업종의 구분이 없는 스몰캡(중소형주) 섹터에서 담당해 왔다. 커버리지 종목으로 편입해 정기적으로 리포트를 내는 경우가 많지 않고 실적 발표를 전후해서만 리포트가 나오는 정도였다.카카오페이는 규모와 인지도부터 차이가 크다. 카카오페이는 상장 첫날인 이날(3일) 시초가가 공모가 9만원의 2배로 결정된 뒤 오전 11시1분 기준 시초가 대비 4.72% 웃도는 금액으로 거래되고 있다. 현 주가 기준 시가총액은 24조5090억원으로 코스피 시총 14위다. 스몰캡 섹터의 취지와 맞지 않다보니 금융이나 인터넷·IT 섹터가 담당해야 한다. 카카오페이는 많은 투자자들의 주목을 받고 있는 종목인만큼, 리서치센터 내부에서도 커버리지(분석 대상)로 욕심을 내는 애널리스트들이 많다는 후문이다. 이른바 '많이 읽히는 리포트'가 될 수 있어서다.때문에 일부 증권사에서 애널리스트 간 눈치싸움이 치열한 상태다. 실제 &lt;한경닷컴&gt;이 국내 리서치센터 13곳을 취재한 결과 카카오페이를 담당하는 섹터는 회사별로 달랐다. 대부분의 증권사들은 카카오페이를 금융 섹터에 배정했다. 미래에셋·대신·삼성·KB·키움·교보·IBK투자증권 등 7곳이다. 현대차·이베스트·유진투자증권 등 3곳은 인터넷 분야 애널리스트들이 다루기로 했다. 플랫폼 사업자라는 뿌리에 중점을 둔 것이다. 하이투자증권은 전담 섹터가 정해지지 않은 상태다.일부 증권사는 새로운 섹터를 만들거나 협업을 하기도 한다. DB금융투자는 카카오페이 상장 등을 대응하기 위한 차원에서 최근 리서치센터 내 '핀테크 섹터'를 신설한 것으로 확인됐다. 금융 섹터를 보조해온 정광명 연구원이 전담하게 된다. 신한금융투자의 경우 인터넷·게임 담당의 이문종 연구원과 은행·카드·지주 담당의 김수현 부장(연구원)이 협력해 리포트를 내놓기로 했다. 두 섹터에서 함께 분석하는 것을 기본으로 하되 사안에 따라 비중이 높은 섹터에서 개별 리포트를 내놓는 식이다.한 증권사 연구원은 "카카오페이는 결제뿐 아니라 증권, 보험, 자산관리 등 확장해 가며 본질적으로 금융산업을 안고 가는 기업"이라며 "전자금융거래법, 금융소비자보호법 등 수많은 유관법을 파악하고 있어야 하는 데다 금융 분야는 데이터가 전문적이다보니 다른 섹터가 담당하기에는 한계가 있다"고 밝혔다. 상장 안 한 카카오패밀리 아직 수두룩… "누가 맡냐" 경쟁 격화할 듯이미지=카카오모빌리티문제는 이렇게 섹터를 특정하기 어려운 종목이 향후 계속해서 나올 것이란 점이다. 카카오모빌리티와 카카오엔터테인먼트, 카카오커머스 등이 대표적인 경우다. 카카오모빌리티의 경우 인터넷과 운송·자동차, 카카오커머스의 경우 인터넷과 유통 등 섹터 간 마찰이 심화할 수 있다. 토스(비바리퍼블리카)와 자회사인 토스뱅크 등도 시기는 특정할 수 없지만 국내·외 상장 가능성이 꾸준히 거론되고 있다.한 증권사 연구원은 "세부적으로 담당자들이 구분된 중대형 하우스에서 플랫폼주 관련 기싸움이 심한 편"이라면서 "아직 상장 시기조차 요원한 기업이라도 하더라도 애널이 관리하면서 선점하는 경우도 있다"고 말했다. 최근 플랫폼주들이 자회사 분사와 상장을 추진하면서 '누가 담당하느냐'를 갖고 말들이 많다고도 했다.다만 일각에서는 섹터 경계가 모호해지는 것은 피할 수 없는 과정인 만큼 실보다는 득에 집중할 필요가 있다는 목소리도 나온다. 또 다른 증권사 한 연구원은 "산업계 전반이 융합, 융화하면서 경계가 허물어지고 있다. 한 명이 해당 섹터의 모든 기업들을 담당하기보다는 여러 전문가들이 모여 의견을 나누고 합치는 시대가 온 듯하다"며 "투자자들 입장에서도 국한된 섹터의 시각에서 발표되는 리포트만 보는 것보다 다양한 섹터의 의견이 반영된 분석을 읽으면 종목 선별능력을 기를 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>인터넷전문은행들 중·저신용자 대출 목표 달성 가능할까</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012776475?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅 연말 목표치 20%대 달성 위해 막판 스퍼트고신용자 대출 중단하고 중·저신용 고객 대출 이자 캐시백인터넷전문은행들 중·저신용자 대출 목표 달성 가능할까 (CG)[연합뉴스TV 제공]    (서울=연합뉴스) 오주현 기자 = 인터넷 전문은행들이 3분기 호실적을 기록했지만, 연말까지 중·저신용자 대상 신용대출 비중을 끌어올려야 하는 과제로 고심하고 있다.    8일 금융권에 따르면 1·2호 인터넷 전문은행인 케이뱅크와 카카오뱅크는 연말까지 중·저신용자(신용등급 4등급 이하) 신용대출 비중을 목표치인 20%대로 끌어올리기 위해 총력을 다하고 있다.    금융당국은 지난 5월 인터넷 전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문했다.    당시 카카오뱅크는 20.8%, 케이뱅크는 21.5%, 토스뱅크는 34.9%를 올해 연말 중·저신용자 신용대출 비중 목표치로 제시했다. 단계적으로 비중을 확대해 2023년 말 30%를 상회하는 것을 목표로 했다.    올해 3분기 말 기준 카카오뱅크의 중·저신용자 신용대출 비중은 13.4%인 것으로 나타났다.     카카오뱅크는 자체 신용평가시스템(CSS)을 고도화하고, 중·저신용자 전용 대출 상품을 출시하면서 중·저신용자 대출 비중을 2분기 말 10.6%에서 끌어올렸다. 하지만 연말 목표치인 20.8%에는 한참 못 미치는 수준이다.     카카오뱅크는 지난달부터 연말까지 전·월세 대출을 제외한 고신용자 대출을 중단하고 사실상 중·저신용자 대출과 개인사업자 대출에 집중하고 있다.     카카오뱅크 관계자는 "고신용자 대출이 닫힌 상황이므로 4분기에는 중·저신용자 대출 비중이 빠른 속도로 확대될 것으로 예상한다"고 말했다.    케이뱅크는 중·저신용자 신용대출 비중이 2분기 말 기준 15.5%였으며, 3분기 비중은 아직 공개하지 않았으나 2분기보다 올라가지 않았을 것이라는 전망이 우세하다.     3분기에 금융당국의 가계부채 관리 강화로 시중은행들로부터 대출을 받지 못한 고신용자들의 대출 수요가 케이뱅크로 몰렸기 때문이다.    이에 케이뱅크도 최근 고신용 고객의 마이너스통장 대출 상품 신규 및 증액 신청을 연말까지 중단하고, 중·저신용 고객에게 두 달 치 이자를 돌려주는 캐시백 행사를 진행하는 등 연말 목표치(21.5%) 달성을 위해 전력을 다하고 있다.토스뱅크[연합뉴스 자료사진]출범 9일 만에 대출 한도가 소진돼 신규 대출을 중단해야만 했던 토스뱅크의 경우 대출 중단 시점 기준으로 중·저신용자 신용대출 비중이 약 33%였던 것으로 파악됐다.     다른 은행 대비 높은 수치이지만, 신규 대출 중단으로 올해 목표치(34.9%)를 달성하기는 어렵게 됐다.     금융당국은 지난 5월 발표한 '혁신적 포용금융을 위한 인터넷전문은행 중·저신용자 대출 확대 계획'에서 "인터넷전문은행이 (중·저신용자 대출 확대) 계획을 미이행하면 신사업 인허가 등에 고려하겠다"고 명시한 바 있다.     당시 인센티브로는 "가계부채 증가율 목표 관리 때 중·저신용자 공급액에 일부 예외를 적용하는 방안을 검토한다"고 밝혔다.     금융권 관계자들은 당국의 페널티나 인센티브에 대한 설명이 명확하지 않아 중금리 대출 목표치를 달성하지 못할 경우의 불이익을 짐작하기 어렵다고 전했다.    금융위 관계자는 "목표 미달 시 즉각 조치하겠다는 차원은 아니다"라며 "인터넷 전문은행의 설립 취지와 비교해 중·저신용자 대출 비중이 작다는 사회적 지적이 계속됐던 만큼, 비중 현황을 점검하고 추후 타 금융업 인허가 과정에서 질적 판단 요소로 고려하겠다는 취지"라고 설명했다.    인터넷 은행들이 중금리 대출 비중을 늘리기 위해 고신용 대출을 중단하는 등 조치를 하면서 대손비용이 늘어나는 점은 성장을 저해할 수 있는 부작용으로 지적된다.    박혜진 대신증권 연구원 등 전문가들은 중금리대출이 대손비용을 증가시켜서 인터넷 은행들이 앞으로 연체율 등 건전성 관리에 신경을 써야 한다고 지적했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스의 '주4.5일제' 도입은 반쪽짜리?</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003166877?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]     토스    최근 핀테크 업체 토스가 도입한 '주 4.5일제'에 대한 잡음이 나오고 있다. 주 4.5일에 법정 근로시간 1일 8시간을 곱한 총 36시간을 근무하는 것이 아니라는 점에서다.       3일 금융업계에 따르면 토스는 최근 지난 4개월간 시범 도입한 금요일 조기 퇴근제도(Early Friday)를 정식 도입, 사실상 주 4.5일제를 실시한다고 발표했다.     이런 인사제도는 토스(법인명 비바리퍼블리카)는 물론, 토스뱅크·토스증권·토스페이먼츠 등 주요 계열사에 모두 동일하게 적용하기로 했다.     이에 따라 한동안 토스에서는 시범적으로 금요일 조기 퇴근제도를 시행해오면서 금요일은 오전 업무를 한 뒤 자연스럽게 퇴근하는 분위기가 조성된 것으로 알려졌다.     한 토스 직원은 "부서마다 차이는 있을 수도 있지만, 금요일 오후에는 대부분 자리에 없다"며 "얼리 프라이데이가 자리 잡고 있는 것 같다"고 말했다.     그러면서도 사실상 '주 4.5일제'는 아니라고 했다.       그는 "주 4.5일제라는 것은 36시간을 근무해도 괜찮다는 말이 되어야 하는데, 주 40시간 근무는 유지된다"며 "4.5일제라는 말을 사용하는 것에 대해 직원들 사이에서도 말이 나왔었는데, 그렇게 보도가 됐더라"고 말했다.       우리나라는 근로기준법에서 만 18세 이상 성인근로자의 경우에 1일 8시간, 1주일 40시간을 법정 근로시간으로 정하고 있다. 여기에 당사자 간 합의할 경우에는 1주간 12시간을 한도로 근로시간을 연장할 수 있다.     따라서 1일 8시간을 기본 근무시간이라고 했을 때 주 5일에서 주 4.5일 근로제가 되면 주 36시간을 일하는 것으로 해석할 수 있다.       업무 중인 토스 직원들 모습. toss feed 블로그 화면 캡처.    하지만 토스의 경우 금요일 조기 퇴근을 하기 위해서는 주 4.5일 동안 40시간을 일해야 한다.       앞서 주 4.5일 근무제를 도입한 배달앱 '배달의민족' 운영사 우아한형제들은 토스와 다르다. 월요일 오후 1시 출근 제도를 도입, 주 35시간을 근무하고 있다. 비슷하게 숙박 플랫폼 '여기어때'를 운영하는 여기어때컴퍼니도 월요일 오후 1시 출근, 주 35시간 근무제를 시행 중이다.     우아한형제들 관계자는 "2015년에 37.5시간제, 2017년에 35시간제로 변경하면서 근무시간을 계속 줄여나가고 있고, 연봉이 낮아지거나 재계약하는 일을 없었던 거로 알고 있다"고 말했다.     평생교육 전문기업 휴넷도 토스와 같이 금요일 오전 근무 후 자유롭게 퇴근하는 형태에 주 36시간 근무제를 시행하고 있다.  토스 직원은 "사실 업무가 많아서 남아서도 일을 해야 하는 상황이긴 하다"며 업무량이 많아 주 40시간을 채우는 것이 어렵지 않다는 듯 말했다.     이에 토스 측은 "그동안 금요일에 조기 퇴근하는 얼리 프라이데이 제도를 시범 운영해왔는데, 이를 정식으로 인사제도에 도입하면서 이해를 돕기 위해 '주 4.5일제'라는 표현을 썼다"고 해명했다. 그러면서 이 관계자는 "주 36시간이 되면 연봉이 낮아지게 되는데, 그렇게 되지 않도록 했다"고도 말했다.     한 금융업계 관계자는 "토스가 공격적으로 사업을 키우면서 인재를 데리고 가기 위한 방법을 내놓고 있는 것으로 보인다"며 "보수적인 금융권에서 이런 시도를 했다는 자체에서 의미가 있다"고 말했다. 권지예 기자 kwon.jiy@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>본격 성장 가도 오른 인뱅들…토스뱅크는 언제쯤?</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004607?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>카뱅이어 케뱅도 흑자전환 '청신호'토뱅 출범 후 3~4년 안팎 시점 기대카카오뱅크에 이어 케이뱅크도 3분기 누적 기준 흑자전환에 성공하며 인터넷은행들이 본격적인 실적 성장 가도에 올라탔다. 이에 따라 이달 출범한 토스뱅크의 흑전 시점에도 관심이 모아지고 있다. 전문가들은 토스뱅크가 앞선 선발주자들과 유사한 출범후 3~4년 안팎이 되는 시점을 손익분기점으로 보고 있다. 최근 금리인상 등 우호적인 금융 환경과 대출 규제로 손발이 묶인 점, 예전보다 격화된 중금리 대출 경쟁 등이 이 시기를 더 앞당기거나 늦출 수 있는 변수로 지목된다.   홍민택 토스뱅크 대표이사/그래픽=비즈니스워치흑전까지 카뱅 2년, 케뱅 4년…토스뱅크는 그 사이?지난 2일 3분기 실적을 내놓은 카카오뱅크와 케이뱅크는 나란히 양호한 성과를 뽐냈다. 3분기 520억원의 순익을 올린 카카오뱅크는 누적순이익이 1679억원으로 집계되며 주요 지방은행들과 어깨를 나란히 했다.케이뱅크 역시 3분기 168억원의 순익을 거두며 2분기 분기 흑자전환에 이어 성장세를 이어갔다. 3분기 누적순익도 84억원을 기록하며 연간 흑자전환도 가능할 것으로 점쳐지고 있다. 카카오뱅크의 경우 출범 후 2년 뒤인 지난 2019년 흑자전환에 일찌감치 성공한 후 연간이익이 빠른 속도로 점프하고 있다. 2019년 137억원이었던 순익 규모는 지난해 1136억원으로 뛰었고 올해는 2400억원에 육박할 것으로 점쳐진다. 케이뱅크 또한 4년 만으로 카뱅에 비해 상대적으로 속도가 더뎠지만 올해 들어 암호화폐 투자 열풍과 대출 증가세에 힘입어 흑자전환의 기회를 잡게 됐다. 이처럼 카뱅과 케뱅이 나란히 호실적을 내놓으면서 후발주자인 토스뱅크의 실적 로드맵에도 관심이 모아진다. 앞선 두 인터넷은행의 흑전 시기를 감안할 때 토스뱅크 역시 출범 후 3~4년 안팎의 시점으로 흑자전환 시기가 점쳐지지만 막강한 월간활성사용자수(MAU)를 등에 업으면서 케이뱅크보다는 카카오뱅크의 실적 행보와 더 유사할지 주목되고 있다. 증권가 분석에 따르면 토스뱅크의 흑자전환 시기는 2025년 쯤으로 점쳐진다. 공교롭게 토스뱅크 모회사인 토스가 기업공개(IPO)를 목표로 하는 시기이기도 한다. 하이투자증권 등은 토스뱅크 출범 당시 보고서에서 이르면 2025년 3분기중, 늦어도 2027년 1분기에는 토스뱅크가 손익분기점(BEP)에 도달할 것으로 전망했다.판관비용율 하락 시점 주목이를 가늠할 수 있는 기준으로는 판관비용율(CIR)이 지목된다. CIR은 금융권에서 쓰는 경영효율성 지표로 총영업이익 중 판매관리비가 차지하는 비중을 뜻하며 수치 낮을수록 좋다. 하이투자증권은 카카오뱅크와 케이뱅크 모두 이자이익 대비 판관비 비율이 60% 수준이 되면서 흑자전환에 성공했는데 토스뱅크 역시 60% 이하가 되면 흑자 전환이 가능할 것으로 예상했다. 실제로 올 3분기 카카오뱅크의 판관비율(CIR)은 42.7%를 기록하며 인터넷은행의 장점이 부각되고 있다는 평가를 받았다.  대신 여기에는 추가 유상증자가 이뤄지고 여신 규모가 확대되어야 하는 조건이 달린다. 카카오뱅크와 케이뱅크의 경우 1인당 원화대출금이 130억~150억원 수준에 도달하면서 흑자전환했는데 토스뱅크가 올해 5000억원의 원화대출금 한도를 소진한 상황에서 1인당 원화대출금은 26억원 수준으로 추정된다. 향후 여신 규모가 3조원까지 늘어난다고 가정해도 1인당 원화대출금이 120억원 수준으로 여신 규모를 늘리기 위한 증자가 필요하다는 얘기다. 실제로 토스뱅크는 여신재원 확보 등을 위해 최근 3000억원의 유상증자를 실시했고 추가 자본 확충을 꾸준히 지속할 계획이다. 중금리 대출 확대 양날의 검다만 최근 가파르게 늘어났던 대출이 가계대출 규제 여파로 증가세가 주춤할 수밖에 없는데다 토스뱅크의 경우 출범 초기에 대출 한도를 적극적으로 늘리는 것이 쉽지 않아지면서 변수로 지목된다.중금리 대출을 강화해야 하는 점도 연체율 증가와 맞물려 양날의 검이 될 수 있다. 시장이 과거보다 크게 성장했지만 앞선 카뱅이나 케뱅과 달리 이미 관련 경쟁이 심화해 이익 증가세를 늦출 수 있다는 우려도 나온다. 고신용자 기반으로 급성장 후 중금리 대출을 늘리기 시작한 카카오뱅크와 달리 토스뱅크는 초반부터 중금리 대출 비중을 공격적으로 늘리겠다고 공언상 상태다. 카카오뱅크 역시 3분기 실적이 늘어났지만 중저신용자 비중이 꾸준히 늘어나면서 관련 충당금 적립도 그만큼 늘어나는 모습을 보이고 있다. 카카오뱅크는 중금리 대출 확대로 순이자마진(NIM)이 늘어난 동시에 대손비용률도 전분기대비 0.2%포인트 상승했다고 밝혔다. 앞선 하이투자증권은 최상의 전망(Bull case) 상으로는 2025년 3분기 중, 기본적인 전망(Base case)으로는 2027년에 토스뱅크가 흑자로 돌아설 것으로 전망했지만 최악의 상황(Bear case)에서는 2028년까지도 흑자전환이 쉽지 않은 시나리오를 제시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>10월중 가계대출 6.1조 증가...8월 이후 3개월 연속 둔화</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002259202?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>10월말 가계대출잔액 전년동기비 8.6% 증가주담대 증가폭 5조3000억원으로 축소 ◆…금융위원회 제공     10월중 전금융권 가계대출이 6조1000억원 증가해 전월(7조8000억원)보다 증가폭이 둔화됐다.   금융위원회는 10일 발표한 ‘10월중 가계대출 동향’에서 이같이 밝히며 특히 주택 전세·매매 거래량 감소의 영향으로 주택담보대출 증가폭이 전월 6조7000억원에서 5조3000억원으로 축소됐다고 설명했다.   신용대출 등 기타대출 증가폭도 전월 1조2000억원에서 8000억원으로 줄었다.   10월말 기준 전금융권의 전년동기대비 가계대출 증가율은 8.6%로 7월말의 10.0% 이후 8월말 9.5%, 9월말 9.2% 등 3개월 연속 둔화되는 추세를 보였다.   금융업권별 동향은 은행권 가계대출의 경우 5조2000억원 증가해 9월(6조4000억원)보다 증가폭이 줄었다. 주담대 증가액이 9월 5조6000억원에서 4조7000억원으로 줄어든 영향이 컸다. 신용대출은 10월중 영업을 개시한 토스뱅크(5000억원 증가)를 중심으로 6000억원 증가했다. 5대 은행의 신용대출은 2000억원 감소했다.   제2금융권 가계대출은 9000억원 증가해 증가폭이 전월의 1조5000억원보다 크게 줄었다. 특히 상호금융의 가계대출 증가액은 9월 1조8000억원에서 10월 3000억원으로 대폭 축소됐다. 이밖에 보험 3000억원, 저축은행 2000억원, 여전 1000억원의 대출 증가세를 나타냈다.   금융위원회는 “가계대출은 7월을 정점으로 증가세가 점차 둔화되며 안정세를 찾아가고 있는 추세”라며 “가계부채 관리 강화방안을 차질 없이 시행해 가계부채 연착륙을 위한 노력을 지속하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>모바일 전자증명서, 연말까지 300종으로 확대된다</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002112654?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 오는 연말까지 발급·제출할 수 있는 모바일 전자증명서가 300종으로 늘어난다.   1일 행정안전부는 가족관계증명서, 기업확인서, 생활자격·면허증 등 전자증명서 발급을 총 300종 이상으로 확대한다고 밝혔다.   행정안전부의 모바일 전자증명서 확대는 총 3단계에 걸쳐 진행된다. 지난 10월 1단계로 어선원부, 공인중개자격증 등을 포함한 50종이 추가됐고 11월 2단계에서는 가족관계증명서 등 56종을, 12월 3단계에서는 학점은행제 학위증명서 등 100종을 추가할 예정이다.   한창섭 행정안전부 정부혁신조직실장은 “올해 말까지 전자증명서를 300종 이상으로 확대해 각종 생활자격·면허증과 대학교 증명서도 전자증명서로 발급받을 수 있을 것”이라며 “앞으로도 다양한 분야에서 전자증명서가 발급될 수 있도록 관계기관과 협력하겠다”고 말했다.   한편 행정안전부에 따르면 전자증명서는 현재까지 공공·민간분야 등 93개 기관에서 업무에 활용 중이다. 정부24 외 페이코, 토스, NH스마트뱅킹 등 민간 애플리케이션(앱)에서도 이용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>전방위 대출규제 불똥···수입 쪼그라든 핀테크</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003981662?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>금소법·대출총량 규제 겹쳐수수료 수익 20~25% 감소지난 4일 서울 시내 한 은행 외벽에 대출 안내문이 붙어 있다./권욱 기자[서울경제] 금융 당국의 전방위적인 가계대출 규제 여파가 핀테크 업체로도 확산되고 있다. 가계대출 총량규제로 인해 대출 비교 핀테크들의 대출 실행률이 떨어지면서 수수료 수입이 줄어들고 있기 때문이다. 핀테크들은 금융소비자보호법 시행으로 타격을 받은 데 이어 ‘대출 총량규제’ 여파로 이중고를 겪는 모습이다.4일 업계에 따르면 A 핀테크사는 금소법 시행 이후 수수료 수익이 20~25% 감소한 것으로 나타났다. 수수료 중 대출 비교 서비스 비중이 가장 높았던 만큼 대출 실행률이 떨어지면서 수수료 수입이 더욱 줄어드는 상황이다.다른 대출 비교 핀테크사들도 비슷한 상황이다. 대출 조회 수요는 꾸준히 있지만 수수료 감소로 타격이 불가피한 상태다. 한 핀테크사 관계자는 “대출 수요가 꾸준히 있다보니 플랫폼을 찾아 들어오는 고객들은 많지만 대출을 내주는 곳은 금융사들인 만큼 대출 실행액은 감소 추세”라고 설명했다. 현재 판매대리·중개업자(대출 모집인)로 등록한 핀테크 업체는 토스·카카오페이·마이뱅크·뱅크샐러드·NHN페이코·핀다·핀크·팀윙크·한국금융솔루션 등이 있다.일부 금융사들이 핀테크사를 통한 대출 신청을 중단한 것도 영향을 미쳤다. 몇몇 저축은행과 지방은행들은 대출 총량규제를 위해 대출 비교 플랫폼을 통한 대출 조회와 신청을 막았기 때문이다. 아울러 금융위가 지난달 출범을 목표로 추진하던 대환대출 플랫폼이 중단된 상황도 이들 업체들의 어려움을 가중시키고 있다.핀테크 기업들은 문제를 타개하기 위해 다양한 방법을 모색하고 있다. 핀다의 경우 지난 9월부터 시작한 대대적인 TV·옥외 광고 덕분에 이용자 유입이 확연히 늘었다. 핀다 관계자는 “1금융권을 포함해 업계 최대 수준인 48개 금융사의 대출 상품을 비교할 수 있다보니 다른 핀테크사보다는 대출 승인이 날 여력이 크다”고 말했다. 대출 비교 플랫폼 알다를 운영하는 팀윙크의 경우 최근 개인사업자 대출 실시간 비교 서비스를 신규 출시하기도 했다. 개인사업자 대출은 대출 총량규제 및 총부채원리금상환비율(DSR) 규제를 적용받지 않는다.한 핀테크사 대표는 “핀테크사들은 지난달 금소법 시행으로 기존에 하던 서비스를 축소하는 등 이미 위축된 가운데 신규 모델을 찾기 위해 노력 중”이라며 “고민을 해볼 수 있는 여유가 있는 곳은 그나마 다행이지만 기댈 데 없는 소형 핀테크사들의 경우 더욱 힘든 상황”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[경제칼럼] 박세리와 박세리 키즈</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000728873?sid=110</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>이재일 대구창조경제혁신센터장이재일 대구창조경제혁신센터장얼마 전 우리나라의 남녀 프로골프 선수들이 사상 처음으로 미국프로골프(PGA) 투어와 미국여자프로골프(LPGA) 투어에서 동반 우승하는 전대미문의 사건이 발생했다. 며칠 전에는 슬럼프를 딛고 일어선 고진영 선수가 한국 골프 역사 30년 만에 LPGA 통산 200승을 달성해 세계의 주목을 받았다.이처럼 세계 골프의 변방이었던 한국을 아시아 골프의 중심 국가로 우뚝 서게 한 원동력은 박세리의 역사적인 경기로부터 시작한다. IMF로 국가 경제가 위기를 맞았던 1998년, 당시 21세로 LPGA 투어 신인이었던 박세리가 메이저 대회인 US오픈에서 우승했다. 공이 물에 빠져버린 위기의 순간, 신발을 벗고 해저드에 들어가 어려운 샷을 성공시킨 끝에 감격적 우승을 이뤘다. 그녀가 신발과 양말을 벗고 물에 들어갈 때, 고된 훈련으로 까맣게 그을린 다리 피부와 비교됐던 하얀 발이 전했던 감동은 IMF 사태로 깊은 수렁에 빠져 있던 국민에게 절망 속의 희망을 주기도 했다.더 큰 사건은 그 이후에 일어났다. 박세리의 영향을 받은 어린 유소년들이 나도 할 수 있다는 자신감으로 대거 골프계에 입문한 것이다. 소위 박세리 키즈라 불리는 이들은 엄청난 경쟁 속에서 성장해 한국 대표로 선발됐고, 최근 한국 여자골퍼로서 연이어 세계 무대에서 우승하는 경이로운 역사를 써 내려가고 있다.박세리 키즈의 개념은 비단 골프계에만 국한되지 않는다. 스타트업의 성지라 불리는 이스라엘에서는 미라빌리스 효과라는 말이 있다. 미라빌리스는 메신저 프로그램의 모태가 된 세계 최초 인터넷 메신저를 개발한 업체로, 창업 19개월 만에 미국 최대의 PC통신 기업에 4억 달러(약 4천700억 원)에 인수됐다. 미라빌리스를 필두로 투자받은 스타트업들이 대성공을 거두며, 텔아비브를 중심으로 신생 기업이 우후죽순 늘어나기 시작했다. 미 경제신문 포브스는 이 같은 창업 열풍을 '미라빌리스 효과'라 표현했다. 이를 통해 이스라엘 국민들은 취직보다 창업이 더 좋은 기회가 될 수 있음을 깨닫고 창업에 도전하는 청년이 증가해, 현재의 이스라엘은 인구당 스타트업 수가 세계에서 가장 많은 스타트업의 선진국 타이틀을 거머쥘 수 있게 되었다.최근 몇 년간 우리 정부는 창업 국가 조성을 핵심 국정 과제로 삼아, 창업 활성화를 위한 정책적 노력을 기울여 왔다. 전국 19개 지역에 창조경제혁신센터를 설치해 창업의 전 과정을 지원해온 지도 어느덧 7년이 지났고, 최근에는 스타트업의 고성장을 위해 스케일업 지원에도 힘을 쏟고 있다. 덕분에 투자, 교육, 인프라 등 창업 생태계 전반의 점진적 성장으로 창업 강국의 면모를 점차 구축해 나가고 있다. 그 결과, 2020년 20대 창업 기업은 전년 대비 19.1% 증가한 17만5천 개로 역대 최대치를 기록했고, 한국의 기업가 정신 순위 또한 세계 9위까지 상승하는 등 창업 생태계 전반의 분위기도 개선되고 있다.이와 같은 창업 생태계의 성장은 우리나라에도 스타트업 성공 사례를 만들어 냈다. 배달의 민족을 운영하는 우아한 형제들은 5조 원에 독일 기업 딜리버리 히어로에 매각되기도 했고, 아랍인들이 많이 사용한다는 앱 하이퍼커넥트는 1조9천억 원에 매각됐다. 간편송금 앱이었던 토스는 한국과 해외에 동시 상장을 검토하고 있다. 특히 스타트업 1세대였던 카카오의 성공을 보고 창업에 뛰어든 당근마켓, 어메이즈VR과 같은 카카오 출신 스타트업들이 넥스트 카카오를 꿈꾸며 무섭게 성장하고 있고, 부동산 플랫폼 호갱노노는 이미 엑시트(회사 매각 등을 통해 투자금을 회수하는 것)를 완료하기도 했다.바야흐로 스타트업 생태계에도 박세리 모먼트가 시작된 것이다. 그럼에도 불구하고 우리의 창업 생태계가 가야 할 길은 여전히 아직 멀다. 증가율이 높아지고는 있지만 전 세계 842개 유니콘 기업 중 한국 기업은 12개로 1%가 조금 넘고, 창업보다 취업을 희망하는 청년이 훨씬 많다. 창업 선진국으로 발돋움하기 위해서는 보다 많은 성공 사례가 필요하다. 수많은 시행착오를 겪으며 도전을 거듭하는 스타트업들이 포기하지 않고 성공 사례를 창출하고 우수한 인재들이 창업 시장에 진입하는 선순환 구조가 만들어지기 시작할 때, 스타트업계의 박세리 키즈도 쏟아져 나올 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>넥슨 “‘블루 아카이브’는 밝고 유쾌한 청춘 학원물”</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004874975?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>넷게임즈 양주영 시나리오팀장 영상 통해 세계관 소개 넥슨(대표 이정헌)은 오는 9일 한국과 글로벌 시장에 출시하는 신작 서브컬처 모바일게임 ‘블루 아카이브’의 세계관을 소개하는 인터뷰 영상을 공개했다. 해당 영상은 ‘블루 아카이브’의 개발사 넷게임즈의 양주영 시나리오팀장이 직접 게임의 세계관과 스토리 전개, 설정 등을 설명하고 이용자 질문에 대답하는 애용이 담겼다.영상에 따르면 ‘블루 아카이브’는 청춘 학원물을 표방한다. 밝고 유쾌한 이야기로 구성돼 부담없이 스토리를 감상할 수 있다. 완결성도 놓치지 않아 짜임새 있는 이야기를 전달한다. 이용자가 생각할만한 요소들도 곳곳에 배치돼 재미를 더했다.양주영 시나리오팀장은 “게임의 시나리오는 엔터테인먼트 본질에 충실해야 한다고 믿는다”라며 “재미있는 이야기를 만들어야 한다는 대전제에서 벗어나지 않으려고 노력했다”라고 밝혔다.‘블루 아카이브’는 학원도시에서 펼쳐지는 소녀들의 청춘 판타지를 주제로 기획됐다. 파스텔 톤의 청량함이 물씬 풍기는 화면 연출이 주를 이룬다. 이에 맞춰 스토리도 우울하고 슬픈 이야기 보다는 밝고 즐거운 느낌으로 구성했다.이용자들의 궁금증을 풀어주는 시간도 가졌다. 세계관 설정과 관련해 이용자는 학생들을 가르치는 선생님 역할을 맡으며 완성된 어른으로 존재한다고 설명했다. 다만 어떠한 ‘어른’인지는 이용자가 플레이를 통해 스스로 정하게 된다고 덧붙였다. 또 주요 배경인 학원도시 ‘키보토스’가 스토리의 주된 무대이며 도시의 크기는 스토리를 풀어 나가며 추론할 수 있다고 암시했다.이용자들이 가장 많이 물었던 캐릭터들의 머리 위에 나타나는 링 ‘헤일로’의 정체에 대해서는 말을 아꼈다. ‘블루 아카이브’ 세계관 내 곳곳에는 숨겨진 이야기와 힌트들이 존재하고 미리 정답을 아는 것보다 스토리를 감상하며 숨겨진 요소를 찾아내고 이를 추론하며 정답을 찾는 것이 또 다른 재미라는 의미다.양주영 시나리오팀장은 “재미라는 게임의 본질에 충실하게 ‘블루 아카이브’의 세계관과 스토리, 캐릭터를 구성했다”라며 “밝고 즐겁고 유쾌한 ‘블루 아카이브’에 많은 기대 부탁드린다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>총량규제에 대출 중단까지…인뱅, 중금리 목표 어쩌나</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004994883?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>총량규제 포함에 달성 난항"중금리 제외해야" 목소리도인터넷전문은행들이 올해 목표로 세운 중금리대출 비중 맞추기에 비상이 걸렸다. 카카오뱅크와 케이뱅크는 목표치까지 한참 남았고, 토스뱅크는 대출 영업을 이미 중단한 상태다. 업계에서는 목표 달성이 사실상 쉽지 않은 만큼 대출 총량규제에서 중·저신용자 대출을 제외하는 등의 인센티브가 있어야 한다고 목소리를 높이고 있다.5일 금융권에 따르면 카카오뱅크의 3분기 중금리대출 비중은 13.4%를 기록했다. 올 1분기 10.0%와 2분기 10.6%에 비하면 크게 증가한 수치지만 연말 목표치인 20.8%에는 턱없이 부족한 수준이다. 연말까지 21.5%가 목표인 케이뱅크도 사정이 어렵기는 마찬가지다. 케이뱅크는 1분기 18.2%에서 2분기 15.5%로 오히려 비중이 떨어졌다.제3인터넷은행인 토스뱅크는 아예 대출 문을 닫았다. 출범 열흘 만에 금융당국에서 할당받은 대출 총량 한도 5000억원을 모두 소진했기 때문이다. 토스뱅크의 중금리대출 비중은 28.2%로 타 은행들보다 비중은 높았다. 다만, 대출 영업이 중단돼 올해 잡은 목표치(34.9%) 달성은 불가능하게 됐다. 토스뱅크는 영업일 동안 중·저신용자 비중이 최고 33.3%에 달하기도 했었다.이에 따라 이들 은행들은 올해 두 달도 안 남은 기간동안 중금리대출을 확대하기 위해 비상체제에 들어갔다. 카카오뱅크는 전월세 대출을 제외하고 고신용자 대출을 사실상 중단했다. 케이뱅크는 이달 6일부터 고신용자를 대상으로 한 마이너스 통장의 신규 증액 신청을 연말까지 중단할 예정이다.중·저신용자 유치를 위한 프로모션도 적극적으로 진행하고 있다. 카카오뱅크는 첫달 이자 지원혜택을 연말까지 연장했다. 케이뱅크는 중·저신용자 대출에 대한 이자를 2개월치 돌려주고 있으며, 여신 확대를 위해 연말까지 ‘대출 안심 플랜’ 서비스도 무료 제공 중이다. ‘대출 안심 플랜’ 은 대출(신용대출, 신용대출 플러스) 받은 고객이 중대 사고 등으로 대출 상환이 불가능한 상황에 처할 경우 보험사가 나서서 대출 상환을 해결해주는 서비스다. 보험비용은 케이뱅크가 100% 부담한다.인터넷은행들은 당국의 요구에 따라 중저신용자 대출에 집중하고 있지만 사업성이 높은 고신용자 차주들을 확보하지 못해 고심하고 있는 모양새다. 중금리를 가계대출 총량규제에 포함한 것이 맞느냐는 지적도 나온다. 인터넷은행 허가 조건 중 하나가 중금리대출 확대인 데다 정부가 적극 확대를 요구하고 있는 상황에서 총량규제에 포함시키면 대출시장에서 성장 자체가 어려워지기 때문이다.인터넷은행 관계자는 "인터넷은행들도 수익이 있어야 중·저신용자 대출을 확대할 수 있다"며 "대출 총량규제에서 중저신용자대출과 대환대출(대출 갈아타기) 등을 제외하는 방법을 고민해 봐야 한다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>우버-티맵 합작 ‘우티’ 시동...추가요금 없이 타세요</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001906733?sid=105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>운임 사전확정 요금제 공개‘카모’ 주춤한 사이 공격 행보1일 우티는 온라인 간담회를 열고 통합 UT앱과 향후 모빌리티 전략을 소개했다. 톰 화이트 우티 CEO가 발표를 진행하고 있다. [UT 제공]세계 최대 차량 공유 업체 우버(Uber)와 SK텔레콤의 자회사 티맵모빌리티의 합작법인 ‘우티(UT)’가 본격 시동을 건다. 새롭게 통합된 앱(애플리케이션)을 선보이며 사전 확정 요금제, 가맹 택시 확대 등을 골자로 한 모빌리티 전략을 발표했다. 카카오모빌리티가 연이은 논란으로 주춤한 가운데 우티, 타다 등 경쟁 업체가 공격적으로 서비스를 확장하며 빈자리를 노린다.1일 우티는 온라인 간담회를 열고 통합 UT 앱과 향후 전략을 소개했다. 국내 규제에 맞춰 혁신 서비스를 제공할 수 있다는 점을 강조했다.우티는 다양한 운임 체계와 시스템을 장점으로 내세웠다. 기사와 승객의 선호에 따라 운임 체계를 선택할 수 있다.우선 관계 기관 허가를 받는 대로 ‘사전 확정 요금제’를 추가한다. 목적지를 바탕으로 앱 상에서 사전에 이용 요금을 확정하는 요금제다. 승객은 실제 이용 금액과 관계없이 안내 받은 요금만 지불하면 된다. 단, 교통사고, 도로 공사 등 상황 발생 시에는 요금이 다시 산정될 수 있다. 합승 서비스 우티 풀(UT Pool), 빠른 배차 서비스 우티 플래시(UT Flash), 탄력 요금제 등 신규 서비스 계획도 공개했다.해외 우버 앱 기능을 그대로 제공하는 것도 특징이다. 해외에서 우티 앱을 통해 우버의 서비스를 이용할 수 있다. 국내에 들어온 외국인 또한 기존 우버 앱을 통해 국내 우티 서비스를 사용할 수 있다. 인앱 메시지 번역 기능으로 국내·외 승객의 원활한 서비스 이용을 지원한다. 탑승 정보 공유 등 안전 장치 도입, 고객센터 24시간 운영도 차별점이다. 신규 앱 출시를 기념해 11월 한 달간 앱 결제 등록 승객에게 20% 상시 할인을 제공한다.가맹 택시인 ‘UT 택시’도 본격적으로 키운다. 올해 전국 가맹 택시를 1만대까지 확보한 뒤 2022년 추가로 1만대 이상을 투입한다. 국내 1위 가맹 택시 ‘카카오T 블루’가 2만 6000여대 수준인 것을 감안하면, 매우 공격적인 투자다(8월 기준). 대형 세단 기반 UT 블랙도 리브랜딩한다.톰 화이트(Tom White) 우티 최고경영자(CEO)는 “우티는 상생과 혁신을 기반으로 모빌리티 시장 성장에 기여하는 한편 한국을 방문하는 해외 이용자들도 만족시킬 것”이라며 “전국의 택시 기사를 아우르는 오픈 플랫폼으로서 현장의 목소리에 귀 기울이겠다”고 말했다.우티의 ‘기지개’로 국내 모빌리티 업계 일대 파란이 예상된다. 현재 모빌리티 업계는 격변기를 맞고 있다. ‘카카오모빌리티’는 콜 몰아주기 의혹, 스마트 호출 요금제 변경 등으로 택시 업계와 갈등을 빚고 있다. 카카오모빌리티가 주춤한 사이 ‘타다’가 ‘토스’에 본격 인수되며, 재기를 노리고 있다.타다는 지난해 10월 가맹 택시 사업을 시작한 뒤 저렴한 수수료와 구독형 모델로 점유율을 확장 중이다. 타다는 토스의 2000만명 가입자를 바탕으로 올해 말 새롭게 리뉴얼한 타다 서비스를 선보일 예정이다. 박지영 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>토스, 카페24에 100억 투자···"온라인 자영업자 시장 공략"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003981118?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>온라인 사업자 대상 금융상품 등 개발[서울경제] 핀테크 플랫폼 토스 운영사 비바리퍼블리카가 카페24에 100억원 규모로 투자한다. 양사는 급성장하는 이커머스 시장에서 온라인 사업자 대상 사업 협력에 속도를 낸다는 계획이다.3일 비바리퍼블리카는 카페24에 99억원 규모 제3자배정 유상증자에 참여한다고 밝혔다. 카페24는 "금융, 결제 관련 사업을 영위하는 토스는 급변하는 이커머스 시장 환경 속에서 상호 시너지 효과를 창출할 수 있을 것"이라며 "양사는 상호 지속적인 협의를 통해 사업 협력 및 제휴 내용을 구체화 할 예정"이라고 설명했다.올해 9월 카페24와 비바리퍼블리카는 온라인 사업자의 금융, 결제 서비스 제공을 위한 업무협약을 체결했다. 협약을 통해 양사는 △카페24 플랫폼 내 온라인 사업자를 대상으로 한 대출 등 신규 금융상품 개발 △온라인 사업자를 위한 결제서비스(PG) 및 간편계약 시스템 구축 등을 진행한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>주담대 비교 플랫폼 ‘담비’, 온라인 대출판매대리·중개 등록</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001909558?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>혁신금융 업체 외 첫 신규 등록[헤럴드경제=박자연 기자]조만간 출시될 온라인 주택담보대출 비교 플랫폼 ‘담비’ 운영사 베스트핀이 ‘온라인 대출성 금융상품 판매대리·중개업’ 등록을 완료했다고 8일 밝혔다.담비는 혁신금융서비스로 지정됐던 카카오페이, 토스, 뱅크샐러드 등 12개 플랫폼 업체 이외에 금소법 시행 이후 판매대리·중개업을 처음으로 신규 등록했다. 올해 3월부터 시행된 금융소비자보호법(금소법)에 따라 대출모집인은 필요한 요건을 갖춰 금융감독원 및 각 금융권 협회에 금융상품판매대리·중개업 등록신청을 완료해야 한다.담보대출·전세자금대출 분야 특화 플랫폼인 담비는 대출비교는 온라인으로 가능하고, 필요시 대출신청은 온라인 또는 금융기관이 지정한 오프라인 대출상담사를 통해 할 수 있게 했다. 현재 담비는 SC제일은행, BNK부산은행, DGB대구은행과 업무협약을 마쳤으며 주요 시중은행 및 주요 보험 회사 등과도 협의 중에 있다.주은영 베스트핀 대표는 “이번 온라인 대출모집인 정식등록을 시작으로 담보대출부분 혁신을 이끌어 나가게 될 담비 첫 선을 보이게 됐다”며 “담비 서비스 고도화를 통해 주택담보대출 시장의 정보불균형을 해소하고, 소비자들의 알권리를 지킬 수 있도록 지속적으로 노력해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>[신혜권의 에듀포인트]&lt;5&gt;정부 SW 인재 양성, 효과 높일 때다</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002982089?sid=105</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>모든 분야에서 디지털전환이 가속화된다. 새롭게 등장하는 플랫폼 기업은 물론 전통 제조기업까지 디지털 기반으로 혁신한다. 디지털전환의 핵심은 소프트웨어(SW)다. SW 인력 수요가 급증한 이유다. 과거 '더럽고 어렵고 위험한'(Dirty·Difficulty·Dangerous) 3D에서 '꿈이 없는'(Dreamless)이 추가돼 4D로 불릴 정도로 소외받던 SW 개발자가 이제는 가장 선호하는 직업이 됐다.우수 SW 개발자는 하루가 멀다 하고 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스) 등 플랫폼 기업이 쓸어간다. 경기 성남시 판교에서는 아침 출근길에서 오랜만에 만난 옛 동창 SW 개발자가 저녁에는 한 회사 동료로 퇴근한다는 우스갯소리도 있다. 정보기술(IT)서비스 대기업조차 SW 인력 걱정을 하는 상황이니 중소 IT기업은 말할 것도 없다.이쯤 되면 SW 인력 수급에 빨간불이 제대로 켜진 셈이다. 사실 SW 인력 수급 문제는 어제오늘 일이 아니다. SW정책연구소 조사에 따르면 앞으로 5년 동안 SW 인력은 정규 교육과정과 정부의 SW 인재양성 사업으로 배출되는 인력 모두를 고려해도 약 4만명 부족하다.정부가 SW 인력 부족 문제 해결에 적극 나섰다. 과학기술정보통신부를 필두로 고용노동부·중소기업부·교육부, 최근 국방부까지 관련 부처가 SW 인재 양성 정책을 마련해 시행한다. 정책 대상도 다양하다. 초·중·고등학생을 비롯해 대학생, 취업준비생, 재직자, 이직자, 군장병 등 전방위다. 교육 내용도 저변 확산을 위한 SW 기초교육부터 인공지능(AI), 빅데이터 등 전문 심화교육까지 단계별로 이뤄진다. 물론 많은 예산이 투입된다.우선 정부의 SW 인재 양성 정책을 환영한다. SW 인재 양성을 대학 등 교육기관만 담당하기에는 이제 한계다. 더욱이 급변하는 산업 환경을 대학 강의실이 따라가지 못한다. 결국 산업 현장과 협력해야 하는데 대학·기업이 자체적으로 하기가 쉽지 않다. 디지털전환이 가속되면서 기업도 직접 SW 인재를 양성하고 있지만 이는 일부 대기업 얘기다. 중소기업은 꿈도 못 꾼다.정부가 추가로 고민해야 할 부분이 있다. SW 인재 양성 정책 효과다. 현재 마련된 SW 인재 양성 정책은 다양하고 광범위하다. 정책 하나하나의 의미가 충분히 있다. 다음은 어떻게 하면 효과를 높일 수 있을지다. 정부는 구직자 등 대상으로 다양한 취업 교육을 무상으로 제공한다. 교육에 참가하면 훈련장려금 명목으로 일종의 생활비도 지급한다.피교육생이 교육을 적극 받게 하겠다는 것이 정부 취지다. 그러나 이와 달리 피교육생은 갈수록 절실함을 잃어 간다. 무상 교육이 많다 보니 '이번 교육을 제대로 받지 못하면 다른 교육을 받으면 되지'라고 생각한다. 정부로부터 위탁해 교육을 수행하는 일부 교육기관(기업)도 마찬가지다. 변화하는 현실을 전혀 반영하지 못하고 오래전 커리큘럼 그대로 교육하는 곳도 있다. 교육받은 피교육생은 당연히 취업하는 데 어려움을 겪는다.문제 해결을 위해 정부의 SW 인재 양성 정책 실행에 변화가 필요하다. 단순히 인원을 카운팅 하는 교육은 지양해야 한다. 단 100명을, 1000명을 교육하더라도 현재 산업에서 필요한 인력을 양성해야 한다. 대학과 기업을 더욱 적극 연계해야 한다. 피교육생을 당장 기업에 투입할 수 있도록 산업 생태계가 모두 참여하는 교육 체계를 마련해야 한다.일부 잘나가는 대학과 기업만의 참여는 의미가 없다. '서울대와 네이버의 SW인재 양성 협력'이 과연 SW 산업 전체 인재 양성에 얼마나 많은 영향을 미칠까. 서울대와 네이버는 정부가 도와주지 않아도 충분히 잘하지 않을까 한다. 일부 잘나가는 대학과 기업이 아니라 그 외 대학과 중소기업이 참여하는 협력 체계가 더욱 절실하다.피교육생도 스스로 변화해야 한다. 형식적 스펙이 아니라 산업 현장의 인재로 거듭나서 자신의 꿈을 펼쳐 보이겠다는 절실함이 있어야 한다. 우리나라에도 대기업 못지않은 좋은 중소기업이 많다. 현재 취업 우선순위로 꼽히는 네카라쿠배당토도 과거에는 스타트업이었다. 중소기업, 스타트업에서 리더형 SW 인재로 성장하는 것도 멋진 일이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>보험도 초개인화…빅테크 없는 틈타 보험사 보장분석 집중</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001910118?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>삼성화재, 서비스 업그레이드농협손보, 새로 서비스 오픈홈페이지에 전면 내세우기도금소법 이후 영업 환경 변화MZ세대·비대면 영업 타깃도중복 보장·과보장도 유의해야[헤럴드경제=정경수 기자] 보험사와 보험대리점(GA)가 비대면 핵심 영업 수단으로 ‘보험 보장분석 서비스’를 강화하고 있다. 빅테크가 충족하지 못하는 수요를 기존 금융사들이 가져오겠다는 의도다.9일 보험업계에 따르면 삼성화재는 이달부터 신규 다이렉트 브랜드 ‘착’을 선보이며 ‘스마트 맞춤보장보험’을 업그레이드했다. 우선 신용정보원 데이터를 기반으로 고객이 가입한 전체 보험을 진단해준다. 이후 인공지능(AI)을 활용해 필요한 보장만 골라 담아 나만의 보험 상품을 만들 수 있게 안내한다. 고객이 원하는 보험료에 맞춰 자동으로 보장을 설계할 수도 있다. “보험료 5만원에 맞춰 보험상품을 만들어줘”라고 요구하는 식이다.삼성화재가 신규 다이렉트 브랜드 ‘착’에서 제공 중인 ‘스마트 맞춤보장보험’ 서비스 [홈페이지 갈무리]NH농협손해보험도 이달부터 ‘셀프 보장분석 서비스’를 오픈했다. 12개 주요 보장 항목에 대해 점수로 부족 여부를 알려준다. “고객님의 암 보장액이 추천액 1억원보다 1000만원 부족합니다”라고 알려주는 식이다.이 밖에 메리츠화재, DB손해보험, 교보라이프플래닛 등이 이같은 보장분석 서비스를 비대면 주요 영업 수단으로 삼고 홈페이지 전면에 내세우고 있다.빅테크·핀테크들이 보장분석 서비스를 하지 못하는 동안 보험사들이 그 빈틈을 노리고 나선 것이다. 지난 9월 금융소비자보호법 계도기간이 종료되면서 카카오페이, 토스, 보맵 등은 보험상품 비교·추천 서비스를 일제히 중단했다. 보험대리점을 등록하지 않고 ‘중개’ 행위를 하는 것은 불법이라고 금융당국이 판단했기 때문이다.NH농협손해보험이 이달부터 제공 중인 ‘셀프 보장분석 서비스’ [홈페이지 갈무리]온라인 영업이 어려워진 배경도 있다. 기존에는 온라인 카페나 블로그 등에서 특정 보험상품을 추천하거나 재무설계를 해준다면서 자신의 연락처를 남기는 식으로 광고를 했지만 금소법으로 인해 불가능해졌다. 반면 보험 보장분석 서비스는 규제로부터 자유롭다. “무료로 고객님의 보험을 진단해보세요”라고 알리는 것은 업무광고에 해당되지만 보장분석 서비스를 제공하는 것 자체는 광고가 아니라서 별도 심의를 받을 필요가 없다.초개인화, 비대면 영업 환경에 적합하기도 하다. MZ세대(밀레니얼+Z)는 설계사를 만나는 것보단 앱을 통해 보험상품에 자유롭게 가입하는 게 익숙하다. 이때 보장분석 서비스가 온라인상의 설계사 역할을 해준다.다만 유의할 점도 있다. 아직은 AI가 정교하지 못해 기존에 보유하고 있는 실손·운전자 보험을 추가로 가입하거나 새 상품으로 갈아타라고 권유하는 경우가 있다. 진단 잣대도 일부 과도하게 산정돼 “보험을 추가로 가입해야 하구나”는 생각을 들게 만들 수도 있다.업계 관계자는 “개인 소득, 가족력 등을 고려해 신중하게 접근해야 한다”며 “여러 보험사의 서비스를 받아보고 객관적인 결론을 내려야 한다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[모빌리티 新3강]③타다, 핀테크 장착하고 컴백</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004742?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>타다 인수한 핀테크 토스, 정체 활로 모색결제부터 도입, 카카오와 기사 유치전 예고카카오가 택시 호출로 사실상 독주해온 국내 모빌리티 시장이 재편될 조짐을 보이고 있다. SK텔레콤에서 물적분할로 떨어져 나온 티맵모빌리티가 세계최대 모빌리티 기업 우버와 손잡고 이달 '우티'를 야심차게 선보였다. 아울러 한때 대형밴 '타다 베이직'으로 이름을 떨친 타다가 핀테크 기업 토스 운영사인 비바리퍼블리카 품에 안기면서 심기일전하고 있다. 주요 모빌리티 서비스 3개사의 특징을 짚어보고 시장의 변화를 예상해본다. [편집자]'하얀 카니발'로 상징되던 모빌리티 서비스 '타다 베이직'이 다시 돌아온다. 모빌리티 혁신 스타트업으로 주목을 받아온 타다가 새로운 주인을 만나 재도약의 발판을 마련했다.흥미롭게도 모빌리티와 거리가 멀어 보이는 핀테크 업체가 타다의 주인이 됐다. '토스' 운영사인 비바리퍼블리카는 타다 인수를 통해 모빌리티와 핀테크가 결합된 새로운 금융서비스를 선보일 계획이다.타다는 우선 7인승 이상 대형차량을 기반으로 한 '타다 넥스트' 운영에 집중할 예정이다. 과거 택시업계 반발로 중단했던 서비스를 합법적인 테두리에서 재개하는 것이다.토스와 만난 타다타다는 2018년 11인승 승합차를 기반으로 한 국내 '승차 호출' 서비스를 처음 선보인 회사다. 기존 택시 이용 경험을 혁신하며 170만 이용자를 확보하는 등 빠르게 성장했으나 지난해 4월 타다금지법으로 불리는 '여객자동차운수사업법' 개정으로 서비스를 안타깝게 중단했다. 현재 개인·법인 택시 플랫폼 가맹사업 '타다 라이트'를 운영하고 있으나 별다른 존재감을 보여주지 못했다.재무 성적이 좋을리 없다. 타다의 운영업체인 VCNC의 지난해 매출은 약 60억원으로 타다금지법 이전이었던 2019년(약 110억원) 대비 반토막이 났다. 순손실 규모는 112억원. 내년 기업공개(IPO)를 준비하고 있던 기존 모회사 쏘카로서는 재무 성과 개선을 위해 적자 자회사(VCNC)의 지분을 정리할 수밖에 없었다.결국 VCNC는 지난달 초 토스 운영업체 비바리퍼블리카에 지분 60%를 넘기는 양해각서(MOU)를 맺었다. 인수합병은 VCNC가 발행한 신주를 비바리퍼블리카가 사들이는 방식이다. 현재 주식인수계약은 막바지 단계에 접어든 상태다. 토스가 투자한 금액은 모두 타다의 성장을 위해 쓰일 예정이다.이번 타다 인수로 토스는 모빌리티라는 신규 비즈니스 영역으로 플랫폼 확장을 도모할 수 있게 됐다. 현재 토스는 간편송금 서비스는 물론 보험, 증권, 인터넷전문은행으로까지 영역을 넓혔다. 하지만 카카오뱅크 등과의 경쟁이 더욱 치열해지면서 이용자 수 등의 성장지표가 정체되는 모습을 보였다.모빌리티 산업은 세계적으로 핀테크와 결합이 활발한 분야다. 대표적인 사례가 동남아시아 모빌리티 최대 사업자인 그랩이다. 이 회사는 차량 호출 서비스로 시작해 결제 및 금융으로 사업 영역을 무한 확장하고 있다. 토스 역시 타다 인수를 통해 금융 비즈니스 외연을 확장한다는 전략이다. 모빌리티와 핀테크가 결합된 새로운 가치를 창출하는 것을 목표다. 쏘카와의 긴밀한 협력을 통해 2000만 토스 이용자, 900만 쏘카·타다 이용자를 대상으로 확장된 멤버십 및 다양한 혜택을 제공해 공동의 생태계를 확장할 수 있을 것으로 기대하고 있다.결제·보험·대출 시너지 기대토스와 손을 잡은 타다의 모빌리티 혁신은 어떻게 이뤄질까. 타다와 토스 측은 아직 계약이 완료되지 않은 만큼 향후 사업 방향이 구체화되진 않았다는 입장이다. 다만 타다 서비스를 리뉴얼해 선보이는 12월에는 추가적인 서비스 출시와 마케팅 등이 본격화될 전망이다.토스는 우선 결제 사업에서 시너지를 낼 계획이다. 타다 앱에서 서비스를 이용한 뒤 토스 간편결제로 요금을 내는 방식이다. 경쟁사인 카카오모빌리티도 카카오페이와 결합해 택시 요금 결제 서비스를 제공하고 있다.토스 이승건 대표는 지난달 보도자료를 통해 "국내 택시시장 규모는 연간 매출액 기준 약 12조원에 달한다"며 "절반 정도가 호출 앱을 통해 이뤄지고 있어 토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다"고 강조한 바 있다.가맹택시나 승객을 대상으로 대출·보험 상품을 선보일 가능성도 제기된다. 토스는 보험업, 증권 진출에 이어 최근 인터넷전문은행 토스뱅크를 공식 출범하며 금융 영토를 확장해가고 있다.내달 '타다 넥스트' 출시 예정대형 택시 서비스인 '타다 넥스트' 이미지./사진=타다 제공토스는 우선 내달 선보이는 대형 택시 서비스 '타다 넥스트'를 시장에 안착시키는 데 주력할 계획이다. 타다 넥스트는 택시 면허를 가진 기사가 7·9인승 승합차를 운전하는 호출 중개 서비스다. 과거 타다 베이직 서비스를 대형 택시 영업으로 바꿔 합법 테두리 안에서 다시 시작하는 것이다.타다 베이직은 VCNC가 지난 2018년 11월 출시한 대형택시 서비스다. 기존 택시보다 약 20% 비싼 가격이었지만 출시 9개월 만에 이용자가 100만명을 돌파할 정도로 돌풍을 일으켰다.현재 카카오모빌리티 역시 이와 비슷한 '카카오 T 벤티' 서비스를 운영 중이다. 카카오 T 벤티는 고급택시 면허를 가진 기사가 9~11인승 차량으로 운행하는 서비스다. 지난 2019년 말 서울에서 시범 운영을 시작했다. 카카오모빌리티는 서비스 권역을 전국으로 넓히고 운행 대수도 지난해 500여대 수준에서 연내 1만대까지 확대할 계획이다.가맹택시 확보를 위한 눈치싸움도 치열해질 전망이다. 한정적인 택시기사를 확보하기 위해서는 경쟁사와 뺏어오기 전쟁이 불가피하기 때문이다. 현재 1위 사업자인 카카오모빌리티는 2만6000여대의 가맹택시를 확보 중이며 우버와 티맵모빌리티의 합작법인 우티는 내년까지 가맹택시를 2만대 이상으로 늘릴 계획이다. 반면 타다의 가맹택시 수는 1700여대 정도에 불과하다.토스는 드라이버를 유인하기 위한 전략으로 다양한 혜택을 내걸었다. 선정된 기사에게는 홍보비 명목으로 차량 구입비 1500만원을 지원한다. 또 일정 운행 조건을 충족하면 12개월간 최대 월 200만원씩 활동비를 제공한다. 현재 타다 넥스트 1기 드라이버 모집은 완료된 상태이며 이른 시일 내 2기 모집을 진행할 예정이다.업계 1위인 카카오모빌리티에 대한 여론 악화도 토스에겐 호재가 될 수 있을 것이란 분석이 나온다. 이탈하는 카카오모빌리티 드라이버들을 흡수하는 반사효과를 얻을 수 있어서다. 카카오모빌리티는 과도한 수수료와 골목상권 침해 등 논란에 휩싸여 있다. 이에 따라 신사업 확장에 제동이 걸린 상황이다. [시리즈 끝]</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>이재명, 토스·배민 대표 등 만나 “선대위 참여해달라”</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003228070?sid=100</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>마켓컬리·배민 우아한형제들 등 참석…“우리 경제, 여러분에 달려”이재명 더불어민주당 대선 후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에서 참석자들과 셀카를 찍고 있다.2021. 11. 8 김명국 선임기자 daunso@seoul.co.kr이재명 더불어민주당 대선후보는 8일 젊은 스타트업 대표들을 만나 규제 완화를 통한 경제 혁신을 강조하며 미래·청년 어젠다 선점을 위한 이미지 부각을 시도했다.이 후보는 이날 성동구의 한 공유 사무실에서 스타트업 대표들과 둘러앉아 “오늘 이 자리는 제가 주인공이 아니다. 여러분이 하는 일에 대해서 우리가 할 수 있는 일이 무엇인지 여러분의 말을 들어보겠다”고 운을 뗐다.이에 마켓컬리 김슬아 대표·직방 안성우 대표·비바리퍼블리카 이승건 대표·배달앱 배달의민족을 운영하는 우아한형제들의 김범준 대표·왓챠 박태훈 대표·업비트 김형년 부사장·에잇퍼센트 이효진 대표·엘리스 김재원 대표·째깍악어 김희정 대표·마이랜서 김현숙 대표 등 참석자들이 규제 완화와 정부 지원 등을 주문했다.이 후보도 이들의 얘기에 대체로 공감대를 나타냈다.그는 “지금까지는 ‘어떤 어떤 것을 하라’며 하라는 걸 규제하고 그 외의 것을 못 하게 해도 큰 문제가 없었지만, 지금은 사회변화 속도가 과거보다는 빨라져서 현장 행정관료나 공직자들이 충분히 예측하기 어려운 상황이 됐다”고 규제 혁신의 필요성을 역설했다.이 후보는 “우리 경제의 미래가 여러분에게 달려있다”며 “일자리라는 게 제한적이라 창업을 늘려야 하고 핵심은 여러분처럼 미래 융합 기술을 활용하는 스타트업에 있다”고 당부했다.그러면서 “저는 전문가가 아니고 관심이 있는 정도이니 정책에 반영해서 우리가 혁신경제로 나아가는 좋은 계기로 만들겠다”고 다짐했다.당정간 입장이 엇갈리고 있는 가상자산 문제에 대해서도 이 후보는 ‘갈라파고스, 조선말 쇄국정책’ 등을 언급하며 비교적 개방적 태도를 견지했다.이 후보는 또 “정부 지원방식을 보면 사후통제를 위해서, 혹시 있을 수 있는 부정행위를 가리기 위해 검증을 위한 페이퍼워크(서류작업)가 너무 많다”며 보완을 약속하기도 했다.이재명 더불어민주당 대선 후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에 참석해 참석자들과 인사를 하고 있다.2021. 11. 8 김명국 선임기자 daunso@seoul.co.kr이 후보는 간담회 말미에는 “제삼자 입장에서 지적하고 불만을 갖는 것을 넘어서 직접 참여 좀 해주셨으면 좋겠다”며 “대표를 뽑아서 선대위도 좀 참여해달라”고 당부했다.그러면서 “야당 선대위에 양다리 걸쳐도 괜찮다”고 말하자 좌중에 웃음이 터졌고, 이 후보는 “상관없다. 필요한 일을 하는 건데 꼭 한쪽에만 할 필요가 없다”고 부연했다.이 후보는 간담회를 마친 후 청년 소셜벤처 기업인과 오찬을 함께 했다.이 자리에서 비영리 정치 스타트업 ‘뉴웨이즈’의 박혜민 대표가 “내년 지방선거에서 많은 정치인을 배출하는 게 목표”라고 소개하자 이 후보는 “독특하다”며 운영 방식 등을 물었다.또 ‘약속의자전거’ 오영열 대표에겐 “사실 내가 자전거를 엄청나게 좋아한다”며 “방치 자전거 문제가 정말 골치 아프다”고 말했다.민달팽이주택협동조합·식스티헤르츠·채식한끼·닥터벨라·코드스테이츠 등 이 자리에 참석한 사회적 벤처 기업에도 일일이 관심을 드러냈다.이 후보는 “옛날에는 사회적 경제 비중이 좀 낮아서 앞으로 많이 확대해나가야 한다”며 “사회적 기업의 내용도 다양화할 필요가 있다. 아주 재밌다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.11.07.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>`핫한 비상장주` 핀테크 유망주 4사에 메타버스 관련주 추가</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002704882?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>'증권플러스 비상장' 10월 관심종목 추가 및 인기조회 순위. 사진=두나무 제공    두나무가 국내 최초 비상장 주식 통합 거래 플랫폼 '증권플러스 비상장'에서 10월 한 달간 인기를 끈 비상장 주식 키워드를 발표했다.7일 두나무에 따르면 9월에 이어 10월에도 핀테크 유망주인 카카오페이, 비바리퍼블리카, 케이뱅크, 두나무 등 4사의 약진이 두드러졌다. 메타버스에 대한 사회적 관심에 힘입어 메타버스·게임 주가 상승세를 보였고, 비상장 주식 시장의 스테디셀러라는 명성답게 바이오 주는 10월에도 견조한 인기를 지속 중이다.지난 3일 코스피에 입성한 카카오페이는 10월 증권플러스 비상장에서 관심 종목 추가 5위, 인기 조회 2위를 기록하며 하반기 IPO 기대주임을 다시 한 번 입증했다. 카카오페이는 국내 IPO 사상 최초로 100% 균등 배정 청약을 진행해 투자자들의 뜨거운 관심을 받았다. 상장 첫날 시가 총액 23조6000억원을 기록, 전통적인 금융 대장주였던 KB금융을 앞지르고 시총 10위권에 진입했다.금융 앱 토스 운영사 비바리퍼블리카는 두 달 연속 관심 종목 추가 3위를 유지했다. 인기 조회 순위는 9월보다 두 계단 뛰어올라 TOP5에 합류했다. 지난 5일 공식 출범한 토스뱅크가 영업 개시 약 열흘 만에 5000억원의 가계대출 한도를 모두 소진하며 큰 화제를 모은 데다 토스증권의 해외 주식 서비스 연내 오픈 소식 등이 알려져 투자자들이 반응한 것으로 보인다.지난 9월 처음 순위권에 등장한 케이뱅크는 10월 관심 종목 추가 및 인기 조회 4위를 차지하며 순항 중이다. 지난 2분기 39억원의 순이익으로 첫 분기 흑자를 달성한데 이어 3분기 약 168억원의 잠정 당기순이익을 기록, 연간 누적 순이익 흑자 전환에 성공하는 등 연이은 호실적으로 투심을 견인하고 있다. 블록체인 및 핀테크 전문 기업 두나무도 두 달 연속 관심 종목 추가 및 인기 조회 1위를 수성하며 핀테크주 열풍에 힘을 더했다.메타버스가 글로벌 유망 산업으로 떠오르면서 메타버스 및 게임 관련 주들의 인기도 탄력을 받고있다. 스페인 프로축구팀 레알마드리드CF의 메타버스인 '레알마드리드 가상세계(RMVW)'구축에 나선 가상현실(VR) 기업 쓰리디팩토리가 10월 관심 종목 추가 12위, 인기 조회 16위를 기록하며 눈길을 끌었다. MMORPG 게임 'KOD'에 메타버스 플랫폼을 도입하는 엔에스스튜디오는 관심 종목 추가 11위와 인기 조회 12위에 이름을 올렸다.바이오 테마에 대한 관심은 10월에도 굳건했다. 국내 최초 반려견 치료제 신약 승인을 받은 지엔티파마가 관심 종목 추가 10위, 인기 조회 6위에 이름을 올렸고, 러시아 코로나19 백신 '스푸트니크 V'를 위탁 생산하는 한국코러스는 관심 종목 추가 14위, 인기 조회 9위를 기록했다. 그 밖에도 최근 경구용 코로나19 치료제의 국내 제 2·3상 임상시험계획(IND)을 승인 받은 제넨셀, 국내 백신 전문기업 큐라티스 등 다수의 바이오 관련 종목들이 관심 종목 추가 및 인기 조회 TOP 20에 안착했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 신용평가시스템 우위 입증 못하면 수익성 부담-NH</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004733305?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>카카오뱅크 일반 공모주 청약이 시작된 26일 투자자들이 서울 여의도 한국투자증권 영업점에서 공모주 청약을 신청을 하고 있다. 카카오뱅크 공모주 공모가는 3만9000원으로 개인 투자자의 최소 청약주수는 10주다. 사진=김범석 기자 [파이낸셜뉴스] NH투자증권은 3일 카카오뱅크에 대해 중저신용자 대출에 사용되는 신용평가시스템(CSS)의 성과를 확인할 필요가 있다고 봤다.   정준섭 연구원은 "향후 카카오뱅크 CSS가 기존 다른 금융회사보다 나은 점이 입증되지 않는다면, Credit cost(대손비용률)은 2023년까지 계속 높은모습을 보여주면서 카카오뱅크의 수익성에 부담이 될 것"이라고 진단했다.   이어 정 연구원은 카카오뱅크가 금융 플랫폼으로서의 트래픽 창출 역량도 입증 할 필요가 있다고 봤다.   카카오뱅크 앱의 MAU는 와이즈앱 기준 2·4분기 1037만명에서 3·4분기 1085만명으로 48만명 증가에 그쳤다. 같은 기간 토스의 MAU는 1061만명에서 1209만명으로 148만명 증가했다.   그는 "최근에는 토스뱅크까지 등장한 만큼, 카카오뱅크에게 이번 4·4분기는 금융 플랫폼 역량을 입증해야 하는 시험대가 될 전망"이라며 "현재 카카오뱅크 시가총액은 30.5조원, MAU 1인당 가치는 287만원(와이즈앱 7월 기준)이다. 글로벌 금융 플랫폼 기업(Square 344만원, Robinhood 215만원, Paypal 80만원, 동방재부 434만원)의 평균과 비슷한 수준"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>인스웨이브, 토스뱅크 고객 서비스 시스템에 아이웍스 적용</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002237909?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>인스웨이브시스템즈(대표이사 어세룡)가 토스뱅크 IT 시스템 구축 사업에 참여해 UI/UX 통합 단말 솔루션인 ‘아이웍스(iWorks)’를 공급했다고 2일 발표했다.인스웨이브시스템즈가 선보인 아이웍스는 사용자 경험(UX)과 노하우를 바탕으로 한 최적화된 IT 솔루션이다.토스뱅크의 초기 IT 시스템을 구성함으로써, 효율적인 대내 채널 통합 및 시스템 운영을 도왔다. 인스웨이브시스템즈는 국내의 모든 인터넷 전문은행(토스뱅크, 케이뱅크, 카카오뱅크)에 솔루션과 서비스를 제공, 선도적 지위를 확고히 하게 되었다.토스뱅크IT 시스템 통합단말 아이웍스 적용 (이미지=인스웨이브시스템즈)인터넷 전문은행(Direct Bank)은 온라인 거래 의무화, 오프라인 영업점 미설치(또는 소수 영업점 운영) 등 모든 금융 업무가 비대면으로 진행된다. 인터넷뱅킹, 스마트뱅킹, 폰뱅킹, ATM, 콜센터 등 다양한 채널에서 발생하는 정보를 안정적으로 연계하는 것이 중요한 이유다.인스웨이브시스템즈는 거래 처리 엔진만을 제공하는 것이 아닌, 연계 업무 구현이 가능한 통합 개발 환경과 운영 관리 툴도 함께 공급한다. 이렇게 연계된 각종 정보는 통합 단말 솔루션인 아이웍스로 처리하게 된다.또한 시스템을 은행 내부 직원이 이용하기 쉽게 화면을 구성해 입금, 출금, 대출, 적금 등의 시스템을 연계하는 역할도 한다. 실제 업무 처리 시에도 뛰어난 생산성과 운영관리 편의성, 유지보수 효율성을 보장받을 수 있는 금융 IT 시스템을 운용하게 되었다.어세룡 인스웨이브시스템즈 대표는 “이번 토스뱅크 시스템 오픈은 인젠트 UI/UX 사업 부문의 인수 시너지를 보여주는 초석이 되는 사례”라며, “새로운 금융 트렌드를 만들어 나갈 국내 인터넷전문은행 세 곳 모두의 IT 시스템을 구축하게 돼 기쁘다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스證 다음달 해외주식 거래 개시…사전신청 접수</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004623598?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>사전신청시 최대 6개월 수수료 면제토스증권이 다음달 해외주식 서비스 출시를 앞두고 사전신청 접수를 시작한다고 2일 밝혔다. 사전신청은 오는 22일까지 진행되며, 같은 날부터 사전신청 고객들을 대상으로 해외주식 서비스를 순차 오픈한다. 사전신청을 하면 3개월 해외주식 매매 수수료 무료 혜택을 받을 수 있고, 친구를 초대하면 수수료 혜택이 3개월 연장된다.토스증권은 미국 주식시장에 상장된 352개의 종목과 156개의 상장지수펀드(ETF) 등 500여 종목 거래를 먼저 개시하고 거래 종목을 점차 확대해나갈 예정이다. 해외 주식 소수점 거래는 내년 1분기 중 제공할 계획이다.토스증권의 미국주식 서비스는 별도의 앱을 설치해야 하는 번거로움 없이 토스앱 내 토스증권 모바일트레이딩서비스(MTS)를 통해 이용할 수 있다. 또 인공지능(AI) 기반의 실시간 해외뉴스 번역 서비스를 통해 신속한 투자 정보를 제공한다. 그밖에 무료 실시간 시세와 자동 환전을 통한 원화 거래도 지원한다.윤민정 토스증권 해외주식 프로덕트오너는 "투자자들의 해외 투자에 대한 관심이 높아지고 있지만 여전히 종목 검색부터 환전, 실제 투자 과정까지 불편한 지점이 많다"며 "토스증권 해외주식 서비스는 고객에게 시장이 열리는 시간대만 달라졌을뿐 국내 주식거래 방식과 차이를 거의 느끼지 못할 혁신적인 투자경험을 제공할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>마이데이터 미성년자 이용 가능해진다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003985315?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>금융위, 신용정보업감독규정 개정 추진법정대리인 동의시 미성년 서비스 가능[서울경제] 금융 당국이 다음 달 마이데이터(본인신용정보관리업)의 시범 시행을 앞두고 미성년자까지 이용 대상을 확대하기로 했다. 가이드라인 상 이용에 제한을 뒀던 미성년자 규제를 금융 당국이 풀어준 것이다.15일 금융권에 따르면 금융위원회는 만 19세 미만의 미성년자가 법정 대리인의 동의를 받은 경우 마이데이터 서비스를 이용할 수 있도록 신용정보업감독규정 개정을 추진한다. 금융위는 이 같은 내용의 신용정보업 감독규정을 사전예고하고 오는 22일까지 관련 의견을 받기로 했다.만 19세 미만의 청소년이 마이데이터를 이용할 수 있는지 여부는 마이데이터 서비스 시행을 앞두고 업계와 당국 간 이견이 좁히지 못한 이슈 중 하나였다. 그동안 금융위는 마이데이터 서비스 이용 대상에 미성년자까지 포함하는 방안을 두고 보수적인 기류가 강했다. 미성년자의 금융자산 관리 필요성이 적다고 본 데다가 무분별한 마이데이터 가입 등으로 인한 부작용이 더 크다고 봤다.금융위의 기조가 바뀐 데는 이미 상당수 미성년자들이 마이데이터와 유사한 서비스를 이용하고 있는 점이 영향을 미쳤다. 10대 고객들은 마이데이터 서비스가 시행되기 이전에 이미 카카오페이, 토스 등 핀테크 업체를 통해 스크래핑 방식으로 제공하는 유사 서비스를 이용하고 있다. 기존 금융권에 비해 10대 고객이 많은 핀테크 업계를 중심으로 미성년자의 제한을 풀어달라고 요청해온 것도 이 때문이다. 신용정보법에 따르면 내년 1월 1일부터 스크래핑이 전면 금지되면 청소년은 핀테크 플랫폼에서 사용해온 금융 편의 서비스를 이용할 수 없게 된다.다만 금융위는 마이데이터 사업자가 미성년자의 신용정보를 조회·분석 업무를 제공하는 것 이외의 목적으로 이용하거나 제3자에게 제공하지 못하도록 제한하는 규정을 뒀다. 또 만 19세 미만의 이용자에게 서비스 되는 정보도 예금성 상품, 직불카드 및 선불카드, 직불전자지급수단 및 선불전자지급수단 등으로 제한했다. 만 19세 미만의 이용자가 마이데이터 서비스를 이용하되 부작용이 발생하지 않도록 제한하기 위해서다.금융 당국은 “기존에는 미성년자들에게 ‘금융비서’가 굳이 필요하겠냐는 생각에 가이드라인으로 미성년자 이용을 제한했다”며 “이미 상당수 미성년자가 (서비스를) 이용하는 현실을 부정하기 어려워 개정을 추진하게 됐다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.11.11.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>"제발 오지마세요!"..고객 돌려보내는 은행들</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005083192?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>대출 총량 관리 비상 걸린 시중은행, 금리↑ 용인인터넷은행, '오겠다'는 고신용자도 마다하는 상황[이데일리 김유성 기자] 얼마 전 황인환(가명, 32세)씨는 주거래은행이 아닌 다른 은행에서 주택담보대출 거래 상담을 했다. 그런데 이 은행 영업점 창구 직원은 황 씨에게 다른 은행에 가볼 것을 권유했다. 자신의 은행에 황 씨의 금융 기록이 없다는 이유였다. 약간 황당한 대출 거부에 황 씨는 당황할 수밖에 없었다. 가계부채 총량 관리에 절치부심 중인 은행들이 고신용자 대출까지 거부하고 있다. 당국의 대출 규제 압박 강도가 높아졌고, 대출 풍선효과에 따라 자사 대출 총량 관리가 힘들어질 수 있다는 우려 때문이다. 은행 영업점 창구 모습. 기사 내용과는 관련 없음(이데일리DB)“제발 오지 마세요”…대출 금리 인상 용인하는 은행들 “예전에는 타행 고객을 뺏어오기 위해 금리 경쟁을 벌였다면, 요새는 고객들 오지 말라고 금리 경쟁을 벌이고 있습니다.” 한 시중은행 관계자는 최근의 대출 창구 세태를 이렇게 표현했다. 불과 몇 달 전까지만 해도 은행들끼리 금리 경쟁을 하면서 대출 고객을 유치하려고 했지만, 연말을 앞둔 지금은 금리를 높여서라도 타행에서 오는 대출 희망자를 막고 있다. 다른 시중은행 관계자도 “달리 보면 최근의 높아진 대출 금리가 ‘심리적 장애물’이 된 셈”이라면서 “대출을 받으러 왔다가 높아진 금리를 보고 발길을 돌리는 이들이 적지 않다”고 설명했다. 실제 은행들은 우대금리를 줄이거나 축소해 금리 상승 효과를 내고 있다. 은행연합회 소비자포털에 따르면 지난 10월 기준 4대 은행의 가감조정금리(주택담보대출 기준)는 0.67~1.97%포인트로 지난 2월(0.9~2.12%포인트) 대비 약 0.2%포인트 정도 하락했다. 가감조정금리는 대출 금리에서 영업점이 빼주는 우대금리로, 수치가 작아질수록 대출자의 금리 부담이 커진다. 시장금리 상승에 따른 대출금리 상승 효과가 두드러지면서 청와대 게시판에는 성토의 글이 올라오기까지 했다. 은행들의 폭리를 막고 대출자들을 보호해달라는 글이다.  [이데일리 문승용 기자]은행들은 나름 억울하다는 입장이다. 금융 당국이 요구하는 가계대출 총량 규제를 지켜야 하기 때문이다. 시중은행 관계자는 “타행 대출 중단에 따른 풍선 효과까지 우려해야 하는 상황”이라고 읍소했다. 은행들의 풍선 효과 걱정이 실제 엄살만은 아니다. NH농협은행이 지난 8월 신규 주택담보대출 취급을 중단한 후 다른 4개 은행에 대출 수요가 몰렸다. 지난 10월만 해도 농협은행의 가계대출은 줄었는데, 나머지 다른 은행들은 평균 9300억원씩 늘었다. 이들 은행들은 가계대출 총량 관리에 비상을 걸 수밖에 없었다. 속 쓰린 카뱅, 눈물 나는 토뱅 인터넷 전문은행들은 더 속이 쓰리다. 금융당국의 지침을 지키기 위해 ‘오겠다’는 우량·고신용 고객을 마다하고 있다. 이중 카카오뱅크는 당국에서 요구하는 중금리대출 비율 20%를 맞추기 위해 안간힘을 쓰고 있다. 지난 10월 8일에는 고신용자 신규 신용대출을 중단하는 강수를 두기도 했다. 고신용자 대출 자산을 줄이고 중신용자 대출 자산을 늘리기 위한 목적이다.  지난 9월말 기준 카카오뱅크의 중금리 대출 비율은 전체 대출의 13.4%다. 당국이 요구한 기준선에 여전히 못 미친다. 최근 카카오뱅크의 주가 부진도 이와 무관치 않아 보인다. 카카오뱅크는 8월 상장 한때 9만원 선을 넘었지만 10월 고신용자 대출 중단을 기점으로 하락했다. 카카오뱅크의 주가는 최근 5만원대에서 거래되고 있다. 지난 10월 영업을 시작한 토스뱅크는 울고 싶은 상황이다. 당국의 강력한 가계 대출 규제로 여신 영업은 중단됐는데, 이자를 줘야하는 예금에는 돈이 몰려서다. 현재 토스뱅크의 대출 자산은 5000억원에 묶여 있다. 업계에서는 토스뱅크의 예금 잔액이 1조원 이상은 될 것으로 보고 있다. 연 이율 2% 금리를 줘야 하는 예금이다. 여신 영업이 중단된 상황에서 연 수백억원의 이자를 부담해 야할 처지다. 가입자 유치를 위한 마케팅에 나서야 하지만 토스뱅크는 이마저도 대폭 줄였다. 2% 금리 통장 가입자 수 급증 걱정이 크기 때문이다. 토스뱅크 측은 “금융소비자들의 편익을 높이기 위해 최선을 다하겠다”는 입장만 밝히고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>[고인돌2.0] “자기를 사랑하면 자신의 부족한 부분을 발견할 수 있어요”</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003983475?sid=102</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>어린이도서관이 마련한윤은주 교수의 ‘다락방에 숨겨둔 삶의 보물들’서울 동성고등학교 학생들을 대상으로‘사랑’에 대해 철학적으로 통찰하는 시간 가져윤은주 교수가 지난 8일 서울 동성고등학교에서 열린 강의에서 플라톤의 ‘향연’을 통해 ‘사랑’을 철학적 관점으로 설명하고 있다./사진=백상경제연구원[서울경제] 지난 8일 서울동성고등학교 시청각실에 모인 학생들의 표정은 진지했다. 평소 깊게 생각할 기회가 없었던 삶의 요소들을 철학적으로 접근해 사유하는 강좌가 열렸기 때문이다. 어린이도서관이 지역 청소년의 인문학적 사고를 높이기 위해 마련한 자리였다. 윤은주 숭실대학교 철학과 초빙교수가 강의를 맡았다.윤 교수는 “꼭 필요하지만 언제 어떻게 꺼내 써야 할지 모르는 소중한 것들을 다락방에 숨겨두곤 한다”며 “우리의 삶 속의 ‘사랑’이 그렇다”고 운을 뗐다. 그는 “현대인들이 가장 힘들어하는 것 중의 하나가 사랑”이라며 “사랑을 정의 내리기 어려워했던 것은 고대 그리스 철학자들도 마찬가지”라고 말했다. 그는 플라톤의 ‘대화편’가운데 하나인 ‘향연’의 내용을 예를 들었다. ‘향연’은 맛있는 음식을 즐기며 이런저런 이야기를 나누는 것을 뜻한다. 플라톤의 ‘향연’은 기원전 416년 비극 경연대회에서 우승한 아가톤을 축하하기 위해 모인 자리에서 철학자들이 사랑의 신 ‘에로스’에 대해 나눈 이야기들을 담은 것이다. 윤 교수는 고대 철학자들이 에로스를 통해 사랑을 어떻게 사유했는지에 대한 설명을 이어갔다.파이드로스는 “에로스는 신들 가운데 가장 오래되고 위대한 신으로 찬양받아 마땅하다”며 “에로스가 신의 으뜸이듯 가장 좋은 것을 주고받는 관계가 사랑”이라고 표현했다. 파우사니아스는 “대장간의 신 헤파이토스와 부부 사이인 미의 여신 아프로디테가 전쟁의 신 아레스와 바람을 피워 에로스를 낳았다”며 “에로스는 고결한 천상의 사랑과 저속한 사랑을 모두 담고 있다”고 말했다.윤 교수는 “‘향연’의 화자(話者)는 소크라테스까지 이어진다”며 “소크라테스는 디오티마에게 들은 이야기를 토대로 에로스를 논했다”고 설명했다. 디오티마의 이야기는 빈곤의 여신 페니아가 빈곤에서 벗어나고 싶어 아프로디테의 탄생 축하연에 가서 풍요의 신 포로스를 유혹해 에로스를 낳았다는 것. 윤 교수는 “아버지의 부유함과 어머니의 빈곤함을 반반 닮은 에로스는 삶의 반만 채워진 중간자”라며 “소크라테스는 부족한 나머지 반을 채우기 위해 애쓰는 에로스처럼 자신의 비어있는 부분을 채우는 과정이 사랑이라고 표현했다”고 설명했다. 그는 “그렇다면 소크라테스는 비어있는 부분을 무엇으로 채워야 부유해진다고 생각했을까”라고 학생들에게 물었다. 진지하게 듣고 있던 학생들이 고개를 갸우뚱하자 윤 교수는 “소크라테스는 인간을 풍요롭고 아름답게 만들어 주는 것은 ‘지혜’라고 여겼다”며 “따라서 자신에게 부족한 지혜를 채우는 과정이 소크라테스가 말하는 ‘사랑’”이라고 강조했다.윤 교수는 “여러분도 자신의 비어있는 부분을 찾아 지혜롭게 채우는 과정을 가져야 한다”며 “그러나 내가 어떤 것이 부족한지 알지 못하면 채울 수도 없다”고 말했다. 그는 이어 “나의 부족한 점을 알 수 있게 하는 것이 ‘자기애’”라고 강조했다. 그는 “자신을 타인과 동등한 입장에서 사랑할 수 있는 ‘자기애’가 있어야 나의 빈 부분을 온전히 바라볼 수 있고 지혜롭게 발전시킬 수 있는 것”이라고 당부했다.어린이도서관이 마련한 윤 교수의 ‘다락방에 숨겨둔 삶의 보물들’ 강좌는 ‘고인돌2.0(고전·인문아카데미2.0: 고전 인문학이 돌아오다)’의 프로그램의 하나로 개최됐다. ‘고인돌2.0’은 서울경제신문 부설 백상경제연구원과 서울시교육청 도서관 및 평생학습관이 2013년부터 함께한 인문학 교육 사업이다. 성인 중심의 인문학 강좌로 시작한 ‘고인돌’은 지난해부터 명칭을 ‘고인돌2.0’으로 바꾸고 서울 전역의 중·고등학교와 연계해 강연을 하고 있다. 역사와 건축, 경제, 과학, 미디어 등 다양한 분야의 총 56개 강좌로 구성된 올해 제9기 ‘고인돌2.0’은 특히 교과목과의 연계성을 높여 청소년들의 적극적인 참여를 이끌어 내고 있다.동성고 1학년 우지민 군은 “일상 속에 철학적으로 깊게 생각해야 할 것들이 많다는 것을 깨달은 강의였다”며 “플라톤의 ‘향연’을 비롯해 책을 많이 읽으며 나의 부족한 부분을 채우고 싶다”고 말했다. 2학년 전재호 군은 “사랑을 철학적으로 사유하며 일상의 문제를 다양한 시각으로 바라보는 계기가 됐다”고 밝혔다.김지민 동성고 사서 교사는 “학업에 쫓겨 삶에 대해 깊게 생각할 기회가 많지 않은 학생들에게 철학적인 사고를 이어가는 방법을 알려준 유익한 강의였다”고 말했다.청소년들의 인문학적 사고를 높이기 위한 고인돌 2.0 강좌는 3월부터 이달 말까지 모두 80여개 중·고등학교에서 실시된다./ 이효정 백상경제연구원 연구원 hjlee@sedaily.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>라이나생명, 디지털 보험업 힘 싣는다… 카카오처럼 보험쿠폰 판매</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000749399?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>라이나생명이 보험 선물하기와 보험쿠폰 제공하기 등을 시작으로 디지털 손해보험업을 꾸려나갈 예정이다. 사진은 라이나생명 종로 사옥./사진=라이나생명 라이나생명이 디지털 보험사업을 본격적으로 강화한다. 단기적으로 보험 선물하기와 보험쿠폰 판매 등 미니보험 위주로 판매하다 추후 보험계약, 헬스케어까지 다루는 금융플랫폼을 만들겠다는 것이다. 1일 보험업계에 따르면 라이나생명은 디지털 보험사업을 강화하기 위한 첫 단계로 보험 선물하기와 보험쿠폰, 계피상이 서비스를 진행하기로 하고 카카오나 토스 같은 핀테크사와 협업을 추진하기로 했다. 시그나그룹에서 추진하고 있는 디지털 손해보험사업과 다른 것이다.   보험 선물하기는 소비자 본인인 직접 보험을 구매해 타인에게 선물을 하는 방식으로 보험 선물을 받은 자가 해당 보험의 혜택(보장)을 받는 형식이다. 보험료는 보험을 구매한 소비자가 만기될 때까지 납부한다. 통상 레저용과 같은 1년 단위 미니보험이 주요 대상이다. 현재 보험 선물하기는 카카오커머스가 진행하는 서비스가 대표적이다. 카카오커머스는  원데이 골프 홀인원 보험, 차박 보험, 등산 보험, 펫 보험, 부모님을 위한 효도 보험, 다이어트 보험, 싱글 안심 보험 등 소액형 보험으로 실생활과 밀착된 보험을 제공 중이다. 그동안 쇼핑플랫폼에서 보험상품을 판매하는 것은 보험업법상 모집행위로 간주돼 불가능했지만 지난해 '혁신금융서비스'로 지정돼 온라인상 보험의 구매 또는 선물이 가능하게 됐다. 보험을 구매한 소비자가 지불하는 보험료는 쿠프파이맵스를 통해 보험회사로 제공되며 보험을 제공하는 보험회사는 쿠프파이맵스에게 모집수수료를 지불하고 쿠프파이맵스는 카카오커머스에게 광고비를 지불한다. 보험 쿠폰 또한 소비자 본인이 타인에게 쿠폰을 선물하면 선물을 받은 가입자가 쿠폰 번호를 입력해 가입하는 형태다. 계피상이는 계약자와 피보험자가 상황을 뜻한다. 태블릿을 활용한 전자서명으로 보험계약 체결시 현재 계약자와 피보험자가 같은 '계피동일'인 경우 비교적 보험계약이 간단히 체결되지만, 다를 경우에는 다소 번거로운 절차를 거쳐야 한다. 라이나생명은 계피상이와 같은 불편을 개선하기 위해 태블릿으로 고객의 지문을 촬영해 계약체결이 이뤄지는 구상하고 있는 것이다.  최근 비대면 문화 확산으로 라이나생명은 클라우드 시스템 도입 등 디지털화에 속도를 내고 있다. 라이나생명이 구상하는 디지털화는 AI기술을 활용해 신분증·진료비 영수증 등 문서와 서식을 자동분류 하고 문서의 이미지 정보가 신속·정확하게 판독돼 보험금 지급과 계약 심사 업무 등 보험 프로세스 전반을 개선하는 것이다. 인프라에 대한 운영·관리 비용에 대한 부담이 줄어들고 시장의 변화와 요구사항에 맞춰 신속한 솔루션 개발이 가능하다는 장점도 있다. 앞서 라이나생명은 지난 9월 디지털혁신개발부와 디지털혁신개발팀 인력을 채용한 바 있다. 클라우드 기반 데이터와 보안 솔루션 등 기술검토, 분석, 선정, 활용하는 시스템을 구축하는 경력직을 뽑는 것이다. 카카오와 토스 등 핀테크사와도 경쟁이 불가피 한 상황에서 클라우드 시스템 도입은 필수라고 판단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>매일유업, ‘앱솔루트 엄마의 선물 프리미엄 명작’ 리뉴얼 출시</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002258346?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>모유 올리고당 '2FL' 성분 국내 최초 적용두뇌·눈 구성 성분 DHA, MFGM, 루테인, 지아잔틴 등 멀티 영양 함유 ◆…매일유업 리뉴얼 '앱솔루트 엄마의 선물 프리미엄 명작'                    사진=매일유업 제공 매일유업(대표 김선희)이 ‘앱솔루트 프리미엄 명작’에 국내 최초로 모유 올리고당 2’-O-푸코실락토오스 성분을 적용해 리뉴얼한 ‘앱솔루트 엄마의 마음 프리미엄 명작’을 출시했다고 1일 밝혔다.   매일유업은 생후 24개월까지는 아기의 자기방어 체계 형성에 매우 중요한 시기라는 점에 주목해 이번 리뉴얼 제품에 매일유업만의 차별화된 자기방어 업그레이드 설계를 적용했다. 업그레이드의 핵심은 바로 2FL 성분으로 이는 모유에서 3번째로 많은 영양 성분인 모유 올리고당(HMO, Human Milk Oligosaccharide) 중에서도 가장 함량이 높은 성분이다.   2FL은 아기의 자기방어 체계를 형성하는 성분이다. 그동안 국내 생산 분유에는 적용되지 못했지만 매일유업이 바이오 벤처 기업 에이피테크놀로지와의 공동 연구로 국내 최초로 2FL이 적용된 ‘앱솔루트 엄마의 마음 프리미엄 명작’을 개발하는 데 성공했다.   리뉴얼된 ‘앱솔루트 엄마의 마음 프리미엄 명작’은 자기방어 설계, 두뇌와 눈 영양설계, 원료 설계 등 엄마의 마음을 담아 새로운 기준으로 업그레이드한 것이 특징이다.   먼저 자기방어 설계를 위해 핵심 성분 2FL을 비롯해 모유 올리고당 성분인 갈락토실락토스(GL), 사이알릭락토스(SL)를 멀티 배합했다. 여기에 두뇌 구성 성분인 DHA와 MFGM(유지방구막)을 추가하고, 체내에서 합성되지 않아 외부로부터 섭취해야 하는 황반 구성 물질 루테인과 지아잔틴도 포함했다. 뉴질랜드 자연방목으로 풀을 먹고 자란 젖소의 우유로 만든 Grass-Fed 인증 원료를 사용했다.   이번 리뉴얼 제품은 아기의 성장단계에 따라 1단계(0~6개월), 2단계(6~12개월), 3단계(12개월~24개월) 총 3종으로 월령과 단계를 구분해 출시된다. 온라인 쇼핑몰을 시작으로 22년 초 오프라인 대형마트 등 전채널로 판매처를 확대할 예정이다. 현재는 소셜커머스를 비롯한 국내 주요 온라인 쇼핑몰에서 구입 가능하다.   매일유업 관계자는 “이번 리뉴얼은 국내 최초로 모유 올리고당 2FL을 적용했다는 점에서 그 의미가 크다, 매일유업은 앞으로도 분유의 새로운 기준을 제시하며 믿을 수 있는 고품질의 분유를 합리적인 가격에 공급할 수 있도록 노력하겠다”며 “특히 모유에서 찾은 자기방어성분 2FL은 출생 직후부터 만 2세까지 형성되는 평생 동안의 면역체계에 기여한다, 건강한 성장의 마지막 열쇠인 만큼 많은 고객을 만족시킬 수 있을 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>해외주식 0.1주 주문… 국내 대부분 증권사에서 ‘OK’</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001127641?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>2곳만 가능 소수점 이하 거래20곳으로 확대… 연내 서비스서울 여의도 증권가. 부산일보DB이르면 연내 국내 대부분의 증권사를 통해 해외주식의 소수점 이하 단위 거래가 가능해질 전망이다.한국 예탁결제원은 금융위원회의 혁신금융서비스 신규 지정에 따라 각 증권사의 해외주식 소수 단위 거래를 지원하는 서비스 구축을 완료했다고 15일 밝혔다. 앞서 금융위는 지난 12일 정례회의를 통해 해외주식 소수 단위 거래를 위한 혁신금융서비스 신규 지정을 결정한 바 있다.소수 단위 거래는 증권사가 투자자의 주문을 모아 1주 이상의 온전한 주식(온주)으로 취합하고, 그래도 남는 소수 단위의 주문은 증권사가 대신 주문하는 형식으로 이뤄진다. 예를 들어 투자자들의 테슬라 주식 주문 합이 2.7주라고 하면, 증권사는 자기 재산 0.3주를 합한 총 3주를 예탁결제원에 결제를 요청하는 방식이다. 예탁결제원은 예탁자계좌부(투자자분)에 ‘소수 단위 전용 예탁계좌’를 신설하고, 해당 주식을 온주 단위로 관리한다.현재 해외주식 소수 단위 거래가 가능한 증권사는 2곳이다. 2019년 혁신금융서비스 지정을 받은 신한금융투자, 한국투자증권 이용 고객만 해외주식 소수 단위 거래가 가능했다. 그러나 이번 서비스 구축을 완료함으로써 추가로 국내 20개 증권사에서 해외주식 소수 단위 거래가 가능해졌다. 추가로 해외주식 소수 단위 거래가 가능해진 곳은 DB금융투자, KB증권, KTB투자증권, NH투자증권, 교보증권, 대신증권, 메리츠증권, 미래에셋증권, 삼성증권, 신영증권, 신한금융투자, 유안타증권, 유진투자증권, 키움증권, 카카오페이증권, 토스증권, 하나금융투자, 하이투자증권, 한국투자증권, 한화투자증권이다.예탁결제원 관계자는 “현재 한정된 해외주식 소수 단위 거래 채널이 대폭 확대돼 투자자들이 보다 편하게 해외주식에 투자할 수 있을 것으로 예상된다”며 “특히 투자자 수요가 많은 고가의 미국 우량주에 대한 진입장벽을 낮춰 건전한 포트폴리오 분산 투자 문화가 조성될 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>내달 상장 KTB네트워크, 시총 7000억 'VC 대장주' 되나</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004625087?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>금융위에 증권신고서 제출희망 공모가 5800~7200원국내 1세대 벤처캐피털(VC)인 KTB네트워크가 오는 12월 코스닥시장 상장을 추진한다. 최대 7200억원의 시가총액으로 VC산업 대장주에 오를 것으로 전망된다.KTB네트워크는 5일 금융위원회에 증권신고서를 제출했다. 희망 공모가 밴드는 5800~7200원, 총 공모금액은 1160억~1440억원(2000만 주)이다. 오는 29~30일 기관투자가 대상 수요예측을 실시해 공모가를 확정하고, 다음달 6~7일에 청약을 진행해 연내 상장을 마무리한다는 계획이다. 주관사는 한국투자증권이다.KTB네트워크가 상장하면 국내 VC 대장주가 될 가능성이 높다. 주식 수가 1억 주(구주 8000만주)인 점을 고려하면 시가총액이 5800억~7200억원으로 나오기 때문이다. 현재 VC 대장주인 아주IB투자의 시총(약 5300억원)을 최대 2000억원가량 앞서게 된다.KTB네트워크는 KTB금융그룹의 주력 계열사다. 1981년에 국내 1세대 VC로 설립됐다. 국내에서 총 300여 건의 기업공개(IPO) 실적을 보유하고 있다. 토스(비바리퍼블리카) 초기 투자자로 현재까지 지분을 보유하고 있다. 주요 투자기업인 RBW(종합 엔터테인먼트)가 이달 상장을 앞두고 있고, 코넥스 시총 1위 기업 툴젠(바이오)도 상장예비심사를 통과해 다음달 코스닥 이전상장이 예정돼 있다. 해외 투자 기업으로는 소피, 몰로코, 호라이즌로보틱스, 그로퍼스 등 다수의 유니콘 기업(기업가치 1조원 이상 스타트업)이 있다.KTB네트워크의 운용자산은 1조1195억원으로 업계 최상위권이다. 실적 또한 꾸준한 성장세다. 지난해 358억원의 당기순이익을 기록하며 VC업계 1위에 올랐다. 올해는 상반기에만 441억원을 벌어들이며 사상 최대 실적을 이어갔다. 40년의 업력만큼 전문가도 다수 포진해 있다. 심사역의 상당수가 10년 이상 경력자다. 김창규 KTB네트워크 대표는 “IPO를 통해 모집한 재원은 브랜드 가치 제고와 미래 투자를 위한 펀드 출자금 조성에 사용할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>잉여시간에 앱으로 돈버는 '잉코노미'…앱테크가 대세</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000633055?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>핀크 '캐시백 챌린지'서 7천명이 7천300만원 캐시백 받아디지털 플랫폼 가속화로 남는시간 일명 '잉여시간'에 애플리케이션(앱)을 활용해 경제활동을 하는 '잉코노미(잉여시간 + 이코노미)'가 대세로 떠올랐다.3일 금융권에 따르면 하나금융그룹과 SK텔레콤의 합작 핀테크 기업 '핀크(Finnq)'는 앱에서 높은 캐시백 혜택을 주는 다양한 금융 서비스들을 선보이고 있다.한 고객이 핀크 앱을 하고 있다. [사진=핀크]◆ 챌린지·미션 수행하면 캐시백 제공대표적으로 핀크 제휴 카드 상품들(카드제휴모집인 계약 상품)이 있다. 핀크앱 출시부터 현재까지 이용 고객중 고객 한명이 최대 630만원 상당의 캐시백을 적립하기도 했다.실제 핀크는 소셜네트워크서비스(SNS) '핀크리얼리'에서 지난 한 달간 최근 6개월 핀크 카드 상품을 이용해 쌓은 캐시백의 총액으로 경쟁하는 '캐시백 챌린지'를 진행했는데 7천명의 고객이 6개월동안 7천3백만원의 핀크머니(캐시백)를 적립 받았다.핀크가 롯데카드와 선보인 상업자 전면 표시 카드(PLCC) '새로고침카드'도 높은 캐시백을 제공하는 실속형 상품으로 통한다.전월 동안 핀크 앱에서 ▲송금 ▲핀크머니 충전 ▲예적금 상품 가입 및 유지 ▲대출한도 조회 ▲핀크리얼리 출석 등 5대 서비스 중 1개 이상 이용하고, 전달 카드이용 실적이 40만원, 80만원, 180만 원 이상일 때 각각 1만, 1만5천원, 2만 핀크머니가 적립된다. 여기에 오는 30일까지 전월 이용금액이 15만원 이상이면 15만 핀크머니를 추가 적립해 주는 이벤트도 실시한다.다음으로 핀크가 신한카드와 함께 선보인 '핀크 체크카드'는 카드와 연동된 핀크머니로 전액 결제 시 월 최대 1만원까지 결제금액의 1.2%가 실시간 적립된다.지난 2017년 핀크가 하나카드와 제휴해 만든 '투뿔 카드'는 이용 실적·횟수·한도 제한 없이 기본 1% 적립에 전월 실적에 따라 매월 최대 1만5천원 추가 적립을 해준다. 월 3만씩 적립되면 1년에 36만원 캐시백이 제공되는 셈이다.카드 상품뿐만 아니라, 신용카드를 추천해주는 '카드몰'을 활용할 수도 있다. 카드몰은 상세 페이지에 공시된 이벤트 기간 및 안내에 따라 카드 발급 후, 특정 금액 이상 이용하면 최대 54만원의 캐시백을 제공한다.더불어 '핀크리얼리'에서 열리는 4가지 챌린지에 참여하면 각 챌린지 당 1개씩 총 4개의 리워드(보상금)도 챙길 수 있다.신한은행도 샤넬백을 증정하는 등 앱테크 행렬에 합류했다.신한은행은 지난 8월 신한 헤이영 체크카드를 보유한 만 18~29세 고객을 대상으로 카드를 사용하거나, 미션에 참여할 경우 최대 1천 신한포인트가 담긴 '럭키박스'를 리워드로 제공하는 앱테크를 선보였다.신한 체크카드로 1원 이상 결제할 때마다 럭키박스 1개씩, 매월 최대 20개까지 제공된다. 월별 럭키박스 20개를 모두 받은 고객은 '이달의 추첨' 이벤트에 자동 응모되며, 당첨된 고객은 6백만원 상당의 샤넬 스몰 플립백을 증정받을 수 있다.◆ 앱에서 게임하면 금 투자…1만보 걸으면 하루 최대 100원 적립하나은행 '하나 원큐' 앱에서 게임을 하고 금투자를 할 수도 있다.하나은행은 '하나 원큐' 앱에서 모의투자게임 '투자의 마블'을 하고 수익률 200%를 달성하면 현금처럼 쓸 수 있는 1천 포인트를 매일 3천명에게 증정하는 이벤트를 진행 중이다. 보상으로 받은 포인트는 하나멤버스에 적립되는데, 이렇게 쌓인 하나머니로 금과 은에 투자할 수 있다.하나은행이 넷마블과 함께 만든 '투자의 마블'은 주사위를 굴려 말판을 이동, 말판 위 '투자 상품'에 투자여부와 금액을 결정해 자산증감을 경험해보는 모의투자 게임 서비스다. 게임 진행 시 하나멤버스 포인트 외에도 '제2의 나라' 장비 소환 쿠폰, 코스튬 소환 쿠폰, 에너지 드링크, 골드 등 인기 아이템을 증정한다.토스에선 걸을 때마다 돈을 적립해준다.금융 플랫폼 토스에서 운영하는 '토스 만보기'는 하루 5천보, 1만보씩 걸으면 각각 10원, 30원이 적립해주며 일일 미션을 달성할 경우 하루 최대 1백원까지 적립된다. 한 달 동안 만보기를 이용하면 3천원을 적립 받을 수 있는데 리워드는 실제 현금으로 제공된다.비씨카드 페이북 앱에선 퀴즈를 풀면 페이북 머니가 제공된다.비씨카드는 이달 30일까지 매주 페이북 관련 퀴즈, 재테크 정보 확인 등 고객이 선택한 미션 종류에 따라 최대 5백 페이북머니(1 페이북 머니 1원)까지 적립된다.미션 완료로 적립된 페이북머니는 즉시 적립 및 사용이 가능하며, 매주 월요일 9시에 새로운 미션으로 변경된다.연말정산 팁, 미국주식 투자, 마이데이터 등과 같은 금융관련 지식을 쉽고 재밌게 이해할 수 있는 웹툰도 매주 수요일에 연재된다. 또 전날 새벽에 있었던 글로벌 증시 주요 이벤트 및 시장 지표 정보를 요약해 제공하는 서비스도 매일 제공된다.페이북머니는 편의점, 온라인 쇼핑몰 등 다양한 가맹점에서 카드 결제 시 함께 사용할 수 있으며, 송금 시에도 사용 가능하다.한편 잉코노미는 김난도 작가가 매해 발간하는 '트렌드 코리아 2022'에서 선정한 키워드로 꼽힌 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>쏘카, 3분기 만에 흑자전환…카셰어링 매출 44%↑</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004667847?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>내년 상장을 예고한 차량 공유 플랫폼 쏘카가 3분기만에 영업이익 흑자로 전환했다. 쏘카는 지난 3분기 카셰어링(차량공유) 사업 매출이 전년 동기 대비 44.4% 늘어났다고 9일 밝혔다.쏘카는 차량의 배치·운영·예약 시스템 등을 고도화하면서 이용시간, 이동거리 등의 주요 지표가 모두 상승했다고 설명했다. 3분기 쏘카 카셰어링 이용시간은 전년 동기 대비 39.1% 늘었다. 쏘카존을 방문하지 않고 이용자가 희망하는 곳으로 차량을 배달해주는 부름 서비스 이용이 크게 늘어나면서 지난해 3분기 121만건에서 올해는 213만건으로 75.3% 급증했다.지난 6월에 국내 최초로 선보인 모빌리티 멤버십 '패스포트' 가입자는 4개월만에 9만명으로 증가했다. 차량 대여요금을 50% 할인 받는 구독자들의 이용횟수와 시간이 늘어나면서 가파른 성장을 이끌고 있다. 올해 쏘카 이용객들의 이용 건당 평균 이용시간은 지난해보다 16%, 이동거리는 15% 상승했다.쏘카의 흑자전환은 적자였던 VCNC의 최대주주에서 내려온 영향으로 보인다. 토스는 VCNC가 발행하는 신주를 인수하는 방식으로 비바리퍼블리카가 지분 60%를 가져갔다. 박재욱 쏘카 대표는 "모빌리티 기술과 차량 및 이용자 데이터를 결합해 이용자들과 함께 빠르게 성장해 가며 수익성을 제고한다는 회사의 노력이 결실을 맺고 있다"며 "카셰어링 서비스 10년의 성과를 바탕으로 모든 사람들이 쉽게 접근하고 즐겁고 안전하게 이동할 수 있는 서비스를 만들어가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>우티 “택시 합승 ‘우티풀’ 내년 상반기 출시”… 카카오택시에 도전장</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000770687?sid=105</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>규제 풀리는 대로 수요 선점가맹택시 개편… 내년 2만대 확보타기 전 요금 확정하고 결제“韓 택시, 9조 규모 세계 5대 시장”톰 화이트 우티 최고경영책임자(CEO·오른쪽)와 김기년 최고운영책임자(CCO)가 1일 신규 통합 앱 출시 온라인 기자간담회에서 발표하고 있다. /우티 제공        우버와 티맵모빌리티의 합작 플랫폼 ‘우티’가 내년 상반기 택시 합승 서비스 ‘우티풀’을 출시한다고 1일 밝혔다.톰 화이트 우티 최고경영책임자(CEO)는 이날 우티 신규 통합 애플리케이션(앱) 출시를 기념해 온라인으로 개최한 기자간담회에서 내년 사업 계획을 발표했다.화이트 CEO는 “내년 초 ‘택시 운송 사업의 발전에 관한 법률(택시발전법)’ 개정에 맞춰 정부의 규제 테두리 안에서 최적화된 택시 합승 서비스를 준비 중이다”라며 “최고의 풀링(합승) 알고리즘을 국내 최초로 택시에 도입해 승객은 비용과 (택시 매칭) 시간을 줄일 수 있다. (우버풀은) 한국 택시 시장의 ‘게임 체인저’가 될 것이다”라고 말했다.현행 택시발전법은 택시 승객들의 합승을 금지하고 있지만, 정부는 내년 상반기까지 이 규제를 없애려 하고 있다. 이미 스타트업 코나투스가 규제 샌드박스 적용을 받아 시범적으로 ‘반반택시’라는 택시 합승 중개 사업을 하고 있다. 정부는 시범 사업에서 규제 완화의 부작용이 크지 않다고 판단해 법 개정에 속도를 내고 있는 것으로 전해졌다.우티는 규제가 풀리는 대로 카카오, 토스-타다 등 국내 주요 모빌리티 플랫폼 중 가장 먼저 택시 합승 서비스를 선보임으로써 수요를 선점하고 택시 시장 점유율을 높이겠다는 계획이다.톰 화이트 우티 CEO가 1일 택시 합승 서비스 '우티풀'의 출시 계획을 발표하고 있다. /유튜브 캡처        기존 택시 서비스도 보완한다. 가맹택시(브랜드택시)의 경우 티맵 내비 기술을 적용해 ‘사전 확정 요금제’를 도입한다. 승객이 운행 요금을 목적지에 도착한 후가 아니라 출발하기 전에 미리 안내받고 앱으로 간편하게 결제할 수 있도록 하겠다는 것이다. 카카오도 비슷한 편의 기능을 제공하고 있지만 요금을 택시 출발 전에 ‘예상’하는 수준을 넘어 아예 ‘확정’하고 실제 운행 후 추가 요금이 나와도 받지 않는 방식이 될 것이라고 우티는 설명했다.카카오가 압도하고 있는 가맹택시 공급량도 따라잡을 계획이다. 현재 카카오는 전국 택시의 10% 이상인 2만6000대를 가맹택시 ‘카카오T블루’로 확보했지만 우티의 ‘우티택시’ 수는 1200대 수준에 머물고 있다. 우티는 연내 1만대, 내년 말까지 2만대로 수를 늘릴 것이라고 밝혔다.김기년 우티 COO가 1일 온라인 기자간담회에서 향후 택시 사업 계획을 발표하고 있다. /유튜브 캡처        승객이 추가 요금을 내는 대신 더 빨리 배차받을 수 있는 ‘우티플래시’, 택시 공급이 부족한 혼잡시간대엔 승객에게 추가 요금을 받아 기사들에게 인센티브를 제공하는 기능 등 카카오가 이미 시행하고 있는 서비스들도 도입을 검토 중이다.우티는 해외에서 자사 앱을 우버와 연동할 수 있다고 소개했다. 국내 서비스에 한정된 카카오와 달리 우티는 해외에서도 국내 앱을 통해 해외 우버 택시기사를 호출하고, 앱이 제공하는 실시간 번역 기능을 통해 기사와 소통할 수 있다는 것이다.김기년 최고운영책임자(CCO)는 “우리는 기술과 상품이 이미 준비돼 있기 때문에 (사업이) 유망하다고 생각하면 진출할 수 있다”라며 택시 외 신사업 진출의 가능성을 열어뒀다.그래픽=손민균        우티는 글로벌 모빌리티 플랫폼 1위 우버와 국내 내비게이션 1위 티맵이 카카오를 잡기 위해 지난 4월 내놓은 택시 호출 앱이다. 지난 7개월 간 준비를 마치고 이날 정식으로 출시했다.다만 국내 이용자 수 기준으로 여전히 카카오가 우티의 점유율을 압도하고 있고, 토스까지 가맹택시 ‘타다’를 인수하고 시장에 참전해 내년 경쟁은 한층 더 치열해질 전망이다.화이트 CEO는 “한국 택시 시장은 80억달러(약 9조4000억원) 규모의 세계 5대 시장이다”라며 “우버의 글로벌 사업 노하우와 티맵의 현지(한국) 맵핑(지도) 기술을 통해 기사와 승객에게 더 향상된 서비스를 제공하겠다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2021.11.01~2021.11.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.11.01~2021.11.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>카페24, 실적 턴어라운드 필요…투자 유치는 긍정적 -유안타</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005077568?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[이데일리 조해영 기자] 유안타증권은 4일 카페24(042000)에 대해 투자 유치가 이어지고 있지만 성장 기대감이 주가에 반영되기 위해서는 실적 턴어라운드가 전제돼야 한다고 말했다. 투자의견 ‘보유(hold)’와 목표주가 4만원을 모두 유지했다. 카페24의 3일 현재주가는 2만8700원이다.카페24의 3분기 영업수익은 전년 동기 대비 6.4% 증가한 665억원, 영업적자는 76억원으로 적자 전환했다. 영업적자 컨센서스 8억원을 밑도는 실적을 기록했다. GMV(거래액) 성장률은 15.2%로 양호했지만, 마케팅 부문이 17.2% 역성장했고, 풀필먼트의 성장성도 둔화하는 등 매출 성장률이 GMV 성장률을 따라가지 못했다.광고 사업은 성장성이 둔화되던 상황에서 큰 폭의 역성장까지 나타났다. 이진협 유안타증권 연구원은 보고서에서 “업계의 경쟁심화에 대응하지 않은 영향으로 판단이 되는데, 카페24의 광고 사업 역량을 강화하기 위한 노력이 필요하다”고 전했다.비용 측면에서는 고정비 부담이 커지고 있다. 인건비 등 기타 고정비는 전년 동기 대비 85억원 증가하면서 실적 부담으로 작용했다. 비용 증가는 최근 개발자 몸값 상승과 카페24의 사업 확장 등에 따른 투자 영향이라는 분석이다.카페24는 네이버와의 지분 교환 이후, 토스(비바리퍼블리카)를 대상으로 100억원 규모의 제3자 유상증자를 단행하는 등 투자 유치를 이어가고 있다. 이 연구원은 “네이버와의 지분 교환, 토스로부터의 투자 유치 등은 미래 성장성 확대에 분명히 긍정적”이라며 “네이버와는 해외 사업에서의 확장성을 키울 수 있고 토스는 금융서비스 시너지 창출을 통해 국내 사업의 성장 모멘텀을 키울 수 있다”고 전했다.다만 이러한 성장 기대감이 주가에도 반영되기 위해서는 실적 턴어라운드가 필요하다는 설명이다. 이 연구원은 “성장 기대감이 반영되지 못하는 것은 결국 실적 부진이 지속되고 있기 때문”이라며 “4분기는 성수기로 위드 코로나에 따라 패션 카테고리의 호조가 예상되는 점은 긍정적”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.11.13.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>"성적표 두 달 뒤 나온다"… 이제서야 중·저신용자 대출에 공들이는 인터넷은행들</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000640912?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>인뱅 3곳 모두 현재까지 목표치 달성 못 해 사잇돌 대출 재개하고, 금리 인하 내걸어두 달밖에 안 남아 목표치 달성은 미지수서울 용산구 카카오뱅크 고객센터. 뉴시스그동안 고신용자 대출 영업에 몰두했던 인터넷전문은행(인뱅)들이 연말이 다가오자 중·저신용자 대출 늘리기에 나섰다. 연말까지 중·저신용자 목표 비중을 달성하지 못하면 금융당국이 불이익을 준다고 경고했기 때문이다.하지만 대출 총량 규제로 신용대출 한도가 이미 대폭 줄어든 상태라, 올해 목표치를 달성하기는 어려울 전망이다. 손쉬운 영업만 하려다 정작 본업에는 소홀했다는  비판도 나온다.카뱅 13.4%로, 목표치 20.8%에 못 미쳐 12일 금융권에 따르면, 인뱅 중 현재까지 중·저신용자 대출 목표치를 달성한 곳은 한 곳도 없다. 3분기 기준 카카오뱅크의 전체 가계대출 중 중·저신용자 대출 비중은 13.4%로, 올해 목표치(20.8%) 대비 7.4%포인트 부족한 상황이다. 케이뱅크는 역시 15.5%(2분기 기준)로 목표치(21.5%)에는 턱없이 모자란 수치다. 그나마 가장 높은 토스뱅크는 33%를 기록했지만, 대출 영업 중단으로  사실상 목표치(34.9%) 달성엔 실패했다. 저조한 성적표가 예상되면서 인뱅의 중·저신용자 모시기 영업도 가열되고 있다. 카카오뱅크는 지난달 중단했던 사잇돌 대출을 중·저신용자에 한해 판매를 재개하기로 했다. 사잇돌 대출은 △연소득 1,500만 원 이상 △재직기간 3개월 이상 △서울보증보험(SGI)의 보증 가입이 가능한 근로소득자가 최대 2,000만 원까지 가능한 대출 상품이다. 하지만 사잇돌 대출의 경우, 보증부 정책상품으로 분류돼 중·저신용자 대출에 포함되지 않는다. 다시 말해 사잇돌 대출을 취급하면 올해 가계대출 총량은 잡아먹지만, 중·저신용자 대출 비중은 그대로인 셈이다. 그럼에도 불구하고 사잇돌 대출을 재개한 배경에는 당장 일부 손해를 보더라도, 중·저신용자 대출 고객들을 선점하기 위한 의도가 깔린 것으로 풀이된다. 케이뱅크 역시 중·저신용자 대출 상품의 금리를 큰 폭으로 인하했다. 케이뱅크는 전날 ‘신용대출 플러스’ 상품 중 중·저신용자에 한해 최대 3.27%포인트까지 금리를 인하했다. 그 외 신용대출·마이너스 통장 역시 각각 최소 1.5%포인트에서 최대 2.3%포인트까지 금리를 낮췄다. 다만 대출 한도는 '연소득 이내'로 제한된다. 뒤늦게 시동 걸었지만, 목표 달성 불가능그러나 이 같은 노력에도 연말까지 각 은행이 목표치를 달성할 수 있을지는 미지수다. 금융당국의 강력한 규제로 인뱅들의 가계 대출 여력이 많지 않기 때문이다. 중·저신용자 대출을 더 늘리고 싶어도, 총량 규제로 대출취급에 한계가 있을 수밖에 없다는 얘기다.지난 상반기 기준 신용점수 850점 이상의 고신용자들에게 나간 대출 비중은 카카오뱅크·케이뱅크 각각 86%·78%에 이른다. 특히 카카오뱅크의 신용대출 총 규모는 14조 원으로, 중·저신용자 대출 비중을 늘리는 데 더욱 어려움을 겪을 것으로 보인다.인뱅 관계자는 “중·저신용자 취급 목표를 못 채울 경우 신사업 인허가 제약 등 당국의 엄격한 제재가 있을 것으로 보인다"며 "어려운 환경이지만 연말까지 중·저신용자 고객을 최대한 확보하는 데 집중하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>애플·테슬라 투자, 토스증권 사전 신청하면 6개월 수수료 무료</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002112738?sid=105</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스증권(대표 박재민)이 다음 달 해외주식 서비스 출시를 앞두고, 사전신청 접수를 시작한다고 2일 밝혔다. 사전신청 고객에게는 최대 6개월의 해외주식 매매 수수료 무료 혜택을 제공한다.사전신청은 이 달 22일까지 진행되며, 같은 날부터 사전신청 고객들을 대상으로 해외주식 서비스를 순차 오픈한다. 미국 주식시장에 상장된 352개의 주요 종목과 156개의 ETF(상장지수펀드) 등 500 여 종의 거래를 먼저 선보이며, 거래 종목은 점차 확대해나갈 예정이다. 해외 주식 소수점 거래는 내년 1분기 중 제공할 계획이다.사전신청을 완료한 고객 전원에게 3개월 해외주식 매매 수수료 무료 혜택을 제공한다. 친구를 초대하면 수수료 혜택이 3개월 연장되어 최대 6개월간 수수료 없이 해외주식 투자를 이용할 수 있다. 이는 국내 증권사 해외주식 서비스 수수료 혜택 중 최대 수준이다. 친구 초대 혜택은 친구가 나에게 공유받은 초대 링크를 통해 사전신청을 완료하면 자동 적용된다. 국내 거주 중인 만 19세 이상의 성인이라면 누구나 토스 앱 하단 주식탭의 토스증권 MTS(모바일 트레이딩 시스템)를 통해 참여할 수 있다. 토스증권이 새롭게 선보이는 미국주식 서비스는 별도의 앱을 설치해야 하는 번거로움 없이 토스앱 내 토스증권 MTS를 통해 이용할 수 있는 것이 특징이다. 또한, AI 기반의 실시간 해외뉴스 번역 서비스를 통해 신속한 투자 정보를 제공하며 투자자들의 정보 접근성을 높였다. 그밖에 △무료 실시간 시세, △자동 환전을 통한 원화 거래를 지원하며 고객들에게 국내 주식투자와 다름없는 쉽고 간편한 투자 경험을 선사한다는 계획이다.토스증권 윤민정 해외주식 프로덕트 오너(Product Owner)는 "투자자들의 해외 투자에 대한 관심이 높아지고 있지만, 여전히 종목 검색부터 환전, 실제 투자 과정까지 불편한 지점이 많다"며, "토스증권 해외주식 서비스는 고객에게 시장이 열리는 시간대만 달라졌을뿐 국내 주식거래 방식과 차이를 거의 느끼지 못할 혁신적인 투자경험을 제공할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>"규제 풀어야" 스타트업, 이재명 "다 해라, 독점은 안돼"</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004667611?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 국회사진기자단 = 이재명 더불어민주당 대선 후보가 8일 서울 성동구 패스트파이브 서울숲점 라운지에서 열린 '스타트업 정책 토크'에서 참석자들과 기념촬영을 하고 있다. 2021.11.08.이재명 더불어민주당 대선후보가 '네거티브 규제' 방식으로의 변화를 예고했다. 법에서 허용된 사업만 할 수 있는 기존 포지티브 규제와 달리 법에서 금지하는 것 외에는 모두 할 수 있는 규제 방식이다. 다만 기업의 성장이 시장 독점으로 이어지지 않도록 하겠다는 입장도 밝혔다. 특히 정부 지원금 사업에서 부정행위를 저지른 기업은 두 번 다시 신청할 수 없도록 하는 '원스트라이크 아웃' 제도를 적용하겠다고 경고했다. 이 후보는 8일 국내 1700여개 스타트업 단체인 코리아스타트업포럼(코스포)이 주최한 '스타트업 정책 토크'에 참여해 주요 스타트업 대표들과 간담회를 진행했다. 간담회에는 최성진 코스포 대표, 안성우 직방 대표, 김슬아 컬리(마켓컬리) 대표, 이승건 비바리퍼블리카(토스) 대표, 김형년 두나무 부사장, 김범준 우아한형제들(배달의민족) 대표, 박태훈 왓챠 대표, 이효진 8퍼센트 대표 등이 참석했다. 또 김현숙 맘이랜서 대표, 이경일 솔트룩스 대표, 최예림 에이아이닷엠 대표, 김재원 엘리스 대표, 김희정 째깍악어 대표, 김세영 피에스엑스(서울거래 비상장) 대표 등도 자리했다. ━이재명 "네거티브 규제 방식으로 바꿔야"━[서울=뉴시스] 국회사진기자단 = 이재명 더불어민주당 대선 후보가 8일 서울 성동구 패스트파이브 서울숲점 라운지에서 열린 '스타트업 정책 토크'에서 참석자들과 기념촬영을 하고 있다. 2021.11.08.최성진 대표는 정책 제안에서 스타트업 업계의 건의 사항으로 과감한 규제혁신을 제시했다. 자율규제와 사후 규제로 전면 개편해 글로벌 디지털 경제의 새로운 질서를 선도하는 국가로 거듭나야 한다는 설명이다. 김슬아 대표도 "포지티브 규제를 운영하다보니 특정 사안에 대해 각 기관마다 의견이 다른 경우들이 많다"며 "스타트업은 스피드가 생명인데 여러 곳에 질의하다보면 1년 정도 시간이 가는 경우도 있다. 규제에 대한 전반적인 방향성이 바뀌어야 한다"고 했다. 이재명 후보는 규제개혁에 적극 공감했다. 그는 "금지된 것을 정하고 그 외에는 자유롭게 할 수 있도록 공간을 넓게 열어주는 네거티브 규제 방식으로 바꿀 필요가 있다. 규제 합리화와 혁신이 필요하다"고 했다. 이 후보는 "과거에는 사회 변화의 속도가 느려 관료들이 포지티브 시스템으로 규제해도 큰 문제가 없었다면 지금은 사회변화의 속도가 매우 빨라 행정관료나 공직자들이 예측하기가 어려운 상황"이라고 덧붙였다. ━행정 경직성 해소하는 '원스톱 지원제도' ━(서울=뉴스1) 국회사진취재단 = 이재명 더불어민주당 대선 후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에 참석해 발언을 하고 있다. 2021.11.8/뉴스1  이 후보는 규제혁신과 함께 행정의 경직성을 해소하기 위한 '원스톱 지원제도'의 필요성도 강조했다. 경기도에서 시행 중인 제도로 민원창구의 담당자가 다른 부서로 민원인을 '뺑뺑이' 돌리지 않고 직접 알아보고 해결한 뒤 결과를 알려주는 체계다. 이 후보는 "첫 번째로 민원을 접수하는 창구의 공직자가 관련된 문제를 전부 찾아서 직접 해결해준다. 절차를 아는 사람이 관련 부서와 기관들의 의견을 조회하고 이를 모은 뒤 처리하면 속도도 빠르고 공무원들의 일거리도 줄어든다"고 했다. 이어 "이는 행정조직을 효율적으로 운영하는 방법"이라며 "행정은 결론도 중요하지만 속도도 중요하다. 안 되는 일에 대해선 빨리 안 된다고 해줘야 한다"고 덧붙였다. ━"정부는 기업의 혁신·창의 발휘되도록 하는 역할"━[서울=뉴시스] 국회사진기자단 = 이재명 더불어민주당 대선 후보가 8일 오후 서울 성동구의 한 음식점에서 청년 소셜벤처기업인들과 오찬을 함께하며 대화를 나누고 있다. 2021.11.08.이 후보는 "정부 역할의 핵심은 시장이 제대로 작동하고 혁신과 창의가 제대로 발휘될 수 있도록 자유로운 경쟁 환경과 자유로운 활동의 장을 만들어주는 것"이라며 "이를 위해선 정부의 적극적인 책임 이행이 필요하다"고 했다. 그는 "대공황 시대에 루즈벨트 대통령이 했던 것처럼 국가역할을 강화하고 국가의 책임을 늘려 대대적인 국가투자를 해야 할 시점"이라며 "재정적 지원과 기술개발 지원도 중요하지만 가장 중요한 것은 규제혁신"이라고 거듭 강조했다. 다만 네이버·카카오와 같은 독점적인 구조에 대해선 경계심을 표시했다. 이 후보는 "혁신의 결과로 독점을 이용해 과도한 이익을 추구하면 안 된다. 경제적 가치를 추구하되 사회적 책임도 상응하게 배려해 달라"고 당부했다. 정부 지원금을 노린 기업들의 부정행위에 대해선 '철퇴'를 경고했다. 그는 "고의적으로 규칙을 어겨 부당한 이득을 취한 경우에는 확실하게 다음 기회를 완전히 배제하는게 필요하다. 다시는 꿈도 못 꿀 만큼 강력하게 제재해야 한다"고 했다. [머니투데이 미디어 액셀러레이팅 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>우버·티맵 합친 '우티' 출격…카카오 택시에 도전장</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004992283?sid=105</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>통합 우티 앱 출시국내외에서 동일한 서비스택시 가맹·중개 호출 제공 사전 확정 요금제 도입 가맹택시 연내 1만대까지 확장톰 화이트 우티 대표(오른쪽), 김기년 운영 총괄‘우티(UT)’가 카카오택시 천하에 도전장을 내민다. 우티는 글로벌 기업 우버와 SK텔레콤의 자회사 티맵모빌리티의 합작회사다. ‘우리들의 택시’라는 의미로 기사, 승객, 지역 공동체 간 상생과 발전의 의미를 담았다. 우티는 업계 최강자 카카오모빌리티와 최근 토스에 인수된 ‘타다’에 맞서 택시 플랫폼 경쟁에 본격적으로 돌입한다.‘티맵택시+우버’ 통합앱 출시우티는 1일 온라인 기자간담회를 열고 우버와 티맵택시를 합친 UT 어플리케이션(앱)을 출시한다고 밝혔다. 기존에는 티맵택시 앱이 우티로 제공됐고, 우버의 별도 앱이 존재했다. 이날부터는 두 앱이 통합된다. 국내 UT 앱 이용객은 해외 1만여개의 도시에서도 동일한 서비스를 이용할 수 있고, 외국에서 우버 앱을 사용하던 이용객도 국내에서 우티 서비스를 이용할 수 있다. 톰 화이트 우티 대표는 "티맵의 뛰어난 내비게이션 기술과 전 세계에서 여러 해동안 실제 운행을 통해 증명된 우버의 기술을 결합했다"고 설명했다. 그는 우티와 함께 하길 원하는 전국 택시 기사를 모두 아우르는 오픈 플랫폼이 될 것이라고 자신했다.우티는 택시 중개·호출 서비스와 가맹택시를 운영한다. 가맹택시인 ‘UT 택시’에서는 관계기관의 허가를 받는 대로 사전 확정 요금제를 추가한다. 승객이 입력한 목적지를 바탕으로 앱 상에서 미리 요금을 고지하고 사전에 이용 요금을 확정하는 시스템이다. 승객은 탑승 후 도착 지점에서 실제 이용 금액과 관계없이 탑승 전 안내받은 요금을 지불하면 된다. 다만 교통사고 등 예기치 못한 상황에서는 요금이 재산정될 수 있다. 이밖에도 우티는 택시 합승 서비스인 UT 풀(Pool·가칭), 승객에게 빠른 배차 서비스를 제공하는 UT 플래시(Flash) 등 신규 서비스도 준비 중이다. 수요와 공급에 따라 이용요금을 조정하는 탄력요금제도 추진한다.우티는 가맹택시 운영 계획도 공개했다. 우티는 연내 가맹택시를 1만대까지 확장하고, 내년에는 가맹택시 1만대 이상 추가할 계획이다. 대형 세단 기반의 최상급 서비스 ‘UT 블랙’도 리브랜딩해 승객들을 찾아갈 예정이다. 화이트 대표는 "앞으로 UT는 기사와 고객을 모두 생각하는 다양한 서비스를 선진적으로 선보이며 상생을 기반으로 하는 모빌리티 시장 성장에 기여할 것"이라며 "혁신적인 기술을 구현해 국내뿐만 아니라 한국을 방문하는 해외 이용자들도 만족시키겠다"고 말했다.이어 그는 "한국은 80억달러(약 9조4000억원) 규모로 전 세계적으로 봤을 때 5대 시장 중 하나이기 때문에 매우 중요한 시장"이라면서 "한국 시장에서 택시와 관련된 문제들을 해결할 수 있을 것이라고 믿고있다"고 강조했다.국내 택시호출 3파전그동안 업계 1위 자리를 지켜왔던 카카오모빌리티가 최근 독과점 논란에 휩싸이면서 우티와 타다는 틈새를 노리고 있다. 카카오모빌리티의 택시 호출앱 ‘카카오T’는 가입자가 2800만명에 달하고 택시기사의 90% 이상이 사용하고 있다. 가맹택시 카카오T블루의 경우에도 2분기 기준 2만6000대 규모다. 하지만 카카오모빌리티는 정부·여당을 중심으로 카카오에 대한 규제가 강화되면서 유료 호출서비스인 ‘스마트호출’을 폐지하는 등 최근 몸을 사리고 있는 상황이다.한때 흰색 카니발로 인기를 누렸던 ‘타다’ 역시 재도약을 노리고 있다. ‘타다금지법’이라 불리는 여객자동차운송사업법 개정으로 ‘타다 베이직’은 철수했지만 택시 사업을 확장하면서 반전 기회를 모색하고 있다. 최근에는 금융 플랫폼 토스가 타다 운영사 VCNC를 인수하면서 새로운 시기를 맞았다. 타다는 최대 4100만원 지급 조건으로 기사를 모집하는 등 공격적인 행보를 보이고 있는 상황이다. 타다는 다음달 7인승 대형 차량을 기반으로 한 호출 중개 서비스 ‘타다 넥스트’를 선보인다.업계 관계자는 "우티와 타다가 당장 카카오모빌리티의 벽을 넘기는 힘들지만, 경쟁구도가 형성되는 자체가 카카오가 독점하던 모빌리티 생태계에 긍정적인 영향을 줄 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.11.07.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>정치권서 쏘아올린 주4일제…직장인의 꿈 '놀금' 가능할까</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003148668?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>주4일 근무제를 시행하는 회사가 있다. 교육기업인 에듀윌은 2019년 7월부터 주4일제를 도입했다. 정보기술(IT) 기업에서 지난 2월 에듀윌로 이직했다는 박모(32)씨는 “주4일을 근무하면서 3일을 쉬다 보니 일과 삶이 확실히 분리되는 느낌이다. 업무 복귀했을 때 집중도와 효율이 올라갔다”며 “취미로 헬스를 하는데 평일 낮에 사람 없는 헬스장에 가면 기분이 좋다”고 말했다.      7일 산업통상자원부와 재계 등에 따르면 주 5일과 4일제의 과도기인 '4.5일제'도 확산하는 추세다. 금융기업인 토스는 이달부터 매주 금요일은 오전 근무만 하고 퇴근하는 방식의 4.5일제를 시행한다. 플랫폼 기업인 우아한 형제들과 여기어때는 월요일 오후 1시에 출근하는 형태로 4.5일제를 운영하고 있다.     이재명 더불어민주당 대선 후보가 1일 오전 서울 여의도 국회에서 박병석 국회의장을 예방한 후 취재진의 질문에 답하고 있다. 뉴스1     ━   대선 화두 된 주4일제       여기에 여당과 진보정당의 대선 주자들이 앞다퉈 주4일제 도입 논의에 불을 붙이고 있다. 이재명 더불어민주당 대선 후보는 지난달 27일 언론 인터뷰에서 “인간다운 삶과 노동시간 단축을 위한 주4일 근무제는 언젠가 해야 할 일”이라며 “가급적 빨리 도입하도록 노력해야 한다”고 밝혔다.      지난달 6일 심상정 정의당 대선 후보가 “시대 변화를 반영하지 못 하는 낡은 근로기준법을 폐지하고 전 국민 주4일 근무제를 도입하겠다”고 포문을 연 데 이어 이 후보가 논의를 확대한 모양새였다. 논란이 되자 이 후보는 “지금 공약해서 시행하기에는 아직 이르다”고 선을 그으면서도 “공동 논의주제로 얘기할 때가 왔다”고 덧붙였다. 법정 근로시간을 주 40시간에서 32시간까지 축소하는 내용에 대한 지지 의사는 확실히 밝힌 것이다.     ━   노동시간 OECD 3위      주4일제를 반기는 건 주로 근로자다. 지난 8월 구인·구직 플랫폼인 사람인이 성인 4155명을 대상으로 한 설문조사에서 83.6%가 주4일제에 긍정적이라고 응답했다. 주4일제 도입을 주장하는 이들은 줄어든 근로시간이 노동 생산성을 높인다고 본다. 실제 에듀윌 측은 근무시간이 줄어든 만큼 업무를 하는 동안의 몰입도와 효율성은 올라갔다고 평가하고 있다.      지난해 한국 노동자의 연간 근로시간 평균은 1908시간이다. 지난해 통계가 집계된 36개 경제협력개발기구(OECD) 국가 중 멕시코와 코스타리카에 이어 3번째로 근로 시간이 길었다. OECD 회원국 평균은 1687시간이다. 한국의 시간당 노동생산성은 41.8 달러로, OECD 38개국 중 29번째였다. 노동 효율이 떨어진다는 의미다.       ━   대기업·중소기업 격차…임금 삭감 우려도      반면 현실적인 어려움도 제기된다. 주4일제가 대기업과 중소기업 간 노동 양극화를 심화시킬 것이라는 지적이다. 경기 성남의 50명 규모 가정용품 생산업체 관계자는 “생산라인을 계속 돌려야 하는데 지금도 사람 뽑기가 어렵다. 고용을 늘린다는 게 말은 쉽지만 일할 사람 자체가 없다”며 “숙련도가 높은 직원이 일을 줄이면 현장 피해도 상당하다. 주 52시간 근로제로도 이미 큰 타격”이라고 토로했다. 주 52시간제나 코로나19로 인한 재택근무 활성화 때도 대기업과 달리 중소기업은 도입에 어려움을 겪었다.    주 52시간 근무제가 본격 시행된 2019년 4월 1일 정부세종청사 고용노동부에서 공무원들이 퇴근하고 있다. 뉴스1           노동시간 단축이 임금 삭감으로 이어질 것이라는 우려도 있다. 황경진 중소벤처기업연구원 연구위원이 지난 7월 조사한 결과에 따르면 대형 조선사의 사내 협력사 102곳 중 82.4%는 주 52시간제 시행 이후 근로자 임금 수준이 줄었다고 답했다. 노동시간 감소 등 여파로 지난 7월 기준 ‘투잡’ 이상 근로자 수는 통계 작성 이래 최대인 56만6000명을 기록하기도 했다.       ━   해외 시범 들어갔지만, 일부에 국한      아이슬란드가 2015년부터 주4일제를 시범 운영하고, 최근엔 전체 노동 인구의 86%가 노동시간 감축에 들어가는 등 유럽에서는 일부 국가가 주4일제를 도입하거나 시범 운행에 들어갔다. 하지만 전 세계로 넓혀 보면 아직 미미한 수준이다.       스페인 정부는 올해 초부터 주 32시간제를 3년간 시범 운영하겠다고 밝혔다. 그러나 대상 기업은 200~400개 정도다. 뉴질랜드의 저신다 아던 총리는 지난해 “기업은 주4일제 도입을 고려해야 한다”고 공개적으로 밝히기까지 했다. 그러나 뉴질랜드 내에서도 일부 기업이 정부 지원을 요구하는 데다 찬반 논란이 거세다.      윤동열 건국대 경영학과 교수는 “사업체 규모·업종별로 상황이 다르다. 근로시간은 기업 자율에 맡겨야지 국가가 일괄적으로 개입할 문제가 아니다”며 “근로시간을 줄인다고 모든 회사가 노동생산성이 올라가지도 않는다. 라인을 돌리는 제조업체나 중소기업은 오히려 생산성이 떨어질 것”이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.11.13.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>토스, 전자서명인증사업자 인정</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004738952?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)는, 11일 한국인터넷진흥원(KISA)으로 부터 ‘전자서명인증사업자’로 인정 받았다고 밝혔다. 전자서명인증사업자’는 지난해 6월 전자서명법 개정으로 신설된 자격이다.   기존 공인인증서의 독점적 지위가 사리지고 다양한 인증사업자가 출현함에 따라, 과기정통부와 한국인터넷진흥원은 일정한 운영 요건을 갖춘 사업자를 엄격히 평가하여 ‘전자서명인증사업자’로 지정하고 있다.   특히, 내년 1월 출발하는 ‘마이데이터 서비스’는, 이용자가 각 금융기관에서 본인 신용정보를 조회 할 때 ‘통합인증’ 절차를 두고 있으며, ‘통합인증기관’이 되기 위한 필수 조건으로 ‘전자서명인증사업자’ 지위를 요구하고 있다.   국내 금융 플랫폼 중 가장 많은 2100만 유저를 보유한 토스는 새로운 ‘토스인증서’의 활용 범위가 대폭 확대될 것으로 기대하고 있다.   토스 인증팀 안재균 프로덕트오너(PO)는 “금융, 공공서비스 등 엄격한 본인확인 및 전자서명 절차가 필요한 곳에 토스인증이 활용될 수 있는 기반을 마련했다” 고 설명했다.   토스는 올해 들어 인증 사업에 속도를 내고 있다. 지난 8월에는 방송통신위원회가 지정하는 ‘본인확인기관’에 플랫폼 중 유일하게 선정된 바 있다.   또 이에 앞서 6월에는, 과학기술정보통신부로부터 ‘공인전자문서중계자’지위를 획득했다.   이에따라 토스에서 발급되고 전송되는 주민등록표초본, 납세증명서 등 전자문서는 오프라인 등기와 동일한 효력을 갖는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>해외주식 소수점 거래, 대부분 증권사서 가능</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004738850?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 연내 증권사 20여 곳에서 해외주식의 소수점 거래가 가능해진다.   12일 금융위원회는 정례회의에서 혁신금융심사위원회 안건인 해외주식 소수점 거래안을 통과 시켰다.   해외주식 소수점 거래는 해외 주식을 소수 단위로 거래할 수 있도록 하는 제도다. 금융위가 2019년 혁신금융서비스로 지정했다. 현재는 한국투자증권과 신한금융투자 두 곳만 증권사 2곳에서만 하고 있다.   이번 안건 통과로 미래에셋증권, KB증권, NH투자증권, 삼성증권 등 증권사 20여 곳이 해외주식 소수점거래 서비스 제공할 수 있게 됐다.   토스증권과 카카오페이증권 등 투자매매업 인가를 받지 않은 증권사도 무인가 영업에 해당하지 않도록 추가 특례도 인정했다.   이에 따라 11월 말~12월 초부터는 증권사들이 속속 해외주식 소수점 거래 서비스를 시행하게 될 예정이다.   또 안면인식기술을 활용한 비대면 실명확인 서비스도 가능해진다. 내년 5월 한국투자증권, 6월엔 미래에셋증권이 서비스를 출시한다.   신분증 사진과 고객이 촬영한 얼굴 사진을 대조하는 방식을 비대면 실명 확인 방법 중 한 가지 방법으로 이용할 수 있도록 한 것이다. 그동안은 영상통화가 주로 실명확인 방법으로 사용돼 왔다.   금융위 관계자는 "안면인식기술을 활용해 영상 통화에 익숙하지 않은 고객의 편의를 제고하고, 영상통화를 이용할 수 없는 금융회사 비업무시간에도 계좌개설이 가능할 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>간편한 '토스 인증', DGB생명도 뚫었다… 카카오페이 바짝 추격</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000750057?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>토스가 DGB생명에 인증시스템을 구축하며 카카오페이 추격에 나섰다. 최근 금융사들은 공인인증서 폐지에 따라 민간인증시스템을 속속 도입하는 중이다./사진=머니S 장동규 기자금융 플랫폼 토스를 운영하는 비바리퍼블리카가 DGB생명에 토스 인증서를 구축하는 데 성공했다. 지난 7월 교보생명에 구축한지 3개월 만이다. 토스 인증서를 도입한 국내 보험사는 총 8곳으로 카카오페이와 격차는 기존 5곳에서 4곳으로 줄었다. 현재 카카오페이는 12곳과 거래 중이다. 2일 금융권에 따르면  DGB생명은 모바일 청약 활성화를 위해서 1일 자사 설계사용 모바일 앱 ‘M스마트’에 토스인증 로그인 및 전자서명 서비스를 도입했다. 해당 서비스 도입으로 ‘M스마트’ 앱에 토스인증 로그인 방식이 적용되어 로그인 절차가 간소화되고 토스 전자서명을 통한 모바일 청약이 가능해졌다. 앞서 DGB생명은 지난 9월 토스보험파트너와 가입설계 동의 연동 기능을 오픈했다. 기존에는 가입설계 동의 절차를 위해 고객이 구두 혹은 문자메시지로 주민등록번호 등 민감정보를 설계사에게 공유해야 하는 번거로움이 있었다. 이 기능을 이용하면 설계사는 보험사 청약시스템과 연동한 토스보험파트너 앱을 이용해 가입설계 동의 요청을 보낼 수 있게 되고, 고객이 직접 정보를 입력하고 인증하는 방식으로 동의 절차가 진행되어 가입설계 동의 과정의 편의성과 안전성이 개선된다. 공인인증서 시대가 막을 내리면서 보험사들도 민간인증서 도입에 속속 나서고 있다. 간편한 사용법과 폭넓은 활용도를 앞세운 빅테크 인증서를 통해 온라인 보험 판매 확대를 이루겠다는 것이다. 토스인증서는 금융기관의 상품 가입이나 공공 서비스 이용시 토스 앱에서 사용자 본인을 간편하게 인증할 수 있는 서비스다. 토스는 올 들어 인증사업 강화를 위해 인증 영업 파트너사를 한국전자인증, KG이니시스, 위즈베라, 라온SNC, 한컴위드, 드림시큐리티, 이니텍 등 7곳으로 확대했다. 토스인증서는 앱에서 지문 인식, 핀 번호 입력으로 본인 인증을 간편하게 할 수 있다. 토스인증서는 삼성화재·KB생명·하나손해보험 등에서 활용되고 있다. 다만, 각사마다 홈페이지 로그인, 보험가입, 대출 등 민간인증서의 활용범위가 달라 꼼꼼한 확인이 필요하다. 카카오는 카카오페이를 통해 인증 서비스를 제공하고 있으며 따로 앱을 설치할 필요 없이 카카오톡과 연계해 이용할 수 있어 편리하다. 카카오페이 인증서가 활용되는 곳은 삼성생명, 교보생명, 한화생명, 미래에셋생명, 흥국생명, 푸르덴셜생명, ABL생명, 오렌지라이프, 라이나생명, 삼성화재, 현대해상, 한화손해보험 등에서 사용하고 있다. 토스 관계자는 “토스 플랫폼에서 간단히 인증이 이뤄지기에 코로나19 이후 비대면 영업을 강화하고 있는 금융권에서 새로운 사업기회와 고객 경험을 기대할 수 있는 서비스”라며 “이용자 중 20~30대가 약 70%에 달해, 젊은 사용자 분포를 갖는 것도 특징”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[최선을의 말랑경제] ‘무조건 2%’ 파킹통장 전쟁</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003226899?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>아이클릭아트 제공30대 직장인 A씨는 최근 카카오뱅크 ‘세이프박스’에 넣어뒀던 200만원을 토스뱅크 통장으로 옮겼다. ‘무조건 연 2%’라는 파격적인 금리에 망설임 없이 갈아탔고, 앞으로도 여윳돈이 생기면 토스뱅크에 넣어 둘 생각이다. A씨는 “기존 시중은행의 입출금통장은 이율이 너무 낮아 통장에 돈이 조금이라도 쌓이면 세이프박스로 옮기곤 했다”며 “이번에 훨씬 더 유리한 조건의 통장이 생겨 기쁘다”고 말했다. 그는 “간편하게 이체한 뒤 쌓아 두기만 해도 예금처럼 이자가 쌓이니 큰 금액은 아니더라도 쏠쏠하다”며 “이게 인터넷은행의 장점인 것 같다”며 웃었다.지난달 토스뱅크 출범 이후 인터넷 전문은행 사이 ‘파킹통장’ 전쟁이 벌어지고 있다. 토스뱅크가 가입금액·기간에 상관없이 연 2%의 파격 금리를 내세우자 카카오뱅크와 케이뱅크도 잇따라 파킹통장 금리를 인상하고 한도를 늘리는 등 ‘고객 지키기’에 나섰다.파킹통장이란 하루만 맡겨도 비교적 높은 금리를 받을 수 있는 수시입출금식 통장을 말한다. 잠깐 주차하듯 목돈을 짧은 기간 넣어 둬야 할 때, 아직 투자할 금융상품을 결정하지 못했을 때 묻어 두기 좋다. 정기 예·적금과 달리 정해진 기간이 없어서 언제든 돈을 넣고 뺄 수 있는 게 장점이다.토스뱅크는 다른 예·적금 상품 없이 연 2%의 금리를 주는 수시입출금 통장 하나를 내세우고 있다. 같은 인터넷은행인 카카오뱅크의 정기예금 금리가 연 1.5%, 적금 금리가 연 1.8%인 것과 비교하면 하루만 맡겨도 연 2%를 주는 통장은 그야말로 ‘파격’인 셈이다. 정해진 만기가 없고, 한도 제한 없이 자유로운 입출금이 가능하다. 매일의 이자를 계산해 매달 세 번째 주 토요일에 지급하는 방식이다.토스뱅크 통장이 좋은 반응을 얻자 다른 인터넷은행들도 바빠졌다. 케이뱅크는 이달부터 파킹통장 ‘플러스박스’의 기본금리를 연 0.5%에서 연 0.8%로 0.3% 포인트 인상했다. 지난 7월 플러스박스의 한도를 1억원에서 3억원으로 대폭 늘린 데 이어 또다시 혜택을 강화한 것이다. 용도별로 최대 10개까지 ‘통장 쪼개기’도 가능하다.카카오뱅크도 지난달 파킹통장 ‘세이프박스’의 한도를 기존 1000만원에서 최대 1억원으로 확대했다. 카카오뱅크는 “세이프박스 이용 확대를 위한 노력의 일환으로 최대한도를 업그레이드했다”고 설명했다. 지난 9월엔 세이프박스의 기본금리를 연 0.5%에서 연 0.8%로 상향 조정하기도 했다.보통 시중은행의 수시입출금 통장은 기본 이율이 연 0.1%에 그친다. 우대 금리를 더 주더라도 급여 이체 등 조건이 붙거나, 한도가 수백만원에 그치는 경우가 많다. 인터넷은행들의 파킹통장 경쟁은 소비자 입장에선 반가운 일이다. 이제 막 출범한 토스뱅크의 ‘홍보 전략’이란 분석도 나오는 가운데, 조건 없는 연 2% 파킹통장이 지속될 수 있을지 주목된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>고신용자 대출 막은 ‘인뱅’, 중저신용자 대출 늘리기 안간힘</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001911805?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>금리 낮추고 이자지원상품 가입도 중신용자만 가능[헤럴드경제=박자연 기자] 카카오뱅크, 케이뱅크 등 인터넷 전문은행들이 중저신용자 고객 확보에 열을 올리고 있다. 올해 각 사가 제시한 중저신용자 대출 목표치를 채워야 하기 때문인데, 고신용자 대상 대출을 막고 중저신용고객의 대출 이자 지원책을 내놔도 좀처럼 고객 비중이 늘지 않고 있다.케이뱅크는 11일 중저신용자 대상 신용대출 플러스 상품 금리를 최대 3.27%포인트(p) 인하한다고 밝혔다. 카카오뱅크 역시 지난 5월부터 중저신용자 대상 대출상품 금리를 최대 1.2%p 내렸다. 이와 함께 두 인터넷전문은행은 연말까지 중저신용자 대상 대출 이자 지원 이벤트를 진행 중이다.반면 대출 목표치를 맞추기 위해 고신용자 대상 대출은 중단되거나 조건이 악화됐다. 중저신용자 비중을 빠르게 늘리기 위해서는 중저신용자 고객 확보도 중요하지만 고신용 고객이 줄어야 한다. 이에 카카오뱅크와 케이뱅크는 고신용자 대상 마이너스통장 신규 발급을 중단했고, 케이뱅크는 11일부터 고신용자 신용대출 금리를 소폭 인상했다. 카카오뱅크는 고신용자 신용대출을 연말까지 취급하지 않는다. 카카오뱅크는 지난달 중단했던 직장인 사잇돌대출도 12일을 기점으로 중저신용자에게만 열어뒀다.인터넷전문은행들이 파격 마케팅과 상품 가입 조절이라는 강수를 두는 이유는 중저신용자 비중 늘리기가 쉽지 않아서다. 특히 케이뱅크는 1분기에 비해 2분기 중저신용자 비중이 줄어 난감한 상황이다. 케이뱅크 중저신용자 대출 비중은 1분기 18.2%에서 2분기 15.5%로 낮아졌는데, 3분기에 더 낮아질 가능성이 커졌다. 3분기부터 시중은행들이 대출 조이면서 발생한 고신용자 대출 수요가 대출 가능 케이뱅크로 상당 부분 이동했다는 분석이 나오기 때문이다. 케이뱅크 여신 잔액은 6월말 5조900억원에서 9월말 6조1800억원으로 1조900억원 가량 늘었다.은행권 안팎에서는 인터넷전문은행들이 출범 초기부터 중저신용자 비중 고려를 하지 않아, 목표치 맞추기가 사실상 불가능하다는 의견도 나온다. 고신용자 상품의 경우 신규 취급만 중단했지 연장 등은 유효해 중저신용자 비중을 올리는데 어려움이 있다. 실제 카카오뱅크는 2분기부터 중저신용자 대상 공격적 프로모션을 진행했음에도 중저신용자 비중이 크게 늘지 않았다. 카카오뱅크의 중저신용자 대출 비중은 3분기말 기준 13.4%로 1분기 대비 3.4%p 올랐다.개점 초기부터 중저신용자 대출 비중을 신경쓴 토스뱅크는 상황이 나은 편이다. 영업 중단된 지난달 14일 기준 중저신용자 대출 비중 28.2%로 3대 인터넷은행 중 가장 높다. 당국에 제시한 중금리 목표치(34.9%)는 못채웠지만 대출 총량(5000억원) 한계를 감안하면 선전했다는 평이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>케뱅·카뱅·토뱅, 중·저신용자 대출 목표 비중 맞추려 안간힘</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000115377?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행들이 중금리대출 확대에 힘쓰고 있지만 연말까지 금융당국에 제출한 목표치를 달성하기는 어려울 것으로 보인다. /더팩트 DB인터넷은행 3사 모두 대출 비중 목표치 미달 케이뱅크·카카오뱅크·토스뱅크 등 인터넷 전문은행들이 중·저신용자 대상 신용대출 비중을 높이기 위해 안간힘을 쓰고 있다. 고강도 가계대출 총량 관리 영향으로 금융당국에 목표치로 제출한 중금리대출 확대 계획 달성 여부가 불투명하기 때문이다.10일 금융권에 따르면 카카오뱅크의 올해 3분기 말 기준 중·저신용자 신용대출 비중은 13.4%인 것으로 나타났다. 올해 1분기 10.0에서 2분기 10.6%로 소폭 늘어난 것과 비교하면 3분기 말 큰 폭으로 늘어난 셈이다. 다만, 연말 목표치인 20.8%에는 턱없이 부족한 수준이다.연말까지 21.5%까지 중·저신용자 신용대출 비중을 늘려야 하는 케이뱅크 역시 발등에 불이 떨어졌다. 케이뱅크의 중·저신용자 신용대출 비중은 1분기 18.2%에서 2분기 15.5%로 낮아졌다.지난 10월 출범한 토스뱅크는 아예 대출 문을 닫은 상태다. 문을 연 지 열흘 만에 금융당국에서 할당받은 대출 총량 한도 5000억 원을 모두 소진했기 때문이다. 토스뱅크의 중금리대출 비중은 33%로 여타 은행들에 비해 높았지만, 34.9%의 목표치는 넘지 못했다.앞서 금융당국은 인터넷은행들에 중금리대출 비중 확대를 주문한 바 있다. 당국은 인터넷은행이 설립 취지와 달리 고신용층 위주의 영업을 운영하고 있다고 지적했다.이에 인터넷은행들은 △카카오뱅크 20.8% △케이뱅크 21.5% △토스뱅크 34.9% 등 중금리대출 비중 목표치를 당국에 제출했다.금융당국은 인터넷은행을 대상으로 설립취지에 맞게 중저신용자들을 위한 중금리 대출시장을 확대하라고 주문한 바 있다. /더팩트 DB이에 따라 인터넷은행들은 중금리대출을 확대하기 위해 사력을 다하는 중이다.카카오뱅크는 전·월세 대출을 제외하고 고신용자 대출을 사실상 중단했고, 케이뱅크 역시 지난 6일부터 고신용자를 대상으로 한 마이너스 통장의 신규 증액 신청을 연말까지 중단했다.그러나 연말까지 목표치를 달성하기는 어려우리라는 것이 업계의 중론이다. 가계대출 증가율 5~6%에 맞춰야 하는 시중은행보다는 여유 있는 한도를 적용받고 있지만, 무작정 늘릴 수 없기 때문이다.한 인터넷은행 관계자는 "가계대출 총량 관리 등 외부적 요인 영향을 무시할 수 없다"며 "이러한 점을 당국에서 고려해주면 좋겠다"고 말했다. 이어 "앞으로도 중저신용자들을 위한 중금리대출 확대에 주력할 것"이라고 덧붙였다.또 다른 관계자도 "최근 고신용자 대출을 사실상 중단하는 등 강한 드라이브를 걸고 있지만, 연말까지 목표치를 달성하기는 쉽지 않을 것으로 보인다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>내년 이후 주담대 받으려면 신용대출·마이너스 통장 확 줄여야</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004623161?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2억 넘는 대출 年 원리금 상환年 소득의 40% 넘을 수 없어 마통은 실제 대출액 아닌한도 기준으로 DSR 반영 안쓰는 마통은 없애는 게 유리Getty Images Bank정부의 강도 높은 가계부채 관리에 ‘대출 한파’가 매서워지고 있다. 연말까지 대출을 아예 중단하는 은행이 속출했고 그나마 대출을 내주는 은행들도 한도를 대폭 줄이거나 금리를 올리는 방식으로 대출 문을 더 좁히고 있다. 금융당국이 묶어둔 대출 총량 증가율에 맞추기 위해 은행들이 만기 연장 때 한도를 감액하고 중도상환 수수료를 면제하는 등 대출 잔액 줄이기에 안간힘을 쓰는 풍경도 나타나는 모양새다.이런 대출 한파는 내년에도 지속될 가능성이 높다. 금융당국은 내년 은행 가계대출 증가율 관리 목표를 올해(6%대)보다 낮은 4~5%대로 잡고 차주별 대출 한도를 연소득에 따라 제한하는 총부채원리금상환비율(DSR) 규제를 대폭 확대하기로 했다. 금융회사가 연초부터 분기별로 대출 한도를 나눠 공급하도록 하겠다는 계획도 밝혔다. 연말에 갑작스럽게 대출이 중단되는 사태가 없도록 하겠다는 취지지만, 소비자는 분기별로 책정되는 한도가 소진되기 전에 대출을 신청해야 한다는 불안감이 들 수밖에 없다. 매달 초 은행에 달려가는 ‘대출 런(run)’이 필요하다는 걱정도 나온다. 한 시중은행 관계자는 “본인의 대출 가능 금액을 사전에 정확하게 파악하고 대출이 필요한 시점보다 여유를 두고 신청해야 한다”며 “‘만약’에 대비하려는 대출은 앞으로 어려워질 것”이라고 말했다. ○‘대출 중단’ 은행 속출Getty Images BankSC제일은행은 최근 주택담보대출 상품인 ‘퍼스트홈론’ 판매를 전면 중단했다. 앞서 금융채 1년물과 3년물을 지표금리로 하는 변동금리 상품 취급을 중단한 데 이어 10월 29일부터는 금융채 5년물 연동 상품도 취급을 멈췄다. 정책 모기지인 보금자리론과 총량 관리에서 제외된 전세대출 상품만 정상 공급하고 있다.주요 은행이 주택담보대출을 중단하는 것은 농협은행, 하나은행에 이어 이번이 세 번째다. 하나은행은 지난달 20일부터 주택과 상가, 오피스텔, 토지 등 구입자금 목적의 가계 부동산 담보대출을 모두 중단했다. 대출을 중단하지 않은 은행들도 월별·지점별로 취급할 수 있는 대출 한도를 제한하고 있다. 한 시중은행 창구 직원은 “영업일 1~2일이면 소진될 물량만 배정되고 있어 미리 신청을 받아놓은 대출조차 다 취급하기 어려운 실정”이라고 말했다.신용대출 문턱도 빠르게 높아지고 있다. 대부분 은행은 신용대출 한도를 연소득 이내로, 마이너스통장은 최대 5000만원으로 일찌감치 축소했고 농협은행은 11월부터 이를 2000만원으로 또 줄이기로 했다. 신용대출을 아예 중단한 은행도 하나은행과 카카오뱅크, 토스뱅크 세 곳에 이른다.그나마 전세대출은 총량 관리에서 제외되면서 숨통이 트였다. 하지만 실수요 자금을 가려내기 위한 은행들의 관리는 더 빡빡해졌다. 11월부터 국내 모든 은행은 전세 계약을 갱신하는 세입자에 대해 전체 보증금의 80%까지 가능했던 전세대출 한도를 ‘보증금 상승분 이내’로 제한한다. 잔금일 이후 전세대출은 원천 금지되고 1주택자는 은행 창구를 통해서만 전세대출을 신청할 수 있다. ○내년에도 대출 한파 계속될 듯전문가들은 총량 규제와 차주별 DSR 규제 확대가 동시에 시행되는 내년에도 대출 사정이 풀리기는 어려울 것으로 보고 있다. 당초 일부 수요자 사이에선 은행별 대출 총량 한도가 ‘리셋’되는 내년에는 대출받기가 쉬워질 것이란 기대가 있었다. A은행 관계자는 “현재 금융당국의 정책 방향은 ‘가계대출 관리를 상시화하겠다’는 것”이라며 “막연하게 기다리기보다는 은행 상담을 통해 자신의 대출 가능 금액을 정확히 파악하고 사전에 자금계획을 세우는 게 바람직하다”고 조언했다.내년 이후 주택담보대출을 받으려는 수요자는 신용대출과 마이너스통장은 가급적 줄이는 것이 유리하다. 내년 1월부터 주택담보대출이나 신용대출 등을 합쳐 2억원이 넘는 신규 대출은 연간 원리금 상환액이 연소득의 40%(은행 대출 기준)를 넘을 수 없다. 특히 이 DSR 규제 아래에서는 신용대출이 전체 한도에서 차지하는 비중이 커지기 때문에 중·저소득자의 경우 신용대출이 많을수록 주택담보대출 가능 금액이 줄어든다. B은행 관계자는 “마이너스통장이 있는 상태에서 주택 구입을 고려하고 있다면 현 상태에서 주택담보대출 가능 금액을 확인해보고, 만약 담보인정비율(LTV)에 못 미친다면 마이너스통장 한도를 줄여 주택담보대출 한도를 늘려야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>대출규제로 가계부채 증가세 둔화...10월 6.1조원 ↑</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004668519?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>자료=금융위, 금감원정부의 강도 높은 대출 죄기로 지난달 가계대출 증가세가 둔화한 것으로 나타났다. 전세대출 등 주택담보대출(이하 주담대)은 물론 신용대출 증가 속도도 안정세에 접어들었다. 다만 이 과정에서 실수요자가 피해를 입고, 금리가 역전되는 등 부작용이 발생하면서 금융당국으로선 시장질서 회복이 새로운 과제로 등장했다.금융위원회와 금융감독원이 11일 발표한 '10월 가계대출 동향'에 따르면 지난달 전 금융권 가계대출은 6조1000억원 늘었다. 3분기 월별 평균 증가액 약 10조5700억원에 비하면 증가 속도가 둔화했다. 3분기 중 가계대출 증가액은 △7월 15조3000억원 △8월 8조6000억원 △9월 7조8000억원을 기록한 바 있다.우선 은행권과 제2금융권 모두 주담대 증가폭이 다소 줄었다. 지난달 전 금융권 주담대는 5조3000억원 증가해 9월 증가분(6조7000억원)보다 1조4000억원 감소했다. 은행권이 5조6000억원에서 4조7000억원으로, 제2금융권이 1조1000억원에서 6000억원으로 각각 주담대 증가액이 줄어든 결과다.올해 들어 급증세를 이어가던 전세대출 증가세도 완화했다. 지난달 은행의 전세대출 증가액은 2조2000억원으로 집계됐다. 9월(2조5000억원)보다 증가폭이 축소됐다. 10월 전세대출 증가액은 작년(3조원), 재작년(2조7000억원) 등 예년과 비교해도 감소한 것으로 나타났다.금융당국의 주요 타깃인 신용대출도 증가세가 주춤했다. 지난달 전금융권 신용대출은 9000억원 늘어 전달(7000억원)에 이어 안정적인 흐름을 이어갔다. 작년 10월 4조원에 비하면 크게 줄어든 수준이다. 그나마 늘어난 9000억원 중 대부분도 지난달 영업을 개시한 토스뱅크(5000억원) 몫이었다.금융위 관계자는 "가계대출이 7월을 정점으로 증가세가 점차 둔화되는 등 안정세를 점차 찾아가고 있는 추세"라고 설명했다.이처럼 가계대출 증가세가 둔화한 건 정부의 계속된 규제로 금융권이 초유의 조치를 연이어 내놓았기 때문이다. 은행 등 금융회사들은 금융당국의 가계대출 관리가 본격화 한 지난 9월부터 신용대출 한도를 연소득 이내로, 마이너스통장 한도는 5000만원으로 대폭 줄였다. 여기에 일부 은행들은 특정대출을 아예 취급하지 않는 사태도 벌어졌다.다만 이 과정에서 실수요자의 피해도 적지 않게 발생했다. 은행 대출창구가 닫히면서 2금융권으로 가야 하는 '풍선효과'는 물론이고, 집을 담보로 삼는 주담대 금리가 신용대출 금리보다 높거나 고신용자가 중·저신용자보다 대출을 받기 어려워지는 기현상이 잇따라 벌어진 것이다.금융권 관계자는 "불요불급한 대출은 줄이라는 명분 아래 가산금리를 올리고, 우대금리는 축소하면서 곳곳에서 '금리 역전' 현상이 벌어지고 있다"며 "금리라는 게 시장에서 결정되는 것은 맞지만, 현 상황은 정부의 가계대출 옥죄기에 따라 발생했기 때문에 금융당국 입장에서도 고민이 클 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[트랜D] 은행의 새로운 미래, 인터넷 전문은행</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003147383?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>최근 높은 예금 이자율과 대출 상품을 선보이며 국내 세 번째 인터넷 전문은행 토스뱅크가 문을 열었습니다. 카카오뱅크와 케이뱅크에 이어 토스뱅크까지 등장하며 이제 인터넷 전문은행은 본격적으로 기존 은행과의 경쟁을 시작했습니다.       인터넷 전문은행은 간편한 사용법과 기능 덕분에 많은 사용자를 확보하고 있습니다. 카카오뱅크는 월간 사용자가 1,600만 명이 넘고, 최근 출범한 토스뱅크는 보름 만에 170만 명 이상의 사용자를 확보했습니다.       인터넷 전문은행은 여러 경쟁 우위 요소와 다양한 서비스를 지속해서 선보이면서 새로운 금융의 청사진을 제시하기 시작했습니다. 인터넷 전문은행은 인터넷, IT 발달과 더불어 해외에서 먼저 탄생했습니다. 해외 인터넷 전문은행은 어떠한 특징을 갖고 있을까요?        인터넷 전문은행의 시작      인터넷 전문은행이 생겨난 당시 인터넷이 대표적인 채널이라 붙여진 명칭입니다. 최근에는 모바일, 디지털 전문은행으로 부르기도 합니다. 인터넷 전문은행은 1990년대 미국에서 처음 도입됐습니다. 이후 미국과 유럽을 중심으로 많은 국가에서 다양한 형태로 설립되기 시작했습니다.       해외 인터넷 전문은행은 여러 산업 분야의 기업이 출자해 설립된 형태가 많습니다. 은행, 신용카드사와 같은 금융 기업이 설립한 인터넷 전문은행이 있고, GM과 BMW와 같이 자동차 제조 기업이 설립한 인터넷 전문은행도 있습니다. 중국의 경우 텐센트와 알리바바와 같은 대형 IT(정보통신기술) 기업이 설립한 인터넷 전문은행이 대표적입니다. 이러한 인터넷 전문은행은 대부분 출자한 모회사의 상품 판매와 연계된 여신 업무, 결제 서비스 등을 주력 서비스로 제공하고 있습니다.       미국, 유럽 등지에서 수많은 새로운 인터넷 전문은행이 등장했지만, 20년이 지나면서 많은 은행이 폐업했습니다. 폐업한 인터넷 전문은행 대부분은 기존 은행과 차별화된 서비스를 제공하지 못했습니다. 일반적인 은행 업무로는 경쟁력을 갖추지 못한 것입니다. 살아남은 인터넷 전문은행들은 증권, 자동차, 유통 등 다른 산업과의 연계 서비스를 내놓으면서 고객을 유치하는 데 성공했습니다.       인터넷 전문은행으로의 경쟁력을 확보하기 위해서는 새로운 금융 상품이나 기존에 제공하지 않았던 새로운 서비스가 필요합니다. 많은 은행이 벤치마킹 대상으로 삼는 독일의 피도르(Fidor) 은행이나 싱가포르 개발은행(DBS)의 디지뱅크는 확실한 차별화 전략으로 경쟁력을 확보했습니다.       인터넷 전문은행 '토스뱅크'. 연합뉴스       커뮤니티 중심의 새로운 은행        독일의 피도르 은행은 커뮤니티 기반의 인터넷 뱅킹 전략을 구사합니다. 먼저 피도르 은행은 여러 협력사를 통해 다양한 금융 서비스를 제공하면서 차별화 기반을 닦았습니다. 일반적인 은행 업무 외에 P2P(개인간)대출, 크라우드 펀딩, 주식, 귀금속 거래 등 다양한 서비스를 선보였습니다. 이와 동시에 고객 중심의 커뮤니티를 구축했습니다.     온라인 커뮤니티에서 고객이 참여할 수 있는 프로그램을 운영합니다. 트위터, 페이스북, 유튜브 등 각종 소셜 미디어를 활용합니다. 소셜 미디어에서 게시물의 '좋아요' 수가 일정 수준에 도달하면 저축예금의 이자가 올라갑니다. 이 과정에서 고객이 직접 이자율 결정에 참여합니다. 유튜브 및 소셜 미디어에서 진행하는 각종 이벤트에 참여할 경우 참여도와 기여도에 따라 별도의 보상을 제공하는 등 고객 커뮤니티의 활성화를 추구합니다.     싱가포르 개발은행(DBS)은 일반 은행이지만 디지털 혁신을 추진하면서 인터넷 전문은행을 설립했습니다. 이 과정에서 기존 금융 서비스가 아닌 비금융 생활 플랫폼을 구축했습니다. DBS 마켓플레이스라는 플랫폼을 통해 수백 개 기업과 제휴를 맺어 주택, 자동차, 여행, 교육 등의 서비스를 제공합니다. 주택 구매 과정에서 필요한 금융 서비스를 비롯해 중고차 판매와 항공권 구매 및 여행 보험 가입 등의 서비스를 사용할 수 있습니다.       소상공인을 위한 B2B 서비스는 물론 음식 배달 결제와 같은 B2C 서비스로 확장하고 있습니다. 비금융 서비스를 제공하면서 기존 금융 서비스와 접점을 만들었습니다. 이 과정에서 클라우드 시스템을 활용하고 오픈 API 정책, 모바일 앱 전용 서비스 제공 등을 통해 은행의 디지털 전환 성공 사례를 만들어가고 있습니다.        싱가포르개발은행의 '마켓플레이스'. [사진=싱가포르개발은행]       카카오뱅크와 토스뱅크 등 국내 인터넷 전문은행은 낮은 수수료, 모바일 앱의 편리한 UX(사용자경험) 등을 차별화 전략으로 내세우며 기존 은행과 경쟁하고 있습니다. 최근 토스는 사용자가 앱에 더 많은 시간을 머물며 커뮤니티 활성화로 이루어질 수 있도록 모바일 앱에 오픈 채팅방 기능을 새로 추가했습니다.       이제는 금융 서비스를 제공하는 것만으로는 부족합니다. 일반 시중은행도 인터넷 전문은행을 설립해 새로운 변화를 시도하려고 합니다. 비금융 서비스 전용 서비스를 개발하거나 플랫폼을 구축하려는 움직임은 이미 진행 중입니다. 기존 고객이 플랫폼을 통해 다양한 라이프스타일 서비스와 온, 오프라인 연계 서비스를 이용할 수 있도록 은행 자체 생태계를 만들어가는 혁신의 속도는 더욱 빨라질 전망입니다.          윤준탁 에이블랩스 대표        윤준탁 에이블랩스 대표는 SK플래닛, 한국IBM 등에서 근무했다. 뉴욕대학교에서 기술경영 석사를 취득했다. 1인 컨설팅 기업인 에이블랩스의 대표를 맡고 있다. 인공지능·블록체인 등에 관심이 많고, 디지털 경제와 산업에 대한 3권의 책을 펴냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 숨은 내 돈 찾기, 이렇게 쉬웠어?</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002704178?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>인공지능 세금신고서비스 '삼쩜삼' 인기절차 간소화로 3분이면 예상환급액 확인누적환급 1년4개월 만에 1500억원 돌파　카카오뱅크앱은 휴면예금·보험금 찾아줘총 67만건 지급, 100만원 이상만 2077명자비스앤빌런즈 제공    대출 규제가 본격화되고 국내 증시도 박스권에 갇혀 침울한 요즘, 목돈이든 용돈이든 '꽁돈'이 생기길 바라게 되는 시기다. 이런 상황에서 '잃어버렸던 내 돈'을 손쉽게 찾을 수 있게 도와주는 핀테크 서비스들이 등장했다. 최근 가입자를 끌어 모으고 있는 자비스앤빌런스의 '삼쩜삼'과 카카오뱅크의 '휴면예금·보험금 찾기' 서비스다. 두 서비스는 출시 직후부터 이용자가 급증하며 인기몰이 중이다. ◇이미 낸 세금을 돌려준다? 환급액 확인까지 3분 걸리는 '삼쩜삼'= 자비스앤빌런즈는 사업자가 사업에 집중할 수 있도록 번거롭고 복잡한 세무관리를 각 분야의 전문가와 IT 시스템을 통해 든든하게 지원하겠다는 비전을 가지고 설립된 인공지능(AI) 세무회계 플랫폼 스타트업이다.자비스앤빌런즈는 'You work, We help'라는 슬로건 아래, 인공지능경리 '자비스'와 개인 종합소득세 신고를 도와주는 '삼쩜삼' 서비스를 제공 중이다.지난해 5월 출시된 인공지능 세금신고 서비스 '삼쩜삼'은 세무신고부터 환급까지 모든 과정을 온라인으로 누릴 수 있는 서비스다. 매달 자체 기록을 경신하며 급성장세로 주목받고 있는 삼쩜삼은 지난 9월 기준 가입자 500만명을 달성했다. 같은 기간 누적환급액은 1500억원을 돌파했다. '삼쩜삼'은 아르바이트, 프리랜서, 배달기사, 크리에이터, 플랫폼 노동자 등 독립노동자(특수고용노동자)들을 위한 간편 종합소득세 신고 서비스다. 직접 신고하기에는 세무를 잘 몰라 부담스럽고, 그렇다고 전문 세무 업체에 업무를 맡기기에는 소액 규모로 수지가 맞지 않는 금융 사각지대 사람들에게 단비 같은 서비스로 자리매김하고 있다.삼쩜삼에서는 종합소득세 신고 기간은 물론, 기한 후 신고 기간에도 이용이 가능하다. 최대 5년 전 내역(2015년~2019년)까지 신고할 수 있는 점이 주목된다. 기한 후 신고란 법정신고기한이 경과한 후 과세표준신고서를 제출하는 것을 뜻한다. 신고 및 납부일자가 늦춰질수록 물어야 하는 가산세가 불어나는 만큼 빠른 조치가 필요하다.삼쩜삼은 휴대폰번호 및 홈택스 아이디 로그인만으로 세금환급 예상 금액을 미리 알려주고, 종합소득세 신고를 통해 세금 환급까지 원스톱으로 받을 수 있도록 한다. 세금 환급은 3개월 이내에 완료되며 신고 수수료는 1000원부터 수입 금액에 따라 적용된다. 사업소득만 있는 경우 수임동의 완료 후 빠르면 당일, 늦어도 최대 3일 이내로 결과를 받아볼 수 있다. 4대보험이 가입된 근로소득이 있거나 연말정산 소득 등 추가 검토가 필요한 경우에는 기간이 더 소요될 수 있다.기자의 경우 모바일을 통해 세금환급 서비스를 진행했다. 먼저 휴대폰 번호를 입력하고 환급액 조회하기를 누른 뒤 카카오톡계정에 연결해 로그인한다. 카카오톡 간편인증 후 서비스 이용에 동의하면 삼쩜삼이 최근 5년간 총 소득과 최근 5년간 납부한 세금, 환급 대상 연도 및 예상 금액 등을 알려준다. 예상 환급 금액 조회까지는 무료로 진행된다. 이후 카드나 토스를 통해 수수료를 결제하면 실제 환급 절차가 이뤄진다. 신청 직후 예상 환급액과 납부한 수수료 등 내용과 함께 신청이 정상적으로 접수되었다는 카카오톡 알림 메시지가 날아왔다. 기자는 2016연도 세금 8만8800원을 환급받게 됐다. 수수료 1만7000원을 제외한 금액이다. 실제 환급까지는 2주에서 최대 3개월의 기간이 예상된다.◇'잠자는 돈 1조' 휴면예금 찾아주는 카카오뱅크= 카카오뱅크는 지난 7월 21일 서민금융진흥원과 손잡고 휴면예금과 휴면보험금을 카카오뱅크 모바일 애플리케이션에서 조회하고 찾을 수 있는 서비스를 출시했다. '휴면예금·보험금 찾기' 서비스는 카카오뱅크 계좌 개설 고객은 누구나 이용할 수 있다. 서비스를 통해 한번에 휴면예금은 물론이고 휴면보험금까지 간편하게 조회하고 신청할 수 있다.휴면예금과 휴면보험금 조회 서비스 이용시간은 24시간이며, 지급 신청은 평일 새벽 1시부터 23시까지이다. 지급 신청된 휴면예금과 휴면보험금은 고객의 카카오뱅크 계좌로 입금된다. 카카오뱅크를 통한 '휴면예금·보험금 찾기'는 서민금융진흥원이 관리하는 휴면예금과 휴면보험금만 가능하다.지난해 말 기준 서민금융진흥원이 관리하고 있는 휴면예금과 휴면보험금은 약 1조원에 달했다. 예금은 5년 이상, 보험금은 3년 이상 거래가 없는 경우 휴면 상태로 바뀐다. 카카오뱅크 관계자는 "고객들이 잊고 있던 휴면예금과 휴면보험금을 카카오뱅크 앱에서 편리하게 찾을 수 있도록 하는 데 서비스 주안점을 뒀다"고 말했다.카카오뱅크의 '휴면예금·보험금 찾기' 서비스는 출시 40여일 만인 지난 9월 3일 200만명이 조회했다. 이용자들이 카카오뱅크 앱을 통해 찾아간 휴면예금과 휴면보험금을 찾아간 금액은 지난 9월 2일 기준 총 146억원이며, 지급건수는 총 67만 건이다. 최고 지급 금액은 992만원이며, 1인당 평균 3만2462원의 휴면예금과 휴면보험금을 찾아갔다. 100만원 이상 고액을 찾아간 고객은 2077명이다. 연령대별 지급비중은 40대 이상 중장년층이 66.2%로 가장 높았다. 이외 30대가 26.1%, 20대 이하가 7.7% 차지했다. 휴면예금·보험금 찾기 서비스. 카카오뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>"계좌 개설하고 테슬라 주식 받자" …토스증권, '해외주식 1주 선물받기' 이벤트 진행</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003801452?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>토스증권은 '해외주식 1주 선물받기' 이벤트를 이 달 말까지 진행한다고 12일 밝혔다.'해외주식 1주 선물받기'는 해외주식 서비스 오픈을 앞두고 진행하는 이벤트다. 토스증권에 처음 계좌를 개설하는 고객을 대상으로 테슬라, 마이크로소프트, 나이키 등 미국주식 종목 20개를 무작위 추첨해 지급한다. 이벤트 종목은 업종, 주가, 거래량 등을 고려해 선정했다. 이번 이벤트는 신규 고객 뿐만 아니라 기존 고객도 참여할 수 있다. 초대 링크를 통해 친구가 계좌를 개설하면 나와 초대받은 친구 모두 1주를 받을 수 있다. 친구 초대로 받을 수 있는 이벤트 주식은 최대 1회에 한한다.계좌 개설 및 이벤트 참여는 토스증권 MTS에서 가능하다. 계좌 개설을 완료하면 당첨된 주식을 확인할 수 있고, 주식은 해외주식 서비스 오픈 이후 토스증권 계좌로 지급된다.토스증권은 해외뉴스 AI 자동 번역, 무료 실시간 시세 확인, 자동 환전을 통한 원화 거래 등의 해외주식 서비스를 선보일 계획이다. 토스증권은 이 달 1일부터 해외주식 서비스 사전신청을 받고 있으며, 열흘만에 신청자가 40만명을 돌파했다. 토스증권 관계자는 "지난 3분기 국내 투자자들의 외화 주식 결제금액이 분기 기준 역대 최고치를 기록하는 등 해외주식 투자에 대한 관심이 높아져가고 있다"며 "토스증권 MTS에서는 투자자 누구나 국내 주식과 구분없는 쉽고 익숙한 해외주식 투자를 경험할 수 있을 것"이라고 말했다.이미선 기자 already@sportschosun.com▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>위드 코로나에 행복한 비명 지르는 카카오T·우티</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000773541?sid=105</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>우티 이용자 365% 급증, 정체됐던 카카오도 9%↑연말·할인 효과에 위드코로나 겹쳐우티는 新서비스·카카오는 리스크 관리 집중서울 시내를 운행 중인 카카오 택시. /연합뉴스        위드 코로나(단계적 일상회복) 시행으로 택시·대리운전 등 모바일 모빌리티 서비스의 수요가 다시 늘어나고 있다.12일 모바일인덱스에 따르면 위드 코로나 시행 직후인 이달 첫 주(11월 1~7일) 국내 최대 모빌리티 애플리케이션(앱) ‘카카오T’의 주간 활성 이용자 수(WAU)는 약 530만명이었다. 한 달 전인 지난달 첫 주(10월 4~10일) 486만명에서 정체됐던 이용자 수가 위드 코로나 시행 일주일 만에 약 9% 늘어난 것이다.카카오모빌리티 관계자는 “연말 성수기가 다가오는데 위드 코로나 효과까지 겹치면서 사람들의 이동 수요가 늘어난 것 같다”라고 말했다. 카카오모빌리티가 자체 집계한 데이터에 따르면 위드 코로나로 식당·술집 영업시간 제한이 풀리면서 자정 이후 늦은 밤 대리운전 수요가 크게 늘어난 것으로 나타났다. 대리운전 전체 호출 중 자정 이후 호출 비중은 위드 코로나 직전(10월 25~28일) 12.5%에서 직후(11월 1~4일) 22%로 9.5%포인트 증가했다.글로벌 1위 모빌리티 플랫폼 우버와 티맵모빌리티의 합작 플랫폼 ‘우티(UT)’ 앱의 이용자 증가세는 더 가팔랐다. 지난달 첫 주 3만5000명이었던 이용자 수는 이달 첫 주 4.6배인 16만명으로 늘었다. 이달 1일 통합 앱을 정식 출시하면서 한 달간 택시비 20% 할인 이벤트를 내걸어 신규 이용자가 유입됐는데, 여기에 위드 코로나 효과까지 작용했다는 게 업계의 분석이다.위드코로나 직전과 직후(맨 오른쪽 막대) 카카오T 앱의 주간 활성 이용자 수(WAU) 통계. /모바일인덱스 제공위드코로나 직전과 직후(11월 1~7일·맨 오른쪽 막대) 우티 앱의 주간 활성 이용자 수 통계. /모바일인덱스 제공        모빌리티 플랫폼들은 간만에 다시 늘어난 이동 수요의 선점 경쟁에 들어갔다. 우티는 새로운 택시 서비스 출시와 기존 기능 개편을 통해 카카오 대비 경쟁력을 확보하겠다는 계획이다. 택시 합승 서비스 ‘우티풀’을 내년 상반기 관련 규제가 풀리는 대로 경쟁사 중 가장 먼저 선보이기로 했다. 톰 화이트 우티 최고경영책임자(CEO)는 최근 한국 기자간담회에서 “최고의 풀링(합승) 알고리즘을 국내 최초로 택시에 도입해 승객은 비용과 (택시 매칭) 시간을 줄일 수 있다”라며 “(우버풀은) 한국 택시 시장의 ‘게임 체인저’가 될 것이다”라고 말했다.우티는 티맵 내비게이션 기술을 적용해 승객이 택시 탑승 전에 운행 요금을 확정하고 사전 결제할 수 있는 ‘사전 확정 요금제’도 업계 최초로 도입한다. 카카오가 약 3만대(올해 3분기 기준)로 공급량을 압도하고 있는 가맹택시 수도 현재 1200대 수준에서 연말까지 1만대, 내년 안에 2만대로 늘린다.월간 이용자 수 약 1000만명으로 우티(86만명·지난 8월 기준)를 크게 앞서고 있는 카카오는 ‘골목상권 논란’이란 변수를 없애는 데 집중하고 있다. 이용자로부터 ‘노골적인 유료화 행보’라는 비판을 받았던 프리미엄 택시 호출 기능 ‘스마트호출’ 폐지, 택시기사용 유료 서비스인 ‘프로멤버십’의 요금 인하를 약속했고 프로멤버십의 경우 추가 개편이나 폐지를 검토하는 등 내년 상반기까지 택시·대리운전업계와의 갈등을 풀고 사업을 안정화하겠다는 방침이다.가맹택시 플랫폼 ‘타다’는 지난달부터 이달 첫 주까지 주간 이용자 수가 꾸준히 3만명대에 그치면서 위드 코로나 효과를 보지 못했지만, 최근 금융 앱 토스의 운영사 비바리퍼블리카가 인수하면서 반등 가능성이 나오고 있다. 타다는 다음달 대형택시 ‘타다 넥스트’를 선보인다. 토스의 2000만 고객을 타다 이용층으로 끌어들이기 위해 토스와 타다의 결제 시스템 연동도 추진한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>[MK 추천매물] 강남구 역세권 대로변 빌딩 660억원</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004872997?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>MK 추천매물은 매경비즈 부동산센터 각 지역 회원사에서 추천한 매물입니다.상담/문의 (02)2000-5457◇분당구 중심상권 대로변 빌딩=6차선과 후면 2차선 도로변 먹자골목상권의 대지 560㎡, 연면적 3000㎡인 8층 건물이 113억원. 보증금 3억8000만원, 월 3300만원에 임대됐다. (02)542-2100송파 (주)빌딩나라중개 장희영 등록번호 11710-2020-00304 ◇마포구 대로변 구조조정 빌딩=대로변에 위치한 대지 1750㎡, 연면적 9970㎡인 구조조정 건물이 480억원이다. 보증금 34억원, 월 1억4800만원, 관리비 5300만원에 임대됐다. (02)542-1677서초 알파에셋중개법인 황정빈등록번호 11650-2016-00306◇동탄신도시 1층 외국계 커피전문점=대로변 사거리 코너에 접한 신축 상가 건물 중 전용 302㎡ 점포가 85억원이다. 보증금 2억5000만원에 스타벅스 월 수수료 매장으로 10년 장기 임대됐으며 성업 중이다. 010-3299-0032동탄 명성공인중개사 윤재호등록번호 41590-2020-20126◇의정부시 의정부역세권 빌딩=역세권 로데오거리 상가 밀집지역의 대지 500㎡, 연면적 1000㎡인 건물이 135억원이다. 보증금 8억원, 월 4200만원에 대기업으로 장기 임대됐다. 010-8748-6255서초 토스부동산중개 손미영등록번호 11650-2019-00249◇동탄신도시 중심상권 패스트푸드점=2만가구 중심상권 대로변 삼거리 코너 9층 건물 중 1층 전용 39㎡가 9억3000만원이다. 융자 5억5000만원, 보증금 5000만원, 월 340만원에 롯데리아 매장으로 장기 임대됐다. 010-5305-9797수지 동문114공인 이창수등록번호 가3648-02-2333◇고양 지축역 수익형 미용실 상가=역 출구 앞 대로변 보행자도로 코너에 접한 지하 2층~지상 7층 상가건물 중 3층 전용면적 85㎡인 점포가 5억7000만원이다. 보증금 4000만원, 월 200만원에 유명 미용실로 임대됐으며 유동인구가 풍부하다. 010-2039-2577◇강남구 역세권 대로변 빌딩=논현동 메인 대로변 역세권에 위치한 대지 850㎡, 연면적 3600㎡인 건물이 660억원이다. 병원, 프랜차이즈 등으로 공실 없이 임대됐다. (02)6053-5074서초 두바이포시즌부동산중개 배정의등록번호 11650-2018-00042◇동탄2신도시 수변공원 1층 상가=유동인구가 풍부한 수변공원에 위치한 1층 전용면적 79㎡ 점포가 9억3000만원이다. 보증금 4000만원, 월 343만원에 임대됐다. 010-7128-7367동탄 골든부동산공인 최인순등록번호 1590-2020-20044◇강남구 대로변 코너 신축 용지=역삼동 대로변 코너에 위치한 대지 890㎡, 연면적 920㎡인 지하 1층~지상 3층 건물이 670억원이다. 노선상업지역이며 전층 명도 완료됐다. 010-2678-8210 강남 (주)더스타빌딩부동산 김종완등록번호 11650-2016-0069◇서초구 역 출구 앞 대로변 신축 빌딩=역 출구 앞 대로변 코너의 대지 900㎡, 연면적 3900㎡인 10층 건물이 530억원이다. 보증금 24억원, 월 1억5500만원에 약국, 병원 등으로 임대됐다. 010-8940-4979 개포 참공인 홍석우등록번호 11680-2015-00123◇고양시 일산서구 수익형 건물=아파트 밀집지역 사거리 코너의 대지 927㎡, 연면적 1077㎡인 건물이 85억원이다. 보증금 2억원, 월 2400만원에 프랜차이즈 음식점으로 임대됐다. 010-3724-8138강남 솔로몬중개법인 진태호등록번호 9250-10996 평창 봉평면 다용도 수익형 펜션 ◇평창 봉평면 다용도 수익형 펜션=고속도로 나들목 인근의 대지 9821㎡, 연면적 1742㎡인 건물 3개동이 45억원이다. 주변에 이효석 생가와 월정사 등 관광 명소가 밀집해 있으며 기업연수원 등으로 적합하다. 010-7482-7800강남 강남쉐르빌공인 홍선하등록번호 9250-10398◇강남구 역세권 코너 신축 빌딩=역세권 대로변 코너의 대지 240㎡, 연면적 600㎡인 지하 1층~지상 5층 건물이 85억원이다. 사옥 또는 안정적인 임대수익용으로 적합하다. (02)511-6721강남 리얼티코리아중개 유진석등록번호 9250-11288</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>KTB네트워크, 증권신고서 제출…12월 상장 추진</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010815446?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]신항섭 기자 = KTB네트워크는 금융위원회에 증권신고서를 제출하고 코스닥 상장을 위한 공모 절차에 본격 돌입했다고 5일 밝혔다.KTB네트워크는 이번 상장에서 총 2000만주를 공모한다. 희망 공모가 밴드는 5800~7200원으로 총 공모금액은 1160~1440억원 규모다. 오는 29~30일 기관투자자 대상 수요예측을 거쳐 공모가를 확정하고, 다음달 6~7일에 청약을 시행해 12월 내 상장을 마무리한다는 계획이다. 상장 주관은 한국투자증권이 맡았다.KTB금융그룹 주력 계열사인 KTB네트워크는 1981년 설립된 국내 1세대 벤처캐피털로 40여년의 투자 경력을 갖고 있다. 10년 이상의 경력을 가진 심사역이 다수 포진해 있으며, 국내외 증시에 총 300여건의 기업공개(IPO) 실적을 보유하고 있다. 또 미국 현지법인(KTB Ventures)과 중국 상해사무소 등 해외시장에 진출해 글로벌 시장에서의 경쟁력도 꾸준히 키워왔다.KTB네트워크는 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 벤처캐피탈(VC)이다. 여기에 주요 투자기업인 RBW(종합 엔터테인먼트)가 11월 상장을 앞두고 있고, 코넥스 시총 1위 기업 툴젠도 상장예비심사에 통과해 12월 코스닥 이전상장이 예정된 상태다. 해외 투자기업으로는 SoFi(미국, 핀테크 플랫폼), Moloco(미국, 광고 솔루션), Horizon Robotics(중국, 자율주행 반도체), Grofers(인도, 온라인 식료품) 등이 있다.운용자산 규모는 1조1195억원이다. 실적은 꾸준한 성장세로 지난해에는 당기순이익 358억을 기록하며 VC 업계 순이익 1위 자리에 올랐으며, 올해는 상반기에만 441억원을 벌며 사상 최대실적 행진이 이어지고 있다.김창규 KTB네트워크 대표는 "IPO를 통해 모집한 재원은 브랜드 가치 제고와 미래 투자를 위한 펀드 출자금 조성에 사용할 계획"이라며 "회사의 성장을 통한 주주가치를 제고는 물론, 신사업 육성과 일자리 창출 등 벤처산업 육성에 기여하는 국내 대표 VC로 거듭날 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[사설] 한국 스타트업에 몰리는 해외 뭉칫돈, 물 들어올 때 노 저어라</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004873486?sid=110</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>해외 뭉칫돈이 국내 스타트업에 몰리고 있다. 매일경제가 스타트업 데이터 전문회사 더브이씨와 함께 조사한 결과 올해 들어 9월 말까지 해외 벤처캐피털(VC)은 국내 스타트업 144개사에 약 5조원을 투자했다. 지난해 1년 동안 스타트업 128개사에 8700억원 정도를 투자한 것에 비하면 투자액이 6배가량 늘어났다. 글로벌 금융시장에 엄청나게 많은 돈이 풀려 있는 가운데 중국 정부가 거대 기술기업을 상대로 규제를 쏟아내자 신규 투자자금이 중국 대신 한국 인도 등으로 쏠리고 있다는 분석이다. 정부 규제가 글로벌 자금 이동에 얼마나 큰 방해가 되는지 선명하게 보여주는 사례다. 여기에 방탄소년단(BTS)을 필두로 한 K팝과 영화·드라마 등 한류 콘텐츠의 인기와 국내 스타트업의 혁신도 해외 자금 유치에 큰 힘이 되고 있다. 그 결과 정보기술(IT) 분야에 쏠렸던 투자도 금융·여행·유통 등 다양한 업종으로 확산되고 있다. 온라인 숙박 예약 업체 야놀자는 2조원을 유치했고 토스와 마켓컬리, 당근마켓 등도 각각 수백억 원에서 수천억 원의 외국계 투자를 이끌었다. 쿠팡과 우아한형제들(배달의민족), 무신사 등도 해외에서 대규모 자금을 조달하는 데 성공했다.  그러나 아직 만족할 수준이 못된다. 우리는 기업가치가 10억달러 이상인 유니콘 기업이 15개에 불과하다. 중국은 160개에 달한다. 인도에는 올해에만 28개 스타트업이 새로 유니콘에 진입해 66개로 늘어났다. 싱가포르와 인도네시아 등에서도 유니콘 기업들이 연달아 탄생하고 있다. "물 들어올 때 노 저어라"라는 말처럼 해외 자금이 유입되는 이때 스타트업 생태계를 한 단계 발전시켜야 한다. 신산업에 대한 규제를 과감하게 풀어야 한다. 원격의료와 리걸테크(정보기술을 활용한 법률 서비스) 분야처럼 새로운 서비스와 신기술이 이익집단에 막히는 일도 막아야 한다. 기업공개와 인수·합병 문턱도 낮춰 스타트업이 원활하게 자금을 회수하도록 길을 열어주는 것도 중요하다. 창업, 성장, 회수, 재투자로 이어지는 선순환 생태계를 조성해야 더 많은 해외 자금을 유치할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>"실적 좋은데, 마냥 웃을 수가"...인터넷은행 '건전성 딜레마'</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004666487?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[카카오·케이·토스뱅크 '디지털·비대면' 금융 세 확산카카오·케이뱅크 올해 1~3분기 누적 성적표 양호총량 규제 속 중금리 대출 확대로 부실리스크 우려도]디지털과 비대면 금융에 기반해 세를 넓히고 있는 인터넷전문은행이 성장 딜레마에 봉착했다. 총량 규제로 대출 자산을 늘리기 쉽지 않은 데다 2023년까지 중저신용자(중금리) 대출 비중 목표를 맞추려면 대손 비용이 커질 수밖에 없어서다. 5일 은행업계에 따르면 카카오뱅크와 케이뱅크는 지난 1~3분기 누적 순이익이 각각 1679억원과 84억원이었다. 카카오뱅크는 전년 동기보다 순이익이 2배 수준으로 늘었고, 케이뱅크는 누적 기준 첫 흑자를 달성했다. 인터넷은행의 쉽고 편한 금융 서비스를 선호하는 고객들이 몰리면서 여수신 모두 증가한 덕분이다. 3분기 말 카카오뱅크 앱의 MAU(월간 실사용자 수)는 1470만명을 넘어 금융 앱 부문 1위 자리를 지켰다. 케이뱅크 고객도 작년 말(219만명)보다 3배 가량 증가한 660만명으로 늘었다. 건전성 지표도 표면적으로는 양호하다. 지난 3분기 말 현재 카카오뱅크 대출 연체율은 0.21%로 전분기보다 0.1%포인트 높아진 정도다.  KB국민 신한 하나 우리 NH농협은행 등 5대 은행의 3분기 말 기준 평균 연체율(0.20%)과 비슷한 수준이다. 케이뱅크는 손익 외에 연체율 등은 아직 공개하지 않았으나 지난 1분기 말 0.55%에서 2분기 말 0.37%로 내려간 데 이어 연체율이 더 개선된 것으로 추정된다. 대출 자산 증가 효과 때문이다. 문제는 앞으로다. 금융당국이 인터넷은행에 부여한 가이드라인에 따라 중저신용자 대출을 적극적으로 늘려야 한다. 3분기 말 현재 카카오뱅크와 케이뱅크의 중저신용자 대출 비중은 13.4%, 15.5% 정도다. 연말까지는 두 은행이 각각 20.8%, 21.5%까지 확대해야 한다. 4분기엔 사실상 중저신용자 대출에 올인해야 한다. 신용등급 4~6등급 차주에게 한 자릿 수의 중금리로 빌려주는 중저신용자 대출은 예대마진은 높지만 그만큼 부실 위험도 크다. 충당금 전입액이 늘어나 수익성에도 악영향을 줄 수 있다. 한국은행은 지난 9월 발표한 '인터넷은행 중저신용자 대출 확대 영향과 시사점' 분석에서  인터넷은행들이 2023년까지 중저신용자(신용점수 하위 50%) 대출 비중을 계획(카카오뱅크 30.2%, 케이뱅크 32.1%, 토스뱅크 44.9%)대로 높이면 2022~2023년 연체율이 1.7~2.2%까지 상승할 것으로 추산했다.  최근 카카오뱅크 주가 흐름이 지지부진한 것도 이런 요인이 반영된 것으로 분석된다. 카카오뱅크는 중저신용자 대출 비중 증가로 올 들어 지난 3분기까지 598억원의 대손충당금을 쌓았다. 전년 동기(353억원)와 견줘 약 70% 늘어난 것이다. 충당금 적립률은 2분기말 198%에서 3분기말 228%로 뒤었다.  케이뱅크 역시 1분기 152%였던 충당금 적립률이 2분기 191%로 올랐고 3분기 더 상향됐을 것으로 추정된다. 업계에선 현 정부 금융혁신 1호 공약인 인터넷은행 활성화가 가계대출 총량 규제에 발목 잡힌 형국이라는 지적도 나온다. 인터넷은행이 가계대출 총량 관리 대상에 중저신용자 대출을 빼 달라고 했지만 금융당국은 난색을 표한다. 한 인터넷은행 관계자는 "중저신용자 대출 리스크를 잘 관리하려면 대출 자산을 늘리면서 신용평가모형을 고도화하고 차주들의 성격과 리스크를 잡아낼 수 있어야 한다"며 "대출을 늘리지 못 하는데 중저신용 대출을 확대해야 해 난감하다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>김연경 선수·토스 이승건 대표, ‘포니정 영리더상’ 수상</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002491553?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>(왼쪽부터)정몽규 HDC그룹 회장, 이승건 ㈜비바리퍼블리카 대표, 고(故)정세영 현대산업개발 명예회장의 부인 박영자 여사가 지난 5일에 열린‘제2회 포니정 영리더상’시상식에서 기념촬영을 하고 있다. 포니정재단 제공.만40세 이하 젊은 혁신가로 꼽혀‘배구 여제’ 김연경 선수와 토스(Toss) 창업자 이승건 ㈜비바리퍼블리카 대표가 ‘포니정 영리더상’을 수상했다.포니정재단은 두 사람을 제2회 포니정 영리더상 수상자로 선정하고, 서울 강남구 삼성동 아이파크타워 포니정홀에서 시상식을 했다고 8일 밝혔다.포니정재단 설립자인 정몽규 HDC그룹 회장은 “포니정 영리더상은 우리 시대의 미래를 이끌어 갈 젊은 혁신가를 응원하고 있다”며 “세계적인 배구선수이자 새로운 리더십을 보여준 김연경 선수와 핀테크 분야를 새롭게 개척해 금융업 전반에 혁신을 가져온 토스 이승건 대표를 수상자로 선정한 것은 의미가 크다”고 강조했다.이 대표는 이날 시상식에서 “도전과 창의, 사업가 정신으로 새로운 길을 개척한 고(故) 정세영 명예회장의 유지가 담긴 상을 받게 돼 큰 영광”이라며 “한국이 사업가들의 천국이 되길 바라며, 토스를 통해 혁신과 도전을 멈추지 않겠다”고 말했다.중국 리그 복귀로 출국해 시상식에 불참한 김연경 선수는 “도쿄 올림픽, 국가대표 은퇴와 맞물려 더 의미 있고 감사한 상”이라며 “현재의 자리에 안주하지 않고 더욱 발전하는 모습을 보여드리겠다”는 소감을 전했다.포니정 영리더상은 젊은 혁신가를 응원하기 위해 지난해 신설된 ‘제2의 포니정 혁신상’으로, 만 40세 이하의 혁신가 2인을 선정해 상금 5000만 원과 상패를 수여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>DGB생명, 토스와 협업 ‘M스마트’ 편의성 강화</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002258474?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>◆…DGB생명보험이 금융 플랫폼 토스를 운영하는 비바리퍼블리카와 협업해 보험설계사용 앱 ‘M스마트’에 다양한 편의 기능을 도입했다. 이미지=DGB생명 제공DGB생명보험이 금융 플랫폼 토스를 운영하는 비바리퍼블리카와 협업해 보험설계사용 앱 ‘M스마트’에 다양한 편의 기능을 도입했다고 2일 밝혔다.   DGB생명은 모바일 청약 활성화를 위해서 1일 자사 설계사용 모바일 앱 M스마트에 토스인증 로그인 및 전자서명 서비스를 도입했다.   해당 서비스 도입으로 M스마트 앱에 토스인증 로그인 방식이 적용돼 로그인 절차가 간소화되고 토스 전자서명을 통한 모바일 청약이 가능해짐으로써 M스마트 앱의 고객 편의성이 대폭 강화될 전망이다.   DGB생명은 지난 9월 토스보험파트너와 가입설계 동의 연동 기능을 오픈했다. 기존에는 가입설계 동의 절차를 위해 고객이 구두 혹은 문자메시지로 주민등록번호 등 민감정보를 설계사에게 공유해야 하는 번거로움이 있었다.   이 기능을 이용하면 설계사는 보험사 청약시스템과 연동한 토스보험파트너 앱을 이용해 가입설계 동의 요청을 보낼 수 있게 되고 고객이 직접 정보를 입력하고 인증하는 방식으로 동의 절차가 진행돼 가입설계 동의 과정의 편의성과 안전성이 개선된다.   이번 업데이트는 DGB생명이 지속적으로 추진 중인 디지털 강화 전략의 일환이다. 모바일 영업의 수요와 중요성이 높아지는 가운데, DGB생명은 모바일 플랫폼 강화에 주력하고 있다.   특히 M스마트의 지속적인 기능 개선 노력이 GA 업계의 높은 호응을 받으면서 DGB생명 GA채널 신계약 중 모바일 청약을 통해 가입한 고객의 비중이 절반 이상을 차지하고 있다.   고객 및 설계사의 사용성을 향상시키는 핀테크 업체와의 협업도 이어갈 방침이다. DGB생명은 앞서 비바리퍼블리카와 토스보험파트너 서비스를 위한 포괄적 업무제휴(MOU)를 체결하고 인슈어테크 기업 보맵과 판매 제휴를 맺는 등 핀테크 영업 확장을 위한 노력을 계속해 왔다.   DGB생명 관계자는 “모바일 영업의 중요성이 높아지는 만큼 설계사와 고객을 이어주는 M스마트 앱을 지속적으로 업데이트하고 있다”라며 “앞으로도 설계사와 고객이 모두 쉽고 편리하게 사용할 수 있도록 계속해서 서비스를 발전시키겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>은행 정기예금 20조 증가...금리 인상 영향</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010806047?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>기사내용 요약기준금리 인상되며 은행 정기예금 잔액 증가요구불예금 잔액은 다소 감소..수요 이동한 듯[서울=뉴시스] 최선윤 기자 = 시중은행의 정기예금 잔액이 큰 폭으로 증가했다. 기준금리가 인상되며 정기예금 수요가 증가한 것으로 풀이된다.2일 은행권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행의 지난달 총수신 잔액은 1751조362억원으로 전월 대비 25조2612억원 증가한 것으로 집계됐다.특히 정기예금이 전달 대비 큰 폭으로 증가하며 총수신 증가세를 이끌었다. 5대 은행의 지난달 정기예금 잔액은 652조8753억원으로 전월 대비 20조4583억원 늘었다. 10월 은행 정기예금 증가는 지난 8월 한국은행의 기준금리 인상에 영향을 받은 것으로 풀이된다. 앞서 한은 금통위는 지난 8월 회의에서 기준금리를 연 0.5%에서 0.75%로 0.25%포인트 인상했다.반면 요구불예금 잔액은 줄어들었다. 지난달 5대 은행의 요구불예금 잔액은 681조6197억원으로 전달 대비 11조2278억원 감소했다. 요구불예금 수요가 정기예금 수요로 옮겨가며 잔액이 줄어든 영향으로 분석된다. 한 시중은행 관계자는 "전월 대비 요구불예금은 감소했지만 정기예금은 큰 폭으로 증가했다"며 "특히 정기예금 증가폭이 컸는데, 기준금리 인상에 따른 정기예금 수요 증가 영향으로 풀이된다"고 말했다.또 다른 은행 관계자도 "최근 들어 정기예금 특판이 진행되며 금리 이벤트 효과로 요구불예금 수요가 정기예금 수요로 옮겨간 것으로 보인다"며 "조달자금 증가에 따른 은행의 수익성이 저하될 가능성도 있다"고 설명했다. 카카오페이 청약과 토스뱅크 신규 오픈 등도 요구불예금 잔액 감소의 다른 원인으로 꼽힌다. 한 시중은행 관계자는 "카카오페이 청약과 토스뱅크 신규 오픈, 추석 연휴 등으로 요구불예금 자금이 이동한 것으로 보인다"면서도 "큰 특이요소는 없다"고 말했다.여기에 11월 기준금리 인상이 유력시되면서 정기예금 잔액은 이달에도 빠르게 늘어날 가능성이 높다. 한은은 다음달 다시 기준금리를 연 1%로 0.25%포인트 인상할 것으로 예상되고 있다. 강승원 NH투자증권 연구원은 "금리인상 소수의견과 이주열 총재 기자회견을 감안하면 11월 금통위에서는 추가 금리인상이 단행될 전망"이라며 "이후 대선 전까지 금리 동결 후 대선 후 한 차례 추가 금리인상을 통해 내년 연말 1.25% 수준으로 올릴 것으로 예상된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>빅테크·전통 금융사 ‘플랫폼 전쟁’…선두 토스·카뱅, KB·삼성 맹추격</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001906678?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>앱 월 이용자수 빅테크가 우위사용시간은 신한·국민銀 〉 카뱅금융위원회가 하나의 슈퍼앱을 통해 은행, 보험, 증권 등 다양한 서비스를 제공하는 디지털 유니버셜 뱅크를 허용하기로 하면서 빅테크와 전통 금융회사들의 플랫폼 전쟁이 본격화될 전망이다.모바일 빅데이터 분석 플랫폼 모바일인덱스에 따르면 국내 은행앱 중 사용자수(안드로이드 기기 기준)가 가장 많은 곳은 지난달 은행 사업을 개시한 토스다.지난 4월엔 월이용자수(MAU)가 835만명 수준으로 국내 최대 인터넷전문은행인 카뱅(841만명)보다 적었는데, 9월엔 뱅킹 서비스 탑재를 앞두고 1102만명까지 올라 6개월 만에 32%가 증가했다. 은행앱 첫 1000만 돌파다.기존 은행앱 중 MAU가 가장 많은 곳은 국민은행이다. 스타뱅킹의 MAU는 9월 현재 771만명으로 카뱅과 146만명 차이다. NH농협은행의 NH스마트뱅킹으로 669만 MAU이고 그 뒤를 신한쏠(SOL·651만명), 우리원(WON)뱅킹(436만명), NH콕뱅크(373만명), 하나원큐(327만명) 등이 잇고 있다.농협은행 앱은 3개(NH스마트뱅킹, NH콕뱅크, 올원뱅크)나 10위권 내에 올라 있다. 인터넷은행 케이뱅크의 MAU는 235만명으로 반년새 28%(92만명) 감소해 10위권 밖으로 밀려났다.앱 총사용시간 기준으론 신한·국민이 카카오뱅크를 앞서고 있다. 신한쏠의 월사용시간은 286만시간으로 가장 많았고, 국민 스타뱅킹은 279만시간으로 그 뒤를 이었다. 카뱅은 237만시간으로 3위를 기록했고 NH스마트뱅킹(229시간), 우리원뱅킹(160만시간), NH콕뱅크(150만시간) 등의 순이다.iOS 기기를 포함한 신한쏠의 9월 MAU는 953만명으로 작년말(685만명) 대비 39.1% 성장했다. 가입자수도 지난달 28일 현재 1350만명으로 작년말(1249만명) 대비 8.1%(101만명) 증가했다.KB 스타뱅킹 가입자수는 9월말 1762만명으로 신한쏠을 앞서고 있으며, 지난해 12월말(1668만명)보다 5.6%(94만명) 확대됐다. 카뱅의 6월말 가입자수가 1671만명임을 감안할 때 스타뱅킹이 카뱅에 근접했거나 추월했을 가능성도 있다.전체 금융 관련 앱 중 최대 MAU(안드로이드 기준) 앱은 삼성페이로 하드웨어 이점 등의 영향으로 1530만명을 기록했다. 그 뒤를 토스와 카뱅, 스타뱅킹, NH스마트뱅킹, 신한쏠 등이 이었다. 보험과 카드 부문에선 각각 삼성화재(92만명)와 페이북(535만명)이 최대 이용자수를 나타내고 있다. 증권에선 영웅문S(키움증권·247만명)가, 대출에선 현대캐피탈(56만명)이 가장 많은 MAU를 기록했다. 서경원 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.11.05.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>‘인터넷전문은행 실적은 좋은데’…중저신용자 대출 목표 달성 가능할까</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003227536?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크 등 인터넷전문은행들이 3분기 호실적을 기록했지만 올해가 2개월여밖에 안 남은 상황에서 고심이 커지고 있다. 올 연말까지 금융당국과 약속한 중저신용자 비중 목표치를 달성해야 하는 과제를 안고 있기 때문이다.지난 2일 3분기 실적을 내놓은 카카오뱅크와 케이뱅크는 나란히 양호한 성과를 거뒀다. 카카오뱅크 3분기 순익은 520억원으로 전분기 693억원 대비 25%(173억원) 감소했다. 하지만 누적 기준으로 보면 1679억원으로 전년 동기 859억원보다 95.6%(821억원) 불어났다. 전월세보증금과 신용 대출 등 여신 규모가 커지면서 이자 부분 이익이 확대된 영향이다. 케이뱅크 역시 3분기 168억원의 순익을 거두며 2분기 분기 흑자전환에 이어 성장세를 이어갔다.문제는 올해 남은 기간 중저신용자 대출을 적극적으로 늘려야 한다는 점이다. 금융당국은 인터넷은행을 대상으로 설립취지에 맞게 중저신용자들을 위한 중금리 대출시장을 확대하라고 주문한 바 있다. 이에 카카오뱅크와 케이뱅크는 올 연말까지 중저신용자 대출 비중을 각각 20.8%, 21.5%로 늘린다는 계획안을 금융당국에 냈었다.그러나 지난 3분기 말 기준 카카오뱅크와 케이뱅크의 중저신용자 대출 비중은 13.4%, 15.5% 정도다. 당초 목표치에 한참 못 미치는 수치다. 발등에 불이 떨어진 이들 은행은 중금리대출을 확대하고자 비상체제에 들어갔다. 카카오뱅크는 전·월세 대출을 제외 고신용자 대출을 중단하고, 사실상 중저신용자 대출 확대에 올인하고 있다. 금융당국의 가계대출 총량규제까지 받는 상황에서 어쩔수 없는 선택이라는 분석이다. 카카오뱅크 관계자는 “고신용자 대출을 막아놓은 상태이기 때문에 그 전보다는 빠른 속도로 중저신용자 대출 비중이 올라가고 있다”고 말했다.케이뱅크도 오는 6일부터 고신용자를 대상으로 한 마이너스 통장의 신규 증액 신청을 연말까지 중단했다.지난 10월 출범한 토스뱅크는 문을 연지 열흘 만에 금융당국에서 할당받은 대출 총량 한도 5000억원을 모두 소진해 문을 닫은 상태다. 중금리대출 비중은 28.2%로 여타 은행들에 비해 높은 성적을 기록했으나, 34.9%라는 목표치는 넘지 못했다.인터넷은행 관계자는 “중·저신용자는 신용등급이 낮은만큼 부실 위험도 크다”면서 “대출 총량 규제로 사업성이 높은 고신용자 대출은 막힌 상태에서 중·저신용자 비중을 늘리는게 쉽지 않은 상황”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>"야놀자는 좋겠네" 중국서 막힌돈 몰려 한국만 신났다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004872860?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>'될성부른' 한국 스타트업에 뭉칫돈시진핑 예측불허 기업규제에고수익 대체투자처로 급부상"韓 벤처생태계 성장성 밝아"쿠팡 美상장 이후 관심 급증중국계 자금은 인도·동남아로국내 유치 위한 네트워크 필요  올해는 한국 스타트업의 춘추전국시대로 기록될 만하다. 올 들어 3분기까지 외국 벤처캐피털(VC)로부터 5조원 가까운 투자금을 유치했을 뿐 아니라, 스타트업의 다양성과 생태계 깊이 면에서 질적인 진화를 이뤄냈기 때문이다. 올해 외국에서 대형 투자를 이끌어낸 한국 스타트업으로는 단연 야놀자가 꼽힌다. 온라인 숙박예약 업체 야놀자는 손정의 회장이 이끄는 소프트뱅크인베스트먼트에서 투자금 1조9400억원을 유치해 세상을 놀라게 했다. 교육 인공지능(AI) 솔루션 기업 뤼이드도 소프트뱅크로부터 1970억원 규모 투자금을 전부 조달했다.미국 기반의 헬스·다이어트 플랫폼 눔은 올해 총 6000억원을 투자받았는데 미국계 펀드 4곳에서 각각 857억원(총 3428억원)을 펀딩받았다. '토스' 결제서비스를 운영 중인 비바리퍼블리카는 올해 총 4600억원 투자를 받았는데, 미국계 알키온캐피털매니지먼트(840억원)를 비롯해 영미권 펀드 총 3곳이 자금을 댔다. 온라인 쇼핑몰 티몬은 올해 투자금 3050억원 중 홍콩계 앵커에퀴티파트너스와 미국계 콜버그크래비스로버츠로부터 440억원씩을 유치했다.신선 식자재 배달서비스 마켓컬리도 투자금 총 2200억원 중 80%를 외국계 펀드에서 조달했는데, 중국·미국·러시아·홍콩 소재 VC들은 440억원씩을 넣었다. 중고거래 사이트 당근마켓에는 미국·일본·홍콩·러시아 펀드 6곳이 각자 200억원씩 1200억원의 해외 자금을 대줬다. 올해 전체 투자금 1800억원 중 3분의 2에 달한다.국내 VC 시장에서 인정받은 한국 스타트업은 그 시장이 국내든 해외든 가리지 않고 외국에서 초대형 투자를 성공시키고 있다. 이런 성공 스토리는 2018년 쿠팡과 우아한형제들(배달의민족), 2019년 무신사 등의 해외 자금조달 도전기에서 비롯된다. 이때부터 한국 스타트업 대어들이 잇따라 해외에서 대규모 자금을 조달하면서 글로벌 VC '큰손'들도 한국 시장을 가벼이 여기지 않게 됐다. 과거 박찬호, 최근 류현진 등 한국 유명 야구선수들이 메이저리그에서 선전하면 뒤따라 한국 선수들이 무더기로 미국행 비행기에 몸을 실었던 것과 비슷하다.오문석 알토스벤처스 파트너는 "쿠팡이 미국 상장에 성공한 덕분에 외국에 한국 스타트업을 소개할 때 한국 시장에 대해 특별히 셀링(시장 매력을 설명)할 필요가 없어졌다"며 "한국 영화와 드라마 등이 전 세계적으로 주목받으면서 콘텐츠 관련 스타트업에 대한 외국 투자자 관심이 커질 것"이라고 내다봤다.다만 홍콩, 싱가포르, 대만을 포함한 중국계 자금은 한국보다는 상대적으로 인도나 동남아시아 스타트업에 몰리는 분위기다. 중국계 자금의 국내 스타트업 투자 규모는 올해 1분기 9580억원으로 사상 최대치를 기록했는데, 2분기 1414억원, 3분기에는 429억원으로 감소하는 추세다. 올해 들어 홍콩계 펀드들이 컬리, 당근마켓, 티몬 등 국내 이커머스 업체들에 관심을 가지면서 투자한 것이 전부다.리스크가 높은 VC 투자에선 특히 투자 대상(스타트업)에 대한 촘촘한 네트워크가 중요한데, 아직 차이나 머니와는 이런 인프라스트럭처가 형성돼 있지 않기 때문이다. 중국 게임·포털 텐센트는 수년간 국내 다수 게임 업체들에 뭉칫돈을 살포했는데, 이런 네트워크는 게임과 이커머스 영역에 한정돼 있다.김진영 더인벤션랩 대표는 "중국계 자금이 최근 급성장 중인 동남아 스타트업에 몰리는 분위기인데, 그만큼 비슷한 성장 환경과 촘촘한 네트워크가 있기 때문"이라며 "국내에는 워낙 정부 자금과 모태펀드 등이 잘 갖춰져 있어 웬만한 스타트업이 중국계 자금에 손을 벌릴 필요를 느끼지 못하는 것도 사실"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>동성애 키스신 '이터널스' 중동서 개봉금지…졸리 "슬퍼요"</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012778008?sid=104</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>일부 국가에선 동성애 장면 삭제한 채 상영영화 '이터널스' 영국 시사회 참석한 앤젤리나 졸리.[런던 AFP=연합뉴스. 재판매 및 DB 금지]    (서울=연합뉴스) 김지연 기자 = 최근 개봉한 마블 영화 '이터널스'가 동성애 스킨십 장면으로 일부 중동 국가에서 상영 금지 처분을 받자 영화에 출연한 앤젤리나 졸리가 아쉬움을 드러냈다.    7일(현지시간) 더힐 등에 따르면 사우디아라비아, 쿠웨이트, 카타르 등 일부 중동 국가들에서 '이터널스'의 동성애 키스신 장면을 문제 삼아 개봉을 금지했다. 이들 국가에서 동성애는 불법이다.    이에 영화에서 테나 역을 맡은 앤젤리나 졸리는 일부 관객이 영화를 관람할 수 없어 "슬프다"면서도 "마블이 이 장면을 빼는 것을 거절한 것이 자랑스럽다"고 말했다.    이어 "오늘날 파스토스 가족과 그 관계 및 사랑의 아름다움을 보지 못하는 사람들이 아직까지 있는 세상에서 어떻게 살고 있는 건지 이해가 되질 않는다"고 말했다.    영화에서는 캐릭터 파스토스가 남편이 될 벤과 결혼해 입맞춤하는 장면이 나온다.    그러면서 졸리는 "이 장면에 화가 나거나 위협을 느끼거나 이를 인정하지 않는 것은 무지한 것"이라고 꼬집었다.    아랍에미리트(UAE)와 요르단, 레바논, 이집트 등 국가에서는 성적인 장면이 삭제된 버전만 상영된다.    지난해 성소수자 캐릭터를 다룬 픽사의 '온워드: 단 하루의 기적'도 사우디아라비아, 쿠웨이트, 카타르, 오만 등에서 상영이 금지된 바 있다.    '이터널스'(클로이 자오 감독)는 수천 년 동안 모습을 드러내지 않고 살아온 불멸의 히어로들이 '어벤져스: 엔드게임' 이후 인류의 가장 오래된 적 '데비안츠'에 맞서기 위해 다시 힘을 합치면서 벌어지는 이야기다.    이 영화는 개봉 이후 미국·캐나다에서 7천100만 달러(약 840억 8천만 원)에 달하는 티켓 수익을 올리면서 북미 박스오피스 1위를 차지했다. 글로벌 시장까지 합하면 총 1억6천170만 달러(약 1914억 2천만원)를 벌여 들었다.    이는 북미 시장에서 팬데믹 발발 이후 '샹치와 텐 링즈의 전설', '블랙위도우', '베놈 2: 렛 데어 비 카니지'에 이어 4번째로 흥행한 기록이다.    '이터널스'는 한국에서도 지난 3일 개봉한 이후 누적 관객 161만4천여명을 모으며 박스오피스 1위에 올랐다.영화 '이터널스'[월트디즈니컴퍼니 코리아 제공. 재판매 및 DB 금지]    kite@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[2022대선] 이재명 "현재 대전환 상황, 스타트업 역할 크다"</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000634171?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>스타트업 현안 공유 및 정책 제언이재명 더불어민주당 대선후보가 스타트업계와 만났다.이재명 더불어민주당 대선 후보가 8일 오전 서울 성동구 패스트파이브 서울숲점에서 열린 스타트업 정책 토크에 참석해 발언하고 있다.  [사진=아이뉴스24 정소희 기자]8일 코리아스타트업포럼(코스포)는 이재명 더민주 대선후보 초청 '스타트업 정책 토크'를 개최했다.이날 행사는 서울시 성동구 소재 '패스트파이브 서울숲점' 및 유튜브를 통해 온·오프라인 동시에 진행됐으며, 이재명 대선후보와 함께 최성진 코스포 대표, 김슬아 컬리 대표, 안성우 직방 대표, 이승건 토스 대표, 두나무 김형년 부사장, 박태훈 왓챠 대표, 김범준 우아한형제들 등 주요 스타트업 및 플랫폼 기업들이 참석했다.행사를 통해 스타트업 관계자들은 앞으로 대한민국 경제를 이끌어갈 스타트업 정책 방향을 고민하고 업계의 생생한 목소리를 이 후보자에 전달했다.이 대선후보는 "우리 사회는 현재 대전환 상황에 놓여있다"라며 "앞으로 스타트업의 역할이 매우 크다"라고 강조했다.그러면서 "정부 역할의 핵심은 시장이 제대로 작동하고 혁신과 창의가 자유롭게 발의할 수 있도록 자유로운 환경을 조성해주는 것"이라며 "금지되는 것을 정하고 그 외에는 자유롭게 행동할 수 있도록 공간을 열어주는 혁신이 필요하다"라고 덧붙였다.다만 그는 "혁신을 응원하되, 혁신의 결과로 독점을 이용한 과도한 이익추구는 지양해야 한다"라며 스타트업에 사회적 책임도 다해달라고 요구했다.한편 안성우 직방 대표 겸 코스포 의장은 "국내 스타트업이 글로벌 회사들과 경쟁을 나란히 할 수 있는 경쟁력을 갖출 수 있도록 많은 지원을 부탁한다"라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>쪼개고 붙이고…SKT-SK스퀘어 분할·UT 출범</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000262891?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[앵커]SK텔레콤이 창립 37년 만에 두 개의 회사로 분할됐습니다.자회사 티맵모빌리티는 글로벌 차량 공유 업체, 우버와의 통합 서비스를 출시했습니다.정인아 기자의 보도입니다.[기자]SK텔레콤이 인적분할을 마무리하고 통신과 투자 두 개의 회사로 공식 출범했습니다.신설 투자회사 SK스퀘어에는 16개의 비통신 자회사가 편입됐습니다.존속회사인 SK텔레콤에는 SK브로드밴드를 비롯한 통신 자회사들이 남았습니다.SK스퀘어에는 박정호 대표가, SK텔레콤에는 유영상 대표가 유영상 대표는 전 직원들에게 통신 품질 안정의 중요성을 강조했습니다.또 AI 기반 구독 서비스와 메타버스 플랫폼 등 신사업도 확대해 오는 2025년 매출 22조 원을 달성하겠다는 포부를 밝혔습니다.SK스퀘어는 SK하이닉스를 중심으로 대규모 투자에 나설 예정입니다.ADT 캡스를 비롯한 다른 자회사들은 기업공개를 추진해 가치를 극대화할 계획입니다.[김장원 / IBK투자증권 연구원 : SKT에 있으면서도 투자에 적극적으로 진행을 하셨던 분들이 대부분 SK스퀘어로 가셨으니까. SK스퀘어가 중간 지주사로서 SK하이닉스를 지배하고 있는 업체이고, (투자를) 확장해 가려고 이제 분할을 하게 된 거죠.]SK스퀘어에 편입된 티맵모빌리티는 지난 4월 우버와 만든 합작회사를 통해 통합 앱을 출시했습니다.[톰 화이트 / 우티 CEO : UT 앱 이용자는 전 세계 1만여 개 도시에서 서비스를 제공하는 우버와 연결됩니다. 내년 초 규제 테두리 안에서 합리적인 가격의 최적화된 합승 서비스를 준비하고 있습니다.]우티의 가세로 업계 최강자 카카오모빌리티, 최근 토스에 인수된 '타다'의 택시 플랫폼 시장을 둘러싼 경쟁도 본격화될 전망입니다.SBS Biz 정인아입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.11.03.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>대세는 MTS… MZ들, 주식거래 판까지 뒤집었다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004733830?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스證, 위탁매매 약정거래 49곳중 23위오프라인 지점 없이 서비스 8개월만 성과2030 투자자 늘며 모바일 거래 중요성 커져증권가 내년 MTS 시장 선점 경쟁 예고키움·KB·NH證 등 새 서비스·개편 준비카카오페이證, 연내 카톡서 거래 개시  최근 주식 시장에서 MZ세대(1980년대 초~2000년대 초 출생)가 주역으로 떠오르면서 주식 거래 시장에서도 모바일 플랫폼 점유율 확대가 빠르게 늘어나고 있다. 증권사들도 젊은 신규 주식 투자자들을 잡아 시장 선점 효과를 누리기 위해 총력을 기울이고 있는 만큼 점유율 경쟁은 더욱 치열해질 전망이다.   3일 파이낸셜뉴스가 단독 입수한 주식 위탁매매 약정거래 금액 자료에 따르면 토스증권이 10월 기준 0.61%를 기록해 49개 증권사 중 23위를 기록했다. 토스증권보다 점유율이 낮은 증권사는 교보증권, 현대차증권, 신영증권, KTB투자증권 등이었다. 카카오페이증권은 0.06%로 42위를 기록 중이었다. 부동의 1위는 20%대 점유율을 기록한 키움증권이다.   최근 증권가에서는 과도한 약정 경쟁으로 인해 실적위주의 영업 관행이 이어지자 시장 점유율과 관련된 약정거래 금액을 공개하지는 않고 있다. 하지만 업계에서는 1년도 안된 신생 증권사가 출시 8개월 만에 23위를 기록하면서 증권 시장 점유율 판도도 조금씩 변하고 있는 것이 아니냐며 고무적인 평가다.   특히 약정거래 금액의 경우 홈트레이딩시스템(HTS), 모바일트레이딩시스템(MTS)을 비롯해 증권사 홈페이지, 지점 등 모든 매체를 통해 거래된 금액이다. 반면 토스증권의 경우 오프라인 지점 없이 MTS와 국내 주식 서비스만 가지고 단기간에 23위에 올라 업계를 놀라게 하고 있다. 토스증권이 연내에 해외주식서비스를 도입하면 점유율은 더욱 확대될 것으로 예상된다.   한 대형 증권사 관계자는 "일각에서는 0.61%라는 점유율이 아직은 크지 않다는 지적도 있지만 증권가에서는 개인의 사용률이 높고 역사가 오래된 증권사보다 높은 순위를 기록한 것을 보고 긴장하고 있다"면서 "카카오페이증권도 이르면 연내 MTS를 내놓을 예정이고 키움증권도 내년 초 차세대 MTS 서비스를 내놓으면 MTS에 대한 관심은 더욱 커질 것"이라고 전했다.   전문가들은 올해 초 동학개미운동으로 인해 개인 투자자들이 증권시장에 많이 유입됐고, 2030세대들이 주식에 관심을 가지면서 MTS 사용률이 올라간 것으로 분석하고 있다. 토스증권 역시 투자 입문자를 타깃으로 한 '쉬운 UX(사용자 경험)'와 신규 계좌개설 고객에게 주식 1주를 주는 이벤트로 2030세대를 끌어들였다.   실제 토스증권의 고객을 분석한 결과 2030세대의 점유율이 66%에 달한다. 40대까지 포함하면 2040세대는 전체 고객수의 87%를 기록 중이다. 올해 상반기에는 2040세대 고객이 90%가 넘었다.   토스 관계자는 "예전에는 PC를 통한 HTS 위주로 주식 투자를 하는 사람이 많았으나 최근에는 스마트폰 보급이 활성화 되면서 주식 거래도 PC에서 모바일로 많이 넘어오고 있다"면서 "별도 앱이 아니라 토스 앱 안에 주식 서비스가 있는데도 경쟁력을 보이는 것을 보면 이러한 트렌드가 확산되고 있는 것으로 보인다"고 전했다.   최근에는 공모주 청약에도 모바일을 이용한 간편한 청약이 관심을 받고 있다. 삼성증권에 따르면 카카오페이 공모주 청약에 간편투자앱 '오늘의 투자(O2)'를 통해 참여한 고객이 8만7000명에 달했다. 이 중 MZ세대의 비중이 44%를 차지했다. 오투 역시 기존 삼성증권의 MTS(모바일트레이딩서비스) 엠팝(mPOP)의 대비 메뉴를 6분의 1 수준으로 대폭 줄이면서 복잡함을 없앴다. 각종 증권용어도 초보 투자자들이 이해하기 쉽도록 매수, 매도 등 어려운 표현 대신 바로투자, 팔기 등의 직관적인 용어로 바꿨다.   한편 증권가에서는 내년부터 MTS 시장 선점을 위한 증권사들의 경쟁이 치열할 것으로 보고 있다. KB증권은 기존 MTS에서 기능을 간소화 한 '마블(M-able)미니'를 내놨다. NH투자증권은 자사 MTS인 '나무'와 'QV'의 첫 화면을 사용자 편의에 맞춰 개편했다.   증권업계 관계자는 "카카오페이증권 별도의 MTS 앱을 만들지 않고 카카오톡 내 정보 제공 위주의 비교적 가벼운 기능의 MTS를 넣고, 카카오페이앱에는 거래를 포함해 다양한 기능을 넣을 것"이라면서 "키움증권도 국내와 해외가 둘다 되는 MTS를 내놓으면 시장 점유율 판도도 새롭게 바뀔 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>카카오 뒤쫓는 우버·티맵 연합군, 무기는 '택시합승'?</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036812?sid=105</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>△김기년 우티 COO, 톰 화이트(Tom White) 우티 CEO가 신규 우티 앱을 소개하고 있다.(사진=우티)우버·티맵모빌리티 합작회사 우티(UT)가 오는 2022년 가맹택시를 2만대까지 확대하겠다고 밝혔다. 규모를 늘리는 동시에 다양한 요금·서비스도 선보여 국내 택시호출 시장 1위 자리를 지켜온 카카오택시를 추격하겠다는 계획이다.1일 우티는 온라인 기자간담회를 열고 기존에 따로 운영되던 우버·티맵택시를 합쳐 새로운 택시호출 앱 ‘우티(UT)’를 출시한다고 알렸다. 우티는 지난 4월 우버와 SK텔레콤의 모빌리티 전문 자회사 티맵모빌리티가 설립한 합작법인(JV)이다. 택시중개·호출 서비스와 가맹택시를 운영 중이다. 싸거나 비싸거나, 우티의 계획우티의 전략은 크게 두 가지다. 우선 ①다양한 요금 선택지를 만들고 ②신규 서비스를 선보이는 한편 ③글로벌과 통합해 덩치를 키운다는 구상이다.새로운 요금체계의 대표적인 예가 ‘사전확정요금제’다. 목적지를 바탕으로 앱에서 미리 요금을 고지하고, 미터기 요금과 상관없이 이용요금을 확정하는 게 골자다. 교통사고 등 예기치 못한 상황에선 요금이 재산정될 수 있다. ‘요금시비’를 없애겠다는 취지다. 사전확정요금제는 관계기관 허가를 받는 대로 출시할 예정이다. 수요에 따라 요금이 오르내리는 탄력요금제도 도입한다. 김기년 우티 최고운영책임자(COO)는 “(탄력요금제를 통해서는) 수요가 몰리는 시간대는 높은 요금으로 택시 공급을 유도하고, 수요가 적은 시간대는 요금을 낮춰 승객을 유입할 것”이라고 말했다.내년에는 목적지가 비슷한 손님끼리 합승하는 대신 요금을 할인해주는 ‘우티 풀(Pool)’부터 대형 세단 기반 ‘UT블랙’ 리브랜딩, 빠른 배차 서비스 ‘UT플래시(UT Flash)’ 등 신규 서비스 출시도 계획하고 있다. 화이트 CEO는 “내년 초 택시운송사업의 발전에 관한 법률(택시발전법)’ 개정에 맞춰 택시합승 서비스를 준비 중”이라며 “(우티 풀은) 한국 택시 시장의 ‘게임 체인저’가 될 것”이라고 강조했다. 또 우티는 택시를 활용해 배달업에 진출할 가능성에 대해서도 언급했다. 김기년 COO는 “새로운 사업기회에 대해서는 열려 있다. 관련 기술·상품도 있기 때문에 유망하다면 (배달도) 할 수 있다”고 말했다.또 앱 통합에 따라 국내 우티 이용자는 해외 1만여개 도시에서 따로 앱을 내려 받지 않고, 기존 우티 앱으로 우버를 호출할 수 있게 된다. 반대로 외국 이용자는 한국에서 우버 앱을 열어 우티택시를 부를 수 있다. 우티는 원활한 의사소통을 위해 ‘인앱(In app·앱 내)’ 메시지 번역기능도 탑재했다. 100여개 이상 언어를 제공하며, 고객지원센터를 24시간 운영할 예정이다.이 같은 강점을 내세워 우티는 ‘포스트 코로나’ 시대를 기대하고 있다. 톰 화이트(Tom White) 우티 최고경영자(CEO)는 “코로나19 우려가 잦아들면 해외여행이 자유로워질 텐데 우티는 해외 1만개 도시에서 그대로 이용할 수 있다”며 “한국에 방문한 관광객들도 이 앱을 이용하게 된다”고 설명했다. 이어 “우티가 한국 택시 시장에서 발생하는 여러 문제를 해결할 수 있을 것”이라고 자신했다.△우버의 바람대로 국내에서 합승, 특히 택시합승 서비스가 성공할 수 있을까.(사진=우티)카카오택시 추격하는 우티·타다우티의 재정비로 약 9조원대 규모로 추산되는 국내 택시호출 시장은 카카오모빌리티, 타다, 우티가 3파전 구도를 형성할 전망이다. 다만 선두와의 격차가 커서, 이를 좁히는 게 숙제다. 카카오모빌리티의 가맹택시 ‘카카오T블루’는 2만6000대로 전국 택시의 10% 이상을 차지하고 있다. 모바일인덱스에 따르면 카카오T 월이용자수는 지난 8월 기준 1016만명에 달한다. 반면 우티는 86만명, 타다는 9만명 수준에 불과하다.이 가운데 타다도 올해 안에 새단장한 대형택시 서비스 ‘타다 넥스트’를 시장에 출시한다. 앞서 토스 운영사 비바리퍼블리카는 타다 운영사 VCNC 지분 60%를 인수하고 연말 대형택시 1000대를 선보이겠다고 밝힌 바 있다. 타다 기사로 등록 시 최대 4000만원 지원금을 약속하는 등 파격적인 혜택도 내걸었다. 우티도 가맹택시를 확대하는 데 집중할 계획이다. 현재 1200대 수준인 가맹택시를 연내 1만대, 내년 말 총 2만대까지 확대한다는 포부다. 또 이용자를 모으기 위해 가맹택시·일반택시 서비스를 이용하는 앱 결제 등록 이용자를 대상으로 11월 한 달간 20% 상시 할인 이벤트를 진행하기로 했다. 우티를 바라보는 업계의 시각은 기대 반, 우려 반이다. 택시업계 관계자는 “국내서 먼저 택시합승을 선보인 반반택시도 고전을 면치 못하고 있다”며 “고령화된 택시기사들을 새로운 앱에 정착시키는 자체가 쉽지 않을 것”이라고 지적했다. 익명을 요청한 모빌리티 업계 관계자는 “우버나 티맵택시는 지금껏 별 장애물 없이도 인지도, 점유율을 높이는 데 실패했다. 둘을 합친 우티가 기사나 손님을 확보할 저력이 있을지 의문”이라면서도 “우티, 타다 등 다양한 플레이어들이 경쟁을 펼치면 시장 전체에 긍정적인 영향을 미칠 수 있을 것”이라고 기대했다.한편 이날 화이트 CEO는 “한국 택시시장 규모는 전세계 5대 시장에 손꼽힌다. 전략적 측면에서 매우 중요한 곳”이라며 “앞으로 UT는 기사와 고객을 모두 생각하는 다양한 서비스를 선진적으로 선보이며 상생을 기반으로 하는 모빌리티 시장 성장에 기여하는 한편, 혁신적인 기술을 구현해 국내뿐만 아니라 한국을 방문하는 해외 이용자들도 만족시킬 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.11.01.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>VC·AC, 제2 벤처붐 타고 '상장 러시'</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002979032?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>투자금 회수 쉽고 수익성 개선시장 인지도 높아져 기업가치↑KTB네트워크 등 줄이어 도전벤처캐피털(VC)과 액셀러레이터(AC) 다수가 주식시장 상장에 줄이어 도전한다. '제2 벤처 붐'으로 투자금 회수가 쉬워지고 수익성이 높아진 데다 과거에 비해 벤처투자 시장 인지도가 높아지면서 기업 가치를 높게 평가받을 수 있기 때문이다.KTB네트워크가 올해 안 상장을 목표로 하는 가운데 스톤브릿지벤처스, 캡스톤파트너스, LB인베스트먼트, HB인베스트먼트, 알바트로스인베스트먼트 등이 상장에 뛰어들었다. 초기 유망 스타트업을 투자·보육하는 AC 업계에서는 블루포인트파트너스가 상장 재도전에 나서고, CNT테크가 상장 주관사를 선정했다.코스닥 입성을 노리는 데는 벤처투자 시장이 유례없는 호황을 누리고 있기 때문이다. 이들이 투자한 벤처·스타트업이 유니콘·데카콘으로 빠르게 성장, 최고 수익을 눈앞에 두고 있다. 2년 전만 하더라도 상장에 나선 VC 대부분이 기대에 미치지 못하는 수준의 공모가를 받았다. 실적까지 좋지 않아 주가도 부진했다. 2019년 이후부터 VC의 코스닥 입성은 사실상 명맥이 끊겼다.게티이미지뱅크 제공상장 가시권에 있는 업체는 1세대 VC인 KTB네트워크이다. 지난달 말 한국거래소로부터 코스닥 상장예비심사 승인을 받았다. 운용자산(AUM) 규모는 1조1195억원이다. 배달의민족, 토스 등 유니콘 기업에 투자해 지난해 당기순이익 358억원을 기록했고, 올해 상반기에 이미 441억원을 벌며 사상 최대 실적을 이어 가고 있다. 스톤브릿지벤처스도 지난달 상장예비심사를 청구했다. 심사를 거쳐 내년 1분기 상장을 목표로 한다. 올해 IPO에 성공한 크래프톤·제주맥주·원티드랩을 비롯해 직방·지그재그·스타일쉐어 등에 초기 투자해 높은 수익을 올렸다.초기 스타트업 전문 투자로 '마이크로 VC'를 지향하는 캡스톤파트너스도 내년 상장이 목표다. 운용자산은 2000억원 수준으로 규모가 크지 않지만 당근마켓·마켓컬리·직방·정육각 등 성장세가 가파른 곳에 대규모 후속 투자를 단행, '잭팟'을 터뜨렸다. 이들 외에도 LB인베스트먼트, HB인베스트먼트, 알바트로스인베스트먼트, 이앤인베스트먼트 등이 상장 행렬에 동참할 예정이다.국내 첫 AC '1호' 상장사도 관심이다. 블루포인트파트너스는 지난해 110억원 규모의 프리IPO 투자를 받아 상장 절차를 밟다가 잠정 연기했다. AC 시장 이해도를 높인 다음 기업 가치를 높여 내년에 재도전한다는 계획이다. 180여개 포트폴리오에 투자한 CNT테크도 최근 한화투자증권을 상장 주관사로 선정하고 코스닥 문을 두드린다.&lt;표&gt;벤처캐피털(VC)·액셀러레이터(AC) 국내 증시 추진 현황</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>카카오페이 7% 오른 날, 카뱅은 7% 빠졌다…엇갈린 희비, 왜?</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004665940?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>/그래픽=이승현 디자인기자카카오페이가 성공적인 증시 데뷔전을 치른 날 계열사인 카카오뱅크 주가는 약세를 보였다. 시장 전망치를 하회한 실적에 대한 실망감과 대손비용 증가 등이 악재가 된 것으로 풀이된다.증권가는 카카오뱅크의 펀더멘털(기초체력)은 여전히 굳건하다는 평가와 현재 주가가 고평가됐다는 진단을 동시에 내놓았다.3일 카카오뱅크는 전일 대비 4700원(7.33%) 내린 5만9400원에 장을 마쳤다. 이날 코스피 시장에 상장한 카카오페이는 시초가 대비 1만3000원(7.22%) 오른 19만3000원에 거래를 마감했다.카카오뱅크는 지난 2일 올해 3분기 실적에 대해 당기순이익이 전년 동기 대비 28% 증가, 전분기 대비론 25% 감소한 520억원을 기록했다고 공시했다. 컨센서스(증권사 평균 전망치)를 31.8% 하회했다.증권가는 이자이익과 플랫폼 수익을 비롯한 비이자이익은 증가세를 유지했지만 대손 비용이 크게 증가한 영향이라고 분석했다. 이자이익은 전년 동기 대비 50.7% 증가한 1626억원, 순이자마진(NIM)은 전 분기 대비 0.03%포인트 상승한 1.92%를 기록했다.박혜진 대신증권 연구원은 "NIM은 3분기 중금리 대출이 증가하면서 대출금리가 상승한 영향"이라며 "카카오뱅크의 중금리 대출은 1조1000억원 수준으로 전체 신용대출의 13.4%까지 상승했다"고 설명했다. 다만 중금리 대출 확대로 대손비용 또한 크게 증가했다.수수료와 플랫폼 이익은 전년 동기 대비 271.3% 증가한 210억원을 기록했다. 수수료수익은 프렌즈체크카드, 해외송금, mini(미니) 등이고 플랫폼수익은 증권계좌, 제휴신용카드, 연계대출, 광고수익 등을 포함한다.박 연구원은 "체크카드 취급액과 해외송금 건수가 증가하며 수수료수익 증가를 견인했고 당 분기 롯데카드가 신규 편입돼 제휴 신용카드도 증가했다"며 "광고수익이 추가되며 플랫폼 수수료수익 역시 증가세를 기록했다"고 진단했다.증권업계 전문가들은 카카오뱅크에 대해 엇갈린 전망을 내놓았다. 3분기 실적은 컨센서스를 하회했으나 펀더멘털이 굳건하다는 평가와 가계대출 규제, 경쟁사 등장 등이 걸림돌이 될 것이라는 관측이다.김현기 하이투자증권 연구원은 "컨센서스 하회 이유는 비용 증가로 볼 수 있으나 펀더멘털 악화 측면이 아닌 성장에 따른 판매관리비 증가와 포트폴리오 조정에 따른 건전성 대비 측면이기 때문에 경영 관리 측면에서 문제가 없다고 판단한다"고 말했다.이어 "카카오뱅크의 올해 대출채권 성장률은 26%에 달할 것으로 전망된다"며 "내년 대출 성장률은 다소 낮아지겠으나 자본 규제로 인해 성장할 수 있는 은행이 많지 않은 상황에서 성장 둔화가 아닌 '성장의 이연'으로 생각한다"고 평가했다.반면 김지영 교보증권 연구원은 투자의견을 기존 '매수'에서 '보유'로 하향했다. 김 연구원은 "적정 PBR(주가순자산비율) 5.0배 대비 현재 주가가 다소 높다고 판단되기 때문"이라고 말했다. 다만 연간 실적 상향을 이유로 목표주가는 5만9000원으로 상향했다.그는 "수수료 및 플랫폼 수익은 견조한 수익 증가가 당분간 지속될 것으로 판단되나 최근 주택담보대출 관련 국내 환경 변화에 따라 향후 전체 주택담보대출 시장 성장률 가정치를 하향, 신용대출과 관련해 보수적인 가정이 적용됐다"고 설명했다.정준섭 NH투자증권 연구원은 "카카오뱅크 앱의 MAU(월간활성사용자)는 2분기 1037만명에서 3분기 1085만명으로 48만명 증가에 그친 반면, 동기간 토스의 MAU는 1061만명에서 1209만명으로 148만명 증가해 두 앱의 격차가 벌어졌다"고 말했다.이어 "게다가 최근 토스뱅크까지 등장한 만큼 카카오뱅크에게 이번 4분기는 금융 플랫폼 역량을 입증해야 하는 시험대가 될 전망"이라며 "향후 밸류에이션 리레이팅을 위해서는 차별화된 대손비용률 성과와 금융 플랫폼으로서의 성장 여력을 보여줘야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>제4 인터넷은행 관문, '은행 경쟁력' 살핀다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002979307?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>금융위, 첫 정성 평가…이달 발표빅테크 등 은행업 진출 영향 분석경쟁력 낮을땐 '독자 설립' 급물살정부가 4차 산업혁명 시대를 맞아 '은행업 경쟁력 평가'에 착수했다. 그동안은 정량 평가 중심의 경쟁력 평가만 해 왔다. 정성 평가에 기반한 경쟁력 평가는 이번이 처음이다. 빅테크, 인터넷 전문은행 등에 밀린 은행업권에선 평가 결과를 바탕으로 독자 인터넷전문은행 설립에 강한 드라이브를 걸 것으로 전망된다.금융위원회가 '은행업 경쟁력 평가'를 지난달 시작한 것으로 알려졌다. 경쟁력 평가는 한국금융연구원이 연구용역을 맡아 추진하고 있다. 평가 결과는 이달 말 발표한다. 은행업 경쟁력 평가는 올해 처음 도입됐다. 기존 경쟁도 평가는 시장 내 집중도를 나타내는 허핀달-허시먼 지수(HHI) 등 계량적 수치에 치중한다.반면 경쟁력 평가는 전통 시중은행이 빅테크, 인터넷 전문은행 등과 비교해 경쟁력을 갖췄는지 질적 평가한다. 우선 핀테크와 빅테크 등 새로운 서비스 금융업 진출이 전통 시중은행과 지방은행 등에 미치는 영향을 분석한다. 또 점포의 합리적 운영 전략을 모색한다. 특히 인터넷전문은행 출범 이후의 서비스 제공 실태와 신규 인허가의 필요성을 논의한다.금융위는 은행업권이 디지털전환이란 큰 변화에 직면한 만큼 종합 경쟁력과 경쟁도 평가가 필요한 입장이다. 경쟁력 평가 결과가 나오면 올해 안에 경쟁도 평가도 실시할 계획이다. 은행업 경쟁력 평가 결과는 인터넷전문은행 추가 인허가가 필요한지를 결정짓는 근거가 된다. 기존 전통은행의 오프라인 영업 경쟁력이 낮다는 결론이 도출되면 금융지주사의 인터넷전문은행 설립은 급물살을 탈 것으로 전망된다.최근 분위기도 금융 지주사에 유리하게 조성됐다. 최근 빅테크와 금융사 간 '기울어진 운동장'을 바로잡고 규제 차익을 없애겠다는 금융위의 행보는 금융 지주사에 기회다. 금융지주사는 지주 또는 은행 중심으로 100% 자회사 형태의 인터넷전문은행 설립을 원하고 있다. KB·신한·하나·우리 등 4대 금융지주사와 BNK·JB 등 지방금융그룹 등 총 6곳이 인터넷 은행 설립 의향서를 금융위에 제출했다.금융지주사는 독자 인터넷은행 설립을 통해 더 성공적인 디지털전환과 혁신이 가능할 것이라는 데 의견을 모았다. 인터넷전문은행이 전통 레거시 관념에서 탈피해 새로운 기회가 될 수 있다고 보기 때문이다. 카카오뱅크, 케이뱅크, 토스뱅크 등 정보통신기술(ICT)이 주도하는 기존 인터넷전문은행 성장세에 뒤처질 수 있다는 위기의식이 강하게 작용했다.은행 경쟁력과 경쟁도 평가가 완료되는 내년 초 제4 인터넷전문은행 신규 인가 논의가 진행될 것으로 보인다. 은행연합회도 금융지주사의 독자 인터넷전문은행 설립을 위해 힘을 보탠다. KT, 카카오, 토스 등 거대 ICT 기업에 특혜를 준 만큼 제4 인터넷전문은행은 금융지주사에서 기회가 주어져야 한다는 것이다. 김광수 은행연합회장은 2일 “금융위가 금융지주사 디지털 유니버셜 뱅크를 위한 제도적 여건 조성을 천명한 만큼 인터넷전문은행 설립도 탄력을 받을 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>금리비교 없앤 저축은행 중앙회…회원사 눈치보기?</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000264013?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[앵커]각종 규제로 시중은행에서 대출 받기가 더욱 어려워지고 있는 가운데 저축은행으로 발길을 돌리는 소비자들이 계속 늘고 있습니다.그런데 최근 저축은행중앙회가 회원사 상품 금리를 한눈에 비교할 수 있는 기능을 돌연 없앴는데요.문제는 그만큼 소비자들의 불편도 커졌다는 겁니다.권준수 기자가 보도합니다.[기자]저축은행의 'SB톡톡플러스 앱'입니다.재작년 30억 원을 들여 만들었고 67곳의 저축은행 상품을 비교할 수 있습니다.그런데 최근 금리 순으로 상품을 볼 수 있는 기능이 사라졌습니다.일반적으로 토스나 핀다 같은 금융 플랫폼에서는 개별 조건에 맞게 금리와 한도를 소개해주는 것과 대조적입니다.무엇보다 1금융권을 이용하지 못해서 2금융권을 찾을 경우 받을 수 있는 대출액과 이자가 얼마인지가 가장 중요한데도 각각 다른 사이트에서 확인해야만 합니다.[이은희 / 인하대 소비자학과 교수 : 저축은행 A, B, C 들어가면 다 (금리를) 파악할 수 있게 정보가 나와 있는 거 아니에요. 그걸 통합적으로 (볼 수 있게) 안 해주겠다는 거 아니에요. 고객 지향적이라고 보기는 어려운 거죠. 소비자의 신뢰도나 이용도가 떨어질 수밖에 없다.]실제로 사용해보니 대부분 비대면 상품임에도 가까운 거리의 저축은행을 알려주거나 단순히 판매량이 많은 순으로 상품이 나열돼 있습니다.저축은행 중앙회 관계자는 금리 순 상품 정렬이 사라진 이유에 대해 "금리경쟁을 유도하는 민간 플랫폼과 성격이 다르다"라면서 "과도한 금리경쟁에 따른 부작용을 최소화하기 위함"이라고 말했습니다.하지만 회원사들의 눈치 보기에 급급한 조치라는 지적이 일고 있는 가운데 조금이라도 낮은 금리를 찾는 소비자의 편의는 뒷전으로 밀린 꼴이 됐습니다.SBS Biz 권준수입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.11.13.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>커피 값으로 '테슬라' 주주되세요…금융위, 혁신금융서비스 31건 지정</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004998984?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>이르면 이달부터 20곳의 증권사에서 '해외주식 소수점 거래 서비스'가 제공된다. 한주에 100만원이 넘는 테슬라 등 해외 주요 주식을 커피 값으로 구매할 수 있게 되는 것이다.13일 금융권에 따르면 금융위원회는 전날 정례회의를 열어 이 같은 내용을 포함한 총 31건의 혁신금융서비스를 지정했다.먼저 투자자가 증권사의 거래시스템을 통해 해외주식을 소수 단위로 매매할 수 있는 서비스가 새롭게 선정됐다. 현재 1주당 1000달러(약 120만원)는 넘는 테슬라 등 해외주식에 대해 소수점 거래가 허용되면 커피 두 잔 값인 1만2000원으로 0.01주도 구매가 가능해진다.혁심금융서비스로 지정된 증권사는 DB금융투자, KB증권, KTB투자증권, NH투자증권, 교보증권, 대신증권, 메리츠증권, 미래에셋증권, 삼성증권, 신영증권, 신한금융투자, 유안타증권, 유진투자증권, 카카오페이증권, 키움증권, 토스증권, 하나금융투자, 하이투자증권, 한국투자증권, 한화투자증권 등 총 20곳이다.금융위는 고가 해외주식에 대한 개인투자자의 접근성이 확대되고 소액으로도 분산투자가 가능해 포트폴리오 관리의 효율성이 높아질 것으로 보고 있다. 증권사별 전산개발 상황 등에 따라 최대 소수점 아래 여섯째 자리까지 서비스가 가능하다. 이달 중 한국예탁결제원의 시스템 오픈 이후, 순차적으로 각 증권사의 해외주식 소수점 거래 서비스가 출시된다.금융위는 토스, 토스뱅크 등을 운영하는 비바리퍼블리카가 신청한 '소액 후불결제 서비스'도 혁신금융서비스로 선정했다. 재화나 용역을 구매하려는 소비자가 포인트 잔액 부족시 비금융·비정형 데이터를 활용한 대안신용평가 후 월 30만원 한도 내에서 후불결제를 허용하는 서비스다.신한카드의 '안면인식기술 활용 비대면 카드발급 서비스', BNK자산운용, 교보증권 등이 신청한 '온라인쇼핑 플랫폼을 통한 금융투자상품권 거래 서비스'도 혁신금융서비스로 지정됐다.아울러 벨소프트의 '무인환전기기를 이용한 외국인 관광객 선불카드 서비스'와 한국신용데이터의 '배달매출 신속 정산 서비스'도 함께 지정됐다. 벨소프트는 한국을 방문한 외국인 관광객이 무인환전기기를 이용해 선불카드를 발급 받아 신용카드 가맹점에서 사용할 수 있도록 한 서비스를 내년 4월 출시한다. 한국신용데이터는 이달 중 신청인이 음식점 등 가맹점으로부터 정산금 채권을 양도 받아 채권금액 확정 후 배달매출 발생 익일에 가맹점에게 입금해주는 서비스를 선보인다.한편 금융위는 향후 지정되는 혁신금융서비스들의 지정기간 시작일을 서비스 개시일로 변경키로 했다. 금융위 관계자는 "혁신금융사업자는 실제 시장에 서비스를 출시한 시점을 시작으로 최대 2년의 서비스 제공 기간을 확보할 수 있게 될 예정이다"며 "불가피한 사유 없이 혁신금융서비스의 출시가 장기간 지연되지 않도록 노력하겠다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>한미약품, 급성골수성 백혈병 신약 5000억 규모 기술수출</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002704612?sid=105</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>&lt;한미약품 제공&gt;    한미약품은 급성골수성 백혈병(AML) 치료 신약으로 개발 중인 FLT3억제제(HM43239)를 총 5000억원 규모로 앱토즈 바이오사이언스(이하 앱토즈)에 기술수출(라이선스 아웃)했다고 4일 밝혔다.앱토즈는 미국 나스닥에 상장된 혈액질환분야 연구개발 전문 업체로, 캐나다 토론토에 본사를 두고 있다. 앱토즈는 재발·불응성 급성골수성 백혈병(AML), 고위험 골수이형성증후군(MDS) 등 혈액종양치료 신약 후보물질 4개를 보유하고 있으며, 이번 계약으로 한미약품이 개발한 HM43239의 전세계 개발 및 상업화에 대한 독점적 권리를 확보하게 됐다.한미약품은 앱토즈로부터 확정된 계약금 1250만달러를 500만달러의 현금과 750만달러 규모의 앱토스 주식으로 나눠 받게된다. 이후 다양한 적응증(특정의 약제나 수술 등에 의해 치료 효과가 기대되는 질환이나 증세)에 대한 단계별 임상, 개발과 허가 등 프로젝트 진행 단계를 거칠 때마다 성공보수 격으로 최대 4억750만 달러를 받는다. 또 판매에 따른 단계별 로열티도 지급 받는다.한미약품이 신약으로 개발중인 HM43239는 급성골수성백혈병을 유발하는 FLT3 돌연변이와 SYK를 이중 억제하는 혁신신약이다. 골수성 악성종양의 증식·분화·내성 등의 치료과정에 영향을 미친다. 특히 HM43239는 지난 2018년에 미국 FDA(식품의약국)에게 희귀의약품(ODD)으로, 2019년에는 한국의 식품의약품안전처에게 희귀의약품 지정을 받았다. 한미약품은 HM43239를 투여해 난치성 혈액질환 환자에서 내성 극복이 가능하다고 발표했었다. 현재 HM43239는 미국에서 재발·불응성 급성골수성백혈병(AML) 환자 대상으로 임상 1·2상이 진행되고 있다. 이미 용량증량 연구를 통해 강력한 항종양 활성화가 입증됐다. 권세창 한미약품 대표이사 사장은 "HM43239는 급성골수성 백혈병에서 발현되는 돌연변이를 표적으로 해 치료하는, 기존 치료제의 내성 극복도 가능한 강력한 혈액암 치료제"라며 "혈액 종양 분야에서 혁신적 경쟁력을 갖춘 앱토즈와의 파트너십을 통해 임상개발 속도를 높이고 상용화를 앞당길 수 있도록 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.11.04.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>[기고] 두나무의 우리금융지주 인수전 참여가 불러온 혁신의 물결</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004624571?sid=110</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>막강한 자금력 앞세운 스타트업들, 전략적 M&amp;A 주도한국 산업 전체가 '존속적 혁신'보다 '파괴적 혁신' 시도해야음병찬 &lt;아르밀라 AI 공동창업자·스탯(STAT) 사업전략고문&gt;지난달 20일 저녁, 필자의 카카오톡 대화방들이 갑자기 분주해졌다. 다양한 연령대·직업·배경의 지인들이 있는 대화방이 분주해진 이유는 바로 "예금보험공사가 진행한 우리금융지주 지분 매각 입찰에 가상자산(암호화폐·코인) 거래소 업비트의 운영사 두나무가 참여했다"는 뉴스 때문이었다.두나무는 ‘금융과 기술을 결합, 누구나 더 쉽게, 효과적으로 투자하는 금융 환경을 만들겠다’는 모토 하에 암호화폐 거래소 ‘업비트’, 주식 애플리케이션 ‘증권플러스’ 등을 운영하고 있다.올해 암호화폐 거래가 폭증하면서 업비트는 국내외 업계 내 입지를 굳혔고, 전세계 대형 거래소들과도 어깨를 나란히 하고 있다. 이런 성장에 힘입어, 올해 상반기 두나무의 영업이익이 네이버와 카카오 영업이익 총합을 능가했고, 전문가들은 향후 두나무가 미국 증시에 상장할 것으로 점치고 있다. 막강한 자금력 앞세운 스타트업들, 전략적 M&amp;A 주도2012년 주식시세 확인 서비스 ‘증권플러스’로 출발한 두나무가 이렇게 성장하여 국내 5대 금융지주회사 중 하나인 우리금융지주의 지분 인수전에 뛰어들었다는 것은, 그 자체로 업계 지인들에게 하나의 신선한 충격이었다.물론 대기업의 '인수 대상'으로만 여겨지던 토종 스타트업들이 전략적 인수합병(M&amp;A)의 주체가 되는 것은 이미 자연스러운 일이 되었다. 유니콘 스타트업들은 대규모 투자 유치로 확보한 막강한 자금력으로 다른 스타트업·대기업 자회사 또는 사업부문을 인수하는 M&amp;A를 진행하고 있다.최근의 국내 사례만 보더라도, 제 3호 인터넷 전문은행 토스뱅크 운영사 비바리퍼블리카의 ‘타다’ 인수, 소프트뱅크 비전 펀드가 2조원을 투자한 야놀자의 ‘인터파크’ 인수, 국내 1호 프롭테크 스타트업 직방의 ‘삼성SDS 홈 사물인터넷(IoT) 부문’ 인수 등을 꼽을 수 있다.  전진하는 규제 완화, 그리고 혁신을 위한 노력의 확산전통적으로 금융 산업은 ‘실물 경제를 지원하는 인프라’라는 인식이 지배적이었고, 시스템의 안정, 소비자의 보호 등을 위해 각종 규제를 정립해 왔다. 그러나 네이버·카카오 등과 같은 빅테크(Big Tech)기업 뿐 아니라 혁신적인 ‘테크핀(Tech-Fin)’ 스타트업들이 속속 등장하면서, 규제 당국도 금융산업의 경쟁과 혁신이 금융서비스의 수준을 한차원 높일 수 있고, 이것이 결국 소비자의 편익을 증진한다는 철학으로 전환하고 있다.이런 흐름에서 도입된 인터넷 전문은행 인가, 금융규제 샌드박스, 마이데이터 사업자 허가 등 굵직한 규제 완화책들이 금융 시장의 혁신을 가속화하고 있다.인터넷 전문은행 인가 이후, 카카오뱅크와 케이뱅크는 출범한지 4년만에 자산을 40조 규모까지 늘리면서 성장을 이어가고 있고, 지난 10월 출범한 토스뱅크도 1000만명이 넘는 월간 활성이용자의 빅데이터를 바탕으로 활발하게 사업을 진행 중이다.앞으로 인터넷 전문은행들은 ‘플랫폼’ 기업으로서의 멀티플을 바탕으로 대규모 자금을 확보, 공격적인 M&amp;A와 사업 확대를 꾀할 것이다. 2년 전부터 시작된 금융규제 샌드박스는 블록체인, 빅데이터, 인공지능 등의 기술을 기반으로 혁신적인 서비스를 제공하는 100개 이상의 스타트업이 출현하는 계기를 만들었고, 벤처캐피탈(VC)들은 여기에 약 6000억원의 투자를 집행한 것으로 나타나고 있다.지난 9월 사업자에 대한 최종 허가를 발표한 마이데이터 사업의 경우 아직은 그 효과를 가늠하기는 힘들지만, 고객에 대한 엄청난 집중, 데이터 기반 사업의 경험과 기술적 역량을 쌓아 온 빅테크와 테크핀 기업들에게 약진의 기회를 부여하면서 기존 금융사들의 구조 전환을 가속화하는 동력으로 작용할 것으로 보인다. 기존 사업자가 주의해야 할 ‘존속적 혁신’의 함정이런 시장의 변화를 맞이하여 기존 대형 금융사들도 사업 구조의 디지털 전환, 인공지능 등 신기술 도입과 확산, 이를 위한 인력 확보 및 투자 등에 자원을 집중하는 동시에 금융 뿐 아니라 비금융까지도 아우르는 생활 밀착형 플랫폼으로 변모하면서 고객에게 새로운 경험을 제공하고 있다.그러나 여기에 빠지지 말아야 할 하나의 ‘함정’이 있다. 과연 우리 조직이 하고 있는 혁신이 과연 ‘존속적 혁신’의 영역인지, 아니면 진정한 ‘파괴적 혁신’인지를 명확히 하는 것이다.지난해 1월 세상을 떠난 클레이튼 크리스텐센 교수는 혁신을 ‘존속적 혁신 (sustaining innovation)’과 ‘파괴적 혁신 (disruptive innovation)’으로 구분했다. 존속적 혁신은 주요 시장에서 활동하는 주류 고객이 기대하는 수준에 맞춰 기존 제품의 성능을 향상하는 것으로, 크리스텐센 교수는 “특정 산업 내에서 일어나는 대부분의 기술 진보는 존속적인 성격을 띤다”고 설명했다.반면 파괴적 혁신은 "기존 기업들이 간과했던 고객층을 겨냥, 적절하고 편리한 기능을 낮은 가격에 제공하여 발판을 확보하고, 이 장점을 유지한 채 기존 기업의 주류 고객이 요구하는 성능까지 제공하면서 시장의 상층부로 올라가, 결국 주류 소비자들이 신규 진입기업의 제품이나 서비스를 대규모로 사용하기 시작할 때" 일어나게 된다.'토스'가 바로 이 파괴적 혁신의 과정을 잘 보여주는 사례 중 하나일 것이다. 토스의 가장 초기 서비스였던 ‘간편 송금 서비스’를 기획하는 과정에서 ‘고스트 프로토콜’이라는 프로젝트로 3개월간 각 지역을 돌아다니며 사람들이 어떤 불편함을 겪는지 관찰하여 필요할 만한 앱을 기획하는 과정을 반복했다. 이후 100여개의 아이디어가 탄생했는데, 그 여섯 번째 시도가 바로 토스였다고 한다.토스는 론칭 이후 1년 동안 액티브 엑스와 공인인증서 관련 규제로 빛을 보지 못하다가, 한류 열풍 덕택에 외국인의 간편 결제 수요 등이 맞물리면서 일부 규제가 풀리고, 이후 본격적 성장을 시작하게 된다. 이렇게 조그맣게 생긴 틈을 계속해서 넓히고 주류 시장으로 진입하기 위해서, 토스는 데이터를 기반으로 사용자의 니즈와 행동을 추적해가면서 은행, 보험, 카드 등 다양한 서비스를 제공하였고, 결국 올해 10월 제 3 인터넷 전문은행 서비스를 론칭하게 되었다.반면 이미 거대한 규모의 고객과 그에 맞는 조직을 갖추고 있는 주류 기업은, 새로운 소비자가 있는 소규모 신생 시장에서 강력한 포지션을 구축하는데 필요한 자본과 인력을 자유롭게 배분하기 어렵다. ‘새로운 소비자’를 위해 ‘새로운 것’을 만들자는 시도가, 기존 고객을 대상으로 한 제품과 서비스, 이를 운영하는 조직에 도움이 되는 무언가로 변질되기 쉽고, 그 진행 과정 또한 여러 가지 이해관계에 얽혀 적시에 의사 결정을 하지 못하는 경우도 많을 수 밖에 없다.이러다 보면 결국 ‘파괴적 혁신’을 위한 투자가 아니라 ‘존속적 기술’에 대한 투자가, 모두의 마음과 이해관계를 다치지 않는 대안이 된다. 필자의 의도를 오해하지 않기 바란다. 절대 주류 기업 조직이 혁신을 거부하는 사람들로 가득 찼다거나, 자원과 역량이 충분하지 않다는 이야기를 하는 것이 아니다. 오히려 기존 고객, 기존 사업과 서비스, 기존 투자자에 대한 열심과 헌신이 역설적으로 그렇게도 원하는 진정한 혁신을 가로막는 족쇄가 될 수 있다는 것이다.결국 유의미한 ‘파괴적 혁신’을 하려면, 적합한 비용 구조와 자원을 가진 독립적인 조직을 별도로 두고, 여기서 새로운 소비자를 위한 새로운 경험을 만들어내는 실험을 빠르게 반복하면서 학습, 성장할 수 있도록 하는 것이 매우 중요하다고 할 수 있다.  기존 사업자의 ‘파괴적 혁신’ 노력: 다이어그램 벤처스 사례다이어그램 벤처스는 캐나다 7위 금융그룹인 PCC(Power Corporation of Canada)가 설립한 ‘벤처 런치패드’ 또는 ‘하이브리드 벤처 펀드’라고 할 수 있다. PCC는 생명보험, 연금보험, 자산운용 등 다양한 금융 사업을 전개하는 지주회사로 2020년 기준 총자산 약 1,200조원, 매출액 약 70조원 규모의 대형 금융그룹이다. 대표적인 자회사는 캐나다 2위의 생명보험사인 캐나다 라이프(Canada Life)가 있다.2016년 PCC는 “(주력 사업인) 보험, 금융서비스, 그리고 헬스케어를 파괴적으로 혁신할 스타트업을 만들어낸다”는 목표로, 그룹의 투자 전문 자회사인 사가드 홀딩스(Sagard Holdings)를 유한책임투자자(LP)로 하는 벤처 캐피탈 다이어그램 벤처스를 설립하였다.다이어그램 벤처스는 기존 VC처럼 외부 창업팀이 접근해 오기를 기다리지 않는다.다이어그램 벤처스의 파트너들, PCC 및 금융계, 그리고 스타트업의 네트워크를 통해 혁신적인 아이디어를 만들어내고, 수집하고, 까다롭게 검토하여 걸러내는 과정을 정기적으로 거친다.이 과정을 통해 선별된 아이디어에 대해서 소규모의 내부 팀과 리소스를 동원해 시드 라운드(Seed Round)를 거칠 정도의 프로토타이핑과 외부 검증을 하고, 이후 이 새로운 사업과 맞는 ‘창업자’를 찾는다.이 창업자와 합을 맞추고 창업자가 사업을 자신의 것으로 소화하는 동안, 스타트업의 성장을 위해 필요한 각종 네트워크, 파트너십, 자원, 경험있는 인력 등을 함께 준비하고, 그 이후 본격적 펀딩과 확장의 과정을 진행한다. 그리고 이 모든 과정을 캐나다 뿐 아니라 북미 전역에서 진행함으로써, 보다 넓은 시장에서 아이디어를 찾아내고, 보다 넓은 시장에서 활용될 수 있는 서비스를 만들어낸다.기존 사업의 외부에서 혁신을 위한 '시드'를 만들어내고, 이를 진두지휘할 창업자를 찾아내어 경험과 자원을 투여함으로써 스타트업의 리스크를 최소화하고, 이후 스타트업이 성장했을 때 기업공개(IPO) 뿐 아니라 기존 사업의 M&amp;A를 통한 ‘우군화’ 등 다양한 엑시트(Exit) 전략을 취하는 이 모델로, 다이어그램 벤처스는 지난 5년간 14개의 포트폴리오 회사를 만들어냈으며 이 중 2개는 엑시트에 성공했고, 1개는 IPO를 하며 PCC의 기업 가치를 높이는데 기여하고 있다. 다시 한 번 한국의 산업 전체가 ‘파괴적 혁신’을 시도할 시기돌이켜보면 한국의 70년, 80년대는 세계 시장을 향해 도전한 ‘파괴적 혁신’의 시기였다. 이 시기의 눈으로 본다면, 현재 우리나라의 주력 기업들이 효율성에 근거한 ‘존속적 혁신’의 덫에 붙들려 있는 것은 아닌지 끝없이 자문해 보아야 할 것이다.다행히도 우리나라는 빠르게 성장하는 스타트업 생태계 뿐 아니라 제조, 금융 등 기존 주력 산업에도 재무적 자원과 인적 자원이 아직까지는 풍부하다. 더 늦기 전에, 성장 시장의 이코노믹스에 대한 이해와 글로벌하게 열린 시각을 바탕으로, 기존 산업의 주류 사업자들이 ‘스스로를 파괴적으로 혁신’하면서 새로운 역동성을 만들어내고, 이를 통해 사회 전반에 혁신의 기운이 확산되기를 기대한다.■음병찬 아르밀라 AI 공동창업자·스탯(STAT) 사업전략고문 약력△서울대학교 졸업△액센추어·IBM·부즈앤컴퍼니·모니터그룹 전략 컨설턴트△카카오 AI 전략 및 비즈니스 개발 총괄△엘리먼트AI 한국 지사장△아르밀라 AI 공동창업자·스탯(STAT) 사업전략고문외부 필진의 기고 내용은 본지의 편집 방향과 다를 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>정부 '대출 옥죄기' 먹혔다…10월 은행권 가계대출 증가세 주춤</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004668560?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>3일 오후 서울시내 한 시중은행 대출 창구에서 고객이 상담을 받고 있다/사진=뉴시스지난달 은행권의 가계대출 증가폭이 5조원으로 지난 9월보다 1조원 이상 줄어든 것으로 나타났다. 정부의 고강도 대출 옥죄기 정책의 영향으로 풀이된다. 시중은행들은 규제가 강화된 가계대출 대신 기업대출로 눈을 돌렸다. 한국은행이 10일 발표한 '2021년 10월중 금융시장 동향'에 따르면 지난달 말 은행 가계대출 잔액은 1052조7000억원으로 지난 9월보다 5조2000억원 늘었다. 증가폭은 지난 9월(6조4000억원)보다 1조원 이상 줄었다. 1년 전(10조6000억원)에 비해 증가폭이 크게 둔화됐다. 금융당국의 대출 규제 강화로 집단·기타대출 증가액이 감소한 때문으로 보인다.가계대출 항목별로 보면 여전히 주택담보대출의 증가세가 이어졌다. 주택매매와 전세거래 관련 자금수요가 지속되면서 지난달 주택담보대출은 전월 대비 4조7000억원 늘었다. 그러나 집단대출 취급 감소 등의 영향으로 증가폭은 전월(5조6000억원) 대비 줄었다는 게 한은 측의 설명이다. 전세자금 증가액은 2조2000억원으로 전월(2조5000억원)과 비슷한 수준을 이어갔다. 다만 지난달 주택담보대출 증가액이 코로나19(COVID-19) 사태 이전인 2017∼2019년 10월 주택담보대출 평균 증가액(3조8000억원)과 비교해 여전히 높은 수준인 만큼 강화된 규제 속에서 주택 매매, 전세 거래를 위한 자금 수요는 여전히 많다고 볼 수 있다. 신용대출을 포함한 가계 기타대출 잔액은 5000억원 증가하는 데 그쳤다. 은행 등에서 대출금리 인상 등의 영향으로 증가폭이 전월(8000억원)보다 줄어든 것으로 분석된다. 금융당국에 따르면 신용대출은 지난달 출범한 토스뱅크가 가계대출 한도 5000억원을 모두 소진한 바 있다. 한은 관계자는"기타대출의 경우 하반기 DSR(총부채원리금상환비율) 규제 강화를 포함한 정부의 대출규제와 은행권 대출금리 인상 등이 대출 증가세 억제에 효과가 있었다고 본다"며 "지난 8월 한은의 기준금리 인상 효과는 즉시 영향을 미치지 않고 시차를 두고 대출 수요 억제에 도움을 줄 것"이라고 설명했다. 반면 기업 대출은 한 달새 10조3000억원이 늘며 직전달(7조7000억원)보다 증가 폭이 커졌다. 10월 증가액 기준으로는 관련 통계 작성을 시작한 2009년 이후 최대치다. 지난 9월(7조7000억원)과 비교해 증가액도 상당폭 확대됐다. 가계대출 총량 규제로 가계대출을 문턱을 높인 은행들이 기업대출로 눈을 돌린 결과다. 대기업 대출은 2조3000억원 늘었다. 분기말 일시상환분 재취급과 은행들의 기업대출 확대 노력 등에 힘입어 증가폭이 확대됐다. 중소기업 대출은 코로나19 관련 은행과 정책금융기관의 금융지원이 지속되는 가운데 업황이 좋아진 일부 업종을 중심으로 시설자금 수요가 늘면서 8조원 늘었다. 기준금리 인상 등의 영향으로 은행 수신(예금)은 크게 늘었다. 지난달 중 은행 수신은 19조5000억원 늘어나 지난 9월(18조2000억원)에 이어 증가세를 이어갔다. 항목별로는 정기예금이 17조9000억원 늘며 지난 9월(4조원)보다 증가 폭이 커졌다. 은행들의 자금유치 노력과 예금금리 상승 등의 영향으로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.11.02.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 서비스 사전신청 개시</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010806306?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>기사내용 요약22일 사전신청 마감 및 순차 오픈 시작[서울=뉴시스]이주혜 기자 = 토스증권이 다음 달 해외주식 서비스 출시를 앞두고, 사전신청 접수를 시작한다고 2일 밝혔다. 사전신청 고객에게는 최대 6개월의 해외주식 매매 수수료 무료 혜택을 제공한다.토스증권에 따르면 사전신청은 이달 22일까지 진행되며, 같은 날부터 사전신청 고객을 대상으로 해외주식 서비스를 순차 오픈할 예정이다. 미국 주식시장에 상장된 352개의 주요 종목과 156개의 상장지수펀드(ETF) 등 500 여 종의 거래를 먼저 선보이며, 거래 종목은 점차 확대해나갈 예정이다. 해외 주식 소수점 거래는 내년 1분기 중 제공할 계획이다.사전신청을 완료한 고객 전원에게는 3개월 해외주식 매매 수수료 무료 혜택을 제공한다. 친구를 초대하면 수수료 혜택이 3개월 연장돼 최대 6개월간 수수료 없이 해외주식 투자를 이용할 수 있다. 국내 거주 중인 만 19세 이상의 성인이라면 누구나 토스 앱 하단 주식탭의 토스증권 모바일 트레이딩 시스템(MTS)을 통해 참여할 수 있다. 토스증권이 새롭게 선보이는 미국주식 서비스는 별도의 앱을 설치해야 하는 번거로움 없이 토스앱 내 토스증권 MTS를 통해 이용할 수 있다. 또한, AI 기반의 실시간 해외뉴스 번역 서비스를 통해 신속한 투자 정보를 제공하며 투자자들의 정보 접근성을 높였다. 그밖에 ▲무료 실시간 시세 ▲자동 환전을 통한 원화 거래를 지원하며 고객들에게 국내 주식투자와 다름없는 쉽고 간편한 투자 경험을 선사한다는 계획이다.토스증권 윤민정 해외주식 프로덕트 오너는 "투자자들의 해외 투자에 대한 관심이 높아지고 있지만, 여전히 종목 검색부터 환전, 실제 투자 과정까지 불편한 지점이 많다"며 "토스증권 해외주식 서비스는 고객에게 시장이 열리는 시간대만 달라졌을뿐 국내 주식거래 방식과 차이를 거의 느끼지 못할 혁신적인 투자경험을 제공할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.11.12.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[리딩금융인] 토스에 '어벤저스 해커팀' 있다…평균연령 20대</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000635573?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>세계 3대 방어대회 휩쓴 이종호 리더 합류…1월 출범 토스 '보안기술팀'"토스에는 다른 회사들은 가질 수 없는 토스 보안 기술팀이 개발한 자체 보안솔루션을 탑재하고 있습니다. 보안 기술로는 동종업계 국내 최고 수준으로 끌어올렸다고 자부합니다"지난 1월 토스에 둥지를 튼 토스 '보안기술팀'의 시너지는 기대 이상이었다. 세계 최고 수준의 화이트해커로 전 세계 해킹 대회를 섭렵한 이종호 리더를 주축으로 뭉친 보안기술팀은 일 년도 안되는 사이 토스만의 자체 보안 솔루션을 최고 수준으로 끌어올리고 국내 해커대회 1등을 통해 존재감을 드러냈다.(왼쪽부터)토스 보안기술팀의 정한솔 매니저, 이종호 리더, 표상영 매니저가 인터뷰에서 답변하고 있다. [사진=토스]토스뱅크부터 토스증권까지 토스만의 '원 앱' 전략 실현이 가능했던 것도 토스의 보안기술이 뒷받침하고 있었기 때문이다. 토스뱅크는 은행 점검 시간에도 고객 이용의 불편이 없도록 예약 송금을 실시하고 있는데 이런 서비스 또한 보안 기술력을 기반으로 이뤄지고 있다.보안기술팀의 활약 덕분에 일 년새 토스 보안기술력이 국내 최고 수준으로 성장했다는 평가다.사전적으로 해커란 '컴퓨터 또는 컴퓨터 프로그래밍에 뛰어난 기술자로서 컴퓨터 시스템 내부구조 및 동작에 심취하여 이를 알고자 노력하는 사람'이지만 대내외적으로는 기술을 이용해 내부정보를 탈취하는 부정적 이미지가 강하다. 반면 역으로 이를 막는 '화이트 해커'도 존재하는데 토스 보안기술팀은 자체 보안팀과 별도로 화이트 해커들로 구성된 보안기술 전문 조직이다.구글을 비롯한 글로벌 플랫폼 기업에선 화이트 해커 팀이 뿌리를 내리고 있지만 국내에선 보기 드문 사례로 뽑히고 있다.&lt;아이뉴스24&gt;가 지난 10일 토스 보안기술팀의 이종호 리더, 표상영 매니저, 정한솔 매니저를 만나 해커들의 세계과 토스 보안기술에 관한 얘기를 나눴다.◆ 평균연령 20대 '보안기술팀' 글로벌 해커를 품다토스 보안기술팀은 토스의 내외부 보안기술을 컨트롤하는 조직으로 위협을 사전방어하는 동시에 최신 보안트렌드를 개발연구해 토스 서비스 전반에 적용하고 있다. 지난 1월 꾸려졌으며 현재 7명으로 구성된 평균연령 20대의 젊은 팀이다.토스에는 기존에도 보안 유관부서가 존재했지만, 화이트해커 팀인 보안기술팀은 이와 별도로 꾸려졌다.지난달 27일 토스는 9월 3일부터 열흘간 열린 국내 유일한 해킹대회인 금융보안원 주관 '피에스타 2021 금융보안 위협분석 대회(금융보안 위협분석 대회)'에서 1위를 차지한 바 있다. 토스 보안기술팀은 사내 카페명인 '커피 사일로'라는 팀명으로 출전했다.보안기술팀은 대회에서 1등을 할 수 있었던 비결로 모의 해킹 테스트 등 사전학습을 통한 결과와 팀워크의 조화라고 답했다."최신 기술 리서치나 해킹 커뮤니티 활동 등을 통해서 최신 보안 기술 트렌드를 따라가고 있는데, 이를 통해 익힌 익숙한 문제가 나와 다른 팀들보다 수월하게 문제를 해결할 수 있었습니다."◆ 화이트해커에게 중요한 건 '기본기'와 '창의력'이들이 화이트해커가 되기로 결심한 계기도 비슷하다. 모두 어린시절부터 컴퓨터를 가까이 접하며 게임을 즐겨하는 과정에서 해킹에 흥미가 생겼다고 답했다.정한솔 토스 매니저는 "어릴 적 부모님이 PC방을 운영하시다 보니까 컴퓨터에 접할 기회가 많았다"고 전했다."그러다 보니 게임에 관심이 많아졌고 제가 또 호기심이 많은 성격라서 게임 해킹 같은 게 어떻게 동작하는지 흥미를 느끼게 됐어요. 커서는 제가 이런 해킹을 막아주는 화이트 해커가 되고 싶다는 생각이 들었습니다."해커 특히 '화이트 해커'는 대중에게 생소하기 마련이다. 화이트해커를 꿈꾸는 이들이라면 우선 컴퓨터에 대한 탄탄한 기본기부터 쌓아야 한다."해커가 되려면 기본적인 컴퓨터 사이언스 의식을 탄탄하게 쌓는 게 중요하거든요. 해킹이라는 것 자체가 기존에 만들어진 제품을 분석해 잘못된 흐름이 있다면 로지컬하게 파악하고 그것을 해결하기 위한 방안을 연구를 하는 분야예요. 창의력으로 활동을 해야 하기 때문에 일단 기본기가 가장 중요합니다. 그 기본적인 지식을 기반으로 본인만의 노하우를 지속적으로 쌓아가면 좋은 해커가 될 수 있으리라 봅니다."◆ 글로벌 최고 화이트 해커가 토스에 온 이유는?이종호 토스 보안기술팀 리더가 인터뷰에서 답변하고 있다. [사진=토스]이 리더는 미국 데프콘, 일본의 세콘, 대만 히트콘 등 세계 3대 해킹 방어 대회를 휩쓸어 국내 보안 업계에선 '레전드'로 손꼽히는 보안 전문가다. 그는 토스를 선택한 이유로 토스의 문화를 꼽았다."토스는 업무에 몰두할 수 있는 환경이 보장된다는 점이 화이트해커 문화와 들어맞아서 선택했어요. 기업보안이라는 것은 보안팀만 열심히 한다고 되는 부분이 아니고 모두가 보안을 신경써야 하는 만큼 더 어려운 것이거든요. 그런데 토스는 모니터를 켜두면 벌금을 낸다든지 하는 방식으로 모두가 보안 문화 구축을 위해 노력하는 환경이 갖춰져 있어요."실제 토스는 일정 기준 이상을 보안에 투자하고 있다. 금융사는 '금융보안 거버넌스 가이드'에 따라 정보기술인력 5% 이상, 정보보호인력 5% 이상, 정보보호 예산 7% 이상을 투자하도록 돼 있는데 토스는 12.8%로 기준을 넉넉히 상회하고 있다.◆ 해커라는 오해…"위협 말고 세상을 이롭게도 해요"화이트해커로서의 고충도 따른다. 가장 큰 장애물은 공격이 아닌 사람이다."사람이 가장 힘들어요. 좋은 점도 나쁜 점도 사람이에요. 사람이 보안에서 제일 컨트롤하기 어려우니까요. 보안이란 게 공격이 들어오는 시스템적인 부분도 있지만 사람을 통해서 들어오는 부분도 있거든요. 그런데 사람은 아무래도 직접적으로 컨트롤을 못하다보니 신뢰를 바탕으로 해야 하는 부분인데 개개인이 실수를 하면 큰 보안사고로 이어질 수 있다는 것이 가장 어렵죠."해커로서 받는 부정적인 오해도 있다고."영화 같은 미디어 매체에선 해커 하면 범죄자로 보지만 사실은 이렇게 보안을 막기 위해 이로운 방향의 업무를 많이 하고요. 하지만 아무래도 안 좋은 인식이 있다보니 해커보단 보안전문가라고 설명할 수밖에 없어요."◆ 토스 '원 앱' 전략 성공 비결은 보안 기술토스 보안기술팀이 기자와 인터뷰를 하고 있다. [사진=이재용 수습 기자]토스가 금융앱이기 때문에 가지는 특수성도 있다. 일반 개인정보뿐만 아니라 금융정보까지 다루는 만큼 보안이 더 중요하다. 토스 보안기술팀은 안전한 서비스 제공을 위해 서비스 설계 배포까지 주기적으로 보안을 체크하고 보완하고 있다.토스만의 '원 앱' 전략이 가능했던 것도 토스의 보안기술력 덕분이다. 실제 화면에서 보이지 않지만 백그라운드에선 보안시스템이 동작하고 있다는 설명이다.이 리더는 "토스 서비스의 보안성 향상을 위해서 서비스 설계부터 실제 운영 시에도 보안이 함께 녹아들 수 있도록 노력하고 있다"며 "모든 토스 서비스를 오픈하기 전에 개발과 함께 보안성 테스트를 병행하고, 오픈 후에는 우리 팀이 외부자 모의 해킹 관점에서 취약점 진단을 수행한다"고 전했다.보안기술팀이 자체 개발한 토스만의 보안 솔루션에 대한 자부심도 남다르다.그는 "우리 팀만의 기술력을 이용해 보안 솔루션을 직접 개발하고 내제화해서 진행을 하고 있기 때문에 국내에서는 따라올 수 없다는 자부심이 있다"며 "자체기술로 만든 것이기 때문에 다른 회사들은 가질 수 없는 기술들이 많다"고 강조했다.앞으로도 토스 보안기술팀은 국내뿐 아니라 국외 해킹대회에도 출전할 계획이다. 가장 큰 목표는 소비자들에게 '토스 보안은 믿을 수 있다'는 신뢰를 심어주는 것이다."사용자들이 '토스 보안은 믿을 수 있지'라는 생각을 갖도록, 토스를 사용하든 안하든 신뢰를 가질 수 있도록 노력해나갈 예정입니다"</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.11.08.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>유인책 폈지만… 인터넷전문은행, 중·저신용자 대출 목표 달성 가능할까</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003636009?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>사진=뉴시스    인터넷전문은행들이 중저신용 대출을 늘리기 위해 유인책을 펴고 있지만, 연내 목표 달성은 어려울 전망이다. 가계부채 증가율 관리에 동참하면서도 중저신용 대출을 늘려야 하는 어려움 속에서 중저신용자 대출은 대출 총량 규제에서 제외해야 한다는 목소리도 나온다.   8일 금융권에 따르면 인터넷은행들은 최근 중저신용자 대출 비중 늘리기에 안간힘을 쓰고 있다.    케이뱅크는 6일부터 고신용 고객(코리아크레딧뷰로(KCB) 신용점수 820점 초과)의 마이너스통장 신규 대출 및 증액 신청을 연말까지 중단했다.    중저신용 고객 유인책은 확대했다. 케이뱅크는 9, 10월 진행했던 ‘대출 이자 2개월 캐시백’ 이벤트를 연말까지 연장했다. 또 중저신용 고객이 중대한 사고로 대출을 상환할 수 없게 되는 경우 보험사에서 대출금을 대납해주는 ‘대출 안심 플랜’ 보험을 출시했다.   카카오뱅크도 지난달 1일 마이너스통장 신규 취급을 중단하고, 고신용자에 신용대출을 내주지 않고 있다. 중저신용 신규 고객에는 6월부터 대출 첫 달 이자를 지원하고 있으며, 8월엔 중저신용자 대상 전용상품을 출시했다.      카카오뱅크 본사. 연합뉴스    인터넷전문은행들이 중저신용 대출 유치에 속도를 내는 이유는 금융위원회에 제출한 목표를 맞추기 위해서다. 올해 중저신용 대출 비율(잔액기준) 목표는 케이뱅크가 21.5%, 카카오뱅크가 20.8%다.   윤호영 카카오뱅크 대표는 실적 발표 컨퍼런스콜에서 “3분기 중저신용 대출 비중은 대출 잔액기준으로 13.4%”라며 “연간 목표는 20%를 최대한 달성하도록 노력하고 있다”고 설명했다.   케이뱅크의 중저신용 대출 비중은 1분기 18.2%에서 2분기 15.5%로 떨어졌다. 케이뱅크 관계자는 “3분기 비중은 집계되지 않았으나 크게 오르지는 않았을 것”이라며 “하반기 들어 강하게 드라이브를 걸고 있지만, 고신용 대출보다 대출 한도가 적어 비중을 늘리기가 쉽지 않다”고 토로했다.      사진=연합뉴스    지난달 세 번째 인터넷전문은행으로 문을 연 토스뱅크는 출범 열흘 만에 대출 총량 한도 5000억원을 모두 소진하고 대출 업무를 중단했다. 토스뱅크의 중저신용 대출 비중은 28.2%로 케이뱅크, 카카오뱅크보다 높았으나 목표치인 34.9%에는 크게 못 미쳤다.   업계 관계자들은 인터넷은행들이 남은 두 달 동안 중저신용 대출 비중 목표에 도달할 가능성은 적을 것으로 보고 있다. 인터넷은행들은 사업성이 높은 고신용자 차주들을 확보하지 못하고, 중저신용 고객 확대로 연체율 상승 등 건전성 우려가 높아지는 데에 난감해하고 있다.   한 인터넷은행 관계자는 “부담스러운 상황인 것은 사실”이라며 “대출 총량 규제에서 중저신용 대출은 제외해주는 것이 합당하다고 생각된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>토스에 '타다' 넘긴 쏘카, 상장 앞두고 흑자전환</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036895?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>(사진=쏘카)내년 상장을 앞두고 있는 모빌리티 플랫폼 ‘쏘카’가 3분기 흑자전환에 성공했다. 코로나19에도 이용이 증가한 데 따른 것인데, 운영 효율성을 높이고 다양한 상품을 선보이며 고객 락인(lock-in·묶어두기) 효과를 극대화한 것이 영향을 미쳤다. 쏘카는 올해 3분기 카셰어링 사업 매출이 전년동기 대비 44.4% 늘어났다고 9일 밝혔다. 3분기 카셰어링 운영 차량은 최대 1만8000대로 전년동기 대비 38% 늘었다. 이용시간도 전년동기 대비 39.1% 상승했다. 이와 함께 영업이익도 흑자전환했다. 지난해 4분기 이후 3분기 만에 다시 흑자를 기록하게 된 것이다.코로나19 확산으로 인한 사회적 거리두기 조치가 지속됐음에도 운영 차량을 크게 확대하고 기술에 대한 투자를 늘린 것이 주효했다.쏘카는 현재 전국 110개 도시 4000여개 쏘카존에서 카셰어링 서비스를 제공하고 있다. 수도권과 6대 광역시 거주자 81%는 거주지에서 500m 이내에 위치한 쏘카존에서 편리하게 카셰어링 서비스를 이용할 수 있다. 쏘카 측은 또 차량 이용 데이터는 물론 다양한 사회경제 데이터를 결합해 차량 배치와 운영, 예약 시스템 등을 고도화해 이용시간, 이동거리 등의 주요 지표가 모두 상승했다고 설명했다. 쏘카 관계자는 “올해 차량 7500대를 투입하는 등 과감한 투자를 하고 있다”면서 “또 업력 10년이 되면서 이제 이용자들이 어디서 차를 어떻게 빌리고 언제 쓰는지에 대한 많은 데이터를 가지고 있고 이를 저희가 개발하고 있는 기술에 적용하다 보니 더 효율적으로 차량을 운영하게 됐다”고 말했다. 이어 “이러한 운영 부문에 있어 최적화가 계속 일어나면서 흑자를 다시 만들어낸 것”이라고 덧붙였다.이번 실적 개선에는 적자였던 ‘타다’ 운영사 브이씨엔씨(VCNC) 지분을 일부 정리한 것도 영향을 미쳤다. VCNC는 지난해 순손실만 112억원을 기록하는 등 쏘카의 적자 요인으로 지목돼왔다. 지난달 토스 운영사인 비바리퍼블리카가 VCNC가 발행하는 신주를 인수하는 방식으로 VCNC 지분 60%를 가져가면서 쏘카는 VCNC 최대주주 자리를 토스에 넘기게 됐다. 이에 따라 VCNC가 쏘카 종속기업에서 관계기업으로 바뀌면서 쏘카의 흑자전환이 앞당겨질 수 있었다. 관계기업은 지분율 만큼만 실적을 반영하기 때문이다. 쏘카는 당분간 카셰어링 사업에만 집중할 계획이다.또한 쏘카는 내년 상장을 앞두고 수익성 개선을 위한 다양한 상품들을 선보이고 있다. 지난 6월 국내에 처음 선보인 모빌리티 멤버십 ‘패스포트’ 가입자는 4개월만에 9만명으로 늘어났다. 패스포트는 연 2만9000원을 내면 50% 상시 할인과 적립 등의 혜택을 주는 쏘카의 구독서비스다. 이 멤버십 가입자들의 이용 횟수와 시간이 특히 늘어난 것으로 나타났다. 이에 따라 올해 쏘카 이용객들의 이용 건당 평균 이용시간은 지난해보다 16%, 이동거리는 15% 각각 늘었다.월 단위 렌탈 서비스를 제공하는 ‘쏘카플랜’의 경우 지난 2019년 10월 출시 이후 지난해 말까지 4000건의 누적 계약을 기록했고, 올해 상반기에만 3000건의 신규 계약을 달성했다. 쏘카는 앞으로도 패스포트나 쏘카플랜 등 구독 상품을 통해 고객 락인 효과를 극대화한다는 전략이다.더불어 쏘카는 현대자동차의 신형 엔트리 SUV ‘캐스퍼’ 400대를 도입해 전국에서 카셰어링 시승 서비스를 내놓으며 완성차와의 협력도 확대하고 있다. 카셰어링 업체가 현대차와 정식 계약을 맺고 해당 서비스를 제공한 것은 이번이 처음이다. 이를 통해 카셰어링 업체 입장에선 신차를 우선적으로 선보일 수 있다는 장점이 있다. 쏘카는 앞으로도 이러한 시승 제휴를 더욱 확대할 계획이다.한편 쏘카는 코로나19 이후에도 이러한 성장세를 이어갈 수 있을 것으로 보고 있다. 쏘카 관계자는 “코로나19 이후 대중교통 이용을 꺼려하는 국내 여행객들이 과거 KTX를 타고 가서 쏘카를 빌렸다면, 이젠 서울에서부터 쏘카는 빌려 타고 가는 패턴을 보인다”면서 “코로나 이후 고객들이 장기적으로 카셰어링을 이용하는 비율이 늘며 쏘카 차량을 이용하는 평균 시간 등이 증가하고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>예탁결제원, 미국주식 소수단위 거래 지원 개시</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004628402?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>"시스템 개발 완료…각사 상황 따라 서비스 개시"예탁결제원.예탁결제원은 금융위원회 혁신금융서비스 지정을 계기로 미국 주식 소수단위 거래 지원 서비스를 개시한다고 15일 밝혔다.앞서 예탁결제원은 지난달 증권사 20곳과 함께 금융위에 해외주식 소수단위 거래를 위한 혁신금융서비스 지정을 신청했고 금융위는 지난 12일 정례회의를 통해 신규 지정을 최종 결정했다.혁신금융서비스를 신청한 증권사는 DB금융투자, KB증권, KTB투자증권, NH투자증권, 교보증권, 대신증권, 메리츠증권, 미래에셋증권, 삼성증권, 신영증권, 신한금융투자, 유안타증권, 유진투자증권, 키움증권, 하나금융투자, 하이투자증권, 한국투자증권, 한화투자증권 등이다. 카카오페이증권과 토스증권 등 빅테크 증권사도 포함됐다.예탁결제원은 지정을 즈음해 각 증권사의 해외주식 소수단위 거래를 지원하는 서비스를 구축했다고 설명했다.투자자들은 증권사 20곳의 전산시스템 구축 일정에 따라 원하는 증권사를 택해 해외주식 소수단위 거래가 가능하다. 증권사는 투자자의 소수단위 주문을 취합하고 온주화해 매매 후 결제를 지시하고, 자기·투자자 보유 소수단위 내역을 투자자계좌부에 기재한다. 예를 들어 투자자 A가 주문한 애플 2.7주에 증권사 자기재산 0.3주를 합한 총 3주를 예탁결제원에 결제 요청하면 예탁결제원이 3주를 결제·보관하는 식이다. 예탁결제원은 예탁자계좌부에 '소수단위 전용 예탁계좌'를 신설해 해당 주식에 대해 온주 단위로 결제·보관·권리행사를 하게 된다. 2019년 이미 이 내용으로 혁신금융서비스 지정을 받았던 신한금융투자와 한국투자증권의 경우 투자자들은 기존과 똑같은 경로로 거래를 할 수 있다.예탁결제원은 이번 서비스 개시로 한정된 해외주식 소수단위 거래 관련 현행 채널이 대폭 확대돼 투자자 편의가 증대될 것이라고 보고 있다. 시장 측면에서도 핀테크 기반 증권사의 신규 진출로 차별화된 서비스를 제공할 수 있어 건전한 경쟁 기반이 마련될 것이라는 전망이다.예탁결제원 관계자는 "현재 시스템 개발을 마친 상태이고 앞으로 각 증권사의 요청에 따라 서비스를 지원할 예정"이라면서 "각 증권사는 서비스 준비 단계에 따라 연내 또는 내년 상반기 중대고객 서비스를 개시할 것으로 예상된다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.11.15.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[금융포커스] “스톡옵션 막차 타자”… 토스로 이직 러시</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000773807?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>은행 등 금융업권은 물론, 개발자를 중심으로 한 IT(정보기술) 업권 사이에 토스 계열사로의 이직 러시 현상이 감지되고 있다. 토스가 경력직 인력 수급에 공격적으로 나선 가운데, 임직원 ‘스톡옵션(주식매수선택권) 부여’가 이번이 마지막이라는 소문이 돌면서 ‘막차라도 타야 한다’는 분위기가 형성됐기 때문이다.15일 현재 토스뱅크·토스증권 등 토스 계열사들은 경력직 채용을 진행 중이다. 채용 조건 중 눈에 띄는 것은 단연 주식매수선택권(스톡옵션)이다. 특히 지난달 초 문을 연 토스뱅크는 주요 개발자·디자이너·은행원 등을 채용하면서 전 직장 연봉 대비 최대 1.5배, 5000만~1억원 상당의 스톡옵션 등의 파격적인 조건을 내걸었다.여기에 일부 지원자들 사이에서 ‘인사팀으로부터 스톡옵션 부여 조건이 올해가 마지막이 될 수도 있다는 안내를 받았다’는 소문이 돌자, 토스 이직에 대한 관심도는 더욱 치솟고 있다.서울 강남구 토스 본사의 모습. /연합뉴스        스톡옵션은 회사가 임직원에게 일정 수량의 회사 주식을 일정 가격에 매수할 수 있는 권리를 미리 주는 것이다. 권리 행사 시기가 왔을 때 행사가보다 주가가 오르면 거액의 차익 실현을 할 수 있다. 사업 전망이 밝은 기업일수록 스톡옵션 매력은 높아지는 셈이다. 스톡옵션은 인재를 불러 모으고, 이직을 차단하는 역할을 한다. 다만, 상장을 아예 못 하거나 주식이 액면가 이하로 떨어지는 경우 스톡옵션은 독이 될 수도 있다.밝은 전망에 매력적인 보상 조건을 내건 토스는 실제로 경력직 인재들을 매섭게 빨아들이고 있다. 지난해 말 기준 780명에 불과했던 토스의 임직원 수는 최근 1300여명까지 불어났다. 지난 7월부터 진행한 토스뱅크 대규모 경력직 채용에는 시중은행을 비롯해 여타 인터넷전문은행 관계자들까지 대거 지원한 것으로 알려졌다. 지난 8월 있었던 경력 3년 이하 개발자 채용에는 5300명이 넘게 지원하면서 화제를 모았는데, 경쟁률이 무려 83대1에 이르렀다.이 때문에 IT 개발자들 사이에서는 ‘토양어선’이라는 우스갯소리도 돌고 있다고 한다. 2~5년차 젊은 개발자들이 대거 토스로 이직하는 현상을 일컫는데, 마치 원양어선을 타는 것처럼 격무에 시달리지만 그만큼 보상이 확실하다는 점을 빗대어 표현한 것이다.개발자 구인난에 시달리는 전통 금융권이나 경제적 여유가 없는 신생 스타트업들은 토스 이직 러시 현상에 무력감마저 느끼는 분위기다.한 은행권 관계자는 “최근 한 시중은행의 개발자 공모에 한명도 지원하지 않은 일이 있었다”면서 “개발자들이 전통 금융권에 오지 않으려 하는 분위기와 너무나 대조된다”고 말했다. 업력이 짧은 핀테크 업계 관계자는 “토스 같은 대형 업체가 스톡옵션 등 좋은 조건을 내세워 인재들을 쓸어가니, 개발자 구하기가 힘든 현실”이라고 토로했다.한편, 토스처럼 스톡옵션을 앞세운 핀테크사들의 경력직 쟁탈전은 더욱 치열해지고 있다. 핀테크 업체 뱅크샐러드도 지난 9월 파격적 혜택을 내걸며 개발자·기획자 대상 대규모 채용에 나섰다. 개발 직군의 최소 연봉은 6000만원, 리드급의 경우 최소 1억원 규모의 스톡옵션이 주어진 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.11.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>모임·회식 폭증에 "대리·택시 안잡힌다"…위드 코로나에 웃는 모빌리티</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004667762?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>서울역 택시 승차장 택시 행렬이 길게 늘어서 있다. / 사진=뉴시스'위드 코로나'(단계적 일상회복)로 모빌리티 시장이 다시 꿈틀댄다. 부쩍 늘어난 저녁 모임에 심야 시간 택시와 대리를 잡기 어려워졌다. 연말연시 대목을 앞두고 우티(UT), 타다 같은 모빌리티 후발주자들은 이를 기회로 삼아 '업계 1위' 카카오 공략에 열을 올린다. 8일 카카오모빌리티에 따르면 위드 코로나가 적용된 11월 첫째주 월요일부터 목요일의 새벽 0시부터 2시까지 카카오T 대리 호출은 전주 같은 기간·시간 비해 6.3%포인트가 증가했다. 새벽 2시이후의 대리 호출도 3.1%포인트가 늘었다. 식당과 술집의 24시간 영업과 유흥주점·클럽·노래방 영업이 자정까지 가능해지면서 밤 8시부터 자정까지의 대리 호출은 감소했다. 밤 8시부터 10시까지는 3.7%포인트, 밤 10시부터 자정까지는 6.0%포인트가 줄었다. 기존에는 식당 영업이 밤 9~10시까지라 이 시간대에 대리 수요가 몰렸다. 카카오 관계자는 "기존에는 10시 전후에 대리 호출이 집중돼있었으나, 위드 코로나 시행으로 호출시간이 분산돼 자정 이후 호출 비중도 증가한 것으로 보인다"고 말했다. 택시 역시 많은 수요가 몰리고 있다. 타다에 따르면 위드 코로나 시행이후 밤 10시부터 다음 날 새벽 2시까지 평균 택시 호출 건수는 전주와 비교해 약 85% 증가했다. 기존 오후 10시에 몰리던 택시 호출은 자정부터 새벽 2시까지 집중적으로 늘어난 것으로 나타났다. 택시 기사들은 위드 코로나 이전보다 매출이 약 10~20% 증가했다고 입을 모은다. 택시기사들이 모인 한 인터넷 커뮤니티에는 "위드 코로나 첫날 연말 수준의 역대급 콜을 받았다"는 글이 올라오기도 했다. 이처럼 심야 택시 수요가 몰리면서 소비자들은 택시를 잡기가 한층 어려워졌다. 카카오는 물론 우티와 타다를 모두 이용해도 30분 이상 대기하기가 일쑤다. 이에 서울개인택시운송사업조합은 서울시에 3부제(2일 운행 후 3일째 강제 휴무) 폐지를 통해 심야 수요공급 불균형을 해결해야 한다고 요청한 것으로 알려졌다. ━연말 대목 앞두고 칼 가는 우티, 타다…카카오는 상생 주력 ━1일 온라인 우티 출범 기자간담회에 참석한 김기년 우티 COO(왼쪽)와 톰 화이트 CEO / 사진제공=우티모빌리티 업계는 위드 코로나와 연말 연시 대목을 앞두고 전운이 감돈다. 업계 1위를 줄곧 고수하던 카카오모빌리티에 우티와 타다가 도전장을 내밀었다. 카카오의 경우 '플랫폼 갑질' 비판에 택시·대리 업계와 상생에 주력해 당분간 사업 확장이 쉽지 않은 상태다. 이에 SK텔레콤 티맵모빌리티와 글로벌 차량 공유기업 우버의 합작 법인인 우티는 할인 혜택을 앞세워 이용자 모으기에 나섰다. 한달간 20% 할인 등을 프로모션으로 점유율을 늘려가고 있다. 최근 심야에는 우티가 카카오보다 더 잘 잡힌다는 말이 나올 정도다. 기존 우티 앱과 우버 앱을 통합한 직후인 이달 1~2일 신규 설치 건수는 3만6642건으로 지난달 같은 기간에 비해 13.7배 증가했다. 내년까지 가맹택시를 2만대까지 늘리고 합승 서비스인 '우티 풀'(UT Pool), AI(인공지능)로 택시요금을 미리 정하는 '확정 요금제' 등을 도입해 모빌리티 1위 카카오를 따라잡겠다는 각오다. 최근 금융 플랫폼 토스가 인수한 VCNC의 타다도 공격적인 행보를 예고한다. 토스는 과거 호평받던 대형 택시 모델 재현에 나선다. 최대 4100만원 지급 조건으로 택시기사를 모집해 스타리아 9인승, 4세대 카니발 등 대형 차량 1000대를 운영한다는 계획이다. 한 모빌리티 업계 관계자는 "코로나와 규제 이슈로 수요가 묶여있던 모빌리티 판이 다시 흔들리는 모양새"라며 "후발주자의 공세가 매서운 가운데 카카오의 운신 폭이 제한돼 상황을 예측하기 어렵다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>주택담보대출 비교 플랫폼 '담비' 공식 론칭</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004626720?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>비대면으로 주담대 가능 빠르면 올해 말부터 본격 서비스 시작주택담보대출 비교 모바일 플랫폼 담비가 공식 론칭했다. (사진 = 베스트핀)나에게 가장 적합한 금리와 한도를 확인하고 대출까지 한 번에 실행할 수 있는 주택담보대출·전세자금대출 전문 비교 모바일 플랫폼이 업계 최초로 출시된다.핀테크 스타트업 베스트핀은 금감원에 정식 대출성 상품 판매대리 중개업을 등록 완료함으로써 온라인 주택담보대출 비교 앱(App) '담비'를 공식 런칭한다고 10일 밝혔다. 베스트핀은 기존 카카오페이, 토스 등 혁신 금융서비스 선정 기사업자 이외 최초 신규로 판매 라이센스를 획득했다.담비를 이용하면 복잡하고 번거로운 담보대출 과정을 한 번에 해결할 수 있다. 담비는 1대1 개인 맞춤형 담보대출 정보는 물론 대출 실행까지 원스톱으로 해결할 수 있도록 도와준다.주택담보대출은 신용대출과 달리 소유권 이전, 근저당 설정 등 담보 대상 부동산에 대한 확인이 필요하다. 담비는 금융기관과 사전에 협의해 온라인 플랫폼으로 신청할수 있을뿐 아니라, 복잡한 주담대의 대출신청을 돕기위해 금융회사 직원 또는 대출상담사를 고객에게 출장나갈수 있도록 안내한다.주택담보대출이 필요한 소비자는 담비 앱에서 △비대면 △대면 두 가지 솔루션을 선택할 수 있다. 먼저, 비대면 대출의 경우 앱 내에서 확인할 수 있는 여러 대출상품을 비교해보고 나에게 맞는 조건의 상품을 선택하면 해당 금융기관의 비대면 앱 연동을 통해 대출 절차를 완료하게 된다.비대면 대출신청이 어려운 경우엔 담비 플랫폼 내에서 금리비교와 대출한도를 조회한 후 상품을 선택해 직접 대면 상담을 신청할 수 있다. 대면신청을 하면 금융기관의 대출전문직원이나 소속 대출상담사가 고객이 원하는 곳으로 직접 방문한다. 자세한 설명을 추가로 제공하고, 오프라인에서 서류 작성 및 제출 절차 등을 도와줘 대출 신청을 마칠 수 있다.또 이용자들이 주택담보대출·전월세자금대출 등 폭넓은 담보대출 상품 선택권을 누릴 수 있도록 SC제일은행과 최종계약을 체결했다. 이후 BNK부산은행, DGB대구은행 등이 입점 예정이며 앞으로 주요 시중은행 및 지방은행, 주택담보대출을 주로 취급하는 주요 보험회사 등과의 사업 제휴를 늘려 상품 라인업을 꾸준히 확대해 나갈 예정이다.이용 가능한 담보대출 상품은 주택담보대출, 전세자금대출, 신용대출 등이 있다. 최근 대출 총량규제로 담보대출, 전세자금대출이 어려워진 실수요자들에게 주거래은행 이외 지역적인 경계없이 또 다른 가장 적합한 은행을 쉽게 찾을 수 있는 가이드가 될 수 있을 것으로 기대된다.추가로 다양한 재테크 정보도 만나볼 수 있다. △시세 탭에서는 전국 아파트와 오피스텔 시세 정보를, △뉴스 탭에서는 부동산 및 금융 정책과 관련된 최신 주요 뉴스들을 발 빠르게 제공한다.주은영 베스트핀 대표는 "주택담보대출은 고난이도 상품으로 대출 영역 중 가장 소비자 친화 속도가 늦고 이용자 환경에서의 어려움이 많았다"며 "앞으로 담비를 통해 주택담보대출, 전세자금대출 수요자들이 더 쉽게, 더 편리하게 서비스를 받을 수 있도록 하는 것과 동시에 시장의 혁신 주자로 거듭날 수 있도록 최선을 다할 것"이라고 밝혔다.주택담보대출 서비스의 경우 빠르면 올해 말부터 본격 제공될 예정이다. 담비 앱은 안드로이드 앱 마켓인 구글플레이에서 다운로드 가능하며, 애플 앱스토어는 이달 중 공개를 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.11.10.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>3주 앞둔 마이데이터 '빨간불'</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004626912?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>네이버·토스, 시범 서비스 불참은행들도 서비스 범위 확정 못해다음달 금융권 마이데이터(본인신용정보관리) 사업 시행을 앞두고 네이버 카카오 토스 등 빅테크(대형 정보기술기업)의 초기 참여가 사실상 어려울 것으로 나타났다. 금융소비자보호법 이슈가 불거지면서 은행 등 주요 금융회사는 서비스 범위를 확정하지 못하고 있다. 시범 서비스 시행이 3주 앞으로 다가왔지만 표류하는 게 아니냐는 우려가 나온다. 10일 금융권에 따르면 다음달 1일 문을 여는 마이데이터 ‘오픈 베타 서비스(대고객 시범 서비스)’ 일정에 맞춰 서비스 출시가 가능한 핀테크는 뱅크샐러드와 핀크 두 곳에 불과하다. 이달 초부터 시작된 ‘비공개 베타 서비스’에 참여 중인 곳은 국민·신한·우리·농협은행과 키움증권, 뱅크샐러드, 핀크 정도다. 사업 본허가를 받은 45곳 중 15% 수준이다. 네이버와 토스는 다음달 1일 베타 서비스에 참여하기 어렵다는 의견을 전달했고, 카카오페이도 불투명한 상황이다.은행 등도 서비스 범위를 결정하지 못하고 있다. 한 로펌 변호사는 “빅테크 플랫폼의 금융 상품 비교·판매 행위가 금융소비자보호법 위반에 해당한다는 금융당국의 판단이 나온 뒤 금융사들이 사업 구상을 재검토하고 있다”고 전했다. 소형 핀테크의 서비스 참여에도 빨간불이 켜졌다. 마이데이터 관련 전산망을 구축하지 못하면 서비스가 전면 시행되는 내년 1월부터는 스크래핑(금융 정보 자동 수집) 방식을 사용할 수 없다. 이 경우 기존에 운영하던 자산관리 서비스조차 문을 닫아야 한다는 게 업계 얘기다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
